--- a/reports/xlsx/benchmark_constraint_unlimited.xlsx
+++ b/reports/xlsx/benchmark_constraint_unlimited.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COURSE_COUNT_CONSTRAINT: [4, 4]</t>
+          <t>COURSE_COUNT_CONSTRAINT: [1, 13]</t>
         </is>
       </c>
     </row>
@@ -864,177 +864,2313 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[1.0733858159801457, 1.032385175989475, 1.0525829620019067, 1.0590090559853707, 1.0430016900063492, 1.032704315992305, 1.043292359012412, 1.0740742569905706, 1.043711338978028, 1.0526494639925659, 1.0646620240004268, 1.0336081280256622, 1.0336464679858182, 1.0423273750056978, 1.070343380997656, 1.0313638350053225, 1.051207313023042, 1.057208547979826, 1.046733855997445, 1.0327357829955872, 1.0418868089909665, 1.0705985930108, 1.048564530996373, 1.0411801029986236, 1.0702781250001863, 1.0716347630077507, 1.0582402480067685, 1.0432458680006675, 1.0666826470114756, 1.0389093910052907, 1.0586198490054812, 1.0695663210062776, 1.0446238470030949, 1.0279260120005347, 1.045219696010463, 1.06487963499967, 1.0378438560001086, 1.0438955920108128, 1.0797729659825563, 1.045986676006578, 1.0429526339867152, 1.0429770649934653, 1.08524576399941, 1.0480852519976906, 1.0547136170207523, 1.0669787529914174, 1.059998511977028, 1.0957965480047278, 1.1708104720164556, 1.0620999590028077]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.055396944999811</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.049885922009707</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02272492132362931</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5269746.950947062</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6764514</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2240857.012233157</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2856</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11585675</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11585787</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.008590356999775395, 0.008389788010390475, 0.008317027997691184, 0.008300457004224882, 0.008202997996704653, 0.008186949009541422, 0.008224846998928115, 0.00818403801531531, 0.008196398994186893, 0.008195078000426292, 0.008199697971576825, 0.008194498979719356, 0.008126539003569633, 0.008173588023055345, 0.008132688992191106, 0.008106358000077307, 0.008339557010913268, 0.008155209012329578, 0.008109407994197682, 0.00808344900724478, 0.008039689011638984, 0.00814897901727818, 0.00809218900394626, 0.008103649015538394, 0.008051848999457434, 0.0080948079994414, 0.008106527995551005, 0.00804051899467595, 0.008056388993281871, 0.00809684899286367, 0.013752583996392787, 0.008546758006559685, 0.008056917984504253, 0.008033949008677155, 0.007957639987580478, 0.008151557995006442, 0.008000558998901397, 0.007991390011738986, 0.00794217799557373, 0.007927278988063335, 0.00800155001343228, 0.007932637992780656, 0.007952568994369358, 0.007923519995529205, 0.007958178990520537, 0.007969469006638974, 0.008026609983062372, 0.007993269013240933, 0.0080015079875011, 0.007975539017934352]</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.008226720900274813</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.008100249004201032</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0008105851766274851</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2943.72</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2904</v>
+      </c>
+      <c r="X12" t="n">
+        <v>127.0293297323295</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2856</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3352</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>64449</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>[0.007810339011484757, 0.00774967999313958, 0.007744739996269345, 0.007734608981991187, 0.007691999984672293, 0.007878979988163337, 0.00765048002358526, 0.007655569992493838, 0.0076745089900214225, 0.007783450011629611, 0.007753160025458783, 0.007672478997847065, 0.007762549008475617, 0.007682110008317977, 0.007711639016633853, 0.007686461001867428, 0.007700279995333403, 0.007766219001496211, 0.007741089997580275, 0.0077737499959766865, 0.0077474490099120885, 0.007721369998762384, 0.0077125499956309795, 0.007878837990574539, 0.007789690018398687, 0.00786509900353849, 0.0077357089903671294, 0.007679839996853843, 0.007717529020737857, 0.007657369016669691, 0.007719020999502391, 0.007698649016674608, 0.007718059001490474, 0.007763419998809695, 0.008033707999857143, 0.007662168995011598, 0.007636271009687334, 0.007757478975690901, 0.007721389003563672, 0.007762670022202656, 0.007735179999144748, 0.0076667800021823496, 0.007699998997850344, 0.007749748998321593, 0.007813520001946017, 0.0078012190060690045, 0.007899118994828314, 0.0076936400146223605, 0.007756839011562988, 0.007654429995454848]</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.007741456942167133</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.007734894490567967</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.448444491472328e-05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2923.56</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3305</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>26329</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>[0.004725417995359749, 0.00468785798875615, 0.004822536982828751, 0.004679777019191533, 0.00464847800321877, 0.004644928005291149, 0.004683178005507216, 0.004654566990211606, 0.004698617005487904, 0.004716508003184572, 0.004744906997075304, 0.004707586980657652, 0.004745357990032062, 0.004723837977508083, 0.004694866016507149, 0.004735647002235055, 0.004692988004535437, 0.004711217014119029, 0.004741717013530433, 0.0047101679956540465, 0.0046645480033475906, 0.004626959009328857, 0.004680907994043082, 0.0046646479750052094, 0.004713118018116802, 0.004690126981586218, 0.004656878008972853, 0.0046786279999651015, 0.004684768005972728, 0.004677757999161258, 0.0046609579876530915, 0.004730397980893031, 0.011054280999815091, 0.01244403698365204, 0.011676617985358462, 0.01011913298862055, 0.004967776010744274, 0.004932516982080415, 0.004941866995068267, 0.005034775997046381, 0.005018416995881125, 0.0051206960051786155, 0.005001587007427588, 0.005063596006948501, 0.004820907983230427, 0.004933485994115472, 0.004930716997478157, 0.004875166981946677, 0.004935797012876719, 0.005021457007387653]</t>
+        </is>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.005303853757795878</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.004724627986433916</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.001814407167418912</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2923.56</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3305</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>10289</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4075</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[2.5256885910057463, 2.478296318993671, 2.510115516022779, 2.4929562940087635, 2.512672064010985, 2.5027524319884833, 2.552706602989929, 2.511570053989999, 2.5162501849990804, 2.5497259700205177, 2.5352574099961203, 2.5452427660056856, 2.5733361119928304, 2.5436040440108627, 2.4974565079901367, 2.522791374998633, 2.527749353001127, 2.543265134008834, 2.6360348140005954, 2.5218926039815415, 2.5348168430209626, 2.547085222991882, 2.5137345630209893, 2.5425200810132083, 2.497219688986661, 2.5194947840063833, 2.5309086560155265, 2.6649825279891957, 2.89661485599936, 2.5216853379970416, 2.5637538300070446, 2.6665987149754073, 2.534689040010562, 2.5507593900256325, 2.550277982983971, 2.534024528984446, 2.487971638998715, 2.551421617012238, 2.536363008985063, 2.565120975021273, 2.5119105460180435, 2.5293983930023387, 2.5039719400228932, 2.544629418000113, 2.535173632000806, 2.513996210996993, 2.492760006978642, 2.5184487129736226, 2.544547306984896, 2.51040541700786]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.542292980400962</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.532466592499986</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06336127280624934</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6303020.014032947</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6809787</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1555532.945542317</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2857</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11451349</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11451521</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4075</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.015015440003480762, 0.01482805100386031, 0.014756332006072626, 0.014943151007173583, 0.014703902008477598, 0.0146757620095741, 0.014655332022812217, 0.014717382990056649, 0.014543632976710796, 0.014579712005797774, 0.014566472003934905, 0.014438342011999339, 0.014518942014547065, 0.014554232999216765, 0.014533621986629441, 0.014607162011088803, 0.014571391977369785, 0.014610732003347948, 0.014731411007232964, 0.014664471993455663, 0.014667982002720237, 0.014632151986006647, 0.014537242997903377, 0.014507941988995299, 0.014420102001167834, 0.01453434198629111, 0.014369252981850877, 0.014530893007759005, 0.014410542993573472, 0.014471292000962421, 0.014556462003383785, 0.014452792995143682, 0.01444699298008345, 0.014532492001308128, 0.01446989199030213, 0.014494552975520492, 0.014268302998971194, 0.014318642992293462, 0.014494631992420182, 0.01467485202010721, 0.014516291994368657, 0.014463181985775009, 0.014415262994589284, 0.014542791992425919, 0.01455716200871393, 0.014648871001554653, 0.014598552021197975, 0.014565242017852142, 0.014391072007128969, 0.01448926201555878]</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01456389053957537</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.01454321248456836</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0001411661712057214</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2945.64</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2905</v>
+      </c>
+      <c r="X13" t="n">
+        <v>125.2442120541354</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2857</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3353</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>64722</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4075</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>[0.01808714200160466, 0.018251261994009838, 0.0180749730207026, 0.01806126200244762, 0.0182247819902841, 0.018090163997840136, 0.01826692299800925, 0.018081793008605018, 0.01837833199533634, 0.01812765299109742, 0.018253381014801562, 0.018329652986722067, 0.018264662998262793, 0.018288141989614815, 0.018435922014759853, 0.018145173991797492, 0.018050221988232806, 0.0179709340154659, 0.01809321402106434, 0.01797748199896887, 0.018122224020771682, 0.018107933981809765, 0.018099383014487103, 0.018035163986496627, 0.018009454011917114, 0.0180324719985947, 0.017889545008074492, 0.01798809299361892, 0.018010872998274863, 0.01795848400797695, 0.017934594012331218, 0.01818234199890867, 0.01818575299694203, 0.018298762995982543, 0.018130251992261037, 0.018209582020062953, 0.018097384017892182, 0.018188802001532167, 0.01814790299977176, 0.018142562999855727, 0.01832444200408645, 0.01823817301192321, 0.018067583994707093, 0.018254101974889636, 0.018181523017119616, 0.018036623019725084, 0.018084611976519227, 0.01812954299384728, 0.018292761989869177, 0.018133743025828153]</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.0181393548817141</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.01812859799247235</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0001203939694963287</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6830.52</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6617</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3930.209700833437</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>11193</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>25529</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4075</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>[0.007301620993530378, 0.0074017010047100484, 0.0072896409837994725, 0.007392740983050317, 0.007341921009356156, 0.007278120989212766, 0.00731376200565137, 0.007305870996788144, 0.007317591022001579, 0.007243610976729542, 0.007286191015737131, 0.007328312000026926, 0.007217321981443092, 0.007283551007276401, 0.007278170989593491, 0.007276410993654281, 0.007304891012609005, 0.007313421025173739, 0.007304102007765323, 0.007204101013485342, 0.007260971004143357, 0.00727439098409377, 0.007281780999619514, 0.007270750997122377, 0.007239791011670604, 0.007254210999235511, 0.00726709101581946, 0.007366100006038323, 0.007269411027664319, 0.007255821023136377, 0.007208131020888686, 0.007258550991537049, 0.007272561022546142, 0.007262650993652642, 0.007300691009731963, 0.007315980998100713, 0.007334699999773875, 0.007313331007026136, 0.007278561010025442, 0.007273600989719853, 0.007250752008985728, 0.007287701009772718, 0.007253500982187688, 0.00732388100004755, 0.007257200981257483, 0.0072957710071932524, 0.007290492008905858, 0.007296471012523398, 0.007312460977118462, 0.007282862003194168]</t>
+        </is>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.007287864502286539</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.007283206505235285</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>3.949345820651676e-05</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2923.56</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>3305</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>10289</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5950</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[2.5893229260109365, 2.6394108179956675, 2.584029574994929, 2.6122875430155545, 2.640316093020374, 2.6051472249964718, 2.5950965819938574, 2.5997691939992364, 2.6253404580056667, 2.613784940011101, 2.609378584980732, 2.5836039230052847, 2.629486635007197, 2.594876396993641, 2.60373203700874, 2.629807080986211, 2.5905399530020077, 2.576361262006685, 2.5765580529987346, 2.624391402991023, 2.6085355439863633, 2.61990341800265, 2.612398917990504, 2.5886751120269764, 2.597683619998861, 2.615600576013094, 2.7693383709993213, 2.578364024986513, 2.606901013001334, 2.631814051012043, 2.693610913993325, 2.593610922980588, 2.730368672986515, 2.625131093984237, 2.6147240030113608, 2.590264117985498, 2.638539673993364, 2.838818953023292, 2.638339288998395, 2.633617183979368, 2.6035158520098776, 2.5945606069872156, 2.5927782439976, 2.621499971981393, 2.6216931129747536, 2.5959495110146236, 2.6279622089932673, 2.6150091140007135, 2.6123510530160274, 2.59635185499792]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.620623033719021</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.612319298015791</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04706612678060097</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6317848.342676234</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6776427</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1532882.884104914</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11331301</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11451697</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4825</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.020352566993096843, 0.01980141902458854, 0.019756369991227984, 0.020114918996114284, 0.01988656900357455, 0.02594923402648419, 0.01999743899796158, 0.01979846999165602, 0.019911938987206668, 0.019892890006303787, 0.01971002999925986, 0.019946729007642716, 0.019925769011024386, 0.0198783679807093, 0.01984372900915332, 0.01977836000151001, 0.019930629001464695, 0.019669378991238773, 0.020162119006272405, 0.019836618972476572, 0.01984043899574317, 0.019634801021311432, 0.019887488975655288, 0.01974198900279589, 0.019866968999849632, 0.019826408999506384, 0.01979238897911273, 0.019694059010362253, 0.019638969999505207, 0.019821908994344994, 0.01971593001508154, 0.019581689994083717, 0.019641958991996944, 0.01956724899355322, 0.019595530000515282, 0.019686090003233403, 0.019686098996317014, 0.019641299004433677, 0.02002085800631903, 0.01989686899469234, 0.01973005902254954, 0.019793929008301347, 0.019624609994934872, 0.01949859000160359, 0.01954216999001801, 0.01954598000156693, 0.019515260006301105, 0.019685719977132976, 0.019782389019383118, 0.01947472000028938]</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0.01990231939998921</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.01978738899924792</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0008899646961751771</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6096.94</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5983.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3173.509343285315</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9934</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>64722</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5575</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>[0.031021391012473032, 0.03087023098487407, 0.031027700984850526, 0.031037859997013584, 0.031026890996145085, 0.031107830989640206, 0.030897361022653058, 0.030864531989209354, 0.031156810000538826, 0.031242869998095557, 0.031036121014039963, 0.03136870899470523, 0.03124804000253789, 0.03096516101504676, 0.031235050002578646, 0.031140570004936308, 0.031039909983519465, 0.03110938100144267, 0.031116230005864054, 0.031543580000288785, 0.031196050986181945, 0.03116425999905914, 0.03137873002560809, 0.031002680014353245, 0.031407058995682746, 0.031024340976728126, 0.03126798997982405, 0.030988640995929018, 0.031163630017545074, 0.03173034900100902, 0.03159133900771849, 0.03134982998017222, 0.03098316097748466, 0.030995730019640177, 0.0311263500188943, 0.03099874098552391, 0.031008589983684942, 0.030984930985141546, 0.030758022010559216, 0.030885760992532596, 0.031102630018722266, 0.031117199978325516, 0.031293080013711005, 0.030895931005943567, 0.03100632000132464, 0.030758861015783623, 0.030766672018216923, 0.03145110001787543, 0.031032019993290305, 0.031032030994538218]</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.03111036522022914</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03103888499026652</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.0002089582704302422</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8327.453333333333</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10657</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3964.710879354005</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16729</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>25529</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5575</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>[0.009182137000607327, 0.009075567009858787, 0.009022185986395925, 0.009112396975979209, 0.0089841170120053, 0.008971336006652564, 0.008941748004872352, 0.008970388007583097, 0.009039056021720171, 0.009090687002753839, 0.00903234799625352, 0.009023685997817665, 0.008996616990771145, 0.008973896998213604, 0.009094356006244197, 0.009037037001689896, 0.009048327017808333, 0.009000056015793234, 0.009019427991006523, 0.009027717023855075, 0.008949176000896841, 0.00895679698442109, 0.009097956994082779, 0.009015756018925458, 0.009052176988916472, 0.008966517983935773, 0.009064076992217451, 0.00897345700650476, 0.00901074701687321, 0.009056897019036114, 0.009020396013511345, 0.008990478003397584, 0.009118746995227411, 0.009005757019622251, 0.009004146995721385, 0.009167656011413783, 0.00916466600028798, 0.008922406996134669, 0.008999757003039122, 0.00914018601179123, 0.009061776974704117, 0.009056296985363588, 0.009054766007466242, 0.009019938006531447, 0.00905459700152278, 0.009061755990842357, 0.008991216978756711, 0.009057066985405982, 0.009036736009875312, 0.008961776999058202]</t>
+        </is>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.009033535441267304</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.00902570151083637</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5.926484327919364e-05</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2923.56</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3305</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>10289</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.9369747899159664</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.9369747899159664</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.8109243697478992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>7450</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[8.4318554000929]</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8.4318554000929</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8.4318554000929</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6721529.873799725</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7169693</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1428556.396695764</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3475</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10882762</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12279311</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[2.644655796000734, 2.5935542680090293, 2.6008512799744494, 2.595777164999163, 2.639668024989078, 2.592367506993469, 2.5933428260032088, 2.6139466949971393, 2.573257490003016, 2.6030144249962177, 2.586402449000161, 2.603523117984878, 2.5814422050025314, 2.6005736980005167, 2.61637829898973, 2.5897553179820534, 2.5896141800039914, 2.5957530150189996, 2.623231217992725, 2.602085162012372, 2.6085355969844386, 2.6168339069990907, 2.571813443006249, 2.5930745899968315, 2.589741011004662, 2.598578269011341, 2.601177364005707, 2.6077407490229234, 2.6182827620068565, 2.6099087260081433, 2.60589280698332, 2.598447425989434, 2.60825926499092, 2.6230674469843507, 2.6254007919924334, 2.691068008018192, 2.713050464022672, 2.689950283005601, 2.6281282019917853, 2.6254711000074167, 2.627426885010209, 2.6459740200079978, 2.6174702440039255, 2.5830085130000953, 2.6053430669999216, 2.5968073690019082, 2.6874867900041863, 2.5952894359943457, 2.6062050700129475, 2.5844670369988307]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.612261895640404</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.6044330924924</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02991763258861157</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6324563.412237644</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6776615</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1526291.122307151</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2857</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10120498</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11451569</v>
+      </c>
+      <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P15" t="n">
         <v>6225</v>
       </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.07495590019971132]</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>0.07495590019971132</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.07495590019971132</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>7669</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9724</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3653.294266822753</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3451</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9832</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>64516</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.02272429200820625, 0.02268556397757493, 0.0223714429885149, 0.022377763001713902, 0.022615603025769815, 0.022179663996212184, 0.022204423003131524, 0.0222170950146392, 0.022175532998517156, 0.022505913017084822, 0.022488043003249913, 0.0229733629967086, 0.022304393001832068, 0.022410133999073878, 0.022172133991261944, 0.022100964008131996, 0.022018432995537296, 0.021998404001351446, 0.022196964011527598, 0.022278593998635188, 0.022238243982428685, 0.022265412990236655, 0.022402172995498404, 0.022298153024166822, 0.02205061400309205, 0.022068583988584578, 0.02214215398998931, 0.022386133001418784, 0.022255844000028446, 0.02218419298878871, 0.02198326398502104, 0.02215972400153987, 0.022037363989511505, 0.021991694025928155, 0.02202576500712894, 0.022023993980837986, 0.022199164028279483, 0.02197265499853529, 0.022386692988220602, 0.022544802021002397, 0.02215964501374401, 0.022246573003940284, 0.022166693990584463, 0.021975666022626683, 0.022114663996035233, 0.022063373995479196, 0.022054304979974404, 0.02206606400432065, 0.02186271399841644, 0.02190781501121819]</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0.02222465714090504</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.02218192849250045</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0002248470314699183</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6220.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5959.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3297.848107019136</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2857</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10182</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>64722</v>
+      </c>
+      <c r="AB15" t="n">
         <v>4</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC15" t="n">
         <v>6725</v>
       </c>
-      <c r="AD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>[0.13730890024453402]</t>
-        </is>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.137308900244534</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.137308900244534</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10396.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11967</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>3140.746362616013</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3427</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>12555</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>27471</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>[0.04368343000533059, 0.04332252099993639, 0.048909926001215354, 0.042980872007319704, 0.042960210994351655, 0.04342904998338781, 0.04298163199564442, 0.04311159101780504, 0.04344990901881829, 0.04316058999393135, 0.043321010016370565, 0.04341481998562813, 0.04348028000094928, 0.04331652101245709, 0.04331880999961868, 0.04361944898846559, 0.043661889008944854, 0.0436382099869661, 0.04337748000398278, 0.04374764897511341, 0.043172890989808366, 0.04332514002453536, 0.04324447098770179, 0.04343226001947187, 0.04362961900187656, 0.04364563900162466, 0.04337922000559047, 0.043423600000096485, 0.043248310015769675, 0.043225281027844176, 0.043235130986431614, 0.043080020986963063, 0.043172960984520614, 0.044008549011778086, 0.04361978900851682, 0.04360343000735156, 0.04349256999557838, 0.04338217098847963, 0.04327044100500643, 0.04348043000209145, 0.043549478985369205, 0.04315616999519989, 0.043540599988773465, 0.04312529100570828, 0.043561300000874326, 0.04342520999489352, 0.043513120006537065, 0.044180359021993354, 0.04351970998686738, 0.04391324901371263]</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.04352884524094407</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.043424404997495</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.0008163045951232996</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9050.006622516556</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11433</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>4587.011023163397</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>19321</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>26713</v>
+      </c>
+      <c r="AO15" t="n">
         <v>4</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP15" t="n">
         <v>6725</v>
       </c>
-      <c r="AQ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>[0.03687499929219484]</t>
-        </is>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.03687499929219484</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.03687499929219484</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>6095</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6095</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3037.730731977408</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>3947</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>8243</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>10891</v>
-      </c>
-      <c r="BB12" t="n">
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>[0.010289213998476043, 0.010066085000289604, 0.010022694972576573, 0.01005866500781849, 0.009991833998356014, 0.010014636005507782, 0.010058134008431807, 0.009945584984961897, 0.009947886021109298, 0.009978073998354375, 0.009993524989113212, 0.010012294980697334, 0.010023465001722798, 0.009985495009459555, 0.009971254999982193, 0.010020775021985173, 0.009978273999877274, 0.00999004501500167, 0.010022964008385316, 0.01001411399920471, 0.00997312500840053, 0.01006464401143603, 0.010018755012424663, 0.010035054001491517, 0.010126444016350433, 0.010248174017760903, 0.010005874006310478, 0.009983934985939413, 0.010091295000165701, 0.010053413978312165, 0.010094924975419417, 0.01032128298538737, 0.01008195400936529, 0.010165464016608894, 0.010123384010512382, 0.010130614013178274, 0.010009234014432877, 0.010086914990097284, 0.010015294014010578, 0.009960955008864403, 0.009966283978428692, 0.010136143973795697, 0.00995309598511085, 0.010014703992055729, 0.010021255002357066, 0.009982524992665276, 0.009919224976329133, 0.009950743988156319, 0.009953995991963893, 0.009983883996028453]</t>
+        </is>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.01003715215949342</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.01001499900303315</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.499755862901216e-05</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2923.56</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3305</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>10289</v>
+      </c>
+      <c r="BB15" t="n">
         <v>0.9026845637583892</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC15" t="n">
         <v>0.9026845637583892</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD15" t="n">
         <v>0.8355704697986577</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8950</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[2.632204327004729, 2.6131195070047397, 2.602840973995626, 2.685256347001996, 2.630770596995717, 2.6013191230013035, 2.640613173978636, 2.6196491270093247, 2.626281681994442, 2.6207862670125905, 2.6633480910095386, 2.6383137549855746, 2.6586756850010715, 2.660717200982617, 2.6399854850023985, 2.6348575789888855, 2.624900905007962, 2.6548759899742436, 2.632206288020825, 2.632625258003827, 2.6367863490013406, 2.59545153498766, 2.654635926010087, 2.6348715569765773, 2.662397237989353, 2.641265702986857, 2.6498566629888956, 2.710005013999762, 2.6368262780015357, 2.6668957530055195, 2.6288713200192433, 2.6263106370170135, 2.6226411380048376, 2.6130735829938203, 2.648439804004738, 2.641057135013398, 2.6186961620114744, 2.6271784820128232, 2.6370803879981395, 2.6760706799977925, 2.645330767001724, 2.6798841440177057, 2.646360057988204, 2.640179365000222, 2.618760889978148, 2.6359231370151974, 2.6318076780007686, 2.614201882999623, 2.6553350310132373, 2.6312362930038944]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.638815559060313</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.636354743008269</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02194239934501004</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6330703.841148886</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6850075</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1519561.41885988</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2857</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10686101</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11451569</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6225</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.02781963101006113, 0.027644941001199186, 0.027396090008551255, 0.027795999980298802, 0.02761259098770097, 0.02761187101714313, 0.02760975100682117, 0.027487590006785467, 0.027473722002469003, 0.027472780988318846, 0.027684261003741995, 0.027672280004480854, 0.027506740007083863, 0.02745107200462371, 0.02770755998790264, 0.02767815100378357, 0.027770190994488075, 0.027616429986665025, 0.028011779999360442, 0.027655971003696322, 0.027505810983711854, 0.027579331013839692, 0.027390460018068552, 0.027651030977722257, 0.027309711003908888, 0.027402890991652384, 0.027435739990323782, 0.027877509011887014, 0.03040277399122715, 0.03004572499776259, 0.027568540011998266, 0.027457000978756696, 0.027430260000983253, 0.02762065001297742, 0.027234010980464518, 0.02730912101105787, 0.02746953201130964, 0.027260420989478007, 0.027098762016976252, 0.02731372299604118, 0.027218570990953594, 0.027350791991921142, 0.027201650984352455, 0.027194523019716144, 0.02725370100233704, 0.02721868100343272, 0.02707304200157523, 0.027106631983770058, 0.027146212989464402, 0.027171082008862868]</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0.02757954591943417</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.02747325149539392</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.000588653036622305</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6304.46</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6379.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3381.069971162825</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2857</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10334</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>64722</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>[0.058534562995191664, 0.05869740300113335, 0.0582883530005347, 0.05905614298535511, 0.05837463299394585, 0.058788742986507714, 0.05838272301480174, 0.05805934499949217, 0.05924544099252671, 0.05791103499359451, 0.058323884004494175, 0.05841608298942447, 0.058656743000028655, 0.05865856300806627, 0.05848126398632303, 0.05874137199134566, 0.05843918398022652, 0.05883897200692445, 0.05859285400947556, 0.05849826300982386, 0.059037441998953, 0.058525934000499547, 0.05842224298976362, 0.05870648298878223, 0.05921033999766223, 0.05884477298241109, 0.058374653017381206, 0.058483052998781204, 0.05900314301834442, 0.059545380994677544, 0.060566967993509024, 0.05799027398461476, 0.05781137500889599, 0.059855538012925535, 0.05861198200727813, 0.058311333996243775, 0.05899414198938757, 0.05863646400393918, 0.05814309298875742, 0.05866719302139245, 0.058060834009665996, 0.05867820300045423, 0.05843728399486281, 0.05878088198369369, 0.058266053994884714, 0.05829509298200719, 0.05815762499696575, 0.05891235198942013, 0.05820294498698786, 0.05872141200234182]</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.058624801117694</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.05856370850233361</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0004857378225703812</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9387.08</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10989</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3893.246268364057</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>19577</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>26329</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>[0.011344471015036106, 0.0112763209908735, 0.011173051985679194, 0.011186141986399889, 0.011208030977286398, 0.011199172004126012, 0.011234363017138094, 0.01121049202629365, 0.011139650974655524, 0.011232291988562793, 0.011120782990474254, 0.011135261011077091, 0.011251251009525731, 0.011249372008023784, 0.0111170920135919, 0.011177820997545496, 0.011072413006331772, 0.01116327298223041, 0.011076302995206788, 0.011188281991053373, 0.011139812006149441, 0.011229002004256472, 0.01118524101912044, 0.011176910978974774, 0.01106304198037833, 0.011237032013013959, 0.011157861998071894, 0.011148632009280846, 0.011088742001447827, 0.011134771979413927, 0.011039231001632288, 0.011235012003453448, 0.011121652991278097, 0.011104951991001144, 0.011131212988402694, 0.011156221997225657, 0.011113582004327327, 0.011241900996537879, 0.011077653005486354, 0.011138603003928438, 0.011129332007840276, 0.01115192100405693, 0.01105530298082158, 0.011048343003494665, 0.011023182014469057, 0.01098469301359728, 0.011026141990441829, 0.0111116609768942, 0.011067861982155591, 0.011128951999126002]</t>
+        </is>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.01114808597834781</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.01113973149040248</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.388816027852242e-05</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2923.6</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>112.8813717210801</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2857</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>3305</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>10289</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.8631284916201117</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.8631284916201117</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.6955307262569832</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9950</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[2.614938657003222, 2.6283880939881783, 2.6701594699989073, 2.614805190009065, 2.6688500140153337, 2.6701586519775447, 2.6212431150197517, 2.6276147110038437, 2.641157537000254, 2.6961950910044834, 2.6481530420132913, 2.6420110879989807, 2.6586079169937875, 2.6199810550024267, 2.689191612007562, 2.6318788760108873, 2.657903843006352, 2.668097977992147, 2.619593701005215, 2.636639689008007, 2.62731889198767, 2.625379109987989, 2.646495496999705, 2.6740629989944864, 2.7070648660010193, 2.6374487920256797, 2.64403535699239, 2.643059797992464, 2.6557658189849462, 2.6396138790005352, 2.657224395981757, 2.6581810540228616, 2.6242139200039674, 2.658131566015072, 2.6488542910083197, 2.639733032992808, 2.6668347470113076, 2.7206105240038596, 2.6393462069972884, 2.6667112599825487, 2.686210191983264, 2.642397991003236, 2.6653481960238423, 2.726794973015785, 2.6809432090085465, 2.625820355984615, 2.6356675830029417, 2.6778375870198943, 2.6614167889929377, 2.7063022179936524]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.654287888661492</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.648503666510805</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02726227964532193</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6334637.652058212</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6851164</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1518421.033552687</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11397022</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11451386</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6675</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.02813752999645658, 0.02814338100142777, 0.028103120013838634, 0.02786714001558721, 0.02798879100009799, 0.027831831015646458, 0.027987598994513974, 0.02790077999816276, 0.027726211992558092, 0.0279225810081698, 0.02777350999531336, 0.02795414999127388, 0.02796219999436289, 0.02784928900655359, 0.028168038988951594, 0.02800173099967651, 0.028141710005002096, 0.027989041002001613, 0.028208909003296867, 0.028022421000059694, 0.028065310994861647, 0.02803696002229117, 0.02809689997229725, 0.028186718991491944, 0.028072240005712956, 0.02889399800915271, 0.029389777017058805, 0.028640648000873625, 0.02851592900697142, 0.027841629984322935, 0.0276741010020487, 0.028149119985755533, 0.028500088985310867, 0.028844878019299358, 0.02867763800895773, 0.02869962900876999, 0.028782457986380905, 0.028710938000585884, 0.028591898997547105, 0.02830509000341408, 0.027950481016887352, 0.027760321012465283, 0.02762398001505062, 0.027679942024406046, 0.027980421000393108, 0.027718440018361434, 0.02772492097574286, 0.027799470000900328, 0.027825859986478463, 0.02765854200697504]</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02812156590167433</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0280120759998681</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0003874077776011542</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6422.66</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5816.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3502.464942167318</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10591</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8475</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>[0.07865572400623932, 0.07637669899850152, 0.07649470999604091, 0.07746619699173607, 0.0771219470188953, 0.07619638100732118, 0.07649116098764353, 0.07712461697519757, 0.07701648797956295, 0.07665110900416039, 0.07573202101048082, 0.07560092100175098, 0.08058088898542337, 0.07573916099499911, 0.07721456800936721, 0.07633097999496385, 0.07757307699648663, 0.07724202700774185, 0.07621921898680739, 0.07634698098991066, 0.07822779400157742, 0.07662246999097988, 0.07659890901413746, 0.07602117001079023, 0.07683013801579364, 0.0755828519759234, 0.07654396898578852, 0.07649350899737328, 0.07688705902546644, 0.07653441798174754, 0.07739501699688844, 0.07677779800724238, 0.07638169897836633, 0.075781851017382, 0.07682328802184202, 0.07582410000031814, 0.07630016899202019, 0.07587214998784475, 0.0765779789944645, 0.07755368598736823, 0.07698156702099368, 0.07652351999422535, 0.07696425900212489, 0.07721164802205749, 0.07704614699468948, 0.07638923899503425, 0.0768153480021283, 0.07614810002269223, 0.0763522110064514, 0.07572846199036576]</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.07671930805954616</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.07656097399012651</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0008486692734102947</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9198.288659793814</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10330</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2985.702255377704</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15898</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>25530</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>[0.011665480997180566, 0.01155825101886876, 0.01157771100406535, 0.011615700990660116, 0.011502690991619602, 0.011562800005776808, 0.01155740098329261, 0.011529911978868768, 0.011474921979242936, 0.011627681989921257, 0.011589931003982201, 0.011595131014473736, 0.011499111977173015, 0.011588641995331272, 0.011544059991138056, 0.011581369995838031, 0.0115185710019432, 0.011413331987569109, 0.01149445099872537, 0.01148265099618584, 0.011616140982368961, 0.011557132005691528, 0.011534321994986385, 0.011529861018061638, 0.011490970995509997, 0.011488641001051292, 0.011562091007363051, 0.011458691005827859, 0.01159355099662207, 0.011537541024154052, 0.011443440977018327, 0.011531710013514385, 0.011476991989184171, 0.011467581003671512, 0.011507440998684615, 0.011510340991662815, 0.011522540997248143, 0.011525592010002583, 0.011531280993949622, 0.011450850986875594, 0.011522192013217136, 0.011441442009527236, 0.011622331978287548, 0.011459251982159913, 0.011513022007420659, 0.011492811987409368, 0.011449161014752463, 0.011534971999935806, 0.011538760998519138, 0.011488571006339043]</t>
+        </is>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.01152758065785747</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.01152772651403211</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5.541230781858753e-05</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.8517587939698492</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.7763819095477387</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.6708542713567839</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10950</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[2.6778851120034233, 2.680461156007368, 2.6642876469995826, 2.6650260369933676, 2.683753949997481, 2.6422031330002937, 2.667463892023079, 2.670589185989229, 2.727872732997639, 2.6941624880128074, 2.6568510409852024, 2.7425426589907147, 2.6893713519966695, 2.654706959001487, 2.6961861359886825, 2.707295439002337, 2.647817468998255, 2.6631013709993567, 2.724349099007668, 2.699043333006557, 2.6691303059924394, 2.666181713982951, 2.6772698079876136, 2.7233800549875014, 2.666874946007738, 2.7194865259807557, 2.6624924580100924, 2.6690045529976487, 2.665168231993448, 2.6694865730241872, 2.7197261579858605, 2.6802496459858958, 2.7008225960016716, 2.661506014992483, 2.6707179619988892, 2.6677242510195356, 2.6856715260073543, 2.7500371859932784, 2.7052210310066584, 2.711108116985997, 2.6762803720193915, 2.774180469015846, 2.7240466749935877, 2.7540432210080326, 2.655917075026082, 2.6746341300022323, 2.656701293977676, 2.668449585995404, 2.707724109000992, 2.7073487500019837]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.687911110639689</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.677577459995518</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03006375867501819</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6335002.152785756</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6776780</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1514885.686974768</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10620206</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11451282</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7825</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.022740722983144224, 0.022398064989829436, 0.022200273990165442, 0.022261204023379833, 0.022251964983297512, 0.02232778401230462, 0.022349754988681525, 0.022355794993927702, 0.022466544003691524, 0.02244716399582103, 0.022437024977989495, 0.022410174016840756, 0.022104114992544055, 0.022150365984998643, 0.022251674003200606, 0.022185003996128216, 0.022201896004844457, 0.022152304998598993, 0.022536233998835087, 0.022068904974730685, 0.022132874990347773, 0.022061085008317605, 0.022208023990970105, 0.022214294003788382, 0.022187535010743886, 0.022394995001377538, 0.02253312399261631, 0.022358715010341257, 0.02244193499791436, 0.022188975010067225, 0.022150055010570213, 0.022407725016819313, 0.02224424501764588, 0.0220988150103949, 0.021991514979163185, 0.02211303499643691, 0.02236774397897534, 0.02231083600781858, 0.022144385002320632, 0.022305395017610863, 0.02233904501190409, 0.021985685016261414, 0.022023244993761182, 0.021999014978064224, 0.022050905012292787, 0.02213240400305949, 0.02687238299404271, 0.02201331700780429, 0.022423955000704154, 0.02226807500119321]</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>0.02234520613972563</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.02224795951042324</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.000673575088716921</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6432.58</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5840.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3516.219607315318</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10655</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8875</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>[0.08853956000530161, 0.0891066089970991, 0.08849251101491973, 0.08979727799305692, 0.08915396800148301, 0.08906244800891727, 0.0889514590089675, 0.08851657999912277, 0.0903999760048464, 0.08824207101133652, 0.08865042999968864, 0.08976022701244801, 0.08889323100447655, 0.08983374599483795, 0.08909400898846798, 0.0892635399941355, 0.08905946899903938, 0.08910041899071075, 0.08879163899109699, 0.08954043898847885, 0.0890732090047095, 0.0889701790001709, 0.0901780870044604, 0.08912137898732908, 0.0893282979959622, 0.08987298799911514, 0.08900537897716276, 0.08952805699664168, 0.08963962801499292, 0.09183451198623516, 0.08883754099952057, 0.08935406801174395, 0.08878488899790682, 0.09155582200037315, 0.08898225898155943, 0.09454703499795869, 0.08863429998746142, 0.08897184900706634, 0.08965733699733391, 0.08868728898232803, 0.08908803798840381, 0.08908443799009547, 0.08964027697220445, 0.08992019601282664, 0.08839484100462869, 0.09403547699912451, 0.08799137201276608, 0.08834550101892091, 0.08826564199989662, 0.08913460897747427]</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.08941428209829611</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.08909102348843589</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.001239897465889593</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9441.263157894737</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10338</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3107.518995397613</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>19130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>25530</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>[0.011735570995369926, 0.01154757000040263, 0.01155619099154137, 0.011461932008387521, 0.011480151995783672, 0.011416021996410564, 0.011462380993179977, 0.0114894520083908, 0.01161114001297392, 0.01137800101423636, 0.011443202005466446, 0.011428811005316675, 0.011409681988880038, 0.011396451998734847, 0.01138700099545531, 0.011434151005232707, 0.01140788197517395, 0.011403031996451318, 0.011420651979278773, 0.01145872098277323, 0.011429230973590165, 0.011652290006168187, 0.011379062023479491, 0.011511991993756965, 0.011475901992525905, 0.0115143220173195, 0.011521640990395099, 0.011493120982777327, 0.011472860001958907, 0.011447411001427099, 0.011447762022726238, 0.0114549919962883, 0.011522920976858586, 0.011489580996567383, 0.011510592012200505, 0.01148871099576354, 0.011531650990946218, 0.01170560100581497, 0.011461830988992006, 0.011444261996075511, 0.01146552199497819, 0.011465382005553693, 0.011504060996230692, 0.011503290006658062, 0.011435121006798, 0.01147429199772887, 0.011499051994178444, 0.011515392019646242, 0.011521011998411268, 0.011520961008500308]</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.01148375637887511</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.01147357599984389</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.356635187568211e-05</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.8105022831050228</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.7054794520547946</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.7146118721461188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11350</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[2.716383669991046, 2.7225551739975344, 2.700068791018566, 2.7172534379933495, 2.727561745006824, 2.6931920999777503, 2.7038789540238213, 2.749667741009034, 2.717608781007584, 2.7001299039984588, 2.739548879006179, 2.734595640999032, 2.727301091013942, 2.725257794983918, 2.7351658109982964, 2.7196829710155725, 2.8684038019855507, 2.755599092983175, 2.7370721379993483, 2.7607215909811202, 2.7069695649843197, 2.750573847006308, 2.711679962987546, 2.730498867982533, 2.7695145420148037, 2.723016356001608, 2.7050141030049417, 2.714634258998558, 2.707552706997376, 2.7052878829999827, 2.700223625986837, 2.7188184800033923, 2.757728835014859, 2.7410726560046896, 2.7148380000144243, 2.7429031819920056, 2.7223818130150903, 2.720383950014366, 2.740841609018389, 2.736604659992736, 2.7268889550177846, 2.698757945006946, 2.7628218170139007, 2.7017629080219194, 2.77445177998743, 2.9167348979972303, 2.72748633500305, 2.7029632670164574, 2.7378462710184976, 2.7967391759739257]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.73437282732164</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.726073375000851</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03972965554549836</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6348940.542626914</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6907476</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1501727.577184156</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11397022</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11451594</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7950</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.02277973500895314, 0.022593314002733678, 0.022457534010754898, 0.022695795021718368, 0.022629443992627785, 0.022477913997136056, 0.022320176009088755, 0.022469843999715522, 0.02240698499372229, 0.022477444988908246, 0.02228442401974462, 0.022388315002899617, 0.022633624001173303, 0.022298193973256275, 0.022282574005657807, 0.02260750500136055, 0.022281624987954274, 0.022514814016176388, 0.022617063979851082, 0.022568972985027358, 0.02240530401468277, 0.022514086012961343, 0.022907853010110557, 0.022681712987832725, 0.022523755003931, 0.022570902976440266, 0.022341803996823728, 0.02237691599293612, 0.02237281500129029, 0.022387624980183318, 0.022303065983578563, 0.022379974980140105, 0.022684184019453824, 0.022399045003112406, 0.022118294989923015, 0.02226814499590546, 0.02231153499451466, 0.02238783400389366, 0.022526264016050845, 0.022178165992954746, 0.022204324981430545, 0.02236703399103135, 0.02252969500841573, 0.0224418840080034, 0.022215824981685728, 0.022478954982943833, 0.021984104998409748, 0.029186597996158525, 0.022049415012588724, 0.02200183499371633]</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0.02255768503819127</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.02240614450420253</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0009753473738839263</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6573.7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5900.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3655.463028057451</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10911</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9025</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>[0.09866219601826742, 0.09951748501043767, 0.09870865699485876, 0.09889535600086674, 0.09986351401312277, 0.12415765301557258, 0.15689775202190503, 0.15301960200304165, 0.09810629699495621, 0.09939025499625131, 0.09821802700753324, 0.09957329300232232, 0.09857489698333666, 0.09921031500562094, 0.09978478300035931, 0.09905410598730668, 0.0988894650072325, 0.0992577440047171, 0.09871322600520216, 0.09926730499137193, 0.09831024700542912, 0.09897754498524591, 0.09950610398664139, 0.09934470398002304, 0.09867791601573117, 0.09843791701132432, 0.09896009598742239, 0.09952509301365353, 0.09847409700159915, 0.0991996850061696, 0.09826240799156949, 0.1008824500022456, 0.09898126701591536, 0.10003993200371042, 0.10145020898198709, 0.10019674300565384, 0.10031255200738087, 0.10010462297941558, 0.09975063300225884, 0.1001736230100505, 0.10539512897958048, 0.09880821598926559, 0.0984056769812014, 0.09976634298800491, 0.10037274201749824, 0.10042172099929303, 0.10085722099756822, 0.10123945900704712, 0.10124347099917941, 0.10028108200640418]</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.1022824166604551</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.09944817949144635</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.01147217165526879</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10168.91944444444</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11178</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2999.436406050045</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>15586</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>26330</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>[0.011899950011866167, 0.011981730000115931, 0.011866140004713088, 0.011841929983347654, 0.011835281009553, 0.012021380010992289, 0.01194785101688467, 0.011885230982443318, 0.011916280986042693, 0.011799631000030786, 0.011848730995552614, 0.011835070996312425, 0.01196672098012641, 0.01175717098522, 0.011846320994663984, 0.01179926100303419, 0.01174188099685125, 0.011828570975922048, 0.011759081011405215, 0.011795870988862589, 0.01162472099531442, 0.011692732019582763, 0.01150728200445883, 0.011805771006038412, 0.011576381977647543, 0.011843650980154052, 0.011742591013899073, 0.011829201015643775, 0.011734651023289189, 0.01173422101419419, 0.01165414199931547, 0.011822161002783105, 0.011663160985335708, 0.011747451004339382, 0.011525781999807805, 0.011656631977530196, 0.011745781026547775, 0.011612350004725158, 0.011568479996640235, 0.011607260996242985, 0.011611990979872644, 0.011676221998641267, 0.011662160977721214, 0.011676871014060453, 0.011726602009730414, 0.011656121001578867, 0.011627900996245444, 0.01170412200735882, 0.011692370986565948, 0.011669551982777193]</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.01175144805863965</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.01174418602022342</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.0001198881268799987</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.7951541850220264</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.6806167400881057</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.7004405286343612</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11475</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[2.868082920991583, 2.8490717989916448, 2.9742868299945258, 2.8476669829979073, 2.816823141009081, 2.81562323399703, 2.8561300429864787, 2.821389579999959, 2.824963980994653, 2.836292602994945, 2.824731442000484, 2.8227023590006866, 2.8065608390024863, 2.823764515982475, 2.806878019007854, 2.799557106976863, 2.8413566740055103, 2.8120457970071584, 2.808397226006491, 2.8884383400145452, 2.8642258899926674, 2.8221369060047437, 2.9037641230097506, 2.841944865998812, 2.8219549750210717, 2.8078705220250413, 2.8166207100148313, 2.8160618219990283, 2.8007858089986257, 2.815075374994194, 2.845896270009689, 2.795951572014019, 2.8344028379942756, 2.8303984600061085, 2.80289681602153, 2.827584675018443, 2.8092414019920398, 2.8476348069962114, 2.805322862986941, 2.953673115989659, 2.8411758839793038, 2.8588190019945614, 2.7877789869962726, 2.822050382994348, 2.853940014989348, 2.8193362599995453, 2.795428762008669, 2.8000935679883696, 2.851043983013369, 2.795999349007616]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.832677468880429</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.822419632502715</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03644053920048032</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6365085.071328889</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6906564</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1484110.278842652</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11192806</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11451250</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8075</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.023672892013564706, 0.02366313201491721, 0.02363524099928327, 0.023455332004232332, 0.02364742200006731, 0.02369113199529238, 0.023564602015540004, 0.023731611989205703, 0.02371897202101536, 0.02350989301339723, 0.023534272011602297, 0.023654192016692832, 0.023545102012576535, 0.023781860974850133, 0.023571611993247643, 0.02356256201164797, 0.023545472009573132, 0.02893259798293002, 0.024283550010295585, 0.023672581010032445, 0.023376862023724243, 0.023344863002421334, 0.02341953298309818, 0.023305332026211545, 0.02348640200216323, 0.02326086300308816, 0.023327161994529888, 0.02363499201601371, 0.023175632988568395, 0.023366671986877918, 0.023331232980126515, 0.023441861994797364, 0.02364443099941127, 0.02330852299928665, 0.02360314197721891, 0.023382601008052006, 0.023480002011638135, 0.023367813002550974, 0.02365441099391319, 0.023713550996035337, 0.02348393201828003, 0.023365511995507404, 0.023477042006561533, 0.023527601995738223, 0.02321204199688509, 0.023242034018039703, 0.023434881994035095, 0.023406162013998255, 0.024463478999678046, 0.023654221993638203]</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0.02364533648244105</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.02353093700367026</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0007967611287520821</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6756.42</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6812.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3833.465284105811</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11247</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9025</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>[0.10616631800075993, 0.10657151800114661, 0.10701348600559868, 0.10673586599295959, 0.10721499600913376, 0.10742252500494942, 0.10662299700197764, 0.1062435679777991, 0.10697835698374547, 0.10642186700715683, 0.10630308699910529, 0.10642208802164532, 0.10654405699460767, 0.10632293799426407, 0.10688542600837536, 0.10740032600006089, 0.10685487699811347, 0.10672731799422763, 0.10667725899838842, 0.10671292699407786, 0.10655579800368287, 0.10588191900751553, 0.10726131501724012, 0.10721522601670586, 0.10664019698742777, 0.10755564499413595, 0.10762192399124615, 0.10700260597513989, 0.10723093600245193, 0.11254711201763712, 0.10657920700032264, 0.10722317799809389, 0.10677022699383087, 0.10881708201486617, 0.10869897200609557, 0.10780382400844246, 0.1077194050012622, 0.10811585397459567, 0.10634018800919876, 0.10632069801795296, 0.10594244999811053, 0.10710802499670535, 0.1070527870033402, 0.10717719700187445, 0.10673018702073023, 0.10689485698821954, 0.10667212700354867, 0.1067617770167999, 0.10667079701670446, 0.10758339500171132]</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1070547342614736</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1068125519959722</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.0009985640434432195</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9520.877551020409</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10378</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2702.870730252631</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>18010</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>25530</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>[0.01194772101007402, 0.011617961979936808, 0.01199078100034967, 0.011561111983610317, 0.012528698978712782, 0.011515980993863195, 0.013168436998967081, 0.011625790997641161, 0.011827801004983485, 0.011648621002677828, 0.012753279006574303, 0.011452392005594447, 0.012823607976315543, 0.011572591989533976, 0.012890777987195179, 0.011521992011694238, 0.013069138018181548, 0.012017571018077433, 0.012622879003174603, 0.011932701017940417, 0.012403110013110563, 0.012203430000226945, 0.011989410006208345, 0.012254830013262108, 0.011973321001278237, 0.013120127987349406, 0.011716262000845745, 0.012401138985296711, 0.01163968097534962, 0.012884177005616948, 0.011539802013430744, 0.012606398988282308, 0.011489541007904336, 0.013440827984595671, 0.01157274199067615, 0.012793998001143336, 0.011535212019225582, 0.012942279019625857, 0.011652192013571039, 0.012696127989329398, 0.011602351005421951, 0.012770077999448404, 0.011778440995840356, 0.012308570003369823, 0.011827640002593398, 0.012178370001493022, 0.012046029994962737, 0.012118810001993552, 0.012024411000311375, 0.011997330002486706]</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.01215192952018697</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.01200745051028207</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.0005483797805887981</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.7864923747276689</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.673202614379085</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[2.9569160149840172, 2.9419994820200372, 2.8395695850194898, 2.82125112900394, 2.827086246019462, 2.84300753599382, 2.862787357007619, 2.8489350229792763, 2.8931841640151106, 2.826390699017793, 2.8328122130187694, 2.85250180499861, 2.881789214006858, 2.867881128011504, 2.8480801269761287, 2.8604643369908445, 2.8137674420140684, 2.8095610119926278, 2.847970617993269, 2.903565004002303, 2.8174814539961517, 2.869814095989568, 2.860090021014912, 2.8428225020179525, 2.857394916994963, 2.8890203399932943, 2.8317269120016135, 2.840854598005535, 2.795396569999866, 2.8659595170174725, 2.8887820210075006, 2.8258986180007923, 2.829659848997835, 2.8467771369905677, 2.817871498002205, 2.8290427419997286, 2.885039972985396, 2.8164403720002156, 2.8320523150032386, 2.8147263370046858, 2.85345212102402, 2.8732702620036434, 2.8555097060161643, 2.835039847996086, 2.8656255530077033, 2.833531212003436, 2.8706364410172682, 2.853589083009865, 2.8398497570015024, 2.856428317987593]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.851466084523127</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.848025372484699</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0313282757390871</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6363350.732881982</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6777828</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1483778.976931919</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10476606</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11451730</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8475</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.015891130024101585, 0.015832011005841196, 0.015864241984672844, 0.015736630011815578, 0.016150651004863903, 0.01566690200706944, 0.01582404100918211, 0.015587821981171146, 0.0159678109921515, 0.01567896199412644, 0.015818329993635416, 0.015676081995479763, 0.015941350982757285, 0.015685871010646224, 0.015834252000786364, 0.01569904200732708, 0.01583755001774989, 0.015663622005376965, 0.016599839989794418, 0.01558179099811241, 0.015492082020500675, 0.015601621009409428, 0.01586983000743203, 0.015861531981499866, 0.01616246101912111, 0.015566280984785408, 0.015597291989251971, 0.015687081002397463, 0.015641292004147545, 0.01569392200326547, 0.015768762008519843, 0.01568042000872083, 0.015709193015936762, 0.015656582021620125, 0.015584821027005091, 0.0155350620043464, 0.015534882986685261, 0.015568960981909186, 0.015928271022858098, 0.01599776098737493, 0.01569123100489378, 0.015497732005314901, 0.015679862000979483, 0.015655491006327793, 0.015560343017568812, 0.01554820200544782, 0.015451191982720047, 0.01558228099020198, 0.015646461979486048, 0.015654351009288803]</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.01573286380211357</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.01568014100485016</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0002030759992023666</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7434.9</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6624.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4563.007710231966</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13415</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9025</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>[0.11264707299415022, 0.11637064299429767, 0.11472006799886003, 0.11430061899591237, 0.11461839798721485, 0.11926215700805187, 0.11231137398863211, 0.11223055399022996, 0.11197451499174349, 0.1120772740105167, 0.11635110399220139, 0.11241978401085362, 0.11592187499627471, 0.11297536300844513, 0.11232658399967477, 0.11786023099557497, 0.11182091501541436, 0.11285125199356116, 0.11238398400018923, 0.11208871399867348, 0.11308557100710459, 0.1127979519951623, 0.11271856297389604, 0.11215020398958586, 0.1130863520083949, 0.11455924899200909, 0.11573883501114324, 0.11356139002600685, 0.11449481899035163, 0.11213683398091234, 0.11390423998818733, 0.11514482699567452, 0.11383170000044629, 0.11240237302263267, 0.11239195399684832, 0.11932924602297135, 0.1138875609904062, 0.11208788401563652, 0.11230163398431614, 0.11262842299765907, 0.12103513299371116, 0.1129078830126673, 0.11247357298270799, 0.11306497198529541, 0.1125905129883904, 0.11208302399609238, 0.11369915000977926, 0.11219395400257781, 0.1144712989917025, 0.11322359199402854]</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1137499036983354</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.1129416230105562</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.002080345287869717</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>9563.58</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10386</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2660.166354984304</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>17434</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>25530</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>[0.0119560309976805, 0.011638472002232447, 0.011707741999998689, 0.011571801995160058, 0.011638990981737152, 0.011534691002452746, 0.011488452000776306, 0.011623222002526745, 0.01157039200188592, 0.011619251017691568, 0.011593740986427292, 0.01163355098105967, 0.011547011003131047, 0.011558011989109218, 0.011839251004857942, 0.0116656819882337, 0.011600032012211159, 0.011486961011542007, 0.011444022005889565, 0.011509122006827965, 0.011493372003315017, 0.011556001991266385, 0.011383052013115957, 0.011460872017778456, 0.011447130993474275, 0.012591230013640597, 0.011650542001007125, 0.011461971997050568, 0.011472471000161022, 0.011495712009491399, 0.011473902006400749, 0.011483541980851442, 0.01160697199520655, 0.011655941023491323, 0.012684538000030443, 0.01186860099551268, 0.011675680987536907, 0.011619160999543965, 0.011498392006615177, 0.011473352002212778, 0.011561902007088065, 0.011524552013725042, 0.011547551985131577, 0.011545241985004395, 0.011688070982927456, 0.01160715101286769, 0.011536352016264573, 0.01144550199387595, 0.011475261999294162, 0.011486822011647746]</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.01161394554073922</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.0115570069901878</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.0002385512694183446</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.7780172413793104</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.665948275862069</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.7306034482758621</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[5.137955170008354, 5.095671165006934, 5.095211275998736, 5.110490368999308, 5.155038860015338, 5.089016462996369, 5.1112408000044525, 5.149048818013398, 5.1000285879999865, 5.085853965982096, 5.115075921989046, 5.133893987978809, 5.135103745997185, 5.09107965498697, 5.120043095026631, 5.115574397001183, 5.160047407000093, 5.074504457996227, 5.116171527013648, 5.114184931997443, 5.083187929994892, 5.126306053018197, 5.094989681994775, 5.097422495979117, 5.138680275005754, 5.18325298599666, 5.112023713008966, 5.100446080992697, 5.101597057975596, 5.072908670001198, 5.109820980025688, 5.118339818989625, 5.1306905500241555, 5.2813653409830295, 5.10405282699503, 5.131430020002881, 5.127914979006164, 5.122196932992665, 5.125339025980793, 5.195033816999057, 5.130402165988926, 5.137095237994799, 5.183892478002235, 5.230889313010266, 5.283219483972061, 5.165031290991465, 5.297106954996707, 5.116825834993506, 5.086769360990729, 5.11937397098518]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>5.1322567985981</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.118856894987402</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.05030239254106712</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6608474.772577591</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6909604</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1125240.499850399</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11397182</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11451570</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7925</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.016658108012052253, 0.016479390003951266, 0.016287539998302236, 0.016305090015521273, 0.016322578012477607, 0.016222679987549782, 0.016125750000355765, 0.016109599004266784, 0.016101200017146766, 0.016131419979501516, 0.016097688989248127, 0.01619630999630317, 0.016055309999501333, 0.01617343901307322, 0.016276789974654093, 0.016248289990471676, 0.016311079991282895, 0.016436859004897997, 0.016560559015488252, 0.016302789008477703, 0.01606877101585269, 0.016233300004387274, 0.016047420009272173, 0.01602865001768805, 0.015967651008395478, 0.016065289004473016, 0.01603822098695673, 0.01610455001355149, 0.016278830007649958, 0.01633938800659962, 0.016049640980781987, 0.01599328001611866, 0.015962829027557746, 0.015914552001049742, 0.0160935900057666, 0.0161785889940802, 0.016152569995028898, 0.016045730997575447, 0.016104648995678872, 0.016214659990509972, 0.01599275099579245, 0.01600828900700435, 0.015855740988627076, 0.01597369002411142, 0.016061979986261576, 0.015961350989528, 0.015968241001246497, 0.01591831899713725, 0.016068230994278565, 0.021469427010742947]</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0.01625125302176457</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.01610459950461518</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0007714985846986826</v>
+      </c>
+      <c r="V22" t="n">
+        <v>6768.45</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6266</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3850.030261917011</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11287</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8975</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[0.1169178799900692, 0.13046248600585386, 0.17394688801141456, 0.15893847498227842, 0.11682079001911916, 0.11798774698399939, 0.11866977598401718, 0.11921324400464073, 0.11574324301909655, 0.11611014200025238, 0.1174130589934066, 0.12208804799593054, 0.1156552920001559, 0.11604469199664891, 0.11631297200801782, 0.11470566599746235, 0.11474452400580049, 0.11510382400592789, 0.11580329199205153, 0.116339659987716, 0.11661176098277792, 0.11690272099804133, 0.1159902420185972, 0.11783414799720049, 0.1170870790083427, 0.1176653579750564, 0.1176873880031053, 0.11790175799978897, 0.11777176702162251, 0.11911766501725651, 0.11771053800475784, 0.1177182579995133, 0.1178832069854252, 0.11758265900425613, 0.11813612599507906, 0.11636814099620096, 0.11663725000107661, 0.11691929999506101, 0.11571257200557739, 0.1161290819873102, 0.11584712300100364, 0.11609404100454412, 0.11603994201868773, 0.11758644800283946, 0.11596127302618697, 0.11629510100465268, 0.12178814702201635, 0.11532094399444759, 0.11548938398482278, 0.11599149199901149]</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.1192160523007624</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.1168617555085802</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.01014459626876411</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>10282.04645476773</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11186</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2858.066736602888</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>18522</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>26714</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>[0.011590570997213945, 0.011550540017196909, 0.011453401006292552, 0.011492802004795521, 0.01155318200471811, 0.01164118098677136, 0.011553730990272015, 0.01154488101019524, 0.011577791010495275, 0.011497669998789206, 0.011577750003198162, 0.01158850098727271, 0.011693611973896623, 0.011712810985045508, 0.011688261991366744, 0.011850491020595655, 0.011639170988928527, 0.011547581001650542, 0.01159088101121597, 0.011546091001946479, 0.011619041004450992, 0.011615332012297586, 0.011790741002187133, 0.01179991100798361, 0.011918431002413854, 0.012086059985449538, 0.012366479000775144, 0.012170319998404011, 0.012473179987864569, 0.012130169983720407, 0.012343870010226965, 0.011917291005374864, 0.012182600010419264, 0.011845451022963971, 0.011973610002314672, 0.011794510995969176, 0.012001439987216145, 0.01176718101487495, 0.011934440000914037, 0.011811270989710465, 0.011524961999384686, 0.011359782016370445, 0.01138451200677082, 0.01135742201586254, 0.011475551000330597, 0.011442260991316289, 0.011434201995143667, 0.01143090199911967, 0.011438301007729024, 0.011491701996419579]</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.01171543656091672</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.01161718650837429</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.0002762616237296356</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.7737068965517241</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.665948275862069</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.6831896551724138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[4.790757240989478, 4.794789493986173, 4.830438667995622, 4.805018640996423, 4.784040924016153, 4.800089905998902, 4.818782751011895, 4.786552651989041, 4.78761512201163, 4.8006436410069, 4.812300932011567, 4.858824149006978, 4.834183841012418, 4.845178646006389, 4.792099579004571, 4.8630615239962935, 4.807536003005225, 4.8140395380032714, 4.824554463993991, 4.762706797977444, 4.784715955000138, 4.860834467981476, 4.810271403985098, 4.7863436749903485, 4.841286890004994, 4.797799299994949, 4.777389171009418, 4.8374142840038985, 4.91820748601458, 4.795223900990095, 4.802691591990879, 4.794236146990443, 4.792671820992837, 4.810911317006685, 4.87786527199205, 4.9487233880208805, 4.790343181026401, 4.786307731992565, 4.784665196988499, 4.780203078989871, 4.855524284997955, 4.828497562004486, 4.783731372997863, 4.791362485993886, 4.7903342909994535, 4.7910686880059075, 4.800754315016093, 4.830691391980508, 4.8408615390071645, 4.773905884998385]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4.813561031799764</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.800698978011496</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03635578760099556</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6591829.669307977</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6909416</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1160385.934953516</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11397022</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11451562</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7425</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.06735818297602236, 0.06738688400946558, 0.06735287301125936, 0.06753229300375096, 0.0670001240214333, 0.06750251399353147, 0.0671882739989087, 0.06744352297391742, 0.06781863200012594, 0.06737836397951469, 0.06714480300433934, 0.06654872599756345, 0.06659828498959541, 0.06786645299871452, 0.068058510980336, 0.0668757849780377, 0.06757887397543527, 0.06747621300746687, 0.06729071398149244, 0.06668719500885345, 0.06730920399422757, 0.06666623399360105, 0.06688457500422373, 0.06622305698692799, 0.06549443802214228, 0.06709211500128731, 0.06703008501790464, 0.0672895039897412, 0.06662293602130376, 0.09270416101207957, 0.06667114500305615, 0.06679884501500055, 0.06694106498616748, 0.06645449498319067, 0.06679257500218228, 0.06705906399292871, 0.06638386598206125, 0.0662460470048245, 0.0666232559888158, 0.06642687501152977, 0.06674461599322967, 0.06581004700274207, 0.06659336399752647, 0.0712234849925153, 0.0655184380011633, 0.06550774900824763, 0.0654796689923387, 0.06618018698645756, 0.0662978760083206, 0.06681455500074662]</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0.06743941501772496</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.06688017999113072</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.003749035501599302</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9166.609561752988</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10543</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3132.409370268868</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11743</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>64723</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8400</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[0.11886501600383781, 0.11904018698260188, 0.11847598699387163, 0.11933242599479854, 0.12009280300117098, 0.11858003801899031, 0.11895380599889904, 0.11905138500151224, 0.12004640401573852, 0.12013920399476774, 0.11968210298800841, 0.11895245601772331, 0.12331447697943076, 0.12407306500244886, 0.11897104699164629, 0.1185541570011992, 0.11847691799630411, 0.11888286599423736, 0.11829504801426083, 0.11914923597942106, 0.11916650601779111, 0.12434118299279362, 0.12428061297396198, 0.12108484000782482, 0.11895685698254965, 0.1206158320128452, 0.12036211398662999, 0.11917806501151063, 0.11937029502587393, 0.11949227500008419, 0.12572345999069512, 0.12019692300236784, 0.11923375597689301, 0.11971829400863498, 0.1196312439860776, 0.12025822297437117, 0.12018837398500182, 0.12132828100584447, 0.11947561398847029, 0.11857716701342724, 0.12006369399023242, 0.11999228401691653, 0.11896985699422657, 0.11944740498438478, 0.11910959501983598, 0.12183016899507493, 0.12042844199459068, 0.12005586401210167, 0.11996508398442529, 0.11918501599575393]</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.1200231190980412</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.1194839444942772</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.001655006413745032</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10311.42610837438</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11190</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2892.656015312157</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>15538</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>26330</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>[0.0117267910100054, 0.011521941982209682, 0.011496802006149665, 0.011576671007787809, 0.011616141011472791, 0.011545340996235609, 0.011775241000577807, 0.011623710975982249, 0.011855831020511687, 0.011513002013089135, 0.011579921003431082, 0.011511441000038758, 0.011476641986519098, 0.011456712003564462, 0.011497232015244663, 0.011494131991639733, 0.01144674199167639, 0.011493931990116835, 0.011543241009349003, 0.01172816997859627, 0.011529190989676863, 0.011569131980650127, 0.011563961976207793, 0.011551542003871873, 0.0115762620116584, 0.011551231989869848, 0.011511792021337897, 0.01153489199350588, 0.011552181997103617, 0.011496310995426029, 0.011596460972214118, 0.011564460990484804, 0.011626800987869501, 0.011577470984775573, 0.011492630990687758, 0.011739100998966023, 0.011555791978025809, 0.011561961000552401, 0.0115002510137856, 0.011650191008811817, 0.011619609984336421, 0.011571331007871777, 0.011503201007144526, 0.011542360996827483, 0.011617330979788676, 0.011459501984063536, 0.011548391979886219, 0.011485121998703107, 0.0115125110023655, 0.011431610997533426]</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.01156144457636401</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.01154981198487803</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.564243755452476e-05</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.665948275862069</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.6400862068965517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[4.165833558974555, 4.0580684849992394, 4.124381961999461, 4.056968930002768, 4.019506562006427, 4.082016519008903, 4.0501914290071, 4.045365780999418, 4.029177171003539, 4.05706562299747, 4.1185330520092975, 4.027487366984133, 4.117864705011016, 4.134122855990427, 4.02846610697452, 4.040485128003638, 4.018829392007319, 4.039342321018921, 4.048960239015287, 4.067321034002816, 4.0123239799868315, 4.041040029987926, 4.175044378993334, 4.021468959981576, 4.041166381997755, 4.069535221991828, 4.074117731011938, 4.044181715988088, 4.0402106959954835, 4.056946716009406, 4.078569341974799, 4.03378349400009, 4.059922690008534, 4.079327471990837, 4.061192038003355, 4.021593985991785, 4.036841518012807, 4.043782911991002, 4.12643152900273, 4.079172505007591, 4.0487796219822485, 4.178990599990357, 4.083883935003541, 4.151198220992228, 4.071875045978231, 4.038495368004078, 4.050899437977932, 4.028406174998963, 4.020346545003122, 4.057581583008869]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.06514196105767</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.053923076993669</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04237198113803142</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6529093.771275196</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6908228</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1262089.341478677</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11397022</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11451642</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7075</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[21.294730677996995, 21.211347336007748, 21.201060441992013, 21.48014040698763, 21.253687153977808, 21.243127452005865, 21.19138052800554, 21.17008675998659, 21.245241685013752, 21.22527884200099, 21.29154421799467, 21.198745073983446, 21.36831732498831, 21.214498129993444, 21.362060074985493, 21.30656668698066, 21.39286564401118, 21.327021390985465, 21.177844163001282, 21.29609609898762, 21.561691743001575, 21.477483203983866, 21.65097275399603, 21.185639161005383, 21.301025300985202, 21.439847116009332, 21.201438493997557, 21.15726698699291, 21.31401089800056, 21.18950265602325, 21.229210891993716, 21.26831253900309, 21.244228631985607, 21.213469000998884, 21.214930960995844, 21.216400289995363, 21.243535175017314, 21.421289032994537, 21.403151541016996, 21.563450629997533, 21.300487627013354, 21.28936068501207, 21.25735570699908, 21.236872929002857, 21.452836982003646, 21.178372385998955, 21.229597543017007, 21.184411705995444, 21.262918414984597, 21.26271247799741]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>21.29206847111811</v>
+      </c>
+      <c r="T24" t="n">
+        <v>21.25552143048844</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1135994560356802</v>
+      </c>
+      <c r="V24" t="n">
+        <v>38948.72167754439</v>
+      </c>
+      <c r="W24" t="n">
+        <v>39151</v>
+      </c>
+      <c r="X24" t="n">
+        <v>16429.94114723635</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>69095</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>73479</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8400</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[0.1198069569945801, 0.11980195599608123, 0.12236957001732662, 0.12125445500714704, 0.12180515201180242, 0.12144379300298169, 0.12085505400318652, 0.12037921498995274, 0.12132360399118625, 0.12060304399346933, 0.12055683499784209, 0.12111091299448162, 0.12248978999559768, 0.11928683798760176, 0.11949126701802015, 0.11914984899340197, 0.12004657599027269, 0.11983332701493055, 0.12113031299668364, 0.12641188999987207, 0.11922320700250566, 0.1199648969923146, 0.1197785260155797, 0.12104188301600516, 0.11955389799550176, 0.11991879600100219, 0.12028652601293288, 0.1201920049788896, 0.11908010698971339, 0.12023968499852344, 0.12052935600513592, 0.1195759270049166, 0.12145457201404497, 0.12264591999701224, 0.12167102200328372, 0.1250800529960543, 0.12950116299907677, 0.12772706701071002, 0.12195883202366531, 0.12115389399696141, 0.1200521560094785, 0.12027139600832015, 0.12187395201181062, 0.12068071399698965, 0.1197802470123861, 0.12026230699848384, 0.12003431600169279, 0.12065160399652086, 0.12177286299993284, 0.12020805600332096]</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.1211063069017837</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.120543095501489</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.002070829398399979</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>9650.970873786408</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10394</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2669.922059630655</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>17850</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>25530</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>7725</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>[0.01162529201246798, 0.011625171988271177, 0.011444522009696811, 0.011679980991175398, 0.011566862027393654, 0.011430451006162912, 0.011551472009159625, 0.011635261995252222, 0.011524861998623237, 0.011532921984326094, 0.011415332002798095, 0.011465921998023987, 0.011540412000613287, 0.011643390986137092, 0.0115990609920118, 0.01153792199329473, 0.011444522009696811, 0.011501221975777298, 0.011482051981147379, 0.011382433003745973, 0.011443891999078915, 0.011529281007824466, 0.011556081008166075, 0.011526471993420273, 0.011465511983260512, 0.011541971995029598, 0.011597992008319125, 0.01156814198475331, 0.011600932019064203, 0.011482131987577304, 0.011522871005581692, 0.01160519098630175, 0.011538881983142346, 0.011441241978900507, 0.01149339199764654, 0.011504581983899698, 0.011503151996294037, 0.011630611988948658, 0.011614162009209394, 0.011484760994790122, 0.01153799201711081, 0.011517022008774802, 0.011507132003316656, 0.011561322025954723, 0.01714728699880652, 0.011773271020501852, 0.01158154199947603, 0.011440141999628395, 0.011494381004013121, 0.011379402014426887]</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.01164439629937988</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.01153110149607528</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.0007978883083577808</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3019.725490196078</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>688.7425085888448</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>7778</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.665948275862069</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.6099137931034483</v>
       </c>
     </row>
   </sheetData>

--- a/reports/xlsx/benchmark_constraint_unlimited.xlsx
+++ b/reports/xlsx/benchmark_constraint_unlimited.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COURSE_COUNT_CONSTRAINT: [1, 13]</t>
+          <t>COURSE_COUNT_CONSTRAINT: None</t>
         </is>
       </c>
     </row>
@@ -874,76 +874,74 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[1.0733858159801457, 1.032385175989475, 1.0525829620019067, 1.0590090559853707, 1.0430016900063492, 1.032704315992305, 1.043292359012412, 1.0740742569905706, 1.043711338978028, 1.0526494639925659, 1.0646620240004268, 1.0336081280256622, 1.0336464679858182, 1.0423273750056978, 1.070343380997656, 1.0313638350053225, 1.051207313023042, 1.057208547979826, 1.046733855997445, 1.0327357829955872, 1.0418868089909665, 1.0705985930108, 1.048564530996373, 1.0411801029986236, 1.0702781250001863, 1.0716347630077507, 1.0582402480067685, 1.0432458680006675, 1.0666826470114756, 1.0389093910052907, 1.0586198490054812, 1.0695663210062776, 1.0446238470030949, 1.0279260120005347, 1.045219696010463, 1.06487963499967, 1.0378438560001086, 1.0438955920108128, 1.0797729659825563, 1.045986676006578, 1.0429526339867152, 1.0429770649934653, 1.08524576399941, 1.0480852519976906, 1.0547136170207523, 1.0669787529914174, 1.059998511977028, 1.0957965480047278, 1.1708104720164556, 1.0620999590028077]</t>
+          <t>[1.083346351981163, 1.078284664079547, 1.0459407998714596, 1.081032156944275, 1.0596565648447722, 1.0629198111128062, 1.048107512993738, 1.0847354230936617, 1.0385682310443372, 1.058592831948772, 1.1276122969575226, 1.0482786500360817, 1.049144936958328, 1.0597897530533373, 1.0835657098796219, 1.0597391489427537, 1.0615143771283329, 1.0748761519789696, 1.0528327589854598, 1.05593565502204, 1.0933958489913493, 1.0910899857990444, 1.0964578038547188, 1.0657191118225455, 1.0670872109476477, 1.062658468959853, 1.0655202041380107, 1.0372224478051066, 1.0888569219969213, 1.060585195897147, 1.0486786291003227, 1.088374791899696, 1.0638777860440314, 1.0895593450404704, 1.0550291470717639, 1.0986206710804254, 1.065530841005966, 1.0882223329972476, 1.0902471048757434, 1.0655983621254563, 1.0639595792163163, 1.0710435141809285, 1.0980742638930678, 1.0646446149330586, 1.080007255077362, 1.0785089598502964, 1.0478051640093327, 1.0714663879480213, 1.059600843116641, 1.102721753064543]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.055396944999811</v>
+        <v>1.070692766672</v>
       </c>
       <c r="G12" t="n">
-        <v>1.049885922009707</v>
+        <v>1.065564601565711</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02272492132362931</v>
+        <v>0.01870923525535306</v>
       </c>
       <c r="I12" t="n">
-        <v>5269746.950947062</v>
+        <v>5293415.225634824</v>
       </c>
       <c r="J12" t="n">
-        <v>6764514</v>
+        <v>6764626</v>
       </c>
       <c r="K12" t="n">
-        <v>2240857.012233157</v>
+        <v>2242166.048303922</v>
       </c>
       <c r="L12" t="n">
         <v>2856</v>
       </c>
       <c r="M12" t="n">
-        <v>11585675</v>
+        <v>11452059</v>
       </c>
       <c r="N12" t="n">
-        <v>11585787</v>
+        <v>11452171</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>2050</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.008590356999775395, 0.008389788010390475, 0.008317027997691184, 0.008300457004224882, 0.008202997996704653, 0.008186949009541422, 0.008224846998928115, 0.00818403801531531, 0.008196398994186893, 0.008195078000426292, 0.008199697971576825, 0.008194498979719356, 0.008126539003569633, 0.008173588023055345, 0.008132688992191106, 0.008106358000077307, 0.008339557010913268, 0.008155209012329578, 0.008109407994197682, 0.00808344900724478, 0.008039689011638984, 0.00814897901727818, 0.00809218900394626, 0.008103649015538394, 0.008051848999457434, 0.0080948079994414, 0.008106527995551005, 0.00804051899467595, 0.008056388993281871, 0.00809684899286367, 0.013752583996392787, 0.008546758006559685, 0.008056917984504253, 0.008033949008677155, 0.007957639987580478, 0.008151557995006442, 0.008000558998901397, 0.007991390011738986, 0.00794217799557373, 0.007927278988063335, 0.00800155001343228, 0.007932637992780656, 0.007952568994369358, 0.007923519995529205, 0.007958178990520537, 0.007969469006638974, 0.008026609983062372, 0.007993269013240933, 0.0080015079875011, 0.007975539017934352]</t>
+          <t>[0.0028086251113563776, 0.002662275917828083, 0.004724544007331133, 0.005353134823963046, 0.005224592983722687, 0.00645410199649632, 0.006750125903636217, 0.006865830160677433, 0.006581534165889025, 0.006664138054475188, 0.006738368887454271, 0.006621594075113535, 0.006600683089345694, 0.006665399996563792, 0.006651618983596563, 0.0065525309182703495, 0.006604957859963179, 0.006669375114142895, 0.0065275030210614204, 0.00682410690933466, 0.006576176034286618, 0.0066685129422694445, 0.006683476036414504, 0.00662430701777339, 0.006606071023270488, 0.0065449688117951155, 0.006673491094261408, 0.006739018950611353, 0.006524228025227785, 0.006604106863960624, 0.006470388034358621, 0.006798438960686326, 0.00656124297529459, 0.0064916887786239386, 0.006578770000487566, 0.0066714968997985125, 0.00650797295384109, 0.006623276975005865, 0.006725248880684376, 0.006611709017306566, 0.006975905038416386, 0.006554452935233712, 0.0063896458595991135, 0.006465248996391892, 0.007354750065132976, 0.006471448112279177, 0.006597778992727399, 0.00655808812007308, 0.006394634023308754, 0.0063696070574223995]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.008226720900274813</v>
+        <v>0.006379223829135298</v>
       </c>
       <c r="T12" t="n">
-        <v>0.008100249004201032</v>
+        <v>0.006599231041036546</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0008105851766274851</v>
+        <v>0.0008529668135237914</v>
       </c>
       <c r="V12" t="n">
-        <v>2943.72</v>
+        <v>2928.36</v>
       </c>
       <c r="W12" t="n">
-        <v>2904</v>
+        <v>2856</v>
       </c>
       <c r="X12" t="n">
-        <v>127.0293297323295</v>
+        <v>124.5422246239632</v>
       </c>
       <c r="Y12" t="n">
         <v>2856</v>
       </c>
       <c r="Z12" t="n">
-        <v>3352</v>
+        <v>3305</v>
       </c>
       <c r="AA12" t="n">
-        <v>64449</v>
+        <v>64801</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -956,35 +954,35 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.007810339011484757, 0.00774967999313958, 0.007744739996269345, 0.007734608981991187, 0.007691999984672293, 0.007878979988163337, 0.00765048002358526, 0.007655569992493838, 0.0076745089900214225, 0.007783450011629611, 0.007753160025458783, 0.007672478997847065, 0.007762549008475617, 0.007682110008317977, 0.007711639016633853, 0.007686461001867428, 0.007700279995333403, 0.007766219001496211, 0.007741089997580275, 0.0077737499959766865, 0.0077474490099120885, 0.007721369998762384, 0.0077125499956309795, 0.007878837990574539, 0.007789690018398687, 0.00786509900353849, 0.0077357089903671294, 0.007679839996853843, 0.007717529020737857, 0.007657369016669691, 0.007719020999502391, 0.007698649016674608, 0.007718059001490474, 0.007763419998809695, 0.008033707999857143, 0.007662168995011598, 0.007636271009687334, 0.007757478975690901, 0.007721389003563672, 0.007762670022202656, 0.007735179999144748, 0.0076667800021823496, 0.007699998997850344, 0.007749748998321593, 0.007813520001946017, 0.0078012190060690045, 0.007899118994828314, 0.0076936400146223605, 0.007756839011562988, 0.007654429995454848]</t>
+          <t>[0.02214649715460837, 0.021909981966018677, 0.02209414797835052, 0.02189524006098509, 0.022061872063204646, 0.022013629088178277, 0.02216783887706697, 0.022171595133841038, 0.024281384190544486, 0.008754185866564512, 0.008718312019482255, 0.00862848898395896, 0.008586695184931159, 0.008661787956953049, 0.008591451914981008, 0.008615329163149, 0.00919573800638318, 0.021161702927201986, 0.023525261087343097, 0.02222756901755929, 0.021967878798022866, 0.023490178864449263, 0.024160072207450867, 0.02331431512720883, 0.021963173057883978, 0.02194526605308056, 0.02205586084164679, 0.02234192006289959, 0.022013457026332617, 0.022221168968826532, 0.022345555014908314, 0.021861820947378874, 0.022040638839825988, 0.022057503927499056, 0.022063403157517314, 0.02217724290676415, 0.021910523995757103, 0.021965285995975137, 0.02307792310602963, 0.022849699947983027, 0.023611161159351468, 0.02418672200292349, 0.024072921834886074, 0.02366279810667038, 0.02239631093107164, 0.022679555928334594, 0.02391309291124344, 0.021986477775499225, 0.021788541926071048, 0.022923390846699476]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.007741456942167133</v>
+        <v>0.02032905141822994</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.007734894490567967</v>
+        <v>0.02206263761036098</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.448444491472328e-05</v>
+        <v>0.00517181143172742</v>
       </c>
       <c r="AI12" t="n">
-        <v>2923.56</v>
+        <v>4983.782608695652</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2857</v>
+        <v>3145</v>
       </c>
       <c r="AK12" t="n">
-        <v>112.8763383313883</v>
+        <v>2263.721781463005</v>
       </c>
       <c r="AL12" t="n">
         <v>2857</v>
       </c>
       <c r="AM12" t="n">
-        <v>3305</v>
+        <v>7873</v>
       </c>
       <c r="AN12" t="n">
-        <v>26329</v>
+        <v>26401</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -997,17 +995,17 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.004725417995359749, 0.00468785798875615, 0.004822536982828751, 0.004679777019191533, 0.00464847800321877, 0.004644928005291149, 0.004683178005507216, 0.004654566990211606, 0.004698617005487904, 0.004716508003184572, 0.004744906997075304, 0.004707586980657652, 0.004745357990032062, 0.004723837977508083, 0.004694866016507149, 0.004735647002235055, 0.004692988004535437, 0.004711217014119029, 0.004741717013530433, 0.0047101679956540465, 0.0046645480033475906, 0.004626959009328857, 0.004680907994043082, 0.0046646479750052094, 0.004713118018116802, 0.004690126981586218, 0.004656878008972853, 0.0046786279999651015, 0.004684768005972728, 0.004677757999161258, 0.0046609579876530915, 0.004730397980893031, 0.011054280999815091, 0.01244403698365204, 0.011676617985358462, 0.01011913298862055, 0.004967776010744274, 0.004932516982080415, 0.004941866995068267, 0.005034775997046381, 0.005018416995881125, 0.0051206960051786155, 0.005001587007427588, 0.005063596006948501, 0.004820907983230427, 0.004933485994115472, 0.004930716997478157, 0.004875166981946677, 0.004935797012876719, 0.005021457007387653]</t>
+          <t>[0.014343083137646317, 0.014166560024023056, 0.014163244981318712, 0.014016965869814157, 0.013848984148353338, 0.0139370271936059, 0.011008681962266564, 0.010945618152618408, 0.010995040880516171, 0.01085696485824883, 0.010706640081480145, 0.010841642040759325, 0.010765559040009975, 0.010834109969437122, 0.01076520700007677, 0.010849934071302414, 0.010741872945800424, 0.010686259949579835, 0.010727570857852697, 0.005711690988391638, 0.008953704964369535, 0.010602273978292942, 0.010732368100434542, 0.010662072105333209, 0.005664409138262272, 0.00993771804496646, 0.010905788047239184, 0.010709053138270974, 0.010847359895706177, 0.008767236024141312, 0.008306797128170729, 0.010786288883537054, 0.010669773910194635, 0.009998690104112029, 0.010790525935590267, 0.005428365897387266, 0.010163166094571352, 0.011698042973876, 0.009074567118659616, 0.011029173154383898, 0.010965266963467002, 0.010971355950459838, 0.010996122844517231, 0.011300457874312997, 0.010977396043017507, 0.010998818092048168, 0.010881552007049322, 0.01097150705754757, 0.010962752858176827, 0.01101659401319921]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.005303853757795878</v>
+        <v>0.01073363712988794</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.004724627986433916</v>
+        <v>0.01084450096823275</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001814407167418912</v>
+        <v>0.00183914483066927</v>
       </c>
       <c r="AV12" t="n">
         <v>2923.56</v>
@@ -1025,7 +1023,7 @@
         <v>3305</v>
       </c>
       <c r="BA12" t="n">
-        <v>10289</v>
+        <v>10329</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -1033,9 +1031,7 @@
       <c r="BC12" t="n">
         <v>1</v>
       </c>
-      <c r="BD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1052,76 +1048,74 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2.5256885910057463, 2.478296318993671, 2.510115516022779, 2.4929562940087635, 2.512672064010985, 2.5027524319884833, 2.552706602989929, 2.511570053989999, 2.5162501849990804, 2.5497259700205177, 2.5352574099961203, 2.5452427660056856, 2.5733361119928304, 2.5436040440108627, 2.4974565079901367, 2.522791374998633, 2.527749353001127, 2.543265134008834, 2.6360348140005954, 2.5218926039815415, 2.5348168430209626, 2.547085222991882, 2.5137345630209893, 2.5425200810132083, 2.497219688986661, 2.5194947840063833, 2.5309086560155265, 2.6649825279891957, 2.89661485599936, 2.5216853379970416, 2.5637538300070446, 2.6665987149754073, 2.534689040010562, 2.5507593900256325, 2.550277982983971, 2.534024528984446, 2.487971638998715, 2.551421617012238, 2.536363008985063, 2.565120975021273, 2.5119105460180435, 2.5293983930023387, 2.5039719400228932, 2.544629418000113, 2.535173632000806, 2.513996210996993, 2.492760006978642, 2.5184487129736226, 2.544547306984896, 2.51040541700786]</t>
+          <t>[2.534162773983553, 2.534745286917314, 2.572452262043953, 2.536606213077903, 2.579136017942801, 2.5093267110642046, 2.5436102200765163, 2.521522711031139, 2.525508147897199, 2.568554837955162, 2.5255593759939075, 2.537598389899358, 2.54159362311475, 2.587103084893897, 2.53196438588202, 2.4914122929330915, 2.5640413120854646, 2.519296681974083, 2.5462382978294045, 2.489495103014633, 2.5529317900072783, 2.5330265779048204, 2.5284163469914347, 2.5544691709801555, 2.5445320340804756, 2.521923464955762, 2.519946455024183, 2.55988851794973, 2.523790691047907, 2.5477807000279427, 2.562098846072331, 2.5543623839039356, 2.512536863796413, 2.554260472068563, 2.550675112986937, 2.544664884917438, 2.5287290068808943, 2.556585944024846, 2.5296545538585633, 2.5235309649724513, 2.5348120448179543, 2.5505974390543997, 2.523476584115997, 2.517732365988195, 2.5436618169769645, 2.549440236063674, 2.517304714070633, 2.5511224549263716, 2.531827809056267, 2.5340196599718183]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.542292980400962</v>
+        <v>2.538354552742094</v>
       </c>
       <c r="G13" t="n">
-        <v>2.532466592499986</v>
+        <v>2.535709128947929</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06336127280624934</v>
+        <v>0.02002467782547702</v>
       </c>
       <c r="I13" t="n">
-        <v>6303020.014032947</v>
+        <v>6298086.691247476</v>
       </c>
       <c r="J13" t="n">
-        <v>6809787</v>
+        <v>6849139</v>
       </c>
       <c r="K13" t="n">
-        <v>1555532.945542317</v>
+        <v>1564682.404465588</v>
       </c>
       <c r="L13" t="n">
         <v>2857</v>
       </c>
       <c r="M13" t="n">
-        <v>11451349</v>
+        <v>11445429</v>
       </c>
       <c r="N13" t="n">
-        <v>11451521</v>
+        <v>11451569</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
-        <v>4075</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.015015440003480762, 0.01482805100386031, 0.014756332006072626, 0.014943151007173583, 0.014703902008477598, 0.0146757620095741, 0.014655332022812217, 0.014717382990056649, 0.014543632976710796, 0.014579712005797774, 0.014566472003934905, 0.014438342011999339, 0.014518942014547065, 0.014554232999216765, 0.014533621986629441, 0.014607162011088803, 0.014571391977369785, 0.014610732003347948, 0.014731411007232964, 0.014664471993455663, 0.014667982002720237, 0.014632151986006647, 0.014537242997903377, 0.014507941988995299, 0.014420102001167834, 0.01453434198629111, 0.014369252981850877, 0.014530893007759005, 0.014410542993573472, 0.014471292000962421, 0.014556462003383785, 0.014452792995143682, 0.01444699298008345, 0.014532492001308128, 0.01446989199030213, 0.014494552975520492, 0.014268302998971194, 0.014318642992293462, 0.014494631992420182, 0.01467485202010721, 0.014516291994368657, 0.014463181985775009, 0.014415262994589284, 0.014542791992425919, 0.01455716200871393, 0.014648871001554653, 0.014598552021197975, 0.014565242017852142, 0.014391072007128969, 0.01448926201555878]</t>
+          <t>[0.0029481840319931507, 0.003989313030615449, 0.005192173877730966, 0.005737348925322294, 0.006738197058439255, 0.0066483530681580305, 0.00659317197278142, 0.006612750003114343, 0.006673472002148628, 0.0067407621536403894, 0.006709895096719265, 0.006753070978447795, 0.006566982017830014, 0.00655781920067966, 0.00655527482740581, 0.00670665199868381, 0.006766740931198001, 0.006716245086863637, 0.006620110012590885, 0.006996114039793611, 0.006526560988277197, 0.006657238118350506, 0.006769394967705011, 0.006595022976398468, 0.0068381179589778185, 0.006660542916506529, 0.006568583892658353, 0.00663383211940527, 0.006477507064118981, 0.006660620914772153, 0.006711298134177923, 0.006631659111008048, 0.006621222943067551, 0.006590968929231167, 0.006603115936741233, 0.006579762091860175, 0.006669085007160902, 0.006670498056337237, 0.006629276089370251, 0.006579941837117076, 0.006772359134629369, 0.006612119963392615, 0.00658399797976017, 0.0066625450272113085, 0.0065832959953695536, 0.0065241470001637936, 0.00663523399271071, 0.006538498913869262, 0.0065511169377714396, 0.006562956841662526]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.01456389053957537</v>
+        <v>0.00647046304307878</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01454321248456836</v>
+        <v>0.006620666477829218</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001411661712057214</v>
+        <v>0.0006780611870171845</v>
       </c>
       <c r="V13" t="n">
-        <v>2945.64</v>
+        <v>2934.44</v>
       </c>
       <c r="W13" t="n">
-        <v>2905</v>
+        <v>2857</v>
       </c>
       <c r="X13" t="n">
-        <v>125.2442120541354</v>
+        <v>126.7019900621702</v>
       </c>
       <c r="Y13" t="n">
         <v>2857</v>
       </c>
       <c r="Z13" t="n">
-        <v>3353</v>
+        <v>3305</v>
       </c>
       <c r="AA13" t="n">
-        <v>64722</v>
+        <v>64714</v>
       </c>
       <c r="AB13" t="n">
         <v>2</v>
@@ -1134,35 +1128,35 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.01808714200160466, 0.018251261994009838, 0.0180749730207026, 0.01806126200244762, 0.0182247819902841, 0.018090163997840136, 0.01826692299800925, 0.018081793008605018, 0.01837833199533634, 0.01812765299109742, 0.018253381014801562, 0.018329652986722067, 0.018264662998262793, 0.018288141989614815, 0.018435922014759853, 0.018145173991797492, 0.018050221988232806, 0.0179709340154659, 0.01809321402106434, 0.01797748199896887, 0.018122224020771682, 0.018107933981809765, 0.018099383014487103, 0.018035163986496627, 0.018009454011917114, 0.0180324719985947, 0.017889545008074492, 0.01798809299361892, 0.018010872998274863, 0.01795848400797695, 0.017934594012331218, 0.01818234199890867, 0.01818575299694203, 0.018298762995982543, 0.018130251992261037, 0.018209582020062953, 0.018097384017892182, 0.018188802001532167, 0.01814790299977176, 0.018142562999855727, 0.01832444200408645, 0.01823817301192321, 0.018067583994707093, 0.018254101974889636, 0.018181523017119616, 0.018036623019725084, 0.018084611976519227, 0.01812954299384728, 0.018292761989869177, 0.018133743025828153]</t>
+          <t>[0.04538866505026817, 0.037416467908769846, 0.03740982012823224, 0.03507037600502372, 0.03296841005794704, 0.034060355043038726, 0.033704421017318964, 0.033159925835207105, 0.033781326143071055, 0.03344107698649168, 0.03319444810040295, 0.0333987339399755, 0.03333577001467347, 0.0338457019533962, 0.03380101500079036, 0.03375782095827162, 0.03391511691734195, 0.03445536480285227, 0.03328483295626938, 0.03228088095784187, 0.03556251199916005, 0.035234020091593266, 0.019580485066398978, 0.02442142297513783, 0.018838143907487392, 0.018867257051169872, 0.018908970057964325, 0.01884259982034564, 0.018820255994796753, 0.018955300096422434, 0.018925333861261606, 0.019010361982509494, 0.018965335097163916, 0.018954619066789746, 0.0189395050983876, 0.0188170219771564, 0.01902167801745236, 0.019192193169146776, 0.01885018195025623, 0.018884042045101523, 0.0188789248932153, 0.018830341985449195, 0.01885041198693216, 0.01896256092004478, 0.018981738947331905, 0.018956962041556835, 0.018864462850615382, 0.018935170024633408, 0.019015480065718293, 0.01909184386022389]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.0181393548817141</v>
+        <v>0.02597259333357215</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01812859799247235</v>
+        <v>0.01914201851468533</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0001203939694963287</v>
+        <v>0.00801631749677513</v>
       </c>
       <c r="AI13" t="n">
-        <v>6830.52</v>
+        <v>7402.245901639344</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6617</v>
+        <v>8057</v>
       </c>
       <c r="AK13" t="n">
-        <v>3930.209700833437</v>
+        <v>4259.50703955568</v>
       </c>
       <c r="AL13" t="n">
         <v>2857</v>
       </c>
       <c r="AM13" t="n">
-        <v>11193</v>
+        <v>24417</v>
       </c>
       <c r="AN13" t="n">
-        <v>25529</v>
+        <v>25569</v>
       </c>
       <c r="AO13" t="n">
         <v>2</v>
@@ -1175,26 +1169,26 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.007301620993530378, 0.0074017010047100484, 0.0072896409837994725, 0.007392740983050317, 0.007341921009356156, 0.007278120989212766, 0.00731376200565137, 0.007305870996788144, 0.007317591022001579, 0.007243610976729542, 0.007286191015737131, 0.007328312000026926, 0.007217321981443092, 0.007283551007276401, 0.007278170989593491, 0.007276410993654281, 0.007304891012609005, 0.007313421025173739, 0.007304102007765323, 0.007204101013485342, 0.007260971004143357, 0.00727439098409377, 0.007281780999619514, 0.007270750997122377, 0.007239791011670604, 0.007254210999235511, 0.00726709101581946, 0.007366100006038323, 0.007269411027664319, 0.007255821023136377, 0.007208131020888686, 0.007258550991537049, 0.007272561022546142, 0.007262650993652642, 0.007300691009731963, 0.007315980998100713, 0.007334699999773875, 0.007313331007026136, 0.007278561010025442, 0.007273600989719853, 0.007250752008985728, 0.007287701009772718, 0.007253500982187688, 0.00732388100004755, 0.007257200981257483, 0.0072957710071932524, 0.007290492008905858, 0.007296471012523398, 0.007312460977118462, 0.007282862003194168]</t>
+          <t>[0.008016883162781596, 0.007943554082885385, 0.007969720987603068, 0.007923963014036417, 0.007856484036892653, 0.007993767969310284, 0.007930913008749485, 0.007957604015246034, 0.007981881964951754, 0.007894838927313685, 0.007885086117312312, 0.007798535982146859, 0.007859475910663605, 0.007886186009272933, 0.007883572950959206, 0.007818024139851332, 0.00778826093301177, 0.007887238869443536, 0.007728931028395891, 0.00784147996455431, 0.007750723976641893, 0.00772309280000627, 0.007767918054014444, 0.007871184032410383, 0.007751835975795984, 0.00784085807390511, 0.007848931010812521, 0.007815741933882236, 0.007794589968398213, 0.008470831904560328, 0.00788073893636465, 0.007779276929795742, 0.007889392087236047, 0.0077896430157125, 0.007736993953585625, 0.007889864034950733, 0.007789222057908773, 0.007726208074018359, 0.007793178083375096, 0.0076776049099862576, 0.00802849093452096, 0.00776530709117651, 0.007769912015646696, 0.007821759907528758, 0.007829090813174844, 0.007800669176504016, 0.007828348781913519, 0.0077676898799836636, 0.007835531840100884, 0.0077778438571840525]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.007287864502286539</v>
+        <v>0.007853177543729543</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.007283206505235285</v>
+        <v>0.007832311326637864</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.949345820651676e-05</v>
+        <v>0.0001206516927633652</v>
       </c>
       <c r="AV13" t="n">
-        <v>2923.56</v>
+        <v>2928.68</v>
       </c>
       <c r="AW13" t="n">
         <v>2857</v>
       </c>
       <c r="AX13" t="n">
-        <v>112.8763383313883</v>
+        <v>115.5694755264961</v>
       </c>
       <c r="AY13" t="n">
         <v>2857</v>
@@ -1203,7 +1197,7 @@
         <v>3305</v>
       </c>
       <c r="BA13" t="n">
-        <v>10289</v>
+        <v>10329</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -1211,9 +1205,7 @@
       <c r="BC13" t="n">
         <v>1</v>
       </c>
-      <c r="BD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1230,76 +1222,74 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2.5893229260109365, 2.6394108179956675, 2.584029574994929, 2.6122875430155545, 2.640316093020374, 2.6051472249964718, 2.5950965819938574, 2.5997691939992364, 2.6253404580056667, 2.613784940011101, 2.609378584980732, 2.5836039230052847, 2.629486635007197, 2.594876396993641, 2.60373203700874, 2.629807080986211, 2.5905399530020077, 2.576361262006685, 2.5765580529987346, 2.624391402991023, 2.6085355439863633, 2.61990341800265, 2.612398917990504, 2.5886751120269764, 2.597683619998861, 2.615600576013094, 2.7693383709993213, 2.578364024986513, 2.606901013001334, 2.631814051012043, 2.693610913993325, 2.593610922980588, 2.730368672986515, 2.625131093984237, 2.6147240030113608, 2.590264117985498, 2.638539673993364, 2.838818953023292, 2.638339288998395, 2.633617183979368, 2.6035158520098776, 2.5945606069872156, 2.5927782439976, 2.621499971981393, 2.6216931129747536, 2.5959495110146236, 2.6279622089932673, 2.6150091140007135, 2.6123510530160274, 2.59635185499792]</t>
+          <t>[2.6242238220293075, 2.637709002941847, 2.610842698952183, 2.6330169087741524, 2.6551069309934974, 2.6590780271217227, 2.6172543389257044, 2.5865759870503098, 2.6349673399236053, 2.621434587985277, 2.61403980711475, 2.652460380923003, 2.648309394950047, 2.606000140076503, 2.647349718026817, 2.634177336934954, 2.6281805199105293, 2.614677151897922, 2.604560004780069, 2.660331004066393, 2.6009049888234586, 2.6119651969056576, 2.634270414011553, 2.6003350249957293, 2.617407795973122, 2.9287225829903036, 2.649106816155836, 2.6296493669506162, 2.6194892718922347, 2.6273436571937054, 2.6173350780736655, 2.6236466967966408, 2.611805466003716, 2.646497432142496, 2.6244605311658233, 2.634003894869238, 2.652040148852393, 2.62636507791467, 2.6211176100187004, 2.62659495905973, 2.6616420950740576, 2.640391981927678, 2.628496570046991, 2.645894819870591, 2.6240509068593383, 2.646507031051442, 2.624195760115981, 2.637918032007292, 2.610173382097855, 2.6075769159942865]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.620623033719021</v>
+        <v>2.634404092184268</v>
       </c>
       <c r="G14" t="n">
-        <v>2.612319298015791</v>
+        <v>2.626969308126718</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04706612678060097</v>
+        <v>0.0458404937085943</v>
       </c>
       <c r="I14" t="n">
-        <v>6317848.342676234</v>
+        <v>6321404.283933984</v>
       </c>
       <c r="J14" t="n">
-        <v>6776427</v>
+        <v>6776459</v>
       </c>
       <c r="K14" t="n">
-        <v>1532882.884104914</v>
+        <v>1540457.829103689</v>
       </c>
       <c r="L14" t="n">
         <v>2857</v>
       </c>
       <c r="M14" t="n">
-        <v>11331301</v>
+        <v>11397021</v>
       </c>
       <c r="N14" t="n">
-        <v>11451697</v>
+        <v>11451729</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>4825</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.020352566993096843, 0.01980141902458854, 0.019756369991227984, 0.020114918996114284, 0.01988656900357455, 0.02594923402648419, 0.01999743899796158, 0.01979846999165602, 0.019911938987206668, 0.019892890006303787, 0.01971002999925986, 0.019946729007642716, 0.019925769011024386, 0.0198783679807093, 0.01984372900915332, 0.01977836000151001, 0.019930629001464695, 0.019669378991238773, 0.020162119006272405, 0.019836618972476572, 0.01984043899574317, 0.019634801021311432, 0.019887488975655288, 0.01974198900279589, 0.019866968999849632, 0.019826408999506384, 0.01979238897911273, 0.019694059010362253, 0.019638969999505207, 0.019821908994344994, 0.01971593001508154, 0.019581689994083717, 0.019641958991996944, 0.01956724899355322, 0.019595530000515282, 0.019686090003233403, 0.019686098996317014, 0.019641299004433677, 0.02002085800631903, 0.01989686899469234, 0.01973005902254954, 0.019793929008301347, 0.019624609994934872, 0.01949859000160359, 0.01954216999001801, 0.01954598000156693, 0.019515260006301105, 0.019685719977132976, 0.019782389019383118, 0.01947472000028938]</t>
+          <t>[0.0028438931331038475, 0.002818905981257558, 0.005180048057809472, 0.005240577971562743, 0.005232074996456504, 0.006463347002863884, 0.006628494942560792, 0.006583366077393293, 0.006622974993661046, 0.00660533900372684, 0.006684596883133054, 0.006671878043562174, 0.006694152019917965, 0.0066094358917325735, 0.0066052989568561316, 0.006707131862640381, 0.006732048932462931, 0.0067336231004446745, 0.006737706018611789, 0.006972128059715033, 0.006672380957752466, 0.006637488026171923, 0.006755443988367915, 0.006697857053950429, 0.006597166880965233, 0.0065569470170885324, 0.00649479404091835, 0.006646061083301902, 0.006640732986852527, 0.006588445045053959, 0.006729705957695842, 0.0065270219929516315, 0.00651002605445683, 0.006537869106978178, 0.006538339890539646, 0.006512551102787256, 0.006615034071728587, 0.006441253935918212, 0.006459671072661877, 0.006565719144418836, 0.0067561951000243425, 0.006513451924547553, 0.006527483928948641, 0.006579419830814004, 0.006462475983425975, 0.006465541897341609, 0.006537186913192272, 0.0065121399238705635, 0.006443446967750788, 0.006432791939005256]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.01990231939998921</v>
+        <v>0.006366433314979076</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01978738899924792</v>
+        <v>0.006581392954103649</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008899646961751771</v>
+        <v>0.0008074456574372451</v>
       </c>
       <c r="V14" t="n">
-        <v>6096.94</v>
+        <v>2929.32</v>
       </c>
       <c r="W14" t="n">
-        <v>5983.5</v>
+        <v>2857</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.509343285315</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y14" t="n">
         <v>2857</v>
       </c>
       <c r="Z14" t="n">
-        <v>9934</v>
+        <v>3305</v>
       </c>
       <c r="AA14" t="n">
-        <v>64722</v>
+        <v>64714</v>
       </c>
       <c r="AB14" t="n">
         <v>3</v>
@@ -1312,35 +1302,35 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.031021391012473032, 0.03087023098487407, 0.031027700984850526, 0.031037859997013584, 0.031026890996145085, 0.031107830989640206, 0.030897361022653058, 0.030864531989209354, 0.031156810000538826, 0.031242869998095557, 0.031036121014039963, 0.03136870899470523, 0.03124804000253789, 0.03096516101504676, 0.031235050002578646, 0.031140570004936308, 0.031039909983519465, 0.03110938100144267, 0.031116230005864054, 0.031543580000288785, 0.031196050986181945, 0.03116425999905914, 0.03137873002560809, 0.031002680014353245, 0.031407058995682746, 0.031024340976728126, 0.03126798997982405, 0.030988640995929018, 0.031163630017545074, 0.03173034900100902, 0.03159133900771849, 0.03134982998017222, 0.03098316097748466, 0.030995730019640177, 0.0311263500188943, 0.03099874098552391, 0.031008589983684942, 0.030984930985141546, 0.030758022010559216, 0.030885760992532596, 0.031102630018722266, 0.031117199978325516, 0.031293080013711005, 0.030895931005943567, 0.03100632000132464, 0.030758861015783623, 0.030766672018216923, 0.03145110001787543, 0.031032019993290305, 0.031032030994538218]</t>
+          <t>[0.06450089300051332, 0.052380985813215375, 0.04428276396356523, 0.03101317584514618, 0.031155148055404425, 0.0312617679592222, 0.0310051750857383, 0.031074437079951167, 0.03095757309347391, 0.03158062603324652, 0.031138041988015175, 0.030905332881957293, 0.03128668596036732, 0.030950042884796858, 0.031294167041778564, 0.030915962997823954, 0.03095183498226106, 0.031141608022153378, 0.03143588802777231, 0.03131087310612202, 0.03116060607135296, 0.03126101801171899, 0.031260205898433924, 0.03137350594624877, 0.03128304914571345, 0.031045244075357914, 0.03132025711238384, 0.031242658151313663, 0.030780328903347254, 0.03094107797369361, 0.03142776503227651, 0.03111117403022945, 0.03104281215928495, 0.03104741801507771, 0.03118303115479648, 0.031328608049079776, 0.031037492910400033, 0.03102700784802437, 0.03085094504058361, 0.030963052064180374, 0.03121098200790584, 0.030976762995123863, 0.031226555118337274, 0.03154427092522383, 0.03130411100573838, 0.031212816014885902, 0.031121039064601064, 0.031336401123553514, 0.05424797907471657, 0.03120025689713657]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.03111036522022914</v>
+        <v>0.0329722283128649</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.03103888499026652</v>
+        <v>0.03119164402596653</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0002089582704302422</v>
+        <v>0.00655352606408154</v>
       </c>
       <c r="AI14" t="n">
-        <v>8327.453333333333</v>
+        <v>8331.129870129869</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10657</v>
+        <v>10649</v>
       </c>
       <c r="AK14" t="n">
-        <v>3964.710879354005</v>
+        <v>3938.510920462861</v>
       </c>
       <c r="AL14" t="n">
         <v>2857</v>
       </c>
       <c r="AM14" t="n">
-        <v>16729</v>
+        <v>18113</v>
       </c>
       <c r="AN14" t="n">
-        <v>25529</v>
+        <v>25665</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -1353,35 +1343,35 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.009182137000607327, 0.009075567009858787, 0.009022185986395925, 0.009112396975979209, 0.0089841170120053, 0.008971336006652564, 0.008941748004872352, 0.008970388007583097, 0.009039056021720171, 0.009090687002753839, 0.00903234799625352, 0.009023685997817665, 0.008996616990771145, 0.008973896998213604, 0.009094356006244197, 0.009037037001689896, 0.009048327017808333, 0.009000056015793234, 0.009019427991006523, 0.009027717023855075, 0.008949176000896841, 0.00895679698442109, 0.009097956994082779, 0.009015756018925458, 0.009052176988916472, 0.008966517983935773, 0.009064076992217451, 0.00897345700650476, 0.00901074701687321, 0.009056897019036114, 0.009020396013511345, 0.008990478003397584, 0.009118746995227411, 0.009005757019622251, 0.009004146995721385, 0.009167656011413783, 0.00916466600028798, 0.008922406996134669, 0.008999757003039122, 0.00914018601179123, 0.009061776974704117, 0.009056296985363588, 0.009054766007466242, 0.009019938006531447, 0.00905459700152278, 0.009061755990842357, 0.008991216978756711, 0.009057066985405982, 0.009036736009875312, 0.008961776999058202]</t>
+          <t>[0.0092442671302706, 0.009226289810612798, 0.009180702036246657, 0.009189374977722764, 0.009126751916483045, 0.009207302005961537, 0.009223517030477524, 0.00921690696850419, 0.009078538976609707, 0.00911463308148086, 0.009025278966873884, 0.009105819975957274, 0.009117848007008433, 0.009120822185650468, 0.009010155918076634, 0.009163314942270517, 0.009124126983806491, 0.009078569011762738, 0.009105709148570895, 0.009023956954479218, 0.009168352000415325, 0.009102614130824804, 0.009064667858183384, 0.009085889905691147, 0.009023906895890832, 0.008982816012576222, 0.009085458004847169, 0.009154852945357561, 0.009188493946567178, 0.009355312213301659, 0.009099067887291312, 0.00908632087521255, 0.008984549203887582, 0.009005500003695488, 0.009070286992937326, 0.009076796937733889, 0.0091219840105623, 0.009038039017468691, 0.00900092301890254, 0.008962125051766634, 0.008961474988609552, 0.009051559027284384, 0.008906150003895164, 0.013435104163363576, 0.019830431090667844, 0.021318465936928988, 0.021769631886854768, 0.022399303037673235, 0.022393224062398076, 0.02238841587677598]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.009033535441267304</v>
+        <v>0.01069591206032783</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.00902570151083637</v>
+        <v>0.009110226528719068</v>
       </c>
       <c r="AU14" t="n">
-        <v>5.926484327919364e-05</v>
+        <v>0.004157360503937908</v>
       </c>
       <c r="AV14" t="n">
-        <v>2923.56</v>
+        <v>3358</v>
       </c>
       <c r="AW14" t="n">
         <v>2857</v>
       </c>
       <c r="AX14" t="n">
-        <v>112.8763383313883</v>
+        <v>1256.058423655669</v>
       </c>
       <c r="AY14" t="n">
         <v>2857</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3305</v>
+        <v>7113</v>
       </c>
       <c r="BA14" t="n">
-        <v>10289</v>
+        <v>10329</v>
       </c>
       <c r="BB14" t="n">
         <v>0.9369747899159664</v>
@@ -1389,9 +1379,7 @@
       <c r="BC14" t="n">
         <v>0.9369747899159664</v>
       </c>
-      <c r="BD14" t="n">
-        <v>0.8109243697478992</v>
-      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1408,76 +1396,74 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.644655796000734, 2.5935542680090293, 2.6008512799744494, 2.595777164999163, 2.639668024989078, 2.592367506993469, 2.5933428260032088, 2.6139466949971393, 2.573257490003016, 2.6030144249962177, 2.586402449000161, 2.603523117984878, 2.5814422050025314, 2.6005736980005167, 2.61637829898973, 2.5897553179820534, 2.5896141800039914, 2.5957530150189996, 2.623231217992725, 2.602085162012372, 2.6085355969844386, 2.6168339069990907, 2.571813443006249, 2.5930745899968315, 2.589741011004662, 2.598578269011341, 2.601177364005707, 2.6077407490229234, 2.6182827620068565, 2.6099087260081433, 2.60589280698332, 2.598447425989434, 2.60825926499092, 2.6230674469843507, 2.6254007919924334, 2.691068008018192, 2.713050464022672, 2.689950283005601, 2.6281282019917853, 2.6254711000074167, 2.627426885010209, 2.6459740200079978, 2.6174702440039255, 2.5830085130000953, 2.6053430669999216, 2.5968073690019082, 2.6874867900041863, 2.5952894359943457, 2.6062050700129475, 2.5844670369988307]</t>
+          <t>[2.7729736701585352, 2.6210483638569713, 2.6742202499881387, 2.639001311035827, 2.6601895219646394, 2.6112742938566953, 2.6403607660904527, 2.617961989948526, 2.612126298015937, 2.612491189967841, 2.6066631199792027, 2.6609094359446317, 2.622222107136622, 2.6350140860304236, 2.6207033870741725, 2.6328841119538993, 2.6351474430412054, 2.628431814024225, 2.6836019549518824, 2.598671520128846, 2.624264348996803, 2.6645121888723224, 2.64848295901902, 2.608544731978327, 2.624937839107588, 2.6880383959505707, 2.6505556320771575, 2.6097276229411364, 2.658970029093325, 2.624147984897718, 2.618869483936578, 2.6135487989522517, 2.655538055114448, 2.6383984710555524, 2.618322004098445, 2.648659270023927, 2.6111671500839293, 2.622399749001488, 2.693738359026611, 2.6158779200632125, 2.637394663877785, 2.6207019661087543, 2.627845184877515, 2.6577440968248993, 2.6578603440430015, 2.6616203950252384, 2.6374574908986688, 2.6153488121926785, 2.6346551571041346, 2.6613266200292856]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.612261895640404</v>
+        <v>2.638731047208421</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6044330924924</v>
+        <v>2.633769634529017</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02991763258861157</v>
+        <v>0.02990425848106219</v>
       </c>
       <c r="I15" t="n">
-        <v>6324563.412237644</v>
+        <v>6303466.578562421</v>
       </c>
       <c r="J15" t="n">
-        <v>6776615</v>
+        <v>6776595</v>
       </c>
       <c r="K15" t="n">
-        <v>1526291.122307151</v>
+        <v>1569327.447489067</v>
       </c>
       <c r="L15" t="n">
         <v>2857</v>
       </c>
       <c r="M15" t="n">
-        <v>10120498</v>
+        <v>11397053</v>
       </c>
       <c r="N15" t="n">
-        <v>11451569</v>
+        <v>11451697</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P15" t="n">
-        <v>6225</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.02272429200820625, 0.02268556397757493, 0.0223714429885149, 0.022377763001713902, 0.022615603025769815, 0.022179663996212184, 0.022204423003131524, 0.0222170950146392, 0.022175532998517156, 0.022505913017084822, 0.022488043003249913, 0.0229733629967086, 0.022304393001832068, 0.022410133999073878, 0.022172133991261944, 0.022100964008131996, 0.022018432995537296, 0.021998404001351446, 0.022196964011527598, 0.022278593998635188, 0.022238243982428685, 0.022265412990236655, 0.022402172995498404, 0.022298153024166822, 0.02205061400309205, 0.022068583988584578, 0.02214215398998931, 0.022386133001418784, 0.022255844000028446, 0.02218419298878871, 0.02198326398502104, 0.02215972400153987, 0.022037363989511505, 0.021991694025928155, 0.02202576500712894, 0.022023993980837986, 0.022199164028279483, 0.02197265499853529, 0.022386692988220602, 0.022544802021002397, 0.02215964501374401, 0.022246573003940284, 0.022166693990584463, 0.021975666022626683, 0.022114663996035233, 0.022063373995479196, 0.022054304979974404, 0.02206606400432065, 0.02186271399841644, 0.02190781501121819]</t>
+          <t>[0.005628019105643034, 0.005249952897429466, 0.005747028160840273, 0.006520964903756976, 0.006602335954084992, 0.006758278934285045, 0.006682258099317551, 0.006603909889236093, 0.006555367028340697, 0.006601767148822546, 0.00662694382481277, 0.006758139934390783, 0.006653263932093978, 0.006601074943318963, 0.006660634884610772, 0.006602257024496794, 0.006692159920930862, 0.006611350923776627, 0.006731269881129265, 0.00719008594751358, 0.0066077448427677155, 0.00670750392600894, 0.006584811955690384, 0.006637719925493002, 0.006699612131342292, 0.0065831891261041164, 0.006785430945456028, 0.006909796968102455, 0.006705061066895723, 0.006618021056056023, 0.006731612142175436, 0.006658820901066065, 0.006634864956140518, 0.006684469990432262, 0.006553324172273278, 0.006778410170227289, 0.006569036981090903, 0.006649759132415056, 0.006657760124653578, 0.007088174112141132, 0.006844808114692569, 0.006539532914757729, 0.006528375903144479, 0.0065798331052064896, 0.006570848869159818, 0.00649392488412559, 0.006579301785677671, 0.006566663039848208, 0.006605681963264942, 0.006536900065839291]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.02222465714090504</v>
+        <v>0.006595361172221601</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02218192849250045</v>
+        <v>0.006614685989916325</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002248470314699183</v>
+        <v>0.0003030609949127064</v>
       </c>
       <c r="V15" t="n">
-        <v>6220.38</v>
+        <v>2929.32</v>
       </c>
       <c r="W15" t="n">
-        <v>5959.5</v>
+        <v>2857</v>
       </c>
       <c r="X15" t="n">
-        <v>3297.848107019136</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y15" t="n">
         <v>2857</v>
       </c>
       <c r="Z15" t="n">
-        <v>10182</v>
+        <v>3305</v>
       </c>
       <c r="AA15" t="n">
-        <v>64722</v>
+        <v>64714</v>
       </c>
       <c r="AB15" t="n">
         <v>4</v>
@@ -1490,35 +1476,35 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.04368343000533059, 0.04332252099993639, 0.048909926001215354, 0.042980872007319704, 0.042960210994351655, 0.04342904998338781, 0.04298163199564442, 0.04311159101780504, 0.04344990901881829, 0.04316058999393135, 0.043321010016370565, 0.04341481998562813, 0.04348028000094928, 0.04331652101245709, 0.04331880999961868, 0.04361944898846559, 0.043661889008944854, 0.0436382099869661, 0.04337748000398278, 0.04374764897511341, 0.043172890989808366, 0.04332514002453536, 0.04324447098770179, 0.04343226001947187, 0.04362961900187656, 0.04364563900162466, 0.04337922000559047, 0.043423600000096485, 0.043248310015769675, 0.043225281027844176, 0.043235130986431614, 0.043080020986963063, 0.043172960984520614, 0.044008549011778086, 0.04361978900851682, 0.04360343000735156, 0.04349256999557838, 0.04338217098847963, 0.04327044100500643, 0.04348043000209145, 0.043549478985369205, 0.04315616999519989, 0.043540599988773465, 0.04312529100570828, 0.043561300000874326, 0.04342520999489352, 0.043513120006537065, 0.044180359021993354, 0.04351970998686738, 0.04391324901371263]</t>
+          <t>[0.07646171702072024, 0.0430318049620837, 0.042918935883790255, 0.04414463113062084, 0.04340644599869847, 0.04334712913259864, 0.04284473485313356, 0.04371298407204449, 0.043268389999866486, 0.043322209967300296, 0.043673184933140874, 0.0475813418161124, 0.04323804401792586, 0.043108100071549416, 0.043156322091817856, 0.043252466013655066, 0.04342422308400273, 0.04293631296604872, 0.04278388503007591, 0.04287315811961889, 0.04281289898790419, 0.04310363298282027, 0.042795833898708224, 0.042804245138540864, 0.042764324927702546, 0.04311344702728093, 0.04285401990637183, 0.04298196081072092, 0.04295148607343435, 0.043049721978604794, 0.043408738914877176, 0.04282163199968636, 0.042868932941928506, 0.043342059943825006, 0.04296038788743317, 0.04326545400545001, 0.042952796909958124, 0.043019467033445835, 0.04320440301671624, 0.04373935400508344, 0.04407312418334186, 0.042966318083927035, 0.04337143409065902, 0.042870553908869624, 0.04290182003751397, 0.04294525692239404, 0.0428523279260844, 0.04310229094699025, 0.04348135809414089, 0.046375175938010216]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.04352884524094407</v>
+        <v>0.04396480959374457</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.043424404997495</v>
+        <v>0.04310296196490526</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0008163045951232996</v>
+        <v>0.004762723539051896</v>
       </c>
       <c r="AI15" t="n">
-        <v>9050.006622516556</v>
+        <v>8689.415584415585</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11433</v>
+        <v>11417</v>
       </c>
       <c r="AK15" t="n">
-        <v>4587.011023163397</v>
+        <v>4041.800082214871</v>
       </c>
       <c r="AL15" t="n">
         <v>2857</v>
       </c>
       <c r="AM15" t="n">
-        <v>19321</v>
+        <v>13169</v>
       </c>
       <c r="AN15" t="n">
-        <v>26713</v>
+        <v>26929</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -1531,26 +1517,26 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.010289213998476043, 0.010066085000289604, 0.010022694972576573, 0.01005866500781849, 0.009991833998356014, 0.010014636005507782, 0.010058134008431807, 0.009945584984961897, 0.009947886021109298, 0.009978073998354375, 0.009993524989113212, 0.010012294980697334, 0.010023465001722798, 0.009985495009459555, 0.009971254999982193, 0.010020775021985173, 0.009978273999877274, 0.00999004501500167, 0.010022964008385316, 0.01001411399920471, 0.00997312500840053, 0.01006464401143603, 0.010018755012424663, 0.010035054001491517, 0.010126444016350433, 0.010248174017760903, 0.010005874006310478, 0.009983934985939413, 0.010091295000165701, 0.010053413978312165, 0.010094924975419417, 0.01032128298538737, 0.01008195400936529, 0.010165464016608894, 0.010123384010512382, 0.010130614013178274, 0.010009234014432877, 0.010086914990097284, 0.010015294014010578, 0.009960955008864403, 0.009966283978428692, 0.010136143973795697, 0.00995309598511085, 0.010014703992055729, 0.010021255002357066, 0.009982524992665276, 0.009919224976329133, 0.009950743988156319, 0.009953995991963893, 0.009983883996028453]</t>
+          <t>[0.00952618196606636, 0.009581875056028366, 0.009395916014909744, 0.009378358954563737, 0.009418108966201544, 0.00948481890372932, 0.009428735123947263, 0.009485279908403754, 0.00937393307685852, 0.00935824098996818, 0.009638258954510093, 0.009464600123465061, 0.009616235038265586, 0.009473892860114574, 0.00959797902032733, 0.009502315195277333, 0.00953371194191277, 0.009568605106323957, 0.009463086957111955, 0.009422285947948694, 0.009379351045936346, 0.009421895025298, 0.00945923081599176, 0.009546191897243261, 0.009475356200709939, 0.009355775080621243, 0.009344198973849416, 0.009313593152910471, 0.009349287021905184, 0.009525259956717491, 0.009377740090712905, 0.009374013869091868, 0.009333593072369695, 0.00932024302892387, 0.009447083109989762, 0.009317148942500353, 0.0093134930357337, 0.009314414113759995, 0.009248035028576851, 0.009302587946876884, 0.009301404934376478, 0.009233542950823903, 0.009314404102042317, 0.009357849135994911, 0.00927669694647193, 0.009298259858042002, 0.009363617980852723, 0.009462186135351658, 0.009331960929557681, 0.009589556138962507]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.01003715215949342</v>
+        <v>0.009415207812562585</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.01001499900303315</v>
+        <v>0.009387633530423045</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.499755862901216e-05</v>
+        <v>0.0001028259530221664</v>
       </c>
       <c r="AV15" t="n">
-        <v>2923.56</v>
+        <v>2928.68</v>
       </c>
       <c r="AW15" t="n">
         <v>2857</v>
       </c>
       <c r="AX15" t="n">
-        <v>112.8763383313883</v>
+        <v>115.5694755264961</v>
       </c>
       <c r="AY15" t="n">
         <v>2857</v>
@@ -1559,7 +1545,7 @@
         <v>3305</v>
       </c>
       <c r="BA15" t="n">
-        <v>10289</v>
+        <v>10329</v>
       </c>
       <c r="BB15" t="n">
         <v>0.9026845637583892</v>
@@ -1567,9 +1553,7 @@
       <c r="BC15" t="n">
         <v>0.9026845637583892</v>
       </c>
-      <c r="BD15" t="n">
-        <v>0.8355704697986577</v>
-      </c>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1586,32 +1570,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2.632204327004729, 2.6131195070047397, 2.602840973995626, 2.685256347001996, 2.630770596995717, 2.6013191230013035, 2.640613173978636, 2.6196491270093247, 2.626281681994442, 2.6207862670125905, 2.6633480910095386, 2.6383137549855746, 2.6586756850010715, 2.660717200982617, 2.6399854850023985, 2.6348575789888855, 2.624900905007962, 2.6548759899742436, 2.632206288020825, 2.632625258003827, 2.6367863490013406, 2.59545153498766, 2.654635926010087, 2.6348715569765773, 2.662397237989353, 2.641265702986857, 2.6498566629888956, 2.710005013999762, 2.6368262780015357, 2.6668957530055195, 2.6288713200192433, 2.6263106370170135, 2.6226411380048376, 2.6130735829938203, 2.648439804004738, 2.641057135013398, 2.6186961620114744, 2.6271784820128232, 2.6370803879981395, 2.6760706799977925, 2.645330767001724, 2.6798841440177057, 2.646360057988204, 2.640179365000222, 2.618760889978148, 2.6359231370151974, 2.6318076780007686, 2.614201882999623, 2.6553350310132373, 2.6312362930038944]</t>
+          <t>[2.6552159909624606, 2.659834814025089, 2.702835266944021, 2.6812805039808154, 2.6460289610549808, 2.648105723084882, 2.6732869760598987, 2.6513686410617083, 2.651957373833284, 2.6817583309020847, 2.6842655141372234, 2.655455195810646, 2.66227122512646, 2.6875254409387708, 2.6706154469866306, 2.663431811146438, 2.659393382957205, 2.6695337160490453, 2.6672222409397364, 2.6446576439775527, 2.6728390681091696, 2.6694520451128483, 2.6626267340034246, 2.665089352056384, 2.679289400111884, 2.649967821780592, 2.656728558940813, 2.6912063339259475, 2.645984489005059, 2.6543828449212015, 2.6772704110480845, 2.6855972688645124, 2.6487628540489823, 2.66084241704084, 2.6684019579552114, 2.6572303269058466, 2.6575053280685097, 2.6590516620781273, 2.682205999037251, 2.6550754772033542, 2.6591433328576386, 2.7086376000661403, 2.6545676989480853, 2.6497815079055727, 2.6539721619337797, 2.6737521558534354, 2.6857613772153854, 2.6506228018552065, 2.674517324892804, 2.6739785380195826]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.638815559060313</v>
+        <v>2.666005780994892</v>
       </c>
       <c r="G16" t="n">
-        <v>2.636354743008269</v>
+        <v>2.662448979564942</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02194239934501004</v>
+        <v>0.01501526294412572</v>
       </c>
       <c r="I16" t="n">
-        <v>6330703.841148886</v>
+        <v>6317225.116704045</v>
       </c>
       <c r="J16" t="n">
-        <v>6850075</v>
+        <v>6849955</v>
       </c>
       <c r="K16" t="n">
-        <v>1519561.41885988</v>
+        <v>1553170.283565824</v>
       </c>
       <c r="L16" t="n">
         <v>2857</v>
       </c>
       <c r="M16" t="n">
-        <v>10686101</v>
+        <v>11397085</v>
       </c>
       <c r="N16" t="n">
         <v>11451569</v>
@@ -1619,43 +1603,41 @@
       <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="P16" t="n">
-        <v>6225</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.02781963101006113, 0.027644941001199186, 0.027396090008551255, 0.027795999980298802, 0.02761259098770097, 0.02761187101714313, 0.02760975100682117, 0.027487590006785467, 0.027473722002469003, 0.027472780988318846, 0.027684261003741995, 0.027672280004480854, 0.027506740007083863, 0.02745107200462371, 0.02770755998790264, 0.02767815100378357, 0.027770190994488075, 0.027616429986665025, 0.028011779999360442, 0.027655971003696322, 0.027505810983711854, 0.027579331013839692, 0.027390460018068552, 0.027651030977722257, 0.027309711003908888, 0.027402890991652384, 0.027435739990323782, 0.027877509011887014, 0.03040277399122715, 0.03004572499776259, 0.027568540011998266, 0.027457000978756696, 0.027430260000983253, 0.02762065001297742, 0.027234010980464518, 0.02730912101105787, 0.02746953201130964, 0.027260420989478007, 0.027098762016976252, 0.02731372299604118, 0.027218570990953594, 0.027350791991921142, 0.027201650984352455, 0.027194523019716144, 0.02725370100233704, 0.02721868100343272, 0.02707304200157523, 0.027106631983770058, 0.027146212989464402, 0.027171082008862868]</t>
+          <t>[0.003915339009836316, 0.005302343051880598, 0.005269444081932306, 0.006438302109017968, 0.006766564911231399, 0.006768696941435337, 0.006732634035870433, 0.00667384616099298, 0.006695197895169258, 0.006726604886353016, 0.006738513009622693, 0.006621828069910407, 0.006604911992326379, 0.006593714933842421, 0.0066056528594344854, 0.006661987863481045, 0.006666834931820631, 0.006600454915314913, 0.006607938092201948, 0.006999291013926268, 0.0067510418593883514, 0.006618982879444957, 0.0067922130692750216, 0.0066806860268116, 0.006845071911811829, 0.006553515093401074, 0.0065637819934636354, 0.00660081603564322, 0.006638294085860252, 0.006637881975620985, 0.006709108129143715, 0.006456861039623618, 0.00667734001763165, 0.006567575968801975, 0.006649059010669589, 0.0065115829929709435, 0.006642700871452689, 0.006516109919175506, 0.006550301797688007, 0.006509250029921532, 0.006751341978088021, 0.006446145009249449, 0.006587195210158825, 0.006440365919843316, 0.006514006992802024, 0.006444643018767238, 0.006526225013658404, 0.006503851851448417, 0.006423840997740626, 0.006408527959138155]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.02757954591943417</v>
+        <v>0.006510168388485909</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02747325149539392</v>
+        <v>0.006605282425880432</v>
       </c>
       <c r="U16" t="n">
-        <v>0.000588653036622305</v>
+        <v>0.0004730421824625711</v>
       </c>
       <c r="V16" t="n">
-        <v>6304.46</v>
+        <v>2934.44</v>
       </c>
       <c r="W16" t="n">
-        <v>6379.5</v>
+        <v>2857</v>
       </c>
       <c r="X16" t="n">
-        <v>3381.069971162825</v>
+        <v>133.1361371694709</v>
       </c>
       <c r="Y16" t="n">
         <v>2857</v>
       </c>
       <c r="Z16" t="n">
-        <v>10334</v>
+        <v>3305</v>
       </c>
       <c r="AA16" t="n">
-        <v>64722</v>
+        <v>64714</v>
       </c>
       <c r="AB16" t="n">
         <v>5</v>
@@ -1668,35 +1650,35 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.058534562995191664, 0.05869740300113335, 0.0582883530005347, 0.05905614298535511, 0.05837463299394585, 0.058788742986507714, 0.05838272301480174, 0.05805934499949217, 0.05924544099252671, 0.05791103499359451, 0.058323884004494175, 0.05841608298942447, 0.058656743000028655, 0.05865856300806627, 0.05848126398632303, 0.05874137199134566, 0.05843918398022652, 0.05883897200692445, 0.05859285400947556, 0.05849826300982386, 0.059037441998953, 0.058525934000499547, 0.05842224298976362, 0.05870648298878223, 0.05921033999766223, 0.05884477298241109, 0.058374653017381206, 0.058483052998781204, 0.05900314301834442, 0.059545380994677544, 0.060566967993509024, 0.05799027398461476, 0.05781137500889599, 0.059855538012925535, 0.05861198200727813, 0.058311333996243775, 0.05899414198938757, 0.05863646400393918, 0.05814309298875742, 0.05866719302139245, 0.058060834009665996, 0.05867820300045423, 0.05843728399486281, 0.05878088198369369, 0.058266053994884714, 0.05829509298200719, 0.05815762499696575, 0.05891235198942013, 0.05820294498698786, 0.05872141200234182]</t>
+          <t>[0.09089882601983845, 0.0578104080632329, 0.05695021082647145, 0.05707762110978365, 0.05709293391555548, 0.05730474088340998, 0.05698102805763483, 0.056962860049679875, 0.05716162803582847, 0.05752239702269435, 0.05700896796770394, 0.05787101900205016, 0.06064004194922745, 0.05755065008997917, 0.05750258802436292, 0.05736828688532114, 0.05730122490786016, 0.05746199586428702, 0.05744232703000307, 0.059292785823345184, 0.05769235105253756, 0.057749497005715966, 0.057183970930054784, 0.057417329866439104, 0.05763953295536339, 0.057180124102160335, 0.0575959668494761, 0.0567484381608665, 0.057261087000370026, 0.05696095689199865, 0.057038252940401435, 0.0570102499332279, 0.05710249789990485, 0.057132803136482835, 0.057259193854406476, 0.05728416214697063, 0.05738168605603278, 0.057110150111839175, 0.05708786705508828, 0.05715238302946091, 0.05716808792203665, 0.05724119720980525, 0.057888224022462964, 0.05719737079925835, 0.05705989617854357, 0.057058684062212706, 0.057557599851861596, 0.05731461616232991, 0.057701505022123456, 0.05741366487927735]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.058624801117694</v>
+        <v>0.05807583777233958</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05856370850233361</v>
+        <v>0.05727262457367033</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0004857378225703812</v>
+        <v>0.004775197359745284</v>
       </c>
       <c r="AI16" t="n">
-        <v>9387.08</v>
+        <v>9334.346534653465</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10989</v>
+        <v>11081</v>
       </c>
       <c r="AK16" t="n">
-        <v>3893.246268364057</v>
+        <v>3771.222999789612</v>
       </c>
       <c r="AL16" t="n">
         <v>2857</v>
       </c>
       <c r="AM16" t="n">
-        <v>19577</v>
+        <v>18401</v>
       </c>
       <c r="AN16" t="n">
-        <v>26329</v>
+        <v>26369</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -1709,26 +1691,26 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.011344471015036106, 0.0112763209908735, 0.011173051985679194, 0.011186141986399889, 0.011208030977286398, 0.011199172004126012, 0.011234363017138094, 0.01121049202629365, 0.011139650974655524, 0.011232291988562793, 0.011120782990474254, 0.011135261011077091, 0.011251251009525731, 0.011249372008023784, 0.0111170920135919, 0.011177820997545496, 0.011072413006331772, 0.01116327298223041, 0.011076302995206788, 0.011188281991053373, 0.011139812006149441, 0.011229002004256472, 0.01118524101912044, 0.011176910978974774, 0.01106304198037833, 0.011237032013013959, 0.011157861998071894, 0.011148632009280846, 0.011088742001447827, 0.011134771979413927, 0.011039231001632288, 0.011235012003453448, 0.011121652991278097, 0.011104951991001144, 0.011131212988402694, 0.011156221997225657, 0.011113582004327327, 0.011241900996537879, 0.011077653005486354, 0.011138603003928438, 0.011129332007840276, 0.01115192100405693, 0.01105530298082158, 0.011048343003494665, 0.011023182014469057, 0.01098469301359728, 0.011026141990441829, 0.0111116609768942, 0.011067861982155591, 0.011128951999126002]</t>
+          <t>[0.01001466391608119, 0.0099801120813936, 0.009883568855002522, 0.009922296041622758, 0.00998274702578783, 0.009893924929201603, 0.00984171498566866, 0.009773572906851768, 0.009833363117650151, 0.009913123212754726, 0.009817791171371937, 0.00985917099751532, 0.009743558941408992, 0.00975955300964415, 0.009780173189938068, 0.009771129116415977, 0.009762478992342949, 0.009840123122557998, 0.009717850014567375, 0.009754164842888713, 0.009750528959557414, 0.009756127838045359, 0.00979425385594368, 0.009887624066323042, 0.009798310929909348, 0.009796207072213292, 0.009737239917740226, 0.009832171024754643, 0.009829036891460419, 0.009917018003761768, 0.009848525049164891, 0.009812511038035154, 0.009763317881152034, 0.009811310097575188, 0.009899521945044398, 0.00976249692030251, 0.009801777079701424, 0.009679604088887572, 0.009720464004203677, 0.00967348413541913, 0.009743347996845841, 0.009710138896480203, 0.009756278013810515, 0.00978424004279077, 0.009869877947494388, 0.009731461061164737, 0.009695558110252023, 0.009659744100645185, 0.009748145006597042, 0.009650018997490406]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.01114808597834781</v>
+        <v>0.009801308428868651</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.01113973149040248</v>
+        <v>0.009789246949367225</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.388816027852242e-05</v>
+        <v>8.369043201511516e-05</v>
       </c>
       <c r="AV16" t="n">
-        <v>2923.6</v>
+        <v>2938.96</v>
       </c>
       <c r="AW16" t="n">
         <v>2857</v>
       </c>
       <c r="AX16" t="n">
-        <v>112.8813717210801</v>
+        <v>120.1089573372988</v>
       </c>
       <c r="AY16" t="n">
         <v>2857</v>
@@ -1737,7 +1719,7 @@
         <v>3305</v>
       </c>
       <c r="BA16" t="n">
-        <v>10289</v>
+        <v>10329</v>
       </c>
       <c r="BB16" t="n">
         <v>0.8631284916201117</v>
@@ -1745,9 +1727,7 @@
       <c r="BC16" t="n">
         <v>0.8631284916201117</v>
       </c>
-      <c r="BD16" t="n">
-        <v>0.6955307262569832</v>
-      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1764,76 +1744,74 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[2.614938657003222, 2.6283880939881783, 2.6701594699989073, 2.614805190009065, 2.6688500140153337, 2.6701586519775447, 2.6212431150197517, 2.6276147110038437, 2.641157537000254, 2.6961950910044834, 2.6481530420132913, 2.6420110879989807, 2.6586079169937875, 2.6199810550024267, 2.689191612007562, 2.6318788760108873, 2.657903843006352, 2.668097977992147, 2.619593701005215, 2.636639689008007, 2.62731889198767, 2.625379109987989, 2.646495496999705, 2.6740629989944864, 2.7070648660010193, 2.6374487920256797, 2.64403535699239, 2.643059797992464, 2.6557658189849462, 2.6396138790005352, 2.657224395981757, 2.6581810540228616, 2.6242139200039674, 2.658131566015072, 2.6488542910083197, 2.639733032992808, 2.6668347470113076, 2.7206105240038596, 2.6393462069972884, 2.6667112599825487, 2.686210191983264, 2.642397991003236, 2.6653481960238423, 2.726794973015785, 2.6809432090085465, 2.625820355984615, 2.6356675830029417, 2.6778375870198943, 2.6614167889929377, 2.7063022179936524]</t>
+          <t>[2.667131441179663, 2.654252923093736, 2.707314315950498, 2.6711715180426836, 2.6821795201394707, 2.674220841145143, 2.660559961106628, 2.643073266139254, 2.6441102689132094, 2.719514804892242, 2.6849921599496156, 2.6675123248714954, 2.6832939088344574, 2.6377654639072716, 2.6532254880294204, 2.669333128957078, 2.674217796884477, 2.6742902658879757, 2.636487961979583, 2.6759893659036607, 2.6612382440362126, 2.6664334090892226, 2.6490012309513986, 2.675162588013336, 2.6653012819588184, 2.6604425909463316, 2.690515829017386, 2.6844306928105652, 2.676116640912369, 2.6594412000849843, 2.6706825690343976, 2.6455133568961173, 2.643090819939971, 2.7394289260264486, 2.6790725397877395, 2.64315072610043, 2.685645994031802, 2.674973892979324, 2.6651564720086753, 2.644420440075919, 2.7223766120150685, 2.6564503689296544, 2.650597100146115, 2.665163633879274, 2.688142349012196, 2.65506109315902, 2.6642830132041126, 2.6833315449766815, 2.6940609791781753, 2.6611805339343846]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.654287888661492</v>
+        <v>2.670010067978874</v>
       </c>
       <c r="G17" t="n">
-        <v>2.648503666510805</v>
+        <v>2.667321883025579</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02726227964532193</v>
+        <v>0.02155474815337849</v>
       </c>
       <c r="I17" t="n">
-        <v>6334637.652058212</v>
+        <v>6313698.952290077</v>
       </c>
       <c r="J17" t="n">
-        <v>6851164</v>
+        <v>6850356</v>
       </c>
       <c r="K17" t="n">
-        <v>1518421.033552687</v>
+        <v>1554183.06743445</v>
       </c>
       <c r="L17" t="n">
         <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>11397022</v>
+        <v>10114707</v>
       </c>
       <c r="N17" t="n">
-        <v>11451386</v>
+        <v>11451442</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="n">
-        <v>6675</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.02813752999645658, 0.02814338100142777, 0.028103120013838634, 0.02786714001558721, 0.02798879100009799, 0.027831831015646458, 0.027987598994513974, 0.02790077999816276, 0.027726211992558092, 0.0279225810081698, 0.02777350999531336, 0.02795414999127388, 0.02796219999436289, 0.02784928900655359, 0.028168038988951594, 0.02800173099967651, 0.028141710005002096, 0.027989041002001613, 0.028208909003296867, 0.028022421000059694, 0.028065310994861647, 0.02803696002229117, 0.02809689997229725, 0.028186718991491944, 0.028072240005712956, 0.02889399800915271, 0.029389777017058805, 0.028640648000873625, 0.02851592900697142, 0.027841629984322935, 0.0276741010020487, 0.028149119985755533, 0.028500088985310867, 0.028844878019299358, 0.02867763800895773, 0.02869962900876999, 0.028782457986380905, 0.028710938000585884, 0.028591898997547105, 0.02830509000341408, 0.027950481016887352, 0.027760321012465283, 0.02762398001505062, 0.027679942024406046, 0.027980421000393108, 0.027718440018361434, 0.02772492097574286, 0.027799470000900328, 0.027825859986478463, 0.02765854200697504]</t>
+          <t>[0.002844067057594657, 0.0039206568617373705, 0.005304296966642141, 0.005276495823636651, 0.006432925816625357, 0.006625654874369502, 0.0066686689388006926, 0.0067629399709403515, 0.006701829144731164, 0.0067102808970957994, 0.0066388449631631374, 0.0066849240101873875, 0.006710432004183531, 0.006694908952340484, 0.006583811016753316, 0.0065845639910548925, 0.006664882879704237, 0.006651232950389385, 0.00658314093016088, 0.007042258977890015, 0.0065738968551158905, 0.006768638966605067, 0.006581308087334037, 0.0067204260267317295, 0.006625644862651825, 0.006746546132490039, 0.006660005077719688, 0.006777361035346985, 0.006564384093508124, 0.006627687020227313, 0.006640997948125005, 0.006579797016456723, 0.006636971142143011, 0.006516620051115751, 0.006464723963290453, 0.006508961087092757, 0.0065876180306077, 0.006592643912881613, 0.006507657002657652, 0.006614960031583905, 0.0068622189573943615, 0.006490201922133565, 0.006586906965821981, 0.006566965952515602, 0.006463011959567666, 0.0065002478659152985, 0.006596551043912768, 0.00647199503146112, 0.006522921146824956, 0.00653323601000011]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.02812156590167433</v>
+        <v>0.006439558444544673</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0280120759998681</v>
+        <v>0.006590130971744657</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0003874077776011542</v>
+        <v>0.0007003146891878142</v>
       </c>
       <c r="V17" t="n">
-        <v>6422.66</v>
+        <v>2930.32</v>
       </c>
       <c r="W17" t="n">
-        <v>5816.5</v>
+        <v>2858</v>
       </c>
       <c r="X17" t="n">
-        <v>3502.464942167318</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y17" t="n">
         <v>2858</v>
       </c>
       <c r="Z17" t="n">
-        <v>10591</v>
+        <v>3306</v>
       </c>
       <c r="AA17" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB17" t="n">
         <v>6</v>
@@ -1846,67 +1824,65 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.07865572400623932, 0.07637669899850152, 0.07649470999604091, 0.07746619699173607, 0.0771219470188953, 0.07619638100732118, 0.07649116098764353, 0.07712461697519757, 0.07701648797956295, 0.07665110900416039, 0.07573202101048082, 0.07560092100175098, 0.08058088898542337, 0.07573916099499911, 0.07721456800936721, 0.07633097999496385, 0.07757307699648663, 0.07724202700774185, 0.07621921898680739, 0.07634698098991066, 0.07822779400157742, 0.07662246999097988, 0.07659890901413746, 0.07602117001079023, 0.07683013801579364, 0.0755828519759234, 0.07654396898578852, 0.07649350899737328, 0.07688705902546644, 0.07653441798174754, 0.07739501699688844, 0.07677779800724238, 0.07638169897836633, 0.075781851017382, 0.07682328802184202, 0.07582410000031814, 0.07630016899202019, 0.07587214998784475, 0.0765779789944645, 0.07755368598736823, 0.07698156702099368, 0.07652351999422535, 0.07696425900212489, 0.07721164802205749, 0.07704614699468948, 0.07638923899503425, 0.0768153480021283, 0.07614810002269223, 0.0763522110064514, 0.07572846199036576]</t>
+          <t>[0.10932064708322287, 0.07568859192542732, 0.07610531500540674, 0.07511804788373411, 0.07511627511121333, 0.07538369507528841, 0.07467103004455566, 0.0745404630433768, 0.07539527397602797, 0.07535156700760126, 0.0751226139254868, 0.07477033790200949, 0.07496080198325217, 0.07469040807336569, 0.07457949290983379, 0.07515603490173817, 0.0746858308557421, 0.07437080005183816, 0.0757245251443237, 0.07525959005579352, 0.07500098110176623, 0.07500035199336708, 0.08429577108472586, 0.07460483000613749, 0.07442000298760831, 0.07437822106294334, 0.07422756403684616, 0.07417068886570632, 0.07458248594775796, 0.0745046699885279, 0.07395446696318686, 0.07416594284586608, 0.07432197709567845, 0.07437563803978264, 0.07460562302730978, 0.07456845603883266, 0.07478186395019293, 0.0747366480063647, 0.07454610196873546, 0.07446859683841467, 0.07411020901054144, 0.07405141205526888, 0.07429500599391758, 0.07412054506130517, 0.0740995251107961, 0.0752124588470906, 0.07472304697148502, 0.07540277391672134, 0.07481006719172001, 0.07456407998688519]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.07671930805954616</v>
+        <v>0.0756222269590944</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07656097399012651</v>
+        <v>0.07467843045014888</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0008486692734102947</v>
+        <v>0.005069586447809431</v>
       </c>
       <c r="AI17" t="n">
-        <v>9198.288659793814</v>
+        <v>9041.843137254902</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10330</v>
+        <v>10410</v>
       </c>
       <c r="AK17" t="n">
-        <v>2985.702255377704</v>
+        <v>3077.601966639121</v>
       </c>
       <c r="AL17" t="n">
         <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>15898</v>
+        <v>14050</v>
       </c>
       <c r="AN17" t="n">
-        <v>25530</v>
+        <v>25570</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
       </c>
-      <c r="AP17" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.011665480997180566, 0.01155825101886876, 0.01157771100406535, 0.011615700990660116, 0.011502690991619602, 0.011562800005776808, 0.01155740098329261, 0.011529911978868768, 0.011474921979242936, 0.011627681989921257, 0.011589931003982201, 0.011595131014473736, 0.011499111977173015, 0.011588641995331272, 0.011544059991138056, 0.011581369995838031, 0.0115185710019432, 0.011413331987569109, 0.01149445099872537, 0.01148265099618584, 0.011616140982368961, 0.011557132005691528, 0.011534321994986385, 0.011529861018061638, 0.011490970995509997, 0.011488641001051292, 0.011562091007363051, 0.011458691005827859, 0.01159355099662207, 0.011537541024154052, 0.011443440977018327, 0.011531710013514385, 0.011476991989184171, 0.011467581003671512, 0.011507440998684615, 0.011510340991662815, 0.011522540997248143, 0.011525592010002583, 0.011531280993949622, 0.011450850986875594, 0.011522192013217136, 0.011441442009527236, 0.011622331978287548, 0.011459251982159913, 0.011513022007420659, 0.011492811987409368, 0.011449161014752463, 0.011534971999935806, 0.011538760998519138, 0.011488571006339043]</t>
+          <t>[0.010017410852015018, 0.009830128867179155, 0.009792044060304761, 0.009695618879050016, 0.009621247882023454, 0.009634057059884071, 0.009706293931230903, 0.009695409098640084, 0.009687717072665691, 0.009680015966296196, 0.009641057113185525, 0.009615409886464477, 0.009683569893240929, 0.009591222973540425, 0.009702117880806327, 0.009587037144228816, 0.009614195907488465, 0.00964518403634429, 0.009622297948226333, 0.009647917002439499, 0.009666134137660265, 0.009629510110244155, 0.009649598971009254, 0.009583311155438423, 0.009594856994226575, 0.009547027060762048, 0.00977035891264677, 0.009602499892935157, 0.009575149044394493, 0.009647124912589788, 0.009751010918989778, 0.009810340125113726, 0.009595939889550209, 0.009550641058012843, 0.009586164960637689, 0.009676841087639332, 0.009573645889759064, 0.009612753987312317, 0.009585704887285829, 0.00960618513636291, 0.009557521902024746, 0.00973159191198647, 0.009599825134500861, 0.009533487027511, 0.009613004047423601, 0.009577561868354678, 0.009704813128337264, 0.009628928964957595, 0.009588348912075162, 0.009635298978537321]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.01152758065785747</v>
+        <v>0.009649902689270675</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.01152772651403211</v>
+        <v>0.009629219537600875</v>
       </c>
       <c r="AU17" t="n">
-        <v>5.541230781858753e-05</v>
+        <v>8.645245038191264e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>2924.56</v>
+        <v>2934.8</v>
       </c>
       <c r="AW17" t="n">
         <v>2858</v>
       </c>
       <c r="AX17" t="n">
-        <v>112.8763383313883</v>
+        <v>117.9747465194417</v>
       </c>
       <c r="AY17" t="n">
         <v>2858</v>
@@ -1915,17 +1891,13 @@
         <v>3306</v>
       </c>
       <c r="BA17" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB17" t="n">
         <v>0.8517587939698492</v>
       </c>
-      <c r="BC17" t="n">
-        <v>0.7763819095477387</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0.6708542713567839</v>
-      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1942,76 +1914,74 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2.6778851120034233, 2.680461156007368, 2.6642876469995826, 2.6650260369933676, 2.683753949997481, 2.6422031330002937, 2.667463892023079, 2.670589185989229, 2.727872732997639, 2.6941624880128074, 2.6568510409852024, 2.7425426589907147, 2.6893713519966695, 2.654706959001487, 2.6961861359886825, 2.707295439002337, 2.647817468998255, 2.6631013709993567, 2.724349099007668, 2.699043333006557, 2.6691303059924394, 2.666181713982951, 2.6772698079876136, 2.7233800549875014, 2.666874946007738, 2.7194865259807557, 2.6624924580100924, 2.6690045529976487, 2.665168231993448, 2.6694865730241872, 2.7197261579858605, 2.6802496459858958, 2.7008225960016716, 2.661506014992483, 2.6707179619988892, 2.6677242510195356, 2.6856715260073543, 2.7500371859932784, 2.7052210310066584, 2.711108116985997, 2.6762803720193915, 2.774180469015846, 2.7240466749935877, 2.7540432210080326, 2.655917075026082, 2.6746341300022323, 2.656701293977676, 2.668449585995404, 2.707724109000992, 2.7073487500019837]</t>
+          <t>[2.6837764910887927, 2.690968451090157, 2.6738175039645284, 2.682307926006615, 2.7008628209587187, 2.6745607489719987, 2.6661611979361624, 2.6632006771396846, 2.6940475259907544, 3.0645508621819317, 2.6673179410863668, 2.6922397138550878, 2.6809464518446475, 2.709826427977532, 2.692410523071885, 2.7168372329324484, 2.6907912329770625, 2.6886841389350593, 2.690786391030997, 2.6964840251021087, 2.7003540250007063, 2.6905395560897887, 2.7185768210329115, 2.7000333569012582, 2.6978114899247885, 2.7195214750245214, 2.690635594073683, 2.6934188359882683, 2.6918508880771697, 2.6786994349677116, 2.7031485489569604, 2.6912792639341205, 2.6928134579211473, 2.6773248550016433, 2.7045608698390424, 2.6897650670725852, 2.710585060995072, 2.6921587591059506, 2.666969662066549, 2.68219684693031, 2.684846979100257, 2.689748841105029, 2.726812564069405, 2.7493201249744743, 2.749866739846766, 2.743692347081378, 2.746172995073721, 2.7482056650333107, 2.6894574710167944, 2.6847635318990797]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.687911110639689</v>
+        <v>2.704514188244939</v>
       </c>
       <c r="G18" t="n">
-        <v>2.677577459995518</v>
+        <v>2.69200482359156</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03006375867501819</v>
+        <v>0.05627099630890295</v>
       </c>
       <c r="I18" t="n">
-        <v>6335002.152785756</v>
+        <v>6323472.351402175</v>
       </c>
       <c r="J18" t="n">
-        <v>6776780</v>
+        <v>6776812</v>
       </c>
       <c r="K18" t="n">
-        <v>1514885.686974768</v>
+        <v>1544537.004794054</v>
       </c>
       <c r="L18" t="n">
         <v>2858</v>
       </c>
       <c r="M18" t="n">
-        <v>10620206</v>
+        <v>10686190</v>
       </c>
       <c r="N18" t="n">
-        <v>11451282</v>
+        <v>11451434</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="n">
-        <v>7825</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.022740722983144224, 0.022398064989829436, 0.022200273990165442, 0.022261204023379833, 0.022251964983297512, 0.02232778401230462, 0.022349754988681525, 0.022355794993927702, 0.022466544003691524, 0.02244716399582103, 0.022437024977989495, 0.022410174016840756, 0.022104114992544055, 0.022150365984998643, 0.022251674003200606, 0.022185003996128216, 0.022201896004844457, 0.022152304998598993, 0.022536233998835087, 0.022068904974730685, 0.022132874990347773, 0.022061085008317605, 0.022208023990970105, 0.022214294003788382, 0.022187535010743886, 0.022394995001377538, 0.02253312399261631, 0.022358715010341257, 0.02244193499791436, 0.022188975010067225, 0.022150055010570213, 0.022407725016819313, 0.02224424501764588, 0.0220988150103949, 0.021991514979163185, 0.02211303499643691, 0.02236774397897534, 0.02231083600781858, 0.022144385002320632, 0.022305395017610863, 0.02233904501190409, 0.021985685016261414, 0.022023244993761182, 0.021999014978064224, 0.022050905012292787, 0.02213240400305949, 0.02687238299404271, 0.02201331700780429, 0.022423955000704154, 0.02226807500119321]</t>
+          <t>[0.0028874820563942194, 0.0035649249330163, 0.005891527980566025, 0.0059546008706092834, 0.0067450550850480795, 0.006847219076007605, 0.006628390168771148, 0.006692396942526102, 0.006618434796109796, 0.006717635085806251, 0.006759274983778596, 0.006646827096119523, 0.006603352027013898, 0.006672975840047002, 0.006638024002313614, 0.006694368785247207, 0.006703912978991866, 0.006677874829620123, 0.0066277398727834225, 0.007217372069135308, 0.006632586009800434, 0.0066698521841317415, 0.006797393085435033, 0.006601378787308931, 0.006809982005506754, 0.006614309037104249, 0.006606756942346692, 0.006638735067099333, 0.006583772134035826, 0.00663346704095602, 0.00666798884049058, 0.0066137779504060745, 0.006724273087456822, 0.006621009903028607, 0.0066323860082775354, 0.0065593060571700335, 0.006565425079315901, 0.006588991964235902, 0.006649081828072667, 0.006544634932652116, 0.006914106896147132, 0.006469921907410026, 0.00646586692892015, 0.0065454659052193165, 0.006485756020992994, 0.006558034801855683, 0.006641088984906673, 0.006701198872178793, 0.006586928153410554, 0.006570494035258889]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.02234520613972563</v>
+        <v>0.006489667198620736</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02224795951042324</v>
+        <v>0.006630388088524342</v>
       </c>
       <c r="U18" t="n">
-        <v>0.000673575088716921</v>
+        <v>0.0007018727877748145</v>
       </c>
       <c r="V18" t="n">
-        <v>6432.58</v>
+        <v>2940.56</v>
       </c>
       <c r="W18" t="n">
-        <v>5840.5</v>
+        <v>2858</v>
       </c>
       <c r="X18" t="n">
-        <v>3516.219607315318</v>
+        <v>135.0065999898387</v>
       </c>
       <c r="Y18" t="n">
         <v>2858</v>
       </c>
       <c r="Z18" t="n">
-        <v>10655</v>
+        <v>3306</v>
       </c>
       <c r="AA18" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB18" t="n">
         <v>7</v>
@@ -2024,58 +1994,56 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.08853956000530161, 0.0891066089970991, 0.08849251101491973, 0.08979727799305692, 0.08915396800148301, 0.08906244800891727, 0.0889514590089675, 0.08851657999912277, 0.0903999760048464, 0.08824207101133652, 0.08865042999968864, 0.08976022701244801, 0.08889323100447655, 0.08983374599483795, 0.08909400898846798, 0.0892635399941355, 0.08905946899903938, 0.08910041899071075, 0.08879163899109699, 0.08954043898847885, 0.0890732090047095, 0.0889701790001709, 0.0901780870044604, 0.08912137898732908, 0.0893282979959622, 0.08987298799911514, 0.08900537897716276, 0.08952805699664168, 0.08963962801499292, 0.09183451198623516, 0.08883754099952057, 0.08935406801174395, 0.08878488899790682, 0.09155582200037315, 0.08898225898155943, 0.09454703499795869, 0.08863429998746142, 0.08897184900706634, 0.08965733699733391, 0.08868728898232803, 0.08908803798840381, 0.08908443799009547, 0.08964027697220445, 0.08992019601282664, 0.08839484100462869, 0.09403547699912451, 0.08799137201276608, 0.08834550101892091, 0.08826564199989662, 0.08913460897747427]</t>
+          <t>[0.1234945971518755, 0.08603594684973359, 0.08575333515182137, 0.0855743270367384, 0.08565164287574589, 0.08549075108021498, 0.08590766601264477, 0.08575638011097908, 0.08575009019114077, 0.08597695012576878, 0.08615585719235241, 0.08569173305295408, 0.10654701408930123, 0.08664860390126705, 0.08643490611575544, 0.08601228194311261, 0.08667314006015658, 0.086087164003402, 0.08867190103046596, 0.08669869019649923, 0.08629507478326559, 0.08643644582480192, 0.08690823311917484, 0.08636935683898628, 0.08706409600563347, 0.08728494704701006, 0.08608881593681872, 0.08648838615044951, 0.08655852009542286, 0.08653611619956791, 0.0865716200787574, 0.08647478511556983, 0.08633641782216728, 0.08630045386962593, 0.08632354810833931, 0.08612808492034674, 0.08607214200310409, 0.08695677598007023, 0.08623855095356703, 0.0864746649749577, 0.0868686840403825, 0.09770960710011423, 0.0872175560798496, 0.08689002506434917, 0.08643673779442906, 0.08632325893267989, 0.08637621719390154, 0.08626238699071109, 0.09616839210502803, 0.0859335248824209]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.08941428209829611</v>
+        <v>0.08794212808366865</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08909102348843589</v>
+        <v>0.08637278701644391</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.001239897465889593</v>
+        <v>0.006227001055788239</v>
       </c>
       <c r="AI18" t="n">
-        <v>9441.263157894737</v>
+        <v>9295.446254071661</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10338</v>
+        <v>10410</v>
       </c>
       <c r="AK18" t="n">
-        <v>3107.518995397613</v>
+        <v>2877.314169432715</v>
       </c>
       <c r="AL18" t="n">
         <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>19130</v>
+        <v>17698</v>
       </c>
       <c r="AN18" t="n">
-        <v>25530</v>
+        <v>25570</v>
       </c>
       <c r="AO18" t="n">
         <v>7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.011735570995369926, 0.01154757000040263, 0.01155619099154137, 0.011461932008387521, 0.011480151995783672, 0.011416021996410564, 0.011462380993179977, 0.0114894520083908, 0.01161114001297392, 0.01137800101423636, 0.011443202005466446, 0.011428811005316675, 0.011409681988880038, 0.011396451998734847, 0.01138700099545531, 0.011434151005232707, 0.01140788197517395, 0.011403031996451318, 0.011420651979278773, 0.01145872098277323, 0.011429230973590165, 0.011652290006168187, 0.011379062023479491, 0.011511991993756965, 0.011475901992525905, 0.0115143220173195, 0.011521640990395099, 0.011493120982777327, 0.011472860001958907, 0.011447411001427099, 0.011447762022726238, 0.0114549919962883, 0.011522920976858586, 0.011489580996567383, 0.011510592012200505, 0.01148871099576354, 0.011531650990946218, 0.01170560100581497, 0.011461830988992006, 0.011444261996075511, 0.01146552199497819, 0.011465382005553693, 0.011504060996230692, 0.011503290006658062, 0.011435121006798, 0.01147429199772887, 0.011499051994178444, 0.011515392019646242, 0.011521011998411268, 0.011520961008500308]</t>
+          <t>[0.010023509850725532, 0.00978751783259213, 0.009779736865311861, 0.009714719140902162, 0.009690311970189214, 0.009760547894984484, 0.009925383841618896, 0.009912523906677961, 0.009818203980103135, 0.009695859858766198, 0.00971857481636107, 0.00971968681551516, 0.009686357108876109, 0.00966602610424161, 0.009678044123575091, 0.009662100113928318, 0.009615971008315682, 0.00964013789780438, 0.009615900926291943, 0.009734227089211345, 0.009688328020274639, 0.009673656895756721, 0.009708508150652051, 0.009661998832598329, 0.009645002894103527, 0.009695468936115503, 0.009713936829939485, 0.009608339052647352, 0.009567938977852464, 0.009640048025175929, 0.009642882039770484, 0.009765505092218518, 0.009675581008195877, 0.00961464992724359, 0.00970376213081181, 0.009666566969826818, 0.00958629697561264, 0.009628470055758953, 0.009622999932616949, 0.009618885815143585, 0.009614116977900267, 0.009636382106691599, 0.009642691118642688, 0.00974796898663044, 0.00969485891982913, 0.00958235003054142, 0.009634969988837838, 0.0096271769143641, 0.00963453808799386, 0.009653005981817842]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.01148375637887511</v>
+        <v>0.009688844536431134</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.01147357599984389</v>
+        <v>0.00967011193279177</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.356635187568211e-05</v>
+        <v>8.786676814524079e-05</v>
       </c>
       <c r="AV18" t="n">
         <v>2924.56</v>
@@ -2093,17 +2061,13 @@
         <v>3306</v>
       </c>
       <c r="BA18" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB18" t="n">
         <v>0.8105022831050228</v>
       </c>
-      <c r="BC18" t="n">
-        <v>0.7054794520547946</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0.7146118721461188</v>
-      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2120,76 +2084,74 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2.716383669991046, 2.7225551739975344, 2.700068791018566, 2.7172534379933495, 2.727561745006824, 2.6931920999777503, 2.7038789540238213, 2.749667741009034, 2.717608781007584, 2.7001299039984588, 2.739548879006179, 2.734595640999032, 2.727301091013942, 2.725257794983918, 2.7351658109982964, 2.7196829710155725, 2.8684038019855507, 2.755599092983175, 2.7370721379993483, 2.7607215909811202, 2.7069695649843197, 2.750573847006308, 2.711679962987546, 2.730498867982533, 2.7695145420148037, 2.723016356001608, 2.7050141030049417, 2.714634258998558, 2.707552706997376, 2.7052878829999827, 2.700223625986837, 2.7188184800033923, 2.757728835014859, 2.7410726560046896, 2.7148380000144243, 2.7429031819920056, 2.7223818130150903, 2.720383950014366, 2.740841609018389, 2.736604659992736, 2.7268889550177846, 2.698757945006946, 2.7628218170139007, 2.7017629080219194, 2.77445177998743, 2.9167348979972303, 2.72748633500305, 2.7029632670164574, 2.7378462710184976, 2.7967391759739257]</t>
+          <t>[2.762236155103892, 2.7556395391002297, 2.7374426131136715, 2.733220661059022, 2.769158811075613, 2.797251981217414, 2.764937336090952, 2.7714078850112855, 2.719550965121016, 2.7409655589144677, 2.7521813299972564, 2.727770081954077, 2.7279636680614203, 2.7164209799375385, 2.7343513800296932, 2.7349965118337423, 2.7276055570691824, 2.7489257608540356, 2.732617539120838, 2.743427504086867, 2.7497444541659206, 2.7415247969329357, 2.7300234800204635, 2.7320369188673794, 2.762107918970287, 2.7413096679374576, 2.748892671894282, 2.7181818049866706, 2.771409461973235, 2.747119846055284, 2.745485025225207, 2.7772876780945808, 2.7365949309896678, 2.7350902429316193, 2.729945369064808, 2.7579666231758893, 2.739970583934337, 2.740098732057959, 2.7350981440395117, 2.741894830018282, 2.7399441360030323, 2.7380383799318224, 2.741959973005578, 2.7359343599528074, 2.7129310369491577, 2.7617157860659063, 2.732724380912259, 2.7690255960915238, 2.741808446822688, 2.774324367986992]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.73437282732164</v>
+        <v>2.744565229276195</v>
       </c>
       <c r="G19" t="n">
-        <v>2.726073375000851</v>
+        <v>2.741137613425963</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03972965554549836</v>
+        <v>0.01738890046573343</v>
       </c>
       <c r="I19" t="n">
-        <v>6348940.542626914</v>
+        <v>6332115.662264455</v>
       </c>
       <c r="J19" t="n">
-        <v>6907476</v>
+        <v>6907536</v>
       </c>
       <c r="K19" t="n">
-        <v>1501727.577184156</v>
+        <v>1542872.97145311</v>
       </c>
       <c r="L19" t="n">
         <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>11397022</v>
+        <v>11397147</v>
       </c>
       <c r="N19" t="n">
-        <v>11451594</v>
+        <v>11451602</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P19" t="n">
-        <v>7950</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.02277973500895314, 0.022593314002733678, 0.022457534010754898, 0.022695795021718368, 0.022629443992627785, 0.022477913997136056, 0.022320176009088755, 0.022469843999715522, 0.02240698499372229, 0.022477444988908246, 0.02228442401974462, 0.022388315002899617, 0.022633624001173303, 0.022298193973256275, 0.022282574005657807, 0.02260750500136055, 0.022281624987954274, 0.022514814016176388, 0.022617063979851082, 0.022568972985027358, 0.02240530401468277, 0.022514086012961343, 0.022907853010110557, 0.022681712987832725, 0.022523755003931, 0.022570902976440266, 0.022341803996823728, 0.02237691599293612, 0.02237281500129029, 0.022387624980183318, 0.022303065983578563, 0.022379974980140105, 0.022684184019453824, 0.022399045003112406, 0.022118294989923015, 0.02226814499590546, 0.02231153499451466, 0.02238783400389366, 0.022526264016050845, 0.022178165992954746, 0.022204324981430545, 0.02236703399103135, 0.02252969500841573, 0.0224418840080034, 0.022215824981685728, 0.022478954982943833, 0.021984104998409748, 0.029186597996158525, 0.022049415012588724, 0.02200183499371633]</t>
+          <t>[0.002806219970807433, 0.0055669432040303946, 0.005238929996266961, 0.005595194175839424, 0.006255461135879159, 0.006672085030004382, 0.006584145128726959, 0.006692276103422046, 0.006766067817807198, 0.006812807871028781, 0.0068792758975178, 0.006679828045889735, 0.0066918861120939255, 0.006763021927326918, 0.006673446856439114, 0.006614329060539603, 0.00670242216438055, 0.006691574119031429, 0.006699478020891547, 0.007187386974692345, 0.006669430993497372, 0.006655031116679311, 0.006643694126978517, 0.0066848150454461575, 0.0066037040669471025, 0.006721540121361613, 0.0066423609387129545, 0.006649811984971166, 0.006809371057897806, 0.00663428008556366, 0.006574979983270168, 0.006683313054963946, 0.006694880081340671, 0.006616742815822363, 0.0065419431775808334, 0.006650713970884681, 0.006581960944458842, 0.006622432032600045, 0.006612436147406697, 0.006530442973598838, 0.006822881987318397, 0.00660883984528482, 0.006483302218839526, 0.0066692710388451815, 0.006567039061337709, 0.006499857176095247, 0.0064048259519040585, 0.006704024039208889, 0.006568569922819734, 0.006511396029964089]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.02255768503819127</v>
+        <v>0.006504733432084322</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02240614450420253</v>
+        <v>0.006646753055974841</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0009753473738839263</v>
+        <v>0.0006197321311807643</v>
       </c>
       <c r="V19" t="n">
-        <v>6573.7</v>
+        <v>2940.56</v>
       </c>
       <c r="W19" t="n">
-        <v>5900.5</v>
+        <v>2858</v>
       </c>
       <c r="X19" t="n">
-        <v>3655.463028057451</v>
+        <v>135.0065999898387</v>
       </c>
       <c r="Y19" t="n">
         <v>2858</v>
       </c>
       <c r="Z19" t="n">
-        <v>10911</v>
+        <v>3306</v>
       </c>
       <c r="AA19" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB19" t="n">
         <v>8</v>
@@ -2202,86 +2164,80 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.09866219601826742, 0.09951748501043767, 0.09870865699485876, 0.09889535600086674, 0.09986351401312277, 0.12415765301557258, 0.15689775202190503, 0.15301960200304165, 0.09810629699495621, 0.09939025499625131, 0.09821802700753324, 0.09957329300232232, 0.09857489698333666, 0.09921031500562094, 0.09978478300035931, 0.09905410598730668, 0.0988894650072325, 0.0992577440047171, 0.09871322600520216, 0.09926730499137193, 0.09831024700542912, 0.09897754498524591, 0.09950610398664139, 0.09934470398002304, 0.09867791601573117, 0.09843791701132432, 0.09896009598742239, 0.09952509301365353, 0.09847409700159915, 0.0991996850061696, 0.09826240799156949, 0.1008824500022456, 0.09898126701591536, 0.10003993200371042, 0.10145020898198709, 0.10019674300565384, 0.10031255200738087, 0.10010462297941558, 0.09975063300225884, 0.1001736230100505, 0.10539512897958048, 0.09880821598926559, 0.0984056769812014, 0.09976634298800491, 0.10037274201749824, 0.10042172099929303, 0.10085722099756822, 0.10123945900704712, 0.10124347099917941, 0.10028108200640418]</t>
+          <t>[0.12924061017110944, 0.09618722996674478, 0.09526997688226402, 0.09591478295624256, 0.09536473010666668, 0.09521246096119285, 0.09505140013061464, 0.09548710309900343, 0.09555463399738073, 0.09612986398860812, 0.09627034515142441, 0.09574907412752509, 0.09531297301873565, 0.09525512298569083, 0.09569833893328905, 0.09540600213222206, 0.09533422207459807, 0.0957540119998157, 0.09571868809871376, 0.09556567785330117, 0.09592112200334668, 0.09576198295690119, 0.09555381210520864, 0.09603313985280693, 0.09597806609235704, 0.10096437996253371, 0.09498165501281619, 0.09503172105178237, 0.09587591397576034, 0.09580199397169054, 0.096217144979164, 0.09490740508772433, 0.09535121801309288, 0.09481338504701853, 0.09607259789481759, 0.09999698190949857, 0.09640827099792659, 0.1038086460903287, 0.09586102305911481, 0.09481363487429917, 0.09492517192848027, 0.09553185990080237, 0.09505217103287578, 0.09547701897099614, 0.09591583511792123, 0.09578869491815567, 0.09561142907477915, 0.09573936089873314, 0.09528824407607317, 0.09502942906692624]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.1022824166604551</v>
+        <v>0.09659981117118149</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.09944817949144635</v>
+        <v>0.0956548840040341</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.01147217165526879</v>
+        <v>0.004959278500893137</v>
       </c>
       <c r="AI19" t="n">
-        <v>10168.91944444444</v>
+        <v>10111.95454545455</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11178</v>
+        <v>11218</v>
       </c>
       <c r="AK19" t="n">
-        <v>2999.436406050045</v>
+        <v>2952.629276535008</v>
       </c>
       <c r="AL19" t="n">
         <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>15586</v>
+        <v>13218</v>
       </c>
       <c r="AN19" t="n">
-        <v>26330</v>
+        <v>26466</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="AP19" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.011899950011866167, 0.011981730000115931, 0.011866140004713088, 0.011841929983347654, 0.011835281009553, 0.012021380010992289, 0.01194785101688467, 0.011885230982443318, 0.011916280986042693, 0.011799631000030786, 0.011848730995552614, 0.011835070996312425, 0.01196672098012641, 0.01175717098522, 0.011846320994663984, 0.01179926100303419, 0.01174188099685125, 0.011828570975922048, 0.011759081011405215, 0.011795870988862589, 0.01162472099531442, 0.011692732019582763, 0.01150728200445883, 0.011805771006038412, 0.011576381977647543, 0.011843650980154052, 0.011742591013899073, 0.011829201015643775, 0.011734651023289189, 0.01173422101419419, 0.01165414199931547, 0.011822161002783105, 0.011663160985335708, 0.011747451004339382, 0.011525781999807805, 0.011656631977530196, 0.011745781026547775, 0.011612350004725158, 0.011568479996640235, 0.011607260996242985, 0.011611990979872644, 0.011676221998641267, 0.011662160977721214, 0.011676871014060453, 0.011726602009730414, 0.011656121001578867, 0.011627900996245444, 0.01170412200735882, 0.011692370986565948, 0.011669551982777193]</t>
+          <t>[0.00997298606671393, 0.009807479102164507, 0.00968100898899138, 0.009595361072570086, 0.00962747004814446, 0.009707469958811998, 0.009653517976403236, 0.009671804960817099, 0.009592246962711215, 0.009655222063884139, 0.00959412008523941, 0.009540408849716187, 0.009634630056098104, 0.009603451937437057, 0.009728090139105916, 0.009578936034813523, 0.009598303819075227, 0.009597604861482978, 0.009623883059248328, 0.009690542938187718, 0.009716230910271406, 0.009670173050835729, 0.00968835991807282, 0.009666437050327659, 0.009644484845921397, 0.009736280888319016, 0.00965247699059546, 0.009599477052688599, 0.009665106888860464, 0.009635962080210447, 0.009609012166038156, 0.009692046092823148, 0.009627579944208264, 0.009539388120174408, 0.009547818917781115, 0.009557263925671577, 0.009530694922432303, 0.00943730492144823, 0.00976402498781681, 0.009594150120392442, 0.009594419971108437, 0.01913779298774898, 0.019988354993984103, 0.0221406570635736, 0.019828855991363525, 0.019737910013645887, 0.019692993024364114, 0.023381764069199562, 0.023393091978505254, 0.02437859703786671]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.01175144805863965</v>
+        <v>0.01174006499815732</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.01174418602022342</v>
+        <v>0.009654370020143688</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.0001198881268799987</v>
+        <v>0.004596822385393208</v>
       </c>
       <c r="AV19" t="n">
-        <v>2924.56</v>
+        <v>3524.169491525424</v>
       </c>
       <c r="AW19" t="n">
         <v>2858</v>
       </c>
       <c r="AX19" t="n">
-        <v>112.8763383313883</v>
+        <v>1406.845789070572</v>
       </c>
       <c r="AY19" t="n">
         <v>2858</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3306</v>
+        <v>7482</v>
       </c>
       <c r="BA19" t="n">
-        <v>10290</v>
+        <v>10426</v>
       </c>
       <c r="BB19" t="n">
         <v>0.7951541850220264</v>
       </c>
-      <c r="BC19" t="n">
-        <v>0.6806167400881057</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0.7004405286343612</v>
-      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2298,32 +2254,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[2.868082920991583, 2.8490717989916448, 2.9742868299945258, 2.8476669829979073, 2.816823141009081, 2.81562323399703, 2.8561300429864787, 2.821389579999959, 2.824963980994653, 2.836292602994945, 2.824731442000484, 2.8227023590006866, 2.8065608390024863, 2.823764515982475, 2.806878019007854, 2.799557106976863, 2.8413566740055103, 2.8120457970071584, 2.808397226006491, 2.8884383400145452, 2.8642258899926674, 2.8221369060047437, 2.9037641230097506, 2.841944865998812, 2.8219549750210717, 2.8078705220250413, 2.8166207100148313, 2.8160618219990283, 2.8007858089986257, 2.815075374994194, 2.845896270009689, 2.795951572014019, 2.8344028379942756, 2.8303984600061085, 2.80289681602153, 2.827584675018443, 2.8092414019920398, 2.8476348069962114, 2.805322862986941, 2.953673115989659, 2.8411758839793038, 2.8588190019945614, 2.7877789869962726, 2.822050382994348, 2.853940014989348, 2.8193362599995453, 2.795428762008669, 2.8000935679883696, 2.851043983013369, 2.795999349007616]</t>
+          <t>[2.8350374510046095, 2.8459499899763614, 2.8370050380472094, 2.831104490906, 2.840459818020463, 2.8213073569349945, 2.8330963980406523, 2.8224581899121404, 2.839798449072987, 2.8448242540471256, 2.816887937951833, 2.8129795340355486, 2.824620972853154, 2.854563842061907, 2.8194853358436376, 2.842483560787514, 2.8516031859908253, 2.8205279000103474, 2.8418469028547406, 2.838481248822063, 2.8395308568142354, 2.8200912228785455, 2.830047749914229, 2.833957377122715, 2.809581838781014, 2.826451542088762, 2.83226183289662, 2.862063051899895, 2.813137417891994, 2.8225728149991482, 2.8342453201767057, 2.819095178041607, 2.8168929270468652, 2.8587854530196637, 2.8718953190837055, 2.8202885519713163, 2.8149875921662897, 2.837247235001996, 2.8470598948188126, 2.807407469023019, 2.8353137217927724, 2.8689303998835385, 2.827717280946672, 2.8307018019258976, 2.832286426797509, 2.836806716164574, 2.833252671873197, 2.8146795670036227, 2.837529820855707, 2.8122973600402474]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.832677468880429</v>
+        <v>2.8324327654019</v>
       </c>
       <c r="G20" t="n">
-        <v>2.822419632502715</v>
+        <v>2.832691412419081</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03644053920048032</v>
+        <v>0.01499653499560036</v>
       </c>
       <c r="I20" t="n">
-        <v>6365085.071328889</v>
+        <v>6354967.513601741</v>
       </c>
       <c r="J20" t="n">
-        <v>6906564</v>
+        <v>6906508</v>
       </c>
       <c r="K20" t="n">
-        <v>1484110.278842652</v>
+        <v>1506044.222756268</v>
       </c>
       <c r="L20" t="n">
         <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>11192806</v>
+        <v>10252959</v>
       </c>
       <c r="N20" t="n">
         <v>11451250</v>
@@ -2331,43 +2287,41 @@
       <c r="O20" t="n">
         <v>9</v>
       </c>
-      <c r="P20" t="n">
-        <v>8075</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.023672892013564706, 0.02366313201491721, 0.02363524099928327, 0.023455332004232332, 0.02364742200006731, 0.02369113199529238, 0.023564602015540004, 0.023731611989205703, 0.02371897202101536, 0.02350989301339723, 0.023534272011602297, 0.023654192016692832, 0.023545102012576535, 0.023781860974850133, 0.023571611993247643, 0.02356256201164797, 0.023545472009573132, 0.02893259798293002, 0.024283550010295585, 0.023672581010032445, 0.023376862023724243, 0.023344863002421334, 0.02341953298309818, 0.023305332026211545, 0.02348640200216323, 0.02326086300308816, 0.023327161994529888, 0.02363499201601371, 0.023175632988568395, 0.023366671986877918, 0.023331232980126515, 0.023441861994797364, 0.02364443099941127, 0.02330852299928665, 0.02360314197721891, 0.023382601008052006, 0.023480002011638135, 0.023367813002550974, 0.02365441099391319, 0.023713550996035337, 0.02348393201828003, 0.023365511995507404, 0.023477042006561533, 0.023527601995738223, 0.02321204199688509, 0.023242034018039703, 0.023434881994035095, 0.023406162013998255, 0.024463478999678046, 0.023654221993638203]</t>
+          <t>[0.002832207828760147, 0.0032209709752351046, 0.005351899890229106, 0.006140831159427762, 0.006729531800374389, 0.006703222868964076, 0.0066699928138405085, 0.00677657313644886, 0.006724203936755657, 0.006667318986728787, 0.006731475004926324, 0.006655561970546842, 0.006616233149543405, 0.006674018921330571, 0.006545688025653362, 0.006643133936449885, 0.006642282009124756, 0.0066710649989545345, 0.006584544898942113, 0.007719954941421747, 0.006597355008125305, 0.006586657138541341, 0.006570786004886031, 0.006564225070178509, 0.006574621889740229, 0.006547349970787764, 0.006591746816411614, 0.00660732900723815, 0.006574590224772692, 0.00662464601919055, 0.006629853043705225, 0.006518836133182049, 0.006633548066020012, 0.006620350060984492, 0.006635463098064065, 0.00660291314125061, 0.006560249021276832, 0.006501200143247843, 0.006625295849516988, 0.006547610042616725, 0.006879306165501475, 0.0064107251819223166, 0.006403634091839194, 0.006395252887159586, 0.006472479086369276, 0.006362061016261578, 0.006590084172785282, 0.006579508073627949, 0.006429122993722558, 0.006464865989983082]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.02364533648244105</v>
+        <v>0.006440047533251345</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02353093700367026</v>
+        <v>0.006590915494598448</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0007967611287520821</v>
+        <v>0.0007535833907800462</v>
       </c>
       <c r="V20" t="n">
-        <v>6756.42</v>
+        <v>2935.44</v>
       </c>
       <c r="W20" t="n">
-        <v>6812.5</v>
+        <v>2858</v>
       </c>
       <c r="X20" t="n">
-        <v>3833.465284105811</v>
+        <v>126.7019900621702</v>
       </c>
       <c r="Y20" t="n">
         <v>2858</v>
       </c>
       <c r="Z20" t="n">
-        <v>11247</v>
+        <v>3306</v>
       </c>
       <c r="AA20" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
@@ -2380,58 +2334,56 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.10616631800075993, 0.10657151800114661, 0.10701348600559868, 0.10673586599295959, 0.10721499600913376, 0.10742252500494942, 0.10662299700197764, 0.1062435679777991, 0.10697835698374547, 0.10642186700715683, 0.10630308699910529, 0.10642208802164532, 0.10654405699460767, 0.10632293799426407, 0.10688542600837536, 0.10740032600006089, 0.10685487699811347, 0.10672731799422763, 0.10667725899838842, 0.10671292699407786, 0.10655579800368287, 0.10588191900751553, 0.10726131501724012, 0.10721522601670586, 0.10664019698742777, 0.10755564499413595, 0.10762192399124615, 0.10700260597513989, 0.10723093600245193, 0.11254711201763712, 0.10657920700032264, 0.10722317799809389, 0.10677022699383087, 0.10881708201486617, 0.10869897200609557, 0.10780382400844246, 0.1077194050012622, 0.10811585397459567, 0.10634018800919876, 0.10632069801795296, 0.10594244999811053, 0.10710802499670535, 0.1070527870033402, 0.10717719700187445, 0.10673018702073023, 0.10689485698821954, 0.10667212700354867, 0.1067617770167999, 0.10667079701670446, 0.10758339500171132]</t>
+          <t>[0.1524053430184722, 0.1022810498252511, 0.1020407690666616, 0.10219238488934934, 0.1018527178093791, 0.10166604700498283, 0.10573327611200511, 0.10155288898386061, 0.10167686408385634, 0.10167153785005212, 0.1038107790518552, 0.10192647902294993, 0.10244445293210447, 0.10263546905480325, 0.10234837094321847, 0.10281723085790873, 0.10367558593861759, 0.10274492506869137, 0.10290202801115811, 0.10298490221612155, 0.10248423391021788, 0.1029817380476743, 0.10275469697080553, 0.10276201879605651, 0.10253442800603807, 0.10305278399027884, 0.10547785414382815, 0.1033325931057334, 0.1092024790123105, 0.10264290100894868, 0.10267956601455808, 0.10205988818779588, 0.1017896740231663, 0.1020849458873272, 0.10203096503391862, 0.10206605796702206, 0.10211510118097067, 0.10208273213356733, 0.10291321505792439, 0.10193678410723805, 0.10195129597559571, 0.1019501150585711, 0.10186344501562417, 0.10251773288473487, 0.10185411991551518, 0.10229145386256278, 0.10703508486039937, 0.10269892495125532, 0.10291389678604901, 0.10293928580358624]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.1070547342614736</v>
+        <v>0.1037672622688115</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1068125519959722</v>
+        <v>0.1025009833974764</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0009985640434432195</v>
+        <v>0.007154559268394026</v>
       </c>
       <c r="AI20" t="n">
-        <v>9520.877551020409</v>
+        <v>9446.529577464789</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10378</v>
+        <v>10458</v>
       </c>
       <c r="AK20" t="n">
-        <v>2702.870730252631</v>
+        <v>2667.594026130475</v>
       </c>
       <c r="AL20" t="n">
         <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>18010</v>
+        <v>11746</v>
       </c>
       <c r="AN20" t="n">
-        <v>25530</v>
+        <v>25570</v>
       </c>
       <c r="AO20" t="n">
         <v>9</v>
       </c>
-      <c r="AP20" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.01194772101007402, 0.011617961979936808, 0.01199078100034967, 0.011561111983610317, 0.012528698978712782, 0.011515980993863195, 0.013168436998967081, 0.011625790997641161, 0.011827801004983485, 0.011648621002677828, 0.012753279006574303, 0.011452392005594447, 0.012823607976315543, 0.011572591989533976, 0.012890777987195179, 0.011521992011694238, 0.013069138018181548, 0.012017571018077433, 0.012622879003174603, 0.011932701017940417, 0.012403110013110563, 0.012203430000226945, 0.011989410006208345, 0.012254830013262108, 0.011973321001278237, 0.013120127987349406, 0.011716262000845745, 0.012401138985296711, 0.01163968097534962, 0.012884177005616948, 0.011539802013430744, 0.012606398988282308, 0.011489541007904336, 0.013440827984595671, 0.01157274199067615, 0.012793998001143336, 0.011535212019225582, 0.012942279019625857, 0.011652192013571039, 0.012696127989329398, 0.011602351005421951, 0.012770077999448404, 0.011778440995840356, 0.012308570003369823, 0.011827640002593398, 0.012178370001493022, 0.012046029994962737, 0.012118810001993552, 0.012024411000311375, 0.011997330002486706]</t>
+          <t>[0.010035690851509571, 0.009729482000693679, 0.009779937099665403, 0.00976659799925983, 0.009667880134657025, 0.009715232066810131, 0.009659779025241733, 0.009783623041585088, 0.009955000830814242, 0.009672668064013124, 0.009677964029833674, 0.009672196116298437, 0.009664114098995924, 0.009646699065342546, 0.009702350944280624, 0.009715992957353592, 0.009674300905317068, 0.009659128030762076, 0.009715290972962976, 0.009654552210122347, 0.009715379914268851, 0.009597386000677943, 0.009602983947843313, 0.009641301119700074, 0.00963016296736896, 0.009644164005294442, 0.009658505907282233, 0.00972111988812685, 0.009676785208284855, 0.009607841027900577, 0.009699819143861532, 0.009666438912972808, 0.009629392996430397, 0.009666888043284416, 0.009571707108989358, 0.009635751135647297, 0.009588862070813775, 0.00956424605101347, 0.00971695501357317, 0.009620900033041835, 0.00958224292844534, 0.009600460063666105, 0.009566548047587276, 0.009657414862886071, 0.009555561933666468, 0.009553340030834079, 0.009606827981770039, 0.009623733116313815, 0.009572387905791402, 0.00965135614387691]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.01215192952018697</v>
+        <v>0.009667498879134656</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.01200745051028207</v>
+        <v>0.009658816969022155</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0005483797805887981</v>
+        <v>8.856558793093257e-05</v>
       </c>
       <c r="AV20" t="n">
         <v>2924.56</v>
@@ -2449,17 +2401,13 @@
         <v>3306</v>
       </c>
       <c r="BA20" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB20" t="n">
         <v>0.7864923747276689</v>
       </c>
-      <c r="BC20" t="n">
-        <v>0.673202614379085</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0.7037037037037037</v>
-      </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2476,76 +2424,74 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2.9569160149840172, 2.9419994820200372, 2.8395695850194898, 2.82125112900394, 2.827086246019462, 2.84300753599382, 2.862787357007619, 2.8489350229792763, 2.8931841640151106, 2.826390699017793, 2.8328122130187694, 2.85250180499861, 2.881789214006858, 2.867881128011504, 2.8480801269761287, 2.8604643369908445, 2.8137674420140684, 2.8095610119926278, 2.847970617993269, 2.903565004002303, 2.8174814539961517, 2.869814095989568, 2.860090021014912, 2.8428225020179525, 2.857394916994963, 2.8890203399932943, 2.8317269120016135, 2.840854598005535, 2.795396569999866, 2.8659595170174725, 2.8887820210075006, 2.8258986180007923, 2.829659848997835, 2.8467771369905677, 2.817871498002205, 2.8290427419997286, 2.885039972985396, 2.8164403720002156, 2.8320523150032386, 2.8147263370046858, 2.85345212102402, 2.8732702620036434, 2.8555097060161643, 2.835039847996086, 2.8656255530077033, 2.833531212003436, 2.8706364410172682, 2.853589083009865, 2.8398497570015024, 2.856428317987593]</t>
+          <t>[2.868470618966967, 2.8816358880139887, 2.8390090079046786, 2.8549399990588427, 2.847527066944167, 2.9194917348213494, 2.850395058048889, 2.847695881035179, 2.8630913279484957, 2.834476381074637, 2.8527578990906477, 2.873253090074286, 2.9038239701185375, 2.8615733268670738, 2.861270393943414, 2.857814216054976, 2.847871226957068, 2.855913849081844, 2.8399286449421197, 2.875400251010433, 2.858746100217104, 2.8664526178035885, 2.8769430618267506, 2.88365189707838, 2.8377760560251772, 2.866575788008049, 2.8636846120934933, 2.882943951059133, 2.8727408251725137, 2.8821127850096673, 2.8523302709218115, 2.860010880045593, 2.8422131550032645, 2.8698939390014857, 2.8465871270745993, 2.8665354589466006, 2.8802253629546613, 2.8469587238505483, 2.8352091000415385, 2.8676785340067, 2.892011288087815, 2.872627266915515, 2.8553433190099895, 2.8729164279066026, 2.8556449168827385, 2.8472933899611235, 2.8693393610883504, 2.86733075696975, 2.879456860013306, 2.8332651839591563]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.851466084523127</v>
+        <v>2.862816776977852</v>
       </c>
       <c r="G21" t="n">
-        <v>2.848025372484699</v>
+        <v>2.862332327407785</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0313282757390871</v>
+        <v>0.01779941166717551</v>
       </c>
       <c r="I21" t="n">
-        <v>6363350.732881982</v>
+        <v>6356974.353506614</v>
       </c>
       <c r="J21" t="n">
-        <v>6777828</v>
+        <v>6777688</v>
       </c>
       <c r="K21" t="n">
-        <v>1483778.976931919</v>
+        <v>1501448.659710952</v>
       </c>
       <c r="L21" t="n">
         <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>10476606</v>
+        <v>11192862</v>
       </c>
       <c r="N21" t="n">
-        <v>11451730</v>
+        <v>11451666</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="P21" t="n">
-        <v>8475</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.015891130024101585, 0.015832011005841196, 0.015864241984672844, 0.015736630011815578, 0.016150651004863903, 0.01566690200706944, 0.01582404100918211, 0.015587821981171146, 0.0159678109921515, 0.01567896199412644, 0.015818329993635416, 0.015676081995479763, 0.015941350982757285, 0.015685871010646224, 0.015834252000786364, 0.01569904200732708, 0.01583755001774989, 0.015663622005376965, 0.016599839989794418, 0.01558179099811241, 0.015492082020500675, 0.015601621009409428, 0.01586983000743203, 0.015861531981499866, 0.01616246101912111, 0.015566280984785408, 0.015597291989251971, 0.015687081002397463, 0.015641292004147545, 0.01569392200326547, 0.015768762008519843, 0.01568042000872083, 0.015709193015936762, 0.015656582021620125, 0.015584821027005091, 0.0155350620043464, 0.015534882986685261, 0.015568960981909186, 0.015928271022858098, 0.01599776098737493, 0.01569123100489378, 0.015497732005314901, 0.015679862000979483, 0.015655491006327793, 0.015560343017568812, 0.01554820200544782, 0.015451191982720047, 0.01558228099020198, 0.015646461979486048, 0.015654351009288803]</t>
+          <t>[0.0028509870171546936, 0.0026856199838221073, 0.0026485631242394447, 0.0026646489277482033, 0.0033141709864139557, 0.005211109993979335, 0.005253142910078168, 0.00639211805537343, 0.006633308948948979, 0.00669766403734684, 0.0066893009934574366, 0.006833930034190416, 0.00663880817592144, 0.006744354963302612, 0.00666228192858398, 0.006678775884211063, 0.006615772843360901, 0.006649272050708532, 0.006636844016611576, 0.007042452227324247, 0.006707360036671162, 0.0067343811970204115, 0.006539797876030207, 0.007261127000674605, 0.007432054029777646, 0.0073915531393140554, 0.007354557979851961, 0.007242100080475211, 0.00728846900165081, 0.007340187905356288, 0.007490081014111638, 0.007369359955191612, 0.007324323058128357, 0.007265486055985093, 0.007264962885528803, 0.0066340898629277945, 0.006684745894744992, 0.006655661854892969, 0.006651486037299037, 0.006556262960657477, 0.0067371230106800795, 0.006557395914569497, 0.006544275209307671, 0.006534521002322435, 0.006604416063055396, 0.006494921166449785, 0.006528262048959732, 0.006485376041382551, 0.006509685190394521, 0.006444325903430581]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.01573286380211357</v>
+        <v>0.006363429529592395</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01568014100485016</v>
+        <v>0.006650379044003785</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0002030759992023666</v>
+        <v>0.00127183637647507</v>
       </c>
       <c r="V21" t="n">
-        <v>7434.9</v>
+        <v>2935.44</v>
       </c>
       <c r="W21" t="n">
-        <v>6624.5</v>
+        <v>2858</v>
       </c>
       <c r="X21" t="n">
-        <v>4563.007710231966</v>
+        <v>126.7019900621702</v>
       </c>
       <c r="Y21" t="n">
         <v>2858</v>
       </c>
       <c r="Z21" t="n">
-        <v>13415</v>
+        <v>3306</v>
       </c>
       <c r="AA21" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB21" t="n">
         <v>10</v>
@@ -2558,67 +2504,65 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.11264707299415022, 0.11637064299429767, 0.11472006799886003, 0.11430061899591237, 0.11461839798721485, 0.11926215700805187, 0.11231137398863211, 0.11223055399022996, 0.11197451499174349, 0.1120772740105167, 0.11635110399220139, 0.11241978401085362, 0.11592187499627471, 0.11297536300844513, 0.11232658399967477, 0.11786023099557497, 0.11182091501541436, 0.11285125199356116, 0.11238398400018923, 0.11208871399867348, 0.11308557100710459, 0.1127979519951623, 0.11271856297389604, 0.11215020398958586, 0.1130863520083949, 0.11455924899200909, 0.11573883501114324, 0.11356139002600685, 0.11449481899035163, 0.11213683398091234, 0.11390423998818733, 0.11514482699567452, 0.11383170000044629, 0.11240237302263267, 0.11239195399684832, 0.11932924602297135, 0.1138875609904062, 0.11208788401563652, 0.11230163398431614, 0.11262842299765907, 0.12103513299371116, 0.1129078830126673, 0.11247357298270799, 0.11306497198529541, 0.1125905129883904, 0.11208302399609238, 0.11369915000977926, 0.11219395400257781, 0.1144712989917025, 0.11322359199402854]</t>
+          <t>[0.1584272759500891, 0.10965644498355687, 0.11027998919598758, 0.10917249205522239, 0.11014847201295197, 0.10921976203098893, 0.11071518994867802, 0.10841195192188025, 0.1104671680368483, 0.10923936101607978, 0.11110894987359643, 0.10972662107087672, 0.1107907728292048, 0.10903570801019669, 0.10984711884520948, 0.10835782112553716, 0.11255125910975039, 0.10969972983002663, 0.11000220291316509, 0.10856624296866357, 0.10994568793103099, 0.10857597785070539, 0.11029343889094889, 0.1091417339630425, 0.1101233740337193, 0.10930724209174514, 0.14576067589223385, 0.1103428730275482, 0.11022864212282002, 0.10982656106352806, 0.11033194605261087, 0.1094847668427974, 0.11034930194728076, 0.10976485698483884, 0.11089796177111566, 0.10925963101908565, 0.11245156917721033, 0.10960817290470004, 0.11110694683156908, 0.10951174888759851, 0.11050264211371541, 0.1086477660574019, 0.11017576209269464, 0.10881358408369124, 0.1098409011028707, 0.10937479487620294, 0.11000038008205593, 0.10905815893784165, 0.10988410585559905, 0.10869870195165277]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.1137499036983354</v>
+        <v>0.1115346888033673</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1129416230105562</v>
+        <v>0.1098440099740401</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.002080345287869717</v>
+        <v>0.008506244365690292</v>
       </c>
       <c r="AI21" t="n">
-        <v>9563.58</v>
+        <v>9541.488888888889</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10386</v>
+        <v>10514</v>
       </c>
       <c r="AK21" t="n">
-        <v>2660.166354984304</v>
+        <v>2533.772012609104</v>
       </c>
       <c r="AL21" t="n">
         <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>17434</v>
+        <v>12922</v>
       </c>
       <c r="AN21" t="n">
-        <v>25530</v>
+        <v>25570</v>
       </c>
       <c r="AO21" t="n">
         <v>10</v>
       </c>
-      <c r="AP21" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.0119560309976805, 0.011638472002232447, 0.011707741999998689, 0.011571801995160058, 0.011638990981737152, 0.011534691002452746, 0.011488452000776306, 0.011623222002526745, 0.01157039200188592, 0.011619251017691568, 0.011593740986427292, 0.01163355098105967, 0.011547011003131047, 0.011558011989109218, 0.011839251004857942, 0.0116656819882337, 0.011600032012211159, 0.011486961011542007, 0.011444022005889565, 0.011509122006827965, 0.011493372003315017, 0.011556001991266385, 0.011383052013115957, 0.011460872017778456, 0.011447130993474275, 0.012591230013640597, 0.011650542001007125, 0.011461971997050568, 0.011472471000161022, 0.011495712009491399, 0.011473902006400749, 0.011483541980851442, 0.01160697199520655, 0.011655941023491323, 0.012684538000030443, 0.01186860099551268, 0.011675680987536907, 0.011619160999543965, 0.011498392006615177, 0.011473352002212778, 0.011561902007088065, 0.011524552013725042, 0.011547551985131577, 0.011545241985004395, 0.011688070982927456, 0.01160715101286769, 0.011536352016264573, 0.01144550199387595, 0.011475261999294162, 0.011486822011647746]</t>
+          <t>[0.01009138603694737, 0.009814280085265636, 0.009940078016370535, 0.00976087898015976, 0.00979553209617734, 0.009798836195841432, 0.009801352163776755, 0.009793729986995459, 0.009812055854126811, 0.009696352994069457, 0.00984568614512682, 0.009805436944589019, 0.00997315812855959, 0.009719048161059618, 0.009809053037315607, 0.009812757140025496, 0.009866609005257487, 0.00967823714017868, 0.00991281890310347, 0.009701221017166972, 0.009821329033002257, 0.00977431982755661, 0.00976994400843978, 0.009695552056655288, 0.009837004821747541, 0.00972940307110548, 0.009870464913547039, 0.009745125891640782, 0.009706408949568868, 0.009700509952381253, 0.009827258996665478, 0.009782121982425451, 0.010066016810014844, 0.009646580088883638, 0.00986369396559894, 0.009734049905091524, 0.009784424910321832, 0.009739208035171032, 0.009764366084709764, 0.00977010396309197, 0.009811456082388759, 0.009662752971053123, 0.009746518917381763, 0.009749163873493671, 0.00974497594870627, 0.009984144940972328, 0.009767702082172036, 0.009617866016924381, 0.00968406512401998, 0.009743635077029467]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.01161394554073922</v>
+        <v>0.009791373526677489</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.0115570069901878</v>
+        <v>0.009778220904991031</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0002385512694183446</v>
+        <v>9.711236488040546e-05</v>
       </c>
       <c r="AV21" t="n">
-        <v>2924.56</v>
+        <v>2929.68</v>
       </c>
       <c r="AW21" t="n">
         <v>2858</v>
       </c>
       <c r="AX21" t="n">
-        <v>112.8763383313883</v>
+        <v>115.5694755264961</v>
       </c>
       <c r="AY21" t="n">
         <v>2858</v>
@@ -2627,17 +2571,13 @@
         <v>3306</v>
       </c>
       <c r="BA21" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB21" t="n">
         <v>0.7780172413793104</v>
       </c>
-      <c r="BC21" t="n">
-        <v>0.665948275862069</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0.7306034482758621</v>
-      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2654,32 +2594,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[5.137955170008354, 5.095671165006934, 5.095211275998736, 5.110490368999308, 5.155038860015338, 5.089016462996369, 5.1112408000044525, 5.149048818013398, 5.1000285879999865, 5.085853965982096, 5.115075921989046, 5.133893987978809, 5.135103745997185, 5.09107965498697, 5.120043095026631, 5.115574397001183, 5.160047407000093, 5.074504457996227, 5.116171527013648, 5.114184931997443, 5.083187929994892, 5.126306053018197, 5.094989681994775, 5.097422495979117, 5.138680275005754, 5.18325298599666, 5.112023713008966, 5.100446080992697, 5.101597057975596, 5.072908670001198, 5.109820980025688, 5.118339818989625, 5.1306905500241555, 5.2813653409830295, 5.10405282699503, 5.131430020002881, 5.127914979006164, 5.122196932992665, 5.125339025980793, 5.195033816999057, 5.130402165988926, 5.137095237994799, 5.183892478002235, 5.230889313010266, 5.283219483972061, 5.165031290991465, 5.297106954996707, 5.116825834993506, 5.086769360990729, 5.11937397098518]</t>
+          <t>[5.143403034890071, 5.138597070006654, 5.097750623011962, 5.181967749027535, 5.127740758936852, 5.095064127119258, 5.122210138011724, 5.132550342939794, 5.155874225078151, 5.120160626946017, 5.128840038087219, 5.138934615068138, 5.149266089079902, 5.114675119984895, 5.194332272047177, 5.146006133873016, 5.130509326001629, 5.115939565934241, 5.149034561123699, 5.1201520171016455, 5.172784138005227, 5.1512891098391265, 5.1075868317857385, 5.113262092927471, 5.130683779018, 5.156052380101755, 5.126573850866407, 5.149158564861864, 5.137485078070313, 5.117629013955593, 5.135154474992305, 5.127228447934613, 5.198573708999902, 5.111226419918239, 5.171885675052181, 5.173878713976592, 5.118181007914245, 5.123988057021052, 5.129452973138541, 5.1581644371617585, 5.116949992021546, 5.130265990039334, 5.124927564058453, 5.114051460986957, 5.124523842940107, 5.104587687877938, 5.13097317982465, 5.122837967937812, 5.127986859995872, 5.1748019841033965]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.1322567985981</v>
+        <v>5.135703074391931</v>
       </c>
       <c r="G22" t="n">
-        <v>5.118856894987402</v>
+        <v>5.129859481588937</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05030239254106712</v>
+        <v>0.02365894582829585</v>
       </c>
       <c r="I22" t="n">
-        <v>6608474.772577591</v>
+        <v>6604718.750381396</v>
       </c>
       <c r="J22" t="n">
-        <v>6909604</v>
+        <v>6909508</v>
       </c>
       <c r="K22" t="n">
-        <v>1125240.499850399</v>
+        <v>1135903.993512131</v>
       </c>
       <c r="L22" t="n">
         <v>2858</v>
       </c>
       <c r="M22" t="n">
-        <v>11397182</v>
+        <v>11192966</v>
       </c>
       <c r="N22" t="n">
         <v>11451570</v>
@@ -2687,43 +2627,41 @@
       <c r="O22" t="n">
         <v>11</v>
       </c>
-      <c r="P22" t="n">
-        <v>7925</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.016658108012052253, 0.016479390003951266, 0.016287539998302236, 0.016305090015521273, 0.016322578012477607, 0.016222679987549782, 0.016125750000355765, 0.016109599004266784, 0.016101200017146766, 0.016131419979501516, 0.016097688989248127, 0.01619630999630317, 0.016055309999501333, 0.01617343901307322, 0.016276789974654093, 0.016248289990471676, 0.016311079991282895, 0.016436859004897997, 0.016560559015488252, 0.016302789008477703, 0.01606877101585269, 0.016233300004387274, 0.016047420009272173, 0.01602865001768805, 0.015967651008395478, 0.016065289004473016, 0.01603822098695673, 0.01610455001355149, 0.016278830007649958, 0.01633938800659962, 0.016049640980781987, 0.01599328001611866, 0.015962829027557746, 0.015914552001049742, 0.0160935900057666, 0.0161785889940802, 0.016152569995028898, 0.016045730997575447, 0.016104648995678872, 0.016214659990509972, 0.01599275099579245, 0.01600828900700435, 0.015855740988627076, 0.01597369002411142, 0.016061979986261576, 0.015961350989528, 0.015968241001246497, 0.01591831899713725, 0.016068230994278565, 0.021469427010742947]</t>
+          <t>[0.002960802987217903, 0.0033410300966352224, 0.006103775929659605, 0.00526283890940249, 0.006126390071585774, 0.0067248260602355, 0.006767610087990761, 0.0067525869235396385, 0.006737425923347473, 0.006715051829814911, 0.0067141910549253225, 0.006797875976189971, 0.006777566159144044, 0.006688312161713839, 0.0066590690985322, 0.006860658992081881, 0.006837935885414481, 0.00674096099101007, 0.006694601848721504, 0.007501257816329598, 0.006793458946049213, 0.006697515025734901, 0.00669422117061913, 0.0067047670017927885, 0.006664896151050925, 0.006784345023334026, 0.006675452925264835, 0.006659189006313682, 0.006678767967969179, 0.006656013894826174, 0.006799597991630435, 0.006963716121390462, 0.007329700980335474, 0.007228900911286473, 0.006745567079633474, 0.006711145164445043, 0.006747310049831867, 0.006633138982579112, 0.006771965883672237, 0.006575943902134895, 0.006771554937586188, 0.00651390990242362, 0.006505507975816727, 0.006512658903375268, 0.0065790878143161535, 0.006539318943396211, 0.006503454875200987, 0.006560339825227857, 0.006560649955645204, 0.006567159900441766]</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>0.01625125302176457</v>
+        <v>0.00653788052033633</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01610459950461518</v>
+        <v>0.006696058437228203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0007714985846986826</v>
+        <v>0.0007622622170527743</v>
       </c>
       <c r="V22" t="n">
-        <v>6768.45</v>
+        <v>2930.32</v>
       </c>
       <c r="W22" t="n">
-        <v>6266</v>
+        <v>2858</v>
       </c>
       <c r="X22" t="n">
-        <v>3850.030261917011</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y22" t="n">
         <v>2858</v>
       </c>
       <c r="Z22" t="n">
-        <v>11287</v>
+        <v>3306</v>
       </c>
       <c r="AA22" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -2736,67 +2674,65 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[0.1169178799900692, 0.13046248600585386, 0.17394688801141456, 0.15893847498227842, 0.11682079001911916, 0.11798774698399939, 0.11866977598401718, 0.11921324400464073, 0.11574324301909655, 0.11611014200025238, 0.1174130589934066, 0.12208804799593054, 0.1156552920001559, 0.11604469199664891, 0.11631297200801782, 0.11470566599746235, 0.11474452400580049, 0.11510382400592789, 0.11580329199205153, 0.116339659987716, 0.11661176098277792, 0.11690272099804133, 0.1159902420185972, 0.11783414799720049, 0.1170870790083427, 0.1176653579750564, 0.1176873880031053, 0.11790175799978897, 0.11777176702162251, 0.11911766501725651, 0.11771053800475784, 0.1177182579995133, 0.1178832069854252, 0.11758265900425613, 0.11813612599507906, 0.11636814099620096, 0.11663725000107661, 0.11691929999506101, 0.11571257200557739, 0.1161290819873102, 0.11584712300100364, 0.11609404100454412, 0.11603994201868773, 0.11758644800283946, 0.11596127302618697, 0.11629510100465268, 0.12178814702201635, 0.11532094399444759, 0.11548938398482278, 0.11599149199901149]</t>
+          <t>[0.142908246954903, 0.1100852049421519, 0.10936739202588797, 0.1091147109400481, 0.10968400491401553, 0.10916298488155007, 0.10909396107308567, 0.11001045489683747, 0.11147494590841234, 0.1102866381406784, 0.1103676378261298, 0.10916179395280778, 0.10997593100182712, 0.10953167686238885, 0.1109424689784646, 0.11039992608129978, 0.10960575705394149, 0.11003491887822747, 0.10985273611731827, 0.10944000002928078, 0.10956936213187873, 0.11006086878478527, 0.11098255892284214, 0.10995835601352155, 0.1101804981008172, 0.10914535913616419, 0.11084785801358521, 0.1102990738581866, 0.11033116513863206, 0.11002533696591854, 0.11009288695640862, 0.10980394505895674, 0.10986173106357455, 0.10941970790736377, 0.10964272287674248, 0.11028461414389312, 0.11053834389895201, 0.1098466080147773, 0.10974529595114291, 0.11016740882769227, 0.11579917813651264, 0.1099551401566714, 0.10935468203388155, 0.12027302500791848, 0.1091036859434098, 0.11090972903184593, 0.1099276680033654, 0.10999062308110297, 0.1092222249135375, 0.11000884114764631]</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.1192160523007624</v>
+        <v>0.1109169978136197</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.1168617555085802</v>
+        <v>0.109983277041465</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.01014459626876411</v>
+        <v>0.004936861635050388</v>
       </c>
       <c r="AI22" t="n">
-        <v>10282.04645476773</v>
+        <v>10260.58706467662</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11186</v>
+        <v>11250</v>
       </c>
       <c r="AK22" t="n">
-        <v>2858.066736602888</v>
+        <v>2797.358781645415</v>
       </c>
       <c r="AL22" t="n">
         <v>2858</v>
       </c>
       <c r="AM22" t="n">
-        <v>18522</v>
+        <v>13210</v>
       </c>
       <c r="AN22" t="n">
-        <v>26714</v>
+        <v>26930</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
       </c>
-      <c r="AP22" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>[0.011590570997213945, 0.011550540017196909, 0.011453401006292552, 0.011492802004795521, 0.01155318200471811, 0.01164118098677136, 0.011553730990272015, 0.01154488101019524, 0.011577791010495275, 0.011497669998789206, 0.011577750003198162, 0.01158850098727271, 0.011693611973896623, 0.011712810985045508, 0.011688261991366744, 0.011850491020595655, 0.011639170988928527, 0.011547581001650542, 0.01159088101121597, 0.011546091001946479, 0.011619041004450992, 0.011615332012297586, 0.011790741002187133, 0.01179991100798361, 0.011918431002413854, 0.012086059985449538, 0.012366479000775144, 0.012170319998404011, 0.012473179987864569, 0.012130169983720407, 0.012343870010226965, 0.011917291005374864, 0.012182600010419264, 0.011845451022963971, 0.011973610002314672, 0.011794510995969176, 0.012001439987216145, 0.01176718101487495, 0.011934440000914037, 0.011811270989710465, 0.011524961999384686, 0.011359782016370445, 0.01138451200677082, 0.01135742201586254, 0.011475551000330597, 0.011442260991316289, 0.011434201995143667, 0.01143090199911967, 0.011438301007729024, 0.011491701996419579]</t>
+          <t>[0.010042591951787472, 0.009763906011357903, 0.009788852883502841, 0.009709754958748817, 0.009750625817105174, 0.009732096921652555, 0.009760671062394977, 0.009694453096017241, 0.009811657015234232, 0.009695672895759344, 0.009701180970296264, 0.009655743138864636, 0.009712759172543883, 0.009667530888691545, 0.009698898997157812, 0.009651768021285534, 0.00981754600070417, 0.009669434046372771, 0.009802473010495305, 0.009655973874032497, 0.009827129077166319, 0.009694491978734732, 0.00976465712301433, 0.009714759886264801, 0.009541782783344388, 0.009670373983681202, 0.009655313100665808, 0.009684477001428604, 0.009651426924392581, 0.00956560904160142, 0.00972373504191637, 0.009608793072402477, 0.00961705599911511, 0.009686409030109644, 0.00951844803057611, 0.009622103068977594, 0.009589844848960638, 0.009651456959545612, 0.009634159971028566, 0.009713409934192896, 0.00969559303484857, 0.009669042890891433, 0.00970007898285985, 0.009621803183108568, 0.009612919064238667, 0.009767059935256839, 0.009691067039966583, 0.009547732071951032, 0.009672498097643256, 0.009715202962979674]</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>0.01171543656091672</v>
+        <v>0.009692240497097373</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.01161718650837429</v>
+        <v>0.009692760067991912</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.0002762616237296356</v>
+        <v>8.636467961033055e-05</v>
       </c>
       <c r="AV22" t="n">
-        <v>2924.56</v>
+        <v>2939.92</v>
       </c>
       <c r="AW22" t="n">
         <v>2858</v>
       </c>
       <c r="AX22" t="n">
-        <v>112.8763383313883</v>
+        <v>126.8783508655726</v>
       </c>
       <c r="AY22" t="n">
         <v>2858</v>
@@ -2805,17 +2741,13 @@
         <v>3306</v>
       </c>
       <c r="BA22" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB22" t="n">
         <v>0.7737068965517241</v>
       </c>
-      <c r="BC22" t="n">
-        <v>0.665948275862069</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0.6831896551724138</v>
-      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2832,76 +2764,74 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[4.790757240989478, 4.794789493986173, 4.830438667995622, 4.805018640996423, 4.784040924016153, 4.800089905998902, 4.818782751011895, 4.786552651989041, 4.78761512201163, 4.8006436410069, 4.812300932011567, 4.858824149006978, 4.834183841012418, 4.845178646006389, 4.792099579004571, 4.8630615239962935, 4.807536003005225, 4.8140395380032714, 4.824554463993991, 4.762706797977444, 4.784715955000138, 4.860834467981476, 4.810271403985098, 4.7863436749903485, 4.841286890004994, 4.797799299994949, 4.777389171009418, 4.8374142840038985, 4.91820748601458, 4.795223900990095, 4.802691591990879, 4.794236146990443, 4.792671820992837, 4.810911317006685, 4.87786527199205, 4.9487233880208805, 4.790343181026401, 4.786307731992565, 4.784665196988499, 4.780203078989871, 4.855524284997955, 4.828497562004486, 4.783731372997863, 4.791362485993886, 4.7903342909994535, 4.7910686880059075, 4.800754315016093, 4.830691391980508, 4.8408615390071645, 4.773905884998385]</t>
+          <t>[4.821415567072108, 4.779844734817743, 4.7892781109549105, 4.8557158259209245, 4.809239731170237, 4.786541367881, 4.843500875867903, 4.798469652887434, 4.781350081088021, 4.81318833399564, 4.829617812065408, 4.801439706934616, 4.790453206049278, 4.816616615047678, 4.808376603061333, 4.890633770963177, 4.840652745915577, 4.818680279888213, 4.813371398020536, 4.829455878119916, 4.803798136068508, 4.8228304700460285, 4.793059298070148, 4.803685860009864, 4.79306996287778, 4.824406685074791, 4.807053543161601, 4.807691283058375, 4.793384921969846, 4.800912082893774, 4.824886060785502, 4.831700165988877, 4.779495632974431, 4.8038407389540225, 4.843604398192838, 4.797732013976201, 4.786471921019256, 4.778900961857289, 4.822447942104191, 4.84806579304859, 4.826828304911032, 4.823074501007795, 4.788779696915299, 4.871823039837182, 4.824562657158822, 4.816984036006033, 4.779095301870257, 4.813704473897815, 4.834704031934962, 4.772432277910411]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.813561031799764</v>
+        <v>4.812737369826063</v>
       </c>
       <c r="G23" t="n">
-        <v>4.800698978011496</v>
+        <v>4.811214032582939</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03635578760099556</v>
+        <v>0.0247661327590624</v>
       </c>
       <c r="I23" t="n">
-        <v>6591829.669307977</v>
+        <v>6587424.249525659</v>
       </c>
       <c r="J23" t="n">
-        <v>6909416</v>
+        <v>6909412</v>
       </c>
       <c r="K23" t="n">
-        <v>1160385.934953516</v>
+        <v>1173497.078888734</v>
       </c>
       <c r="L23" t="n">
         <v>2858</v>
       </c>
       <c r="M23" t="n">
-        <v>11397022</v>
+        <v>11193038</v>
       </c>
       <c r="N23" t="n">
-        <v>11451562</v>
+        <v>11451722</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
       </c>
-      <c r="P23" t="n">
-        <v>7425</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.06735818297602236, 0.06738688400946558, 0.06735287301125936, 0.06753229300375096, 0.0670001240214333, 0.06750251399353147, 0.0671882739989087, 0.06744352297391742, 0.06781863200012594, 0.06737836397951469, 0.06714480300433934, 0.06654872599756345, 0.06659828498959541, 0.06786645299871452, 0.068058510980336, 0.0668757849780377, 0.06757887397543527, 0.06747621300746687, 0.06729071398149244, 0.06668719500885345, 0.06730920399422757, 0.06666623399360105, 0.06688457500422373, 0.06622305698692799, 0.06549443802214228, 0.06709211500128731, 0.06703008501790464, 0.0672895039897412, 0.06662293602130376, 0.09270416101207957, 0.06667114500305615, 0.06679884501500055, 0.06694106498616748, 0.06645449498319067, 0.06679257500218228, 0.06705906399292871, 0.06638386598206125, 0.0662460470048245, 0.0666232559888158, 0.06642687501152977, 0.06674461599322967, 0.06581004700274207, 0.06659336399752647, 0.0712234849925153, 0.0655184380011633, 0.06550774900824763, 0.0654796689923387, 0.06618018698645756, 0.0662978760083206, 0.06681455500074662]</t>
+          <t>[0.0029278919100761414, 0.005282477010041475, 0.00543777015991509, 0.005310067906975746, 0.0052656729239970446, 0.006433941191062331, 0.006787541089579463, 0.0068074800074100494, 0.006721541052684188, 0.006707851076498628, 0.006688751978799701, 0.0066367448307573795, 0.006826407974585891, 0.0068895029835402966, 0.006840170128270984, 0.006700881058350205, 0.00667840801179409, 0.00669137598015368, 0.006756713846698403, 0.0072540289256721735, 0.006765665952116251, 0.006715622963383794, 0.006721162004396319, 0.006669303169474006, 0.0066852569580078125, 0.006791966967284679, 0.006776133086532354, 0.0066535999067127705, 0.006674810079857707, 0.006681642960757017, 0.0066964339930564165, 0.006699377903714776, 0.006528032012283802, 0.006549024023115635, 0.006546499906107783, 0.006608342984691262, 0.006577835883945227, 0.006627639988437295, 0.006583465030416846, 0.006511337123811245, 0.00686407508328557, 0.0065836061257869005, 0.00652313488535583, 0.0065701359417289495, 0.006467720959335566, 0.006409354042261839, 0.006592500023543835, 0.006515473825857043, 0.006630095886066556, 0.006554982857778668]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0.06743941501772496</v>
+        <v>0.006488389051519335</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06688017999113072</v>
+        <v>0.006661451538093388</v>
       </c>
       <c r="U23" t="n">
-        <v>0.003749035501599302</v>
+        <v>0.0006473545166320441</v>
       </c>
       <c r="V23" t="n">
-        <v>9166.609561752988</v>
+        <v>2940.56</v>
       </c>
       <c r="W23" t="n">
-        <v>10543</v>
+        <v>2858</v>
       </c>
       <c r="X23" t="n">
-        <v>3132.409370268868</v>
+        <v>141.0624640913032</v>
       </c>
       <c r="Y23" t="n">
         <v>2858</v>
       </c>
       <c r="Z23" t="n">
-        <v>11743</v>
+        <v>3306</v>
       </c>
       <c r="AA23" t="n">
-        <v>64723</v>
+        <v>64715</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -2914,67 +2844,65 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[0.11886501600383781, 0.11904018698260188, 0.11847598699387163, 0.11933242599479854, 0.12009280300117098, 0.11858003801899031, 0.11895380599889904, 0.11905138500151224, 0.12004640401573852, 0.12013920399476774, 0.11968210298800841, 0.11895245601772331, 0.12331447697943076, 0.12407306500244886, 0.11897104699164629, 0.1185541570011992, 0.11847691799630411, 0.11888286599423736, 0.11829504801426083, 0.11914923597942106, 0.11916650601779111, 0.12434118299279362, 0.12428061297396198, 0.12108484000782482, 0.11895685698254965, 0.1206158320128452, 0.12036211398662999, 0.11917806501151063, 0.11937029502587393, 0.11949227500008419, 0.12572345999069512, 0.12019692300236784, 0.11923375597689301, 0.11971829400863498, 0.1196312439860776, 0.12025822297437117, 0.12018837398500182, 0.12132828100584447, 0.11947561398847029, 0.11857716701342724, 0.12006369399023242, 0.11999228401691653, 0.11896985699422657, 0.11944740498438478, 0.11910959501983598, 0.12183016899507493, 0.12042844199459068, 0.12005586401210167, 0.11996508398442529, 0.11918501599575393]</t>
+          <t>[0.1605127661023289, 0.110868503106758, 0.11159635288640857, 0.1107990900054574, 0.11121750599704683, 0.11081461305730045, 0.11052454798482358, 0.11136616696603596, 0.11140149109996855, 0.11094032996334136, 0.11140459612943232, 0.11093975906260312, 0.11142763891257346, 0.11112477607093751, 0.11108610802330077, 0.11127836583182216, 0.1110865599475801, 0.11143060494214296, 0.11106784106232226, 0.11687379307113588, 0.11376532004214823, 0.11112601798959076, 0.11208104901015759, 0.11179828410968184, 0.1114970650523901, 0.11228525312617421, 0.11111605307087302, 0.11093309801071882, 0.11065047606825829, 0.11150716803967953, 0.11117560206912458, 0.11172529496252537, 0.11182178999297321, 0.11139682307839394, 0.11098646884784102, 0.11152866203337908, 0.11127331806346774, 0.11157613294199109, 0.11078449711203575, 0.11143438913859427, 0.11108689988031983, 0.11137209692969918, 0.11184496385976672, 0.11188653693534434, 0.11134138004854321, 0.12530526402406394, 0.14031968894414604, 0.11121171503327787, 0.11159744299948215, 0.11184434196911752]</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.1200231190980412</v>
+        <v>0.1133206900721416</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1194839444942772</v>
+        <v>0.1113844600040466</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.001655006413745032</v>
+        <v>0.008206072244263904</v>
       </c>
       <c r="AI23" t="n">
-        <v>10311.42610837438</v>
+        <v>10198.45320197044</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11190</v>
+        <v>11218</v>
       </c>
       <c r="AK23" t="n">
-        <v>2892.656015312157</v>
+        <v>2767.67388921885</v>
       </c>
       <c r="AL23" t="n">
         <v>2858</v>
       </c>
       <c r="AM23" t="n">
-        <v>15538</v>
+        <v>12210</v>
       </c>
       <c r="AN23" t="n">
-        <v>26330</v>
+        <v>26466</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
       </c>
-      <c r="AP23" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[0.0117267910100054, 0.011521941982209682, 0.011496802006149665, 0.011576671007787809, 0.011616141011472791, 0.011545340996235609, 0.011775241000577807, 0.011623710975982249, 0.011855831020511687, 0.011513002013089135, 0.011579921003431082, 0.011511441000038758, 0.011476641986519098, 0.011456712003564462, 0.011497232015244663, 0.011494131991639733, 0.01144674199167639, 0.011493931990116835, 0.011543241009349003, 0.01172816997859627, 0.011529190989676863, 0.011569131980650127, 0.011563961976207793, 0.011551542003871873, 0.0115762620116584, 0.011551231989869848, 0.011511792021337897, 0.01153489199350588, 0.011552181997103617, 0.011496310995426029, 0.011596460972214118, 0.011564460990484804, 0.011626800987869501, 0.011577470984775573, 0.011492630990687758, 0.011739100998966023, 0.011555791978025809, 0.011561961000552401, 0.0115002510137856, 0.011650191008811817, 0.011619609984336421, 0.011571331007871777, 0.011503201007144526, 0.011542360996827483, 0.011617330979788676, 0.011459501984063536, 0.011548391979886219, 0.011485121998703107, 0.0115125110023655, 0.011431610997533426]</t>
+          <t>[0.009989443002268672, 0.009754631202667952, 0.0098091138061136, 0.009799279039725661, 0.009755132952705026, 0.009718667948618531, 0.009779228828847408, 0.009652409004047513, 0.00973809789866209, 0.009685779921710491, 0.009757245890796185, 0.009700791910290718, 0.009698708076030016, 0.009723877999931574, 0.009727200958877802, 0.009627601131796837, 0.009730946039780974, 0.009687511948868632, 0.009755873819813132, 0.00983067718334496, 0.009685448138043284, 0.0096555738709867, 0.00965158804319799, 0.009654602967202663, 0.00970320519991219, 0.00968791195191443, 0.00968892383389175, 0.009723213966935873, 0.009587872074916959, 0.009643425000831485, 0.00969361001625657, 0.009666258934885263, 0.009705579141154885, 0.009659569012001157, 0.009600142017006874, 0.00971734686754644, 0.00966085190884769, 0.0096688037738204, 0.009660230949521065, 0.009758018190041184, 0.009725437965244055, 0.009679228998720646, 0.009705828968435526, 0.009751297999173403, 0.00964646995998919, 0.009650816908106208, 0.009680780814960599, 0.009612909983843565, 0.009597135940566659, 0.009642383083701134]</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>0.01156144457636401</v>
+        <v>0.009701733700931072</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.01154981198487803</v>
+        <v>0.00969126692507416</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.564243755452476e-05</v>
+        <v>6.817389743944166e-05</v>
       </c>
       <c r="AV23" t="n">
-        <v>2924.56</v>
+        <v>2939.92</v>
       </c>
       <c r="AW23" t="n">
         <v>2858</v>
       </c>
       <c r="AX23" t="n">
-        <v>112.8763383313883</v>
+        <v>126.8783508655726</v>
       </c>
       <c r="AY23" t="n">
         <v>2858</v>
@@ -2983,17 +2911,13 @@
         <v>3306</v>
       </c>
       <c r="BA23" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="BB23" t="n">
         <v>0.7241379310344828</v>
       </c>
-      <c r="BC23" t="n">
-        <v>0.665948275862069</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0.6400862068965517</v>
-      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3010,26 +2934,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[4.165833558974555, 4.0580684849992394, 4.124381961999461, 4.056968930002768, 4.019506562006427, 4.082016519008903, 4.0501914290071, 4.045365780999418, 4.029177171003539, 4.05706562299747, 4.1185330520092975, 4.027487366984133, 4.117864705011016, 4.134122855990427, 4.02846610697452, 4.040485128003638, 4.018829392007319, 4.039342321018921, 4.048960239015287, 4.067321034002816, 4.0123239799868315, 4.041040029987926, 4.175044378993334, 4.021468959981576, 4.041166381997755, 4.069535221991828, 4.074117731011938, 4.044181715988088, 4.0402106959954835, 4.056946716009406, 4.078569341974799, 4.03378349400009, 4.059922690008534, 4.079327471990837, 4.061192038003355, 4.021593985991785, 4.036841518012807, 4.043782911991002, 4.12643152900273, 4.079172505007591, 4.0487796219822485, 4.178990599990357, 4.083883935003541, 4.151198220992228, 4.071875045978231, 4.038495368004078, 4.050899437977932, 4.028406174998963, 4.020346545003122, 4.057581583008869]</t>
+          <t>[4.050133804092184, 4.064897386124358, 4.094505870016292, 4.0567351339850575, 4.057015754049644, 4.082950018113479, 4.067322637187317, 4.0891290521249175, 4.039439821848646, 4.078269109828398, 4.068016024073586, 4.054157730890438, 4.0772668870631605, 4.0585463140159845, 4.083917362848297, 4.053634074982256, 4.090277579845861, 4.063185475068167, 4.071659093024209, 4.152581088943407, 4.064320812001824, 4.065834359964356, 4.062427912838757, 4.035891949897632, 4.085352483205497, 4.053955483017489, 4.061873628059402, 4.053635219112039, 4.056278947973624, 4.065621644956991, 4.0881057139486074, 4.054216346004978, 4.048697215970606, 4.082679627928883, 4.0460236959625036, 4.091872671851888, 4.077506859088317, 4.074838255997747, 4.069967145100236, 4.071800822857767, 4.070379726123065, 4.0777835010085255, 4.062006535939872, 4.065264503005892, 4.104132428998128, 4.046816791174933, 4.066048891982064, 4.058302117045969, 4.054706285009161, 4.04909578897059]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.06514196105767</v>
+        <v>4.06838155166246</v>
       </c>
       <c r="G24" t="n">
-        <v>4.053923076993669</v>
+        <v>4.065443073981442</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04237198113803142</v>
+        <v>0.01930620297453499</v>
       </c>
       <c r="I24" t="n">
-        <v>6529093.771275196</v>
+        <v>6525359.347803154</v>
       </c>
       <c r="J24" t="n">
-        <v>6908228</v>
+        <v>6908292</v>
       </c>
       <c r="K24" t="n">
-        <v>1262089.341478677</v>
+        <v>1270542.008058917</v>
       </c>
       <c r="L24" t="n">
         <v>2858</v>
@@ -3038,140 +2962,460 @@
         <v>11397022</v>
       </c>
       <c r="N24" t="n">
-        <v>11451642</v>
+        <v>11451410</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
       </c>
-      <c r="P24" t="n">
-        <v>7075</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[21.294730677996995, 21.211347336007748, 21.201060441992013, 21.48014040698763, 21.253687153977808, 21.243127452005865, 21.19138052800554, 21.17008675998659, 21.245241685013752, 21.22527884200099, 21.29154421799467, 21.198745073983446, 21.36831732498831, 21.214498129993444, 21.362060074985493, 21.30656668698066, 21.39286564401118, 21.327021390985465, 21.177844163001282, 21.29609609898762, 21.561691743001575, 21.477483203983866, 21.65097275399603, 21.185639161005383, 21.301025300985202, 21.439847116009332, 21.201438493997557, 21.15726698699291, 21.31401089800056, 21.18950265602325, 21.229210891993716, 21.26831253900309, 21.244228631985607, 21.213469000998884, 21.214930960995844, 21.216400289995363, 21.243535175017314, 21.421289032994537, 21.403151541016996, 21.563450629997533, 21.300487627013354, 21.28936068501207, 21.25735570699908, 21.236872929002857, 21.452836982003646, 21.178372385998955, 21.229597543017007, 21.184411705995444, 21.262918414984597, 21.26271247799741]</t>
+          <t>[0.003011237131431699, 0.0040038530714809895, 0.005332122091203928, 0.0060526898596435785, 0.0061860098503530025, 0.006659328937530518, 0.006758698029443622, 0.006749503081664443, 0.006749855121597648, 0.006858926964923739, 0.006971135037019849, 0.006661931984126568, 0.00664013996720314, 0.006631906842812896, 0.006731916917487979, 0.006679849000647664, 0.006713459966704249, 0.006724675185978413, 0.006796032888814807, 0.007047609891742468, 0.006653830874711275, 0.0065839858725667, 0.006715232040733099, 0.006664327112957835, 0.006700569065287709, 0.006537778070196509, 0.006647871108725667, 0.006680900929495692, 0.00675772619433701, 0.006630605086684227, 0.006568751996383071, 0.006605969043448567, 0.006695010932162404, 0.006574020022526383, 0.006631687982007861, 0.006609683856368065, 0.006550465943291783, 0.006548553938046098, 0.006618036888539791, 0.006591007113456726, 0.006839447887614369, 0.0066170350182801485, 0.006485769059509039, 0.006396875949576497, 0.006544445874169469, 0.006576383952051401, 0.006507121026515961, 0.006476063979789615, 0.006454411894083023, 0.006424297112971544]</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>21.29206847111811</v>
+        <v>0.006476974952965975</v>
       </c>
       <c r="T24" t="n">
-        <v>21.25552143048844</v>
+        <v>0.006631146534346044</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1135994560356802</v>
+        <v>0.0006669269769523738</v>
       </c>
       <c r="V24" t="n">
-        <v>38948.72167754439</v>
+        <v>2935.44</v>
       </c>
       <c r="W24" t="n">
-        <v>39151</v>
+        <v>2858</v>
       </c>
       <c r="X24" t="n">
-        <v>16429.94114723635</v>
+        <v>138.0677384770362</v>
       </c>
       <c r="Y24" t="n">
         <v>2858</v>
       </c>
       <c r="Z24" t="n">
-        <v>69095</v>
+        <v>3402</v>
       </c>
       <c r="AA24" t="n">
-        <v>73479</v>
+        <v>64811</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8400</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[0.1198069569945801, 0.11980195599608123, 0.12236957001732662, 0.12125445500714704, 0.12180515201180242, 0.12144379300298169, 0.12085505400318652, 0.12037921498995274, 0.12132360399118625, 0.12060304399346933, 0.12055683499784209, 0.12111091299448162, 0.12248978999559768, 0.11928683798760176, 0.11949126701802015, 0.11914984899340197, 0.12004657599027269, 0.11983332701493055, 0.12113031299668364, 0.12641188999987207, 0.11922320700250566, 0.1199648969923146, 0.1197785260155797, 0.12104188301600516, 0.11955389799550176, 0.11991879600100219, 0.12028652601293288, 0.1201920049788896, 0.11908010698971339, 0.12023968499852344, 0.12052935600513592, 0.1195759270049166, 0.12145457201404497, 0.12264591999701224, 0.12167102200328372, 0.1250800529960543, 0.12950116299907677, 0.12772706701071002, 0.12195883202366531, 0.12115389399696141, 0.1200521560094785, 0.12027139600832015, 0.12187395201181062, 0.12068071399698965, 0.1197802470123861, 0.12026230699848384, 0.12003431600169279, 0.12065160399652086, 0.12177286299993284, 0.12020805600332096]</t>
+          <t>[0.14794195187278092, 0.11182524706237018, 0.11156298406422138, 0.1115527399815619, 0.11155973095446825, 0.11145746801048517, 0.11145308893173933, 0.11271067289635539, 0.11759297992102802, 0.1121525268536061, 0.11316493293270469, 0.1124291499145329, 0.11181009490974247, 0.11167417094111443, 0.1118921882007271, 0.11199447000399232, 0.11188783100806177, 0.1121822209097445, 0.11288579413667321, 0.1121162730269134, 0.11175503092817962, 0.11170373507775366, 0.11196733987890184, 0.11270316084846854, 0.11231916700489819, 0.11211253795772791, 0.11219512112438679, 0.11225666292011738, 0.11210213112644851, 0.11149335000663996, 0.1120971639174968, 0.11169124697335064, 0.11252256203442812, 0.11260200082324445, 0.11235882504843175, 0.1123574641533196, 0.11144115193746984, 0.11187354987487197, 0.11168214306235313, 0.1259540079627186, 0.11186136212199926, 0.11171895894221961, 0.11180253303609788, 0.1117003911640495, 0.11220144084654748, 0.11170012992806733, 0.11207043495960534, 0.11160474689677358, 0.11264294013381004, 0.11210521683096886]</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.1211063069017837</v>
+        <v>0.1131288604810834</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.120543095501489</v>
+        <v>0.1120324524817988</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.002070829398399979</v>
+        <v>0.005462072747451855</v>
       </c>
       <c r="AI24" t="n">
-        <v>9650.970873786408</v>
+        <v>9578.980148883375</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10394</v>
+        <v>10458</v>
       </c>
       <c r="AK24" t="n">
-        <v>2669.922059630655</v>
+        <v>2532.41182793629</v>
       </c>
       <c r="AL24" t="n">
         <v>2858</v>
       </c>
       <c r="AM24" t="n">
-        <v>17850</v>
+        <v>11410</v>
       </c>
       <c r="AN24" t="n">
-        <v>25530</v>
+        <v>25570</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
       </c>
-      <c r="AP24" t="n">
-        <v>7725</v>
-      </c>
+      <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[0.01162529201246798, 0.011625171988271177, 0.011444522009696811, 0.011679980991175398, 0.011566862027393654, 0.011430451006162912, 0.011551472009159625, 0.011635261995252222, 0.011524861998623237, 0.011532921984326094, 0.011415332002798095, 0.011465921998023987, 0.011540412000613287, 0.011643390986137092, 0.0115990609920118, 0.01153792199329473, 0.011444522009696811, 0.011501221975777298, 0.011482051981147379, 0.011382433003745973, 0.011443891999078915, 0.011529281007824466, 0.011556081008166075, 0.011526471993420273, 0.011465511983260512, 0.011541971995029598, 0.011597992008319125, 0.01156814198475331, 0.011600932019064203, 0.011482131987577304, 0.011522871005581692, 0.01160519098630175, 0.011538881983142346, 0.011441241978900507, 0.01149339199764654, 0.011504581983899698, 0.011503151996294037, 0.011630611988948658, 0.011614162009209394, 0.011484760994790122, 0.01153799201711081, 0.011517022008774802, 0.011507132003316656, 0.011561322025954723, 0.01714728699880652, 0.011773271020501852, 0.01158154199947603, 0.011440141999628395, 0.011494381004013121, 0.011379402014426887]</t>
+          <t>[0.010116053046658635, 0.009822704130783677, 0.009675452951341867, 0.009740190114825964, 0.009762404020875692, 0.009602003963664174, 0.009727371856570244, 0.009922913974151015, 0.009709454840049148, 0.009743024129420519, 0.009633250068873167, 0.009687802055850625, 0.009714922169223428, 0.009690266102552414, 0.00977165694348514, 0.009624597849324346, 0.009685879107564688, 0.009868714027106762, 0.009679118869826198, 0.009754902916029096, 0.009812007891014218, 0.009711727034300566, 0.00968528795056045, 0.009718857938423753, 0.009614702081307769, 0.009660802781581879, 0.00967166991904378, 0.00959984096698463, 0.00963759794831276, 0.00962526910007, 0.00973754795268178, 0.009782403940334916, 0.009721674025058746, 0.009763485984876752, 0.009686421137303114, 0.009735693922266364, 0.009651117026805878, 0.009750527096912265, 0.009648864157497883, 0.009668595157563686, 0.009704147931188345, 0.009714552899822593, 0.00958785298280418, 0.009628152940422297, 0.009782152948901057, 0.009609444998204708, 0.009625820210203528, 0.009558046935126185, 0.009571947855874896, 0.009629123145714402]</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>0.01164439629937988</v>
+        <v>0.009704560399986803</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.01153110149607528</v>
+        <v>0.009689034079201519</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.0007978883083577808</v>
+        <v>9.56335540719261e-05</v>
       </c>
       <c r="AV24" t="n">
-        <v>3019.725490196078</v>
+        <v>2934.8</v>
       </c>
       <c r="AW24" t="n">
         <v>2858</v>
       </c>
       <c r="AX24" t="n">
-        <v>688.7425085888448</v>
+        <v>117.9747465194417</v>
       </c>
       <c r="AY24" t="n">
         <v>2858</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7778</v>
+        <v>3306</v>
       </c>
       <c r="BA24" t="n">
-        <v>10290</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0.665948275862069</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0.6099137931034483</v>
-      </c>
+        <v>10330</v>
+      </c>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11325</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[5.563022512942553, 5.605656086932868, 5.579922385979444, 5.574638077989221, 5.572404417907819, 5.5399496459867805, 5.556249290006235, 5.607221465092152, 5.590650792932138, 5.588434929028153, 5.57202009903267, 5.581003546947613, 5.568529827985913, 5.594214468961582, 5.587341222912073, 5.624228633008897, 5.563846875913441, 5.570378747070208, 5.573753651930019, 5.589929528068751, 5.5639530250336975, 5.571794154820964, 5.60312115191482, 5.604058817028999, 5.579642389900982, 5.60563218803145, 5.569416146026924, 5.564446308184415, 5.567233450943604, 5.575873268069699, 5.551537400111556, 5.585368323838338, 5.569248565938324, 5.5735393210779876, 5.54123451304622, 5.588372059166431, 5.5717652819585055, 5.5609796771313995, 5.561182071920484, 5.607371357968077, 5.573538813972846, 5.587708635954186, 5.58000114117749, 5.564922669902444, 5.57003836100921, 5.577659042086452, 5.600832128897309, 5.60516273509711, 5.586740541039035, 5.580783078912646]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5.578931056535803</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.57525567302946</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01763966921146659</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6626364.67487517</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6910052</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1095860.013699021</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11451254</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11451410</v>
+      </c>
+      <c r="O25" t="n">
+        <v>14</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.002929557114839554, 0.00314895692281425, 0.005290062865242362, 0.005320248194038868, 0.0063254451379179955, 0.0067524840123951435, 0.006743439007550478, 0.006702468963339925, 0.006758070783689618, 0.006731250789016485, 0.006709829904139042, 0.006639723898842931, 0.006717702141031623, 0.00665888306684792, 0.006773164961487055, 0.006784450961276889, 0.006596540100872517, 0.006671782815828919, 0.006674416130408645, 0.007286223117262125, 0.006664281012490392, 0.006658283062279224, 0.006616750964894891, 0.00658772699534893, 0.006588347954675555, 0.006630510091781616, 0.006628768052905798, 0.006830200087279081, 0.006772303022444248, 0.006681828061118722, 0.006599454907700419, 0.006574027007445693, 0.006580075016245246, 0.006579163949936628, 0.006676669931039214, 0.00663545704446733, 0.0066411360166966915, 0.006600195076316595, 0.006570280995219946, 0.006608828902244568, 0.007295626914128661, 0.00663320510648191, 0.00653348583728075, 0.006613675970584154, 0.006634386023506522, 0.006564491894096136, 0.006610770942643285, 0.006515919230878353, 0.00661785202100873, 0.006478332215920091]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.006468734703958035</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.006631857599131763</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0007725838057932488</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2935.44</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X25" t="n">
+        <v>126.7019900621702</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[0.14484545006416738, 0.11195199401117861, 0.11145179602317512, 0.1111227129586041, 0.11124106007628143, 0.1112910860683769, 0.11182352202013135, 0.11158928996883333, 0.11407747911289334, 0.11224567494355142, 0.11123593105003238, 0.1115237430203706, 0.1116881191264838, 0.11210288014262915, 0.11149032204411924, 0.1116258839610964, 0.11118254205211997, 0.11100611789152026, 0.11113581201061606, 0.11170617607422173, 0.11090353410691023, 0.12265476281754673, 0.11099479091353714, 0.11090050893835723, 0.11104866000823677, 0.11108260112814605, 0.11115927598439157, 0.11201243498362601, 0.11209308402612805, 0.11196058499626815, 0.13193925912491977, 0.11122980294749141, 0.11131618218496442, 0.11216605384834111, 0.11353141814470291, 0.11157030100002885, 0.11190829798579216, 0.1125533040612936, 0.11142730712890625, 0.11177343502640724, 0.11058465694077313, 0.11159384693019092, 0.11177112208679318, 0.11209202301688492, 0.11107439897023141, 0.11081796488724649, 0.11097323801368475, 0.11084048799239099, 0.11069239606149495, 0.11090281209908426]</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1128381227795035</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1115070325322449</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.0056880226975701</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>9505.60396039604</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10418</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2511.957231539982</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>11410</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>25570</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>[0.010014250176027417, 0.009729511104524136, 0.009682292118668556, 0.009686808101832867, 0.009758355095982552, 0.009847338078543544, 0.009686768054962158, 0.00971104484051466, 0.009664314100518823, 0.009649383137002587, 0.00968658784404397, 0.009676794055849314, 0.009680608985945582, 0.009666939033195376, 0.009693038184195757, 0.009790523909032345, 0.009858075063675642, 0.009809702867642045, 0.009695111075416207, 0.012811648892238736, 0.019624893087893724, 0.01965694106183946, 0.01970718614757061, 0.01963158301077783, 0.019716949900612235, 0.019765373086556792, 0.019935376942157745, 0.019753966014832258, 0.023028319934383035, 0.019279656000435352, 0.019266234943643212, 0.01902213110588491, 0.02280376199632883, 0.01923469896428287, 0.019724021898582578, 0.019239416113123298, 0.019257131963968277, 0.01919482904486358, 0.01913868309929967, 0.019130781991407275, 0.023145165061578155, 0.019210340920835733, 0.02296989201568067, 0.019232776015996933, 0.019372605020180345, 0.019390783039852977, 0.01923919515684247, 0.023002812871709466, 0.02441645902581513, 0.024300245102494955]</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.01616382610518485</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.01922155846841633</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.005363389737499392</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>4299</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3018</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1797.433613499177</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>7178</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>10330</v>
+      </c>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10100</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[6.184522158000618, 6.110455199843273, 6.1265283059328794, 6.148301471024752, 6.129262161906809, 6.116711980197579, 6.132576576899737, 6.171825625933707, 6.115060928044841, 6.116703025996685, 6.1422473499551415, 6.128290828084573, 6.128660571062937, 6.123941383091733, 6.16893176198937, 6.115969324950129, 6.084628669079393, 6.119994236156344, 6.127254802035168, 6.138392213033512, 6.127407603897154, 6.191041464917362, 6.118860914139077, 6.113339819014072, 6.140510353958234, 6.097655822057277, 6.099737665150315, 6.11902721808292, 6.148247552802786, 6.111858345102519, 6.105816415976733, 6.148127024061978, 6.1143904509954154, 6.113845214014873, 6.10875500086695, 6.121397519949824, 6.130449624033645, 6.12118740612641, 6.137139814905822, 6.084560377057642, 6.117074269102886, 6.079199013067409, 6.122793396934867, 6.1816178960725665, 6.112130993977189, 6.128775781951845, 6.120791818015277, 6.090000072028488, 6.111667912919074, 6.096205892972648]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6.124877424547448</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.120989612070844</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02430148911823709</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6656195.146008439</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6913564</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1048362.397113289</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11451254</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11451850</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[0.002914214041084051, 0.0026909189764410257, 0.002733353991061449, 0.00269350316375494, 0.004391024820506573, 0.005281669087707996, 0.00531651102937758, 0.0064776199869811535, 0.006698940880596638, 0.006735316012054682, 0.006652400828897953, 0.006701735081151128, 0.0065980288200080395, 0.006955946795642376, 0.006656728219240904, 0.0066511298064142466, 0.006653101881965995, 0.0066612649243324995, 0.006712741916999221, 0.007173651130869985, 0.006810718914493918, 0.006713984068483114, 0.00679541495628655, 0.006717999931424856, 0.006595987128093839, 0.00653299200348556, 0.006615576799958944, 0.0066229780204594135, 0.006697088945657015, 0.006647782865911722, 0.006527323042973876, 0.006595155922695994, 0.006680602906271815, 0.006611260119825602, 0.0067350249737501144, 0.006538100074976683, 0.0064882258884608746, 0.0065473627764731646, 0.006552750943228602, 0.006574596045538783, 0.006840184098109603, 0.006522677140310407, 0.006474283989518881, 0.006540834903717041, 0.006528496975079179, 0.006563948933035135, 0.006441866047680378, 0.006443039048463106, 0.006441937992349267, 0.006487744860351086]</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>0.006224714834243059</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.006595571525394917</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.001117512458721776</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2940.56</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X26" t="n">
+        <v>141.0624640913032</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>[0.14475424122065306, 0.11163393501192331, 0.11264828289858997, 0.11221281182952225, 0.11294129188172519, 0.11182808480225503, 0.11263629514724016, 0.1110117631033063, 0.11054086801595986, 0.11075657093897462, 0.11088624410331249, 0.111014056019485, 0.11086587398312986, 0.1115611249115318, 0.11102114710956812, 0.11093385680578649, 0.11053176503628492, 0.11042859009467065, 0.11105252406559885, 0.11117119202390313, 0.11075503914617002, 0.11137881106697023, 0.11153277312405407, 0.11197750899009407, 0.11070890910923481, 0.11116371001116931, 0.11072703707031906, 0.11100693396292627, 0.1110266549512744, 0.11135961394757032, 0.11150030395947397, 0.1116991329472512, 0.11261476390063763, 0.1120772180147469, 0.11254780413582921, 0.1116369180381298, 0.11200021184049547, 0.11121760099194944, 0.11126595409587026, 0.1120162969455123, 0.11169224209152162, 0.1120036079082638, 0.11185520491562784, 0.11162944696843624, 0.1114396930206567, 0.11246287589892745, 0.11159415496513247, 0.11218681116588414, 0.11107352608814836, 0.11109044100157917]</t>
+        </is>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1121534343855456</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1114699984900653</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.004745974997103527</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>10181.66169154229</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11218</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2775.455106348639</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>13282</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>26370</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>[0.009963508928194642, 0.009714828105643392, 0.00970771606080234, 0.009692452847957611, 0.00976241915486753, 0.009810651186853647, 0.009704009164124727, 0.009669639868661761, 0.009710903046652675, 0.009667236125096679, 0.009762187954038382, 0.009741295827552676, 0.00988098606467247, 0.009771330980584025, 0.009681376861408353, 0.009680155897513032, 0.009658192982897162, 0.009624581784009933, 0.009634377900511026, 0.009641267824918032, 0.009687005076557398, 0.009668349055573344, 0.009687587153166533, 0.00964364199899137, 0.009659015107899904, 0.009693355998024344, 0.009641146985813975, 0.009637212147936225, 0.009682108880952, 0.009624293074011803, 0.009593616938218474, 0.00961925508454442, 0.009632264031097293, 0.009607917862012982, 0.009606985840946436, 0.009732444072142243, 0.009669879917055368, 0.009628406958654523, 0.009577432880178094, 0.009618303971365094, 0.009639865020290017, 0.009921756805852056, 0.009599735029041767, 0.009687497047707438, 0.009604532038792968, 0.009699754882603884, 0.009663049830123782, 0.009576600044965744, 0.009694257052615285, 0.009652053005993366]</t>
+        </is>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.009682568847201764</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.009668994462117553</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.970114568736193e-05</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2924.56</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>112.8763383313883</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>3306</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>10330</v>
+      </c>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/reports/xlsx/benchmark_constraint_unlimited.xlsx
+++ b/reports/xlsx/benchmark_constraint_unlimited.xlsx
@@ -874,35 +874,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[1.083346351981163, 1.078284664079547, 1.0459407998714596, 1.081032156944275, 1.0596565648447722, 1.0629198111128062, 1.048107512993738, 1.0847354230936617, 1.0385682310443372, 1.058592831948772, 1.1276122969575226, 1.0482786500360817, 1.049144936958328, 1.0597897530533373, 1.0835657098796219, 1.0597391489427537, 1.0615143771283329, 1.0748761519789696, 1.0528327589854598, 1.05593565502204, 1.0933958489913493, 1.0910899857990444, 1.0964578038547188, 1.0657191118225455, 1.0670872109476477, 1.062658468959853, 1.0655202041380107, 1.0372224478051066, 1.0888569219969213, 1.060585195897147, 1.0486786291003227, 1.088374791899696, 1.0638777860440314, 1.0895593450404704, 1.0550291470717639, 1.0986206710804254, 1.065530841005966, 1.0882223329972476, 1.0902471048757434, 1.0655983621254563, 1.0639595792163163, 1.0710435141809285, 1.0980742638930678, 1.0646446149330586, 1.080007255077362, 1.0785089598502964, 1.0478051640093327, 1.0714663879480213, 1.059600843116641, 1.102721753064543]</t>
+          <t>[1.084497920004651, 1.0581837799400091, 1.0551841689739376, 1.0672711608931422, 1.068014953052625, 1.054539519827813, 1.077127150958404, 1.0701386199798435, 1.059917907929048, 1.0552592449821532, 1.0823673531413078, 1.0509224620182067, 1.034572137054056, 1.0668621689546853, 1.0778651300352067, 1.06561771617271, 1.0890382840298116, 1.0728410871233791, 1.0549071899149567, 1.0537587420549244, 1.0580431430134922, 1.0635014129802585, 1.0583278371486813, 1.0464429559651762, 1.0967752281576395, 1.0696262458804995, 1.0494242168497294, 1.0601466160733253, 1.0873649280983955, 1.071288594044745, 1.0631785220466554, 1.0890443490352482, 1.0575606310740113, 1.0477542118169367, 1.049749556928873, 1.0926260489504784, 1.0582046119961888, 1.0594496550038457, 1.0949392979964614, 1.046077345032245, 1.049635831033811, 1.050189261091873, 1.0791248420719057, 1.0783453141339123, 1.0789456819184124, 1.098331400193274, 1.048110764939338, 1.0556510901078582, 1.0629658489488065, 1.0773435288574547]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.070692766672</v>
+        <v>1.065941113368608</v>
       </c>
       <c r="G12" t="n">
-        <v>1.065564601565711</v>
+        <v>1.063072185497731</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01870923525535306</v>
+        <v>0.01536271786424129</v>
       </c>
       <c r="I12" t="n">
-        <v>5293415.225634824</v>
+        <v>5301179.184089256</v>
       </c>
       <c r="J12" t="n">
-        <v>6764626</v>
+        <v>6764594</v>
       </c>
       <c r="K12" t="n">
-        <v>2242166.048303922</v>
+        <v>2250058.620962241</v>
       </c>
       <c r="L12" t="n">
         <v>2856</v>
       </c>
       <c r="M12" t="n">
-        <v>11452059</v>
+        <v>11445588</v>
       </c>
       <c r="N12" t="n">
-        <v>11452171</v>
+        <v>11452095</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -913,17 +913,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.0028086251113563776, 0.002662275917828083, 0.004724544007331133, 0.005353134823963046, 0.005224592983722687, 0.00645410199649632, 0.006750125903636217, 0.006865830160677433, 0.006581534165889025, 0.006664138054475188, 0.006738368887454271, 0.006621594075113535, 0.006600683089345694, 0.006665399996563792, 0.006651618983596563, 0.0065525309182703495, 0.006604957859963179, 0.006669375114142895, 0.0065275030210614204, 0.00682410690933466, 0.006576176034286618, 0.0066685129422694445, 0.006683476036414504, 0.00662430701777339, 0.006606071023270488, 0.0065449688117951155, 0.006673491094261408, 0.006739018950611353, 0.006524228025227785, 0.006604106863960624, 0.006470388034358621, 0.006798438960686326, 0.00656124297529459, 0.0064916887786239386, 0.006578770000487566, 0.0066714968997985125, 0.00650797295384109, 0.006623276975005865, 0.006725248880684376, 0.006611709017306566, 0.006975905038416386, 0.006554452935233712, 0.0063896458595991135, 0.006465248996391892, 0.007354750065132976, 0.006471448112279177, 0.006597778992727399, 0.00655808812007308, 0.006394634023308754, 0.0063696070574223995]</t>
+          <t>[0.0029741721227765083, 0.0052764080464839935, 0.0055598129983991385, 0.0057698150631040335, 0.005530077964067459, 0.00658591790124774, 0.007026247913017869, 0.0070573738776147366, 0.007152756908908486, 0.007038345094770193, 0.006962582003325224, 0.006937625119462609, 0.0069542801938951015, 0.00700223189778626, 0.007053157081827521, 0.0073697909247130156, 0.007041821023449302, 0.007067189086228609, 0.007185976952314377, 0.006962752901017666, 0.006975770927965641, 0.00698031997308135, 0.006948139984160662, 0.006907077971845865, 0.006929812952876091, 0.006921410094946623, 0.006973879178985953, 0.007527326932176948, 0.006871235091239214, 0.0068546198308467865, 0.006967840949073434, 0.006874941056594253, 0.006886566989123821, 0.006817965069785714, 0.006862110923975706, 0.006915780948475003, 0.0068134889006614685, 0.006741642020642757, 0.006807239027693868, 0.007023792946711183, 0.007186647970229387, 0.006857102969661355, 0.006804886041209102, 0.006748300977051258, 0.006811064900830388, 0.006719859084114432, 0.006786196958273649, 0.006841581081971526, 0.006720228819176555, 0.006663304986432195]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.006379223829135298</v>
+        <v>0.00674496941268444</v>
       </c>
       <c r="T12" t="n">
-        <v>0.006599231041036546</v>
+        <v>0.006911429460160434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0008529668135237914</v>
+        <v>0.000687569682633972</v>
       </c>
       <c r="V12" t="n">
         <v>2928.36</v>
@@ -954,32 +954,32 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.02214649715460837, 0.021909981966018677, 0.02209414797835052, 0.02189524006098509, 0.022061872063204646, 0.022013629088178277, 0.02216783887706697, 0.022171595133841038, 0.024281384190544486, 0.008754185866564512, 0.008718312019482255, 0.00862848898395896, 0.008586695184931159, 0.008661787956953049, 0.008591451914981008, 0.008615329163149, 0.00919573800638318, 0.021161702927201986, 0.023525261087343097, 0.02222756901755929, 0.021967878798022866, 0.023490178864449263, 0.024160072207450867, 0.02331431512720883, 0.021963173057883978, 0.02194526605308056, 0.02205586084164679, 0.02234192006289959, 0.022013457026332617, 0.022221168968826532, 0.022345555014908314, 0.021861820947378874, 0.022040638839825988, 0.022057503927499056, 0.022063403157517314, 0.02217724290676415, 0.021910523995757103, 0.021965285995975137, 0.02307792310602963, 0.022849699947983027, 0.023611161159351468, 0.02418672200292349, 0.024072921834886074, 0.02366279810667038, 0.02239631093107164, 0.022679555928334594, 0.02391309291124344, 0.021986477775499225, 0.021788541926071048, 0.022923390846699476]</t>
+          <t>[0.022004226921126246, 0.021983005106449127, 0.022041392978280783, 0.022059160051867366, 0.022430504905059934, 0.022087753051891923, 0.022147441981360316, 0.022151088109239936, 0.021964347921311855, 0.02198264584876597, 0.02187910000793636, 0.021971527952700853, 0.02207797602750361, 0.021878228057175875, 0.022106260061264038, 0.0227599679492414, 0.022815771866589785, 0.02207020577043295, 0.021989454980939627, 0.022196664940565825, 0.022279960103332996, 0.022201282903552055, 0.02217912906780839, 0.022077768109738827, 0.022059469018131495, 0.022097036940976977, 0.022381141083315015, 0.021933291107416153, 0.0217103969771415, 0.02213096688501537, 0.022320070071145892, 0.02204374596476555, 0.021936635952442884, 0.022203086176887155, 0.022204366978257895, 0.021947942906990647, 0.02185978088527918, 0.02209541411139071, 0.022045710124075413, 0.022005861159414053, 0.02192416787147522, 0.022224828135222197, 0.021929095033556223, 0.022028113016858697, 0.02237926796078682, 0.022132559912279248, 0.022329895058646798, 0.022132671205326915, 0.021894172998145223, 0.021970486966893077]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.02032905141822994</v>
+        <v>0.02210510078351945</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02206263761036098</v>
+        <v>0.02207398694008589</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.00517181143172742</v>
+        <v>0.0002037657458665343</v>
       </c>
       <c r="AI12" t="n">
-        <v>4983.782608695652</v>
+        <v>5194.92</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3145</v>
+        <v>5125</v>
       </c>
       <c r="AK12" t="n">
-        <v>2263.721781463005</v>
+        <v>2288.247813096609</v>
       </c>
       <c r="AL12" t="n">
         <v>2857</v>
       </c>
       <c r="AM12" t="n">
-        <v>7873</v>
+        <v>7937</v>
       </c>
       <c r="AN12" t="n">
         <v>26401</v>
@@ -995,35 +995,35 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.014343083137646317, 0.014166560024023056, 0.014163244981318712, 0.014016965869814157, 0.013848984148353338, 0.0139370271936059, 0.011008681962266564, 0.010945618152618408, 0.010995040880516171, 0.01085696485824883, 0.010706640081480145, 0.010841642040759325, 0.010765559040009975, 0.010834109969437122, 0.01076520700007677, 0.010849934071302414, 0.010741872945800424, 0.010686259949579835, 0.010727570857852697, 0.005711690988391638, 0.008953704964369535, 0.010602273978292942, 0.010732368100434542, 0.010662072105333209, 0.005664409138262272, 0.00993771804496646, 0.010905788047239184, 0.010709053138270974, 0.010847359895706177, 0.008767236024141312, 0.008306797128170729, 0.010786288883537054, 0.010669773910194635, 0.009998690104112029, 0.010790525935590267, 0.005428365897387266, 0.010163166094571352, 0.011698042973876, 0.009074567118659616, 0.011029173154383898, 0.010965266963467002, 0.010971355950459838, 0.010996122844517231, 0.011300457874312997, 0.010977396043017507, 0.010998818092048168, 0.010881552007049322, 0.01097150705754757, 0.010962752858176827, 0.01101659401319921]</t>
+          <t>[0.021743998862802982, 0.021771708969026804, 0.021528385812416673, 0.021783116040751338, 0.02157559711486101, 0.021520072827115655, 0.021556026069447398, 0.021488937083631754, 0.021440583979710937, 0.02152648102492094, 0.021593392128124833, 0.021451500011608005, 0.021686712047085166, 0.021642585983499885, 0.022235583048313856, 0.021431660978123546, 0.021869445918127894, 0.021507533034309745, 0.02143825008533895, 0.021300785010680556, 0.02159133879467845, 0.021395807852968574, 0.02144760498777032, 0.02168092387728393, 0.02143261209130287, 0.02145849890075624, 0.021521955030038953, 0.021512309787794948, 0.021445831982418895, 0.021556557854637504, 0.021337357815355062, 0.021432472858577967, 0.021637919126078486, 0.021733200876042247, 0.021366533124819398, 0.021386893931776285, 0.02150214579887688, 0.021806681994348764, 0.02161725703626871, 0.021624870132654905, 0.02175810793414712, 0.02165798912756145, 0.021456998074427247, 0.02146367891691625, 0.02190557005815208, 0.021774682914838195, 0.02127325301989913, 0.021457860013470054, 0.02293320815078914, 0.022587729850783944]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.01073363712988794</v>
+        <v>0.02161700415890664</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01084450096823275</v>
+        <v>0.02152743341866881</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.00183914483066927</v>
+        <v>0.0002957780644590781</v>
       </c>
       <c r="AV12" t="n">
-        <v>2923.56</v>
+        <v>5991.96</v>
       </c>
       <c r="AW12" t="n">
-        <v>2857</v>
+        <v>5961</v>
       </c>
       <c r="AX12" t="n">
-        <v>112.8763383313883</v>
+        <v>3088.376102076751</v>
       </c>
       <c r="AY12" t="n">
         <v>2857</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3305</v>
+        <v>9553</v>
       </c>
       <c r="BA12" t="n">
-        <v>10329</v>
+        <v>15841</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -1048,35 +1048,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2.534162773983553, 2.534745286917314, 2.572452262043953, 2.536606213077903, 2.579136017942801, 2.5093267110642046, 2.5436102200765163, 2.521522711031139, 2.525508147897199, 2.568554837955162, 2.5255593759939075, 2.537598389899358, 2.54159362311475, 2.587103084893897, 2.53196438588202, 2.4914122929330915, 2.5640413120854646, 2.519296681974083, 2.5462382978294045, 2.489495103014633, 2.5529317900072783, 2.5330265779048204, 2.5284163469914347, 2.5544691709801555, 2.5445320340804756, 2.521923464955762, 2.519946455024183, 2.55988851794973, 2.523790691047907, 2.5477807000279427, 2.562098846072331, 2.5543623839039356, 2.512536863796413, 2.554260472068563, 2.550675112986937, 2.544664884917438, 2.5287290068808943, 2.556585944024846, 2.5296545538585633, 2.5235309649724513, 2.5348120448179543, 2.5505974390543997, 2.523476584115997, 2.517732365988195, 2.5436618169769645, 2.549440236063674, 2.517304714070633, 2.5511224549263716, 2.531827809056267, 2.5340196599718183]</t>
+          <t>[2.5430963940452784, 2.490009575849399, 2.5288945350330323, 2.5339991429354995, 2.5302285850048065, 2.5240613678470254, 2.5365527227986604, 2.5321273249574006, 2.5150600930210203, 2.550802680896595, 2.5325856069102883, 2.502015847945586, 2.527819656068459, 2.5276575211901218, 2.5167354769073427, 2.4902607949916273, 2.523811441846192, 2.512466615997255, 2.524862095946446, 2.5081069639418274, 2.544600083027035, 2.5259019709192216, 2.5233357059769332, 2.5283073647879064, 2.497653506929055, 2.4986595090012997, 2.5304496698081493, 2.546777216019109, 2.547286673914641, 2.5222932200413197, 2.5360378690529615, 2.5250581610016525, 2.526100709103048, 2.5311632610391825, 2.5455064380075783, 2.5347564620897174, 2.524749770993367, 2.5296910339966416, 2.499762332998216, 2.532772789010778, 2.5695353320334107, 2.55339197604917, 2.524616521084681, 2.5443128091283143, 2.5459082119632512, 2.543754996964708, 2.5212394818663597, 2.5264417259022593, 2.527569381054491, 2.51104801800102]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.538354552742094</v>
+        <v>2.527396732917987</v>
       </c>
       <c r="G13" t="n">
-        <v>2.535709128947929</v>
+        <v>2.52773858862929</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02002467782547702</v>
+        <v>0.01633271630122197</v>
       </c>
       <c r="I13" t="n">
-        <v>6298086.691247476</v>
+        <v>6305614.632381456</v>
       </c>
       <c r="J13" t="n">
-        <v>6849139</v>
+        <v>6829387</v>
       </c>
       <c r="K13" t="n">
-        <v>1564682.404465588</v>
+        <v>1555619.752440607</v>
       </c>
       <c r="L13" t="n">
         <v>2857</v>
       </c>
       <c r="M13" t="n">
-        <v>11445429</v>
+        <v>10301721</v>
       </c>
       <c r="N13" t="n">
-        <v>11451569</v>
+        <v>11451537</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
@@ -1087,26 +1087,26 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.0029481840319931507, 0.003989313030615449, 0.005192173877730966, 0.005737348925322294, 0.006738197058439255, 0.0066483530681580305, 0.00659317197278142, 0.006612750003114343, 0.006673472002148628, 0.0067407621536403894, 0.006709895096719265, 0.006753070978447795, 0.006566982017830014, 0.00655781920067966, 0.00655527482740581, 0.00670665199868381, 0.006766740931198001, 0.006716245086863637, 0.006620110012590885, 0.006996114039793611, 0.006526560988277197, 0.006657238118350506, 0.006769394967705011, 0.006595022976398468, 0.0068381179589778185, 0.006660542916506529, 0.006568583892658353, 0.00663383211940527, 0.006477507064118981, 0.006660620914772153, 0.006711298134177923, 0.006631659111008048, 0.006621222943067551, 0.006590968929231167, 0.006603115936741233, 0.006579762091860175, 0.006669085007160902, 0.006670498056337237, 0.006629276089370251, 0.006579941837117076, 0.006772359134629369, 0.006612119963392615, 0.00658399797976017, 0.0066625450272113085, 0.0065832959953695536, 0.0065241470001637936, 0.00663523399271071, 0.006538498913869262, 0.0065511169377714396, 0.006562956841662526]</t>
+          <t>[0.0029887231066823006, 0.0038209580816328526, 0.005576295079663396, 0.005913882050663233, 0.007003712002187967, 0.007072546053677797, 0.007116793189197779, 0.007027168991044164, 0.006941369967535138, 0.006970863090828061, 0.006984954001381993, 0.007343241944909096, 0.00696934200823307, 0.006943793036043644, 0.006871154997497797, 0.00712171895429492, 0.007026576902717352, 0.0070084508042782545, 0.007387437159195542, 0.006866076961159706, 0.0068499629851430655, 0.006959687918424606, 0.006953779142349958, 0.00703484914265573, 0.006941709900274873, 0.006873688893392682, 0.006843543844297528, 0.006945986999198794, 0.00687367795035243, 0.006859166081994772, 0.006925375899299979, 0.0070337781216949224, 0.007063973927870393, 0.006855871062725782, 0.0067666578106582165, 0.006840989924967289, 0.00678229215554893, 0.006727458909153938, 0.006724654929712415, 0.0070517961867153645, 0.006820860086008906, 0.006752537097781897, 0.0067789561580866575, 0.006774580106139183, 0.006772476015612483, 0.006739577976986766, 0.006786006037145853, 0.006791725987568498, 0.006851956015452743, 0.006703103892505169]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.00647046304307878</v>
+        <v>0.006732714790850878</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006620666477829218</v>
+        <v>0.006872416473925114</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0006780611870171845</v>
+        <v>0.0007438293423637169</v>
       </c>
       <c r="V13" t="n">
-        <v>2934.44</v>
+        <v>2929.32</v>
       </c>
       <c r="W13" t="n">
         <v>2857</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y13" t="n">
         <v>2857</v>
@@ -1128,32 +1128,32 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.04538866505026817, 0.037416467908769846, 0.03740982012823224, 0.03507037600502372, 0.03296841005794704, 0.034060355043038726, 0.033704421017318964, 0.033159925835207105, 0.033781326143071055, 0.03344107698649168, 0.03319444810040295, 0.0333987339399755, 0.03333577001467347, 0.0338457019533962, 0.03380101500079036, 0.03375782095827162, 0.03391511691734195, 0.03445536480285227, 0.03328483295626938, 0.03228088095784187, 0.03556251199916005, 0.035234020091593266, 0.019580485066398978, 0.02442142297513783, 0.018838143907487392, 0.018867257051169872, 0.018908970057964325, 0.01884259982034564, 0.018820255994796753, 0.018955300096422434, 0.018925333861261606, 0.019010361982509494, 0.018965335097163916, 0.018954619066789746, 0.0189395050983876, 0.0188170219771564, 0.01902167801745236, 0.019192193169146776, 0.01885018195025623, 0.018884042045101523, 0.0188789248932153, 0.018830341985449195, 0.01885041198693216, 0.01896256092004478, 0.018981738947331905, 0.018956962041556835, 0.018864462850615382, 0.018935170024633408, 0.019015480065718293, 0.01909184386022389]</t>
+          <t>[0.04633205011487007, 0.04553864197805524, 0.03724005096592009, 0.037228483939543366, 0.03288606321439147, 0.033389446791261435, 0.033398369094356894, 0.034270115895196795, 0.019400037126615644, 0.02576025784946978, 0.018974050180986524, 0.01894717989489436, 0.019044254906475544, 0.019127318868413568, 0.0189516160171479, 0.018860100070014596, 0.018759797792881727, 0.01891518197953701, 0.018919869093224406, 0.01896637910977006, 0.018789964960888028, 0.018828773172572255, 0.019007740076631308, 0.019064886029809713, 0.01897191582247615, 0.01916400482878089, 0.01901776483282447, 0.01891599385999143, 0.018814259907230735, 0.018991836812347174, 0.019044206012040377, 0.019025387009605765, 0.01900289487093687, 0.01933306804858148, 0.019255300983786583, 0.019217674853280187, 0.018830875167623162, 0.019092099042609334, 0.018898577895015478, 0.019006818998605013, 0.019198095193132758, 0.018889562925323844, 0.01910942397080362, 0.018934621941298246, 0.04186327010393143, 0.037436134880408645, 0.037774911150336266, 0.03390981815755367, 0.01910179085098207, 0.025883723981678486]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.02597259333357215</v>
+        <v>0.02374569322448224</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01914201851468533</v>
+        <v>0.01905457046814263</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.00801631749677513</v>
+        <v>0.008283112364913347</v>
       </c>
       <c r="AI13" t="n">
-        <v>7402.245901639344</v>
+        <v>7126.805309734514</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8057</v>
+        <v>7465</v>
       </c>
       <c r="AK13" t="n">
-        <v>4259.50703955568</v>
+        <v>4086.499339852438</v>
       </c>
       <c r="AL13" t="n">
         <v>2857</v>
       </c>
       <c r="AM13" t="n">
-        <v>24417</v>
+        <v>24321</v>
       </c>
       <c r="AN13" t="n">
         <v>25569</v>
@@ -1169,35 +1169,35 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.008016883162781596, 0.007943554082885385, 0.007969720987603068, 0.007923963014036417, 0.007856484036892653, 0.007993767969310284, 0.007930913008749485, 0.007957604015246034, 0.007981881964951754, 0.007894838927313685, 0.007885086117312312, 0.007798535982146859, 0.007859475910663605, 0.007886186009272933, 0.007883572950959206, 0.007818024139851332, 0.00778826093301177, 0.007887238869443536, 0.007728931028395891, 0.00784147996455431, 0.007750723976641893, 0.00772309280000627, 0.007767918054014444, 0.007871184032410383, 0.007751835975795984, 0.00784085807390511, 0.007848931010812521, 0.007815741933882236, 0.007794589968398213, 0.008470831904560328, 0.00788073893636465, 0.007779276929795742, 0.007889392087236047, 0.0077896430157125, 0.007736993953585625, 0.007889864034950733, 0.007789222057908773, 0.007726208074018359, 0.007793178083375096, 0.0076776049099862576, 0.00802849093452096, 0.00776530709117651, 0.007769912015646696, 0.007821759907528758, 0.007829090813174844, 0.007800669176504016, 0.007828348781913519, 0.0077676898799836636, 0.007835531840100884, 0.0077778438571840525]</t>
+          <t>[0.01856433693319559, 0.018678218824788928, 0.018658979097381234, 0.018491739174351096, 0.018643445102497935, 0.0186305558308959, 0.02105135889723897, 0.04546833783388138, 0.03681865008547902, 0.036708055064082146, 0.03536526416428387, 0.034450525883585215, 0.03455021511763334, 0.034722591983154416, 0.04193944297730923, 0.04702332499437034, 0.04740007687360048, 0.0460005640052259, 0.041927315993234515, 0.0366987909656018, 0.018522333819419146, 0.03440492693334818, 0.018484316999092698, 0.018677236046642065, 0.018608883023262024, 0.018619288923218846, 0.018551016924902797, 0.018698006868362427, 0.0184929589740932, 0.01862466800957918, 0.018609744030982256, 0.01845103781670332, 0.018410737859085202, 0.018553381087258458, 0.018591966945677996, 0.01845203898847103, 0.01857748511247337, 0.01868179300799966, 0.018568262923508883, 0.018484557047486305, 0.018592777894809842, 0.01865837792865932, 0.018656666157767177, 0.018519419012591243, 0.018510547932237387, 0.018584786914288998, 0.01851746696047485, 0.018865076825022697, 0.018788452027365565, 0.03900437196716666]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.007853177543729543</v>
+        <v>0.02491108749527484</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.007832311326637864</v>
+        <v>0.01865005563013256</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0001206516927633652</v>
+        <v>0.0100142086292458</v>
       </c>
       <c r="AV13" t="n">
-        <v>2928.68</v>
+        <v>6164.213675213675</v>
       </c>
       <c r="AW13" t="n">
-        <v>2857</v>
+        <v>8305</v>
       </c>
       <c r="AX13" t="n">
-        <v>115.5694755264961</v>
+        <v>2825.057936021904</v>
       </c>
       <c r="AY13" t="n">
         <v>2857</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3305</v>
+        <v>9601</v>
       </c>
       <c r="BA13" t="n">
-        <v>10329</v>
+        <v>15841</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -1222,35 +1222,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2.6242238220293075, 2.637709002941847, 2.610842698952183, 2.6330169087741524, 2.6551069309934974, 2.6590780271217227, 2.6172543389257044, 2.5865759870503098, 2.6349673399236053, 2.621434587985277, 2.61403980711475, 2.652460380923003, 2.648309394950047, 2.606000140076503, 2.647349718026817, 2.634177336934954, 2.6281805199105293, 2.614677151897922, 2.604560004780069, 2.660331004066393, 2.6009049888234586, 2.6119651969056576, 2.634270414011553, 2.6003350249957293, 2.617407795973122, 2.9287225829903036, 2.649106816155836, 2.6296493669506162, 2.6194892718922347, 2.6273436571937054, 2.6173350780736655, 2.6236466967966408, 2.611805466003716, 2.646497432142496, 2.6244605311658233, 2.634003894869238, 2.652040148852393, 2.62636507791467, 2.6211176100187004, 2.62659495905973, 2.6616420950740576, 2.640391981927678, 2.628496570046991, 2.645894819870591, 2.6240509068593383, 2.646507031051442, 2.624195760115981, 2.637918032007292, 2.610173382097855, 2.6075769159942865]</t>
+          <t>[2.643571879947558, 2.6322074360214174, 2.626853639027104, 2.603069025091827, 2.651478921994567, 2.638219870859757, 2.622815683018416, 2.6518630771897733, 2.6314524540212005, 2.6200265060178936, 2.610910269897431, 2.620295732980594, 2.6322301039472222, 2.6072110519744456, 2.6270035228226334, 2.6688393680378795, 2.6061321469023824, 2.628259143093601, 2.6023116619326174, 2.623783236835152, 2.618303874041885, 2.6011759641114622, 2.6339279720559716, 2.6073728119954467, 2.6034023268148303, 2.629367287037894, 2.645485538057983, 2.6137534209992737, 2.6073935190215707, 2.6378255249001086, 2.6091774709057063, 2.5932772799860686, 2.607976997969672, 2.615413276012987, 2.6089037500787526, 2.639207463944331, 2.6393999489955604, 2.622010378865525, 2.613961358089, 2.593219710048288, 2.6251018668990582, 2.6128074729349464, 2.622113117016852, 2.633393630152568, 2.6134808419737965, 2.625363504048437, 2.6238684139680117, 2.6641817591153085, 2.6103122879285365, 2.617747585987672]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.634404092184268</v>
+        <v>2.62274922171142</v>
       </c>
       <c r="G14" t="n">
-        <v>2.626969308126718</v>
+        <v>2.622061747941189</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0458404937085943</v>
+        <v>0.01679183142377792</v>
       </c>
       <c r="I14" t="n">
-        <v>6321404.283933984</v>
+        <v>6316154.61332656</v>
       </c>
       <c r="J14" t="n">
         <v>6776459</v>
       </c>
       <c r="K14" t="n">
-        <v>1540457.829103689</v>
+        <v>1543738.266388921</v>
       </c>
       <c r="L14" t="n">
         <v>2857</v>
       </c>
       <c r="M14" t="n">
-        <v>11397021</v>
+        <v>10118355</v>
       </c>
       <c r="N14" t="n">
-        <v>11451729</v>
+        <v>11451697</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.0028438931331038475, 0.002818905981257558, 0.005180048057809472, 0.005240577971562743, 0.005232074996456504, 0.006463347002863884, 0.006628494942560792, 0.006583366077393293, 0.006622974993661046, 0.00660533900372684, 0.006684596883133054, 0.006671878043562174, 0.006694152019917965, 0.0066094358917325735, 0.0066052989568561316, 0.006707131862640381, 0.006732048932462931, 0.0067336231004446745, 0.006737706018611789, 0.006972128059715033, 0.006672380957752466, 0.006637488026171923, 0.006755443988367915, 0.006697857053950429, 0.006597166880965233, 0.0065569470170885324, 0.00649479404091835, 0.006646061083301902, 0.006640732986852527, 0.006588445045053959, 0.006729705957695842, 0.0065270219929516315, 0.00651002605445683, 0.006537869106978178, 0.006538339890539646, 0.006512551102787256, 0.006615034071728587, 0.006441253935918212, 0.006459671072661877, 0.006565719144418836, 0.0067561951000243425, 0.006513451924547553, 0.006527483928948641, 0.006579419830814004, 0.006462475983425975, 0.006465541897341609, 0.006537186913192272, 0.0065121399238705635, 0.006443446967750788, 0.006432791939005256]</t>
+          <t>[0.0029778468888252974, 0.0028269109316170216, 0.005419943016022444, 0.005826691165566444, 0.005534712923690677, 0.0067030820064246655, 0.007026528008282185, 0.007126015145331621, 0.0070321750827133656, 0.0069003780372440815, 0.006970752961933613, 0.007041818927973509, 0.0070317150093615055, 0.007073216838762164, 0.0076218778267502785, 0.007600646000355482, 0.007266897009685636, 0.007014038041234016, 0.007302029058337212, 0.0069714339915663, 0.006963713094592094, 0.006872307043522596, 0.006927770096808672, 0.007020888850092888, 0.006956751924008131, 0.006922820815816522, 0.007117142900824547, 0.006867388961836696, 0.006874429993331432, 0.006951433839276433, 0.006922289961948991, 0.007037022849544883, 0.007002931088209152, 0.007147517986595631, 0.007564110914245248, 0.007200618041679263, 0.006782202050089836, 0.0067708848509937525, 0.0066947308368980885, 0.007011986104771495, 0.0068083510268479586, 0.006894739111885428, 0.006839226931333542, 0.006803242024034262, 0.006878354819491506, 0.007068110164254904, 0.006844914983958006, 0.006931664887815714, 0.007312384899705648, 0.006751403911039233]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.006366433314979076</v>
+        <v>0.006760200876742601</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006581392954103649</v>
+        <v>0.006954092881642282</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008074456574372451</v>
+        <v>0.0008893303932719464</v>
       </c>
       <c r="V14" t="n">
         <v>2929.32</v>
@@ -1302,35 +1302,35 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.06450089300051332, 0.052380985813215375, 0.04428276396356523, 0.03101317584514618, 0.031155148055404425, 0.0312617679592222, 0.0310051750857383, 0.031074437079951167, 0.03095757309347391, 0.03158062603324652, 0.031138041988015175, 0.030905332881957293, 0.03128668596036732, 0.030950042884796858, 0.031294167041778564, 0.030915962997823954, 0.03095183498226106, 0.031141608022153378, 0.03143588802777231, 0.03131087310612202, 0.03116060607135296, 0.03126101801171899, 0.031260205898433924, 0.03137350594624877, 0.03128304914571345, 0.031045244075357914, 0.03132025711238384, 0.031242658151313663, 0.030780328903347254, 0.03094107797369361, 0.03142776503227651, 0.03111117403022945, 0.03104281215928495, 0.03104741801507771, 0.03118303115479648, 0.031328608049079776, 0.031037492910400033, 0.03102700784802437, 0.03085094504058361, 0.030963052064180374, 0.03121098200790584, 0.030976762995123863, 0.031226555118337274, 0.03154427092522383, 0.03130411100573838, 0.031212816014885902, 0.031121039064601064, 0.031336401123553514, 0.05424797907471657, 0.03120025689713657]</t>
+          <t>[0.06324540101923048, 0.05687880306504667, 0.03810363984666765, 0.05102790496312082, 0.031184946885332465, 0.03566993004642427, 0.03146424307487905, 0.049017254961654544, 0.06777792703360319, 0.04925025487318635, 0.03140511503443122, 0.031313869170844555, 0.031111886026337743, 0.0312624319922179, 0.0313362421002239, 0.031263434095308185, 0.03121753502637148, 0.03131216601468623, 0.031418554950505495, 0.031700175954028964, 0.03124516597017646, 0.031301310984417796, 0.03114955290220678, 0.031157835153862834, 0.031293136067688465, 0.031228811014443636, 0.031288600992411375, 0.031163493869826198, 0.03122906107455492, 0.031227879924699664, 0.031285286182537675, 0.03126016794703901, 0.03117107506841421, 0.03126565692946315, 0.03147351904772222, 0.03160773008130491, 0.03174677607603371, 0.03131433995440602, 0.03136363299563527, 0.031268130987882614, 0.031418554950505495, 0.03156954003497958, 0.03132242220453918, 0.0315331369638443, 0.03124469588510692, 0.04748120694421232, 0.05917549110017717, 0.03150789998471737, 0.031161030055955052, 0.031243713106960058]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.0329722283128649</v>
+        <v>0.03541321141179651</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.03119164402596653</v>
+        <v>0.03131410456262529</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.00655352606408154</v>
+        <v>0.009356840201836822</v>
       </c>
       <c r="AI14" t="n">
-        <v>8331.129870129869</v>
+        <v>8059.7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10649</v>
+        <v>10501</v>
       </c>
       <c r="AK14" t="n">
-        <v>3938.510920462861</v>
+        <v>3569.220524808881</v>
       </c>
       <c r="AL14" t="n">
         <v>2857</v>
       </c>
       <c r="AM14" t="n">
-        <v>18113</v>
+        <v>11417</v>
       </c>
       <c r="AN14" t="n">
-        <v>25665</v>
+        <v>25569</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -1343,35 +1343,35 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.0092442671302706, 0.009226289810612798, 0.009180702036246657, 0.009189374977722764, 0.009126751916483045, 0.009207302005961537, 0.009223517030477524, 0.00921690696850419, 0.009078538976609707, 0.00911463308148086, 0.009025278966873884, 0.009105819975957274, 0.009117848007008433, 0.009120822185650468, 0.009010155918076634, 0.009163314942270517, 0.009124126983806491, 0.009078569011762738, 0.009105709148570895, 0.009023956954479218, 0.009168352000415325, 0.009102614130824804, 0.009064667858183384, 0.009085889905691147, 0.009023906895890832, 0.008982816012576222, 0.009085458004847169, 0.009154852945357561, 0.009188493946567178, 0.009355312213301659, 0.009099067887291312, 0.00908632087521255, 0.008984549203887582, 0.009005500003695488, 0.009070286992937326, 0.009076796937733889, 0.0091219840105623, 0.009038039017468691, 0.00900092301890254, 0.008962125051766634, 0.008961474988609552, 0.009051559027284384, 0.008906150003895164, 0.013435104163363576, 0.019830431090667844, 0.021318465936928988, 0.021769631886854768, 0.022399303037673235, 0.022393224062398076, 0.02238841587677598]</t>
+          <t>[0.03107686387374997, 0.0310670780017972, 0.030922061996534467, 0.03072649985551834, 0.030784056056290865, 0.030781280947849154, 0.030918447067961097, 0.03093531192280352, 0.03077780595049262, 0.03094149101525545, 0.030704556964337826, 0.030749293975532055, 0.031060107983648777, 0.03076645894907415, 0.030965978978201747, 0.030913257971405983, 0.031051734928041697, 0.03084503603167832, 0.030903744045645, 0.030774611048400402, 0.05380762601271272, 0.04585426184348762, 0.030879488214850426, 0.03184159705415368, 0.030707299010828137, 0.03085876884870231, 0.03080767998471856, 0.03068671002984047, 0.030582782812416553, 0.030766339041292667, 0.030884244944900274, 0.030807139817625284, 0.030644447077065706, 0.030767721123993397, 0.030698447953909636, 0.030602012993767858, 0.030470746103674173, 0.030724867014214396, 0.03091785591095686, 0.03074184199795127, 0.030553600983694196, 0.030946399085223675, 0.030732729006558657, 0.03086734004318714, 0.03040227387100458, 0.030992266023531556, 0.031011877115815878, 0.03081507096067071, 0.030795272905379534, 0.030801441986113787]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.01069591206032783</v>
+        <v>0.03159271654672921</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.009110226528719068</v>
+        <v>0.03080740990117192</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.004157360503937908</v>
+        <v>0.003851027662897595</v>
       </c>
       <c r="AV14" t="n">
-        <v>3358</v>
+        <v>6470.92</v>
       </c>
       <c r="AW14" t="n">
-        <v>2857</v>
+        <v>8045</v>
       </c>
       <c r="AX14" t="n">
-        <v>1256.058423655669</v>
+        <v>2603.750716219732</v>
       </c>
       <c r="AY14" t="n">
         <v>2857</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7113</v>
+        <v>10129</v>
       </c>
       <c r="BA14" t="n">
-        <v>10329</v>
+        <v>15841</v>
       </c>
       <c r="BB14" t="n">
         <v>0.9369747899159664</v>
@@ -1396,35 +1396,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.7729736701585352, 2.6210483638569713, 2.6742202499881387, 2.639001311035827, 2.6601895219646394, 2.6112742938566953, 2.6403607660904527, 2.617961989948526, 2.612126298015937, 2.612491189967841, 2.6066631199792027, 2.6609094359446317, 2.622222107136622, 2.6350140860304236, 2.6207033870741725, 2.6328841119538993, 2.6351474430412054, 2.628431814024225, 2.6836019549518824, 2.598671520128846, 2.624264348996803, 2.6645121888723224, 2.64848295901902, 2.608544731978327, 2.624937839107588, 2.6880383959505707, 2.6505556320771575, 2.6097276229411364, 2.658970029093325, 2.624147984897718, 2.618869483936578, 2.6135487989522517, 2.655538055114448, 2.6383984710555524, 2.618322004098445, 2.648659270023927, 2.6111671500839293, 2.622399749001488, 2.693738359026611, 2.6158779200632125, 2.637394663877785, 2.6207019661087543, 2.627845184877515, 2.6577440968248993, 2.6578603440430015, 2.6616203950252384, 2.6374574908986688, 2.6153488121926785, 2.6346551571041346, 2.6613266200292856]</t>
+          <t>[2.6362708520609885, 2.620937648927793, 2.5984645599965006, 2.6143594060558826, 2.635500896954909, 2.6020363280549645, 2.6152079191524535, 2.626163824927062, 2.611723039066419, 2.6040393160656095, 2.6045950341504067, 2.6565023220609874, 2.6334219849668443, 2.586011421866715, 2.632269936846569, 2.6047223929781467, 2.616548150079325, 2.625033568125218, 2.6231265901587903, 2.6132105360738933, 2.638297251891345, 2.622695578960702, 2.611305359052494, 2.6068055499345064, 2.6288706839550287, 2.604214356979355, 2.605199280194938, 2.6118286189157516, 2.6331600728444755, 2.608985278988257, 2.6164300080854446, 2.6323284818790853, 2.620012897066772, 2.6140177820343524, 2.6380428168922663, 2.636903690872714, 2.610383525956422, 2.6161695530172437, 2.6331324989441782, 2.634259215090424, 2.631305520888418, 2.6281182980164886, 2.6554568340070546, 2.628759924089536, 2.5922252908349037, 2.6291249860078096, 2.640705907018855, 2.6004803099203855, 2.6267184880562127, 2.640040964819491]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.638731047208421</v>
+        <v>2.621122495075688</v>
       </c>
       <c r="G15" t="n">
-        <v>2.633769634529017</v>
+        <v>2.621816613944247</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02990425848106219</v>
+        <v>0.01529382807254652</v>
       </c>
       <c r="I15" t="n">
-        <v>6303466.578562421</v>
+        <v>6319269.785696149</v>
       </c>
       <c r="J15" t="n">
-        <v>6776595</v>
+        <v>6776587</v>
       </c>
       <c r="K15" t="n">
-        <v>1569327.447489067</v>
+        <v>1542539.114775572</v>
       </c>
       <c r="L15" t="n">
         <v>2857</v>
       </c>
       <c r="M15" t="n">
-        <v>11397053</v>
+        <v>10079147</v>
       </c>
       <c r="N15" t="n">
-        <v>11451697</v>
+        <v>11451569</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.005628019105643034, 0.005249952897429466, 0.005747028160840273, 0.006520964903756976, 0.006602335954084992, 0.006758278934285045, 0.006682258099317551, 0.006603909889236093, 0.006555367028340697, 0.006601767148822546, 0.00662694382481277, 0.006758139934390783, 0.006653263932093978, 0.006601074943318963, 0.006660634884610772, 0.006602257024496794, 0.006692159920930862, 0.006611350923776627, 0.006731269881129265, 0.00719008594751358, 0.0066077448427677155, 0.00670750392600894, 0.006584811955690384, 0.006637719925493002, 0.006699612131342292, 0.0065831891261041164, 0.006785430945456028, 0.006909796968102455, 0.006705061066895723, 0.006618021056056023, 0.006731612142175436, 0.006658820901066065, 0.006634864956140518, 0.006684469990432262, 0.006553324172273278, 0.006778410170227289, 0.006569036981090903, 0.006649759132415056, 0.006657760124653578, 0.007088174112141132, 0.006844808114692569, 0.006539532914757729, 0.006528375903144479, 0.0065798331052064896, 0.006570848869159818, 0.00649392488412559, 0.006579301785677671, 0.006566663039848208, 0.006605681963264942, 0.006536900065839291]</t>
+          <t>[0.0029850690625607967, 0.0028697338420897722, 0.005502965999767184, 0.005492230178788304, 0.005550646921619773, 0.00661581102758646, 0.006976352073252201, 0.006979356054216623, 0.007040227064862847, 0.007048479048535228, 0.007061739917844534, 0.007002561120316386, 0.006967547815293074, 0.007002551108598709, 0.00712386192753911, 0.006948849884793162, 0.006970260990783572, 0.006870302138850093, 0.007302368991076946, 0.006920437095686793, 0.00695416796952486, 0.0069253649562597275, 0.007068258943036199, 0.006949170958250761, 0.00700812810100615, 0.006854689214378595, 0.006879576947540045, 0.006887108087539673, 0.006870141951367259, 0.006936521967872977, 0.007044333033263683, 0.006919967010617256, 0.006907308008521795, 0.006845918018370867, 0.006820229114964604, 0.0067304931581020355, 0.006791213992983103, 0.006739126052707434, 0.006917254067957401, 0.007044593105092645, 0.0067265089601278305, 0.006710794055834413, 0.006853937171399593, 0.006824583979323506, 0.0067852449137717485, 0.00682649714872241, 0.006943603046238422, 0.006944343913346529, 0.006763753015547991, 0.006730663124471903]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.006595361172221601</v>
+        <v>0.00666869692504406</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006614685989916325</v>
+        <v>0.006912281038239598</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003030609949127064</v>
+        <v>0.0008495906839391027</v>
       </c>
       <c r="V15" t="n">
         <v>2929.32</v>
@@ -1476,32 +1476,32 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.07646171702072024, 0.0430318049620837, 0.042918935883790255, 0.04414463113062084, 0.04340644599869847, 0.04334712913259864, 0.04284473485313356, 0.04371298407204449, 0.043268389999866486, 0.043322209967300296, 0.043673184933140874, 0.0475813418161124, 0.04323804401792586, 0.043108100071549416, 0.043156322091817856, 0.043252466013655066, 0.04342422308400273, 0.04293631296604872, 0.04278388503007591, 0.04287315811961889, 0.04281289898790419, 0.04310363298282027, 0.042795833898708224, 0.042804245138540864, 0.042764324927702546, 0.04311344702728093, 0.04285401990637183, 0.04298196081072092, 0.04295148607343435, 0.043049721978604794, 0.043408738914877176, 0.04282163199968636, 0.042868932941928506, 0.043342059943825006, 0.04296038788743317, 0.04326545400545001, 0.042952796909958124, 0.043019467033445835, 0.04320440301671624, 0.04373935400508344, 0.04407312418334186, 0.042966318083927035, 0.04337143409065902, 0.042870553908869624, 0.04290182003751397, 0.04294525692239404, 0.0428523279260844, 0.04310229094699025, 0.04348135809414089, 0.046375175938010216]</t>
+          <t>[0.07664850889705122, 0.04337456892244518, 0.04327038093470037, 0.04292848100885749, 0.04319330817088485, 0.04299541004002094, 0.042789392871782184, 0.04289542092010379, 0.04318704712204635, 0.04288481501862407, 0.04320955206640065, 0.042683214182034135, 0.04287382820621133, 0.0430496612098068, 0.04314831900410354, 0.04352720710448921, 0.04387361486442387, 0.04333424801006913, 0.043089562095701694, 0.043165375012904406, 0.043094889959320426, 0.04306943202391267, 0.04305098298937082, 0.04314560582861304, 0.042859548004344106, 0.0428537679836154, 0.04308920097537339, 0.04356000619009137, 0.043137673987075686, 0.04299503890797496, 0.04322355194017291, 0.04352646600455046, 0.043441948015242815, 0.043230232084169984, 0.04298459505662322, 0.043416230008006096, 0.043095319997519255, 0.04359848308376968, 0.06647750595584512, 0.04356018593534827, 0.04284187103621662, 0.043498933082446456, 0.042841029120609164, 0.042944325134158134, 0.04324497492052615, 0.04316197009757161, 0.043050544103607535, 0.04312348202802241, 0.04303982714191079, 0.04297287808731198]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.04396480959374457</v>
+        <v>0.04428504830691964</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04310296196490526</v>
+        <v>0.04313057800754905</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.004762723539051896</v>
+        <v>0.005722919044175657</v>
       </c>
       <c r="AI15" t="n">
-        <v>8689.415584415585</v>
+        <v>8719.871794871795</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11417</v>
+        <v>11321</v>
       </c>
       <c r="AK15" t="n">
-        <v>4041.800082214871</v>
+        <v>4025.809630801909</v>
       </c>
       <c r="AL15" t="n">
         <v>2857</v>
       </c>
       <c r="AM15" t="n">
-        <v>13169</v>
+        <v>13017</v>
       </c>
       <c r="AN15" t="n">
         <v>26929</v>
@@ -1517,35 +1517,35 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.00952618196606636, 0.009581875056028366, 0.009395916014909744, 0.009378358954563737, 0.009418108966201544, 0.00948481890372932, 0.009428735123947263, 0.009485279908403754, 0.00937393307685852, 0.00935824098996818, 0.009638258954510093, 0.009464600123465061, 0.009616235038265586, 0.009473892860114574, 0.00959797902032733, 0.009502315195277333, 0.00953371194191277, 0.009568605106323957, 0.009463086957111955, 0.009422285947948694, 0.009379351045936346, 0.009421895025298, 0.00945923081599176, 0.009546191897243261, 0.009475356200709939, 0.009355775080621243, 0.009344198973849416, 0.009313593152910471, 0.009349287021905184, 0.009525259956717491, 0.009377740090712905, 0.009374013869091868, 0.009333593072369695, 0.00932024302892387, 0.009447083109989762, 0.009317148942500353, 0.0093134930357337, 0.009314414113759995, 0.009248035028576851, 0.009302587946876884, 0.009301404934376478, 0.009233542950823903, 0.009314404102042317, 0.009357849135994911, 0.00927669694647193, 0.009298259858042002, 0.009363617980852723, 0.009462186135351658, 0.009331960929557681, 0.009589556138962507]</t>
+          <t>[0.042799208080396056, 0.04240255313925445, 0.042313440004363656, 0.05091472319327295, 0.04284819099120796, 0.04221718502230942, 0.04229910811409354, 0.04239077609963715, 0.04238690994679928, 0.04232604894787073, 0.04273570189252496, 0.04305637115612626, 0.042632006108760834, 0.04258894198574126, 0.04228024021722376, 0.04254641896113753, 0.04278330318629742, 0.04224495682865381, 0.04222641000524163, 0.042347972048446536, 0.042358517879620194, 0.042586289113387465, 0.042332467855885625, 0.0426268489100039, 0.04228196386247873, 0.04232943383976817, 0.042415702948346734, 0.042150497902184725, 0.042189013911411166, 0.04249873710796237, 0.042050987016409636, 0.04217459191568196, 0.04256884194910526, 0.04243527306243777, 0.04328465322032571, 0.042855933075770736, 0.04253910714760423, 0.04249838716350496, 0.04258045996539295, 0.04242935520596802, 0.042325998190790415, 0.042101694038137794, 0.042363476008176804, 0.04192782286554575, 0.04204317508265376, 0.04190536984242499, 0.042080690851435065, 0.04258625884540379, 0.042300721164792776, 0.04234331496991217]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.009415207812562585</v>
+        <v>0.04259012101683766</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.009387633530423045</v>
+        <v>0.04237519297748804</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0001028259530221664</v>
+        <v>0.001231448374850296</v>
       </c>
       <c r="AV15" t="n">
-        <v>2928.68</v>
+        <v>6878.562913907284</v>
       </c>
       <c r="AW15" t="n">
-        <v>2857</v>
+        <v>7961</v>
       </c>
       <c r="AX15" t="n">
-        <v>115.5694755264961</v>
+        <v>2906.914826354931</v>
       </c>
       <c r="AY15" t="n">
         <v>2857</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3305</v>
+        <v>11481</v>
       </c>
       <c r="BA15" t="n">
-        <v>10329</v>
+        <v>15841</v>
       </c>
       <c r="BB15" t="n">
         <v>0.9026845637583892</v>
@@ -1570,35 +1570,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2.6552159909624606, 2.659834814025089, 2.702835266944021, 2.6812805039808154, 2.6460289610549808, 2.648105723084882, 2.6732869760598987, 2.6513686410617083, 2.651957373833284, 2.6817583309020847, 2.6842655141372234, 2.655455195810646, 2.66227122512646, 2.6875254409387708, 2.6706154469866306, 2.663431811146438, 2.659393382957205, 2.6695337160490453, 2.6672222409397364, 2.6446576439775527, 2.6728390681091696, 2.6694520451128483, 2.6626267340034246, 2.665089352056384, 2.679289400111884, 2.649967821780592, 2.656728558940813, 2.6912063339259475, 2.645984489005059, 2.6543828449212015, 2.6772704110480845, 2.6855972688645124, 2.6487628540489823, 2.66084241704084, 2.6684019579552114, 2.6572303269058466, 2.6575053280685097, 2.6590516620781273, 2.682205999037251, 2.6550754772033542, 2.6591433328576386, 2.7086376000661403, 2.6545676989480853, 2.6497815079055727, 2.6539721619337797, 2.6737521558534354, 2.6857613772153854, 2.6506228018552065, 2.674517324892804, 2.6739785380195826]</t>
+          <t>[2.6367751921061426, 2.6363072299864143, 2.6453622200060636, 2.6682241649832577, 2.649973546154797, 2.6476350950542837, 2.6732430199626833, 2.66710382909514, 2.6412002169527113, 2.6397900239098817, 2.674424970988184, 2.646312464028597, 2.6416302921716124, 2.6638322002254426, 2.6751662420574576, 2.65529354615137, 2.6824062841478735, 2.6856755558401346, 2.653618454001844, 2.663453983142972, 2.6976306110154837, 2.6362340201158077, 2.6461360971443355, 2.634021314093843, 2.6622725951019675, 2.651569112902507, 2.652720803860575, 2.6953762129414827, 2.6705906968563795, 2.6595883581321687, 2.636458999942988, 2.6544158519245684, 2.65599428396672, 2.6692629889585078, 2.7223480800166726, 2.650376491015777, 2.655759895918891, 2.65903656790033, 2.6775972850155085, 2.659447937970981, 2.6756786389742047, 2.699026271002367, 2.6394785568118095, 2.6818979440722615, 2.7429253589361906, 2.6728351849596947, 2.6493745411280543, 2.6479025359731168, 2.6820474278647453, 2.654124926077202]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.666005780994892</v>
+        <v>2.66279116243124</v>
       </c>
       <c r="G16" t="n">
-        <v>2.662448979564942</v>
+        <v>2.657515425933525</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01501526294412572</v>
+        <v>0.02225806024343828</v>
       </c>
       <c r="I16" t="n">
-        <v>6317225.116704045</v>
+        <v>6319929.65150129</v>
       </c>
       <c r="J16" t="n">
-        <v>6849955</v>
+        <v>6830027</v>
       </c>
       <c r="K16" t="n">
-        <v>1553170.283565824</v>
+        <v>1552838.525455791</v>
       </c>
       <c r="L16" t="n">
         <v>2857</v>
       </c>
       <c r="M16" t="n">
-        <v>11397085</v>
+        <v>10686317</v>
       </c>
       <c r="N16" t="n">
-        <v>11451569</v>
+        <v>11451537</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
@@ -1609,26 +1609,26 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.003915339009836316, 0.005302343051880598, 0.005269444081932306, 0.006438302109017968, 0.006766564911231399, 0.006768696941435337, 0.006732634035870433, 0.00667384616099298, 0.006695197895169258, 0.006726604886353016, 0.006738513009622693, 0.006621828069910407, 0.006604911992326379, 0.006593714933842421, 0.0066056528594344854, 0.006661987863481045, 0.006666834931820631, 0.006600454915314913, 0.006607938092201948, 0.006999291013926268, 0.0067510418593883514, 0.006618982879444957, 0.0067922130692750216, 0.0066806860268116, 0.006845071911811829, 0.006553515093401074, 0.0065637819934636354, 0.00660081603564322, 0.006638294085860252, 0.006637881975620985, 0.006709108129143715, 0.006456861039623618, 0.00667734001763165, 0.006567575968801975, 0.006649059010669589, 0.0065115829929709435, 0.006642700871452689, 0.006516109919175506, 0.006550301797688007, 0.006509250029921532, 0.006751341978088021, 0.006446145009249449, 0.006587195210158825, 0.006440365919843316, 0.006514006992802024, 0.006444643018767238, 0.006526225013658404, 0.006503851851448417, 0.006423840997740626, 0.006408527959138155]</t>
+          <t>[0.0030250379350036383, 0.002850716933608055, 0.005419631022959948, 0.005559339886531234, 0.005506951827555895, 0.006773826899006963, 0.00712801911868155, 0.007053015986457467, 0.0070554090198129416, 0.0070160808973014355, 0.007116119842976332, 0.0071438809391111135, 0.007268207147717476, 0.007351242005825043, 0.007012726040557027, 0.007022238103672862, 0.00701043289154768, 0.007271972950547934, 0.007529048016294837, 0.00695981620810926, 0.006919285980984569, 0.007158895023167133, 0.007011092966422439, 0.007094196975231171, 0.0069933978375047445, 0.007018744945526123, 0.007012806134298444, 0.0069281901232898235, 0.0069306830409914255, 0.007049390813335776, 0.006940055871382356, 0.0068805471528321505, 0.006850433070212603, 0.0068745489697903395, 0.006811934988945723, 0.006893547950312495, 0.006920438027009368, 0.006818414898589253, 0.006871253019198775, 0.007158343913033605, 0.0068351998925209045, 0.00688515417277813, 0.0068052459973841906, 0.006859336979687214, 0.006784985074773431, 0.0068494598381221294, 0.006809933111071587, 0.00688443286344409, 0.006933938013389707, 0.006849160185083747]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.006510168388485909</v>
+        <v>0.006734135230071842</v>
       </c>
       <c r="T16" t="n">
-        <v>0.006605282425880432</v>
+        <v>0.006929436582140625</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0004730421824625711</v>
+        <v>0.0008739453388582194</v>
       </c>
       <c r="V16" t="n">
-        <v>2934.44</v>
+        <v>2929.32</v>
       </c>
       <c r="W16" t="n">
         <v>2857</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1361371694709</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y16" t="n">
         <v>2857</v>
@@ -1650,32 +1650,32 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.09089882601983845, 0.0578104080632329, 0.05695021082647145, 0.05707762110978365, 0.05709293391555548, 0.05730474088340998, 0.05698102805763483, 0.056962860049679875, 0.05716162803582847, 0.05752239702269435, 0.05700896796770394, 0.05787101900205016, 0.06064004194922745, 0.05755065008997917, 0.05750258802436292, 0.05736828688532114, 0.05730122490786016, 0.05746199586428702, 0.05744232703000307, 0.059292785823345184, 0.05769235105253756, 0.057749497005715966, 0.057183970930054784, 0.057417329866439104, 0.05763953295536339, 0.057180124102160335, 0.0575959668494761, 0.0567484381608665, 0.057261087000370026, 0.05696095689199865, 0.057038252940401435, 0.0570102499332279, 0.05710249789990485, 0.057132803136482835, 0.057259193854406476, 0.05728416214697063, 0.05738168605603278, 0.057110150111839175, 0.05708786705508828, 0.05715238302946091, 0.05716808792203665, 0.05724119720980525, 0.057888224022462964, 0.05719737079925835, 0.05705989617854357, 0.057058684062212706, 0.057557599851861596, 0.05731461616232991, 0.057701505022123456, 0.05741366487927735]</t>
+          <t>[0.09076559403911233, 0.05767530016601086, 0.057543312199413776, 0.05751923588104546, 0.057799556059762836, 0.057530672987923026, 0.05762754799798131, 0.057294070022180676, 0.057787647005170584, 0.05789670115336776, 0.058367806021124125, 0.05786291090771556, 0.057759496150538325, 0.05770372389815748, 0.05737809487618506, 0.0575200270395726, 0.0579050830565393, 0.05766582605428994, 0.0573057068977505, 0.05703943804837763, 0.05722009902819991, 0.057460717856884, 0.057028440991416574, 0.05784594500437379, 0.05751658184453845, 0.07634751498699188, 0.07345431507565081, 0.05766720790416002, 0.05768219009041786, 0.05757875484414399, 0.05744901089929044, 0.05746602709405124, 0.05740248109214008, 0.05791033199056983, 0.05790684698149562, 0.05763993598520756, 0.05734315398149192, 0.05758005799725652, 0.05740581499412656, 0.05769919604063034, 0.058582196943461895, 0.057759375078603625, 0.05751636205241084, 0.058069922029972076, 0.057795078959316015, 0.05818597390316427, 0.057873555924743414, 0.05834149708971381, 0.05810398096218705, 0.05769348796457052]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.05807583777233958</v>
+        <v>0.059029476121068</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05727262457367033</v>
+        <v>0.05767874512821436</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.004775197359745284</v>
+        <v>0.005724247678302168</v>
       </c>
       <c r="AI16" t="n">
-        <v>9334.346534653465</v>
+        <v>9272.687804878049</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11081</v>
+        <v>11145</v>
       </c>
       <c r="AK16" t="n">
-        <v>3771.222999789612</v>
+        <v>3650.647460718248</v>
       </c>
       <c r="AL16" t="n">
         <v>2857</v>
       </c>
       <c r="AM16" t="n">
-        <v>18401</v>
+        <v>12913</v>
       </c>
       <c r="AN16" t="n">
         <v>26369</v>
@@ -1691,35 +1691,35 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.01001466391608119, 0.0099801120813936, 0.009883568855002522, 0.009922296041622758, 0.00998274702578783, 0.009893924929201603, 0.00984171498566866, 0.009773572906851768, 0.009833363117650151, 0.009913123212754726, 0.009817791171371937, 0.00985917099751532, 0.009743558941408992, 0.00975955300964415, 0.009780173189938068, 0.009771129116415977, 0.009762478992342949, 0.009840123122557998, 0.009717850014567375, 0.009754164842888713, 0.009750528959557414, 0.009756127838045359, 0.00979425385594368, 0.009887624066323042, 0.009798310929909348, 0.009796207072213292, 0.009737239917740226, 0.009832171024754643, 0.009829036891460419, 0.009917018003761768, 0.009848525049164891, 0.009812511038035154, 0.009763317881152034, 0.009811310097575188, 0.009899521945044398, 0.00976249692030251, 0.009801777079701424, 0.009679604088887572, 0.009720464004203677, 0.00967348413541913, 0.009743347996845841, 0.009710138896480203, 0.009756278013810515, 0.00978424004279077, 0.009869877947494388, 0.009731461061164737, 0.009695558110252023, 0.009659744100645185, 0.009748145006597042, 0.009650018997490406]</t>
+          <t>[0.0565136109944433, 0.0573596169706434, 0.05698784999549389, 0.057039557956159115, 0.056724646128714085, 0.05680837295949459, 0.056540251011028886, 0.05667559499852359, 0.05648634093813598, 0.05659221904352307, 0.056575603783130646, 0.05664965393953025, 0.056655703810974956, 0.05668472684919834, 0.05662948498502374, 0.0563594289124012, 0.05662351590581238, 0.056823846185579896, 0.05646322714164853, 0.056823995895683765, 0.05671493289992213, 0.05734525597654283, 0.05705814505927265, 0.05735572101548314, 0.057075803168118, 0.05697572301141918, 0.05677103693597019, 0.05706745991483331, 0.056969743920490146, 0.05692614894360304, 0.05736221116967499, 0.0578977030236274, 0.05752114998176694, 0.0568552240729332, 0.05677976901642978, 0.057294310070574284, 0.057417724980041385, 0.05773535091429949, 0.05724935210309923, 0.057261610170826316, 0.05722532607614994, 0.0571259381249547, 0.0569046949967742, 0.057112687965855, 0.05698552681133151, 0.057522050803527236, 0.05698022898286581, 0.056989945005625486, 0.05659752688370645, 0.056773379910737276]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.009801308428868651</v>
+        <v>0.05695737860631198</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.009789246949367225</v>
+        <v>0.05694794643204659</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.369043201511516e-05</v>
+        <v>0.0003464688287624733</v>
       </c>
       <c r="AV16" t="n">
-        <v>2938.96</v>
+        <v>7410.48</v>
       </c>
       <c r="AW16" t="n">
-        <v>2857</v>
+        <v>8593</v>
       </c>
       <c r="AX16" t="n">
-        <v>120.1089573372988</v>
+        <v>2664.726569094886</v>
       </c>
       <c r="AY16" t="n">
         <v>2857</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3305</v>
+        <v>11097</v>
       </c>
       <c r="BA16" t="n">
-        <v>10329</v>
+        <v>15841</v>
       </c>
       <c r="BB16" t="n">
         <v>0.8631284916201117</v>
@@ -1744,35 +1744,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[2.667131441179663, 2.654252923093736, 2.707314315950498, 2.6711715180426836, 2.6821795201394707, 2.674220841145143, 2.660559961106628, 2.643073266139254, 2.6441102689132094, 2.719514804892242, 2.6849921599496156, 2.6675123248714954, 2.6832939088344574, 2.6377654639072716, 2.6532254880294204, 2.669333128957078, 2.674217796884477, 2.6742902658879757, 2.636487961979583, 2.6759893659036607, 2.6612382440362126, 2.6664334090892226, 2.6490012309513986, 2.675162588013336, 2.6653012819588184, 2.6604425909463316, 2.690515829017386, 2.6844306928105652, 2.676116640912369, 2.6594412000849843, 2.6706825690343976, 2.6455133568961173, 2.643090819939971, 2.7394289260264486, 2.6790725397877395, 2.64315072610043, 2.685645994031802, 2.674973892979324, 2.6651564720086753, 2.644420440075919, 2.7223766120150685, 2.6564503689296544, 2.650597100146115, 2.665163633879274, 2.688142349012196, 2.65506109315902, 2.6642830132041126, 2.6833315449766815, 2.6940609791781753, 2.6611805339343846]</t>
+          <t>[2.6215975580271333, 2.63445717189461, 2.667006147094071, 2.6689303328748792, 2.6706022238358855, 2.6626649741083384, 2.6685881458688527, 2.6736744770314544, 2.650892940815538, 2.7506541770417243, 2.6272425819188356, 2.6764970761723816, 2.664332598913461, 2.6346526169218123, 2.658671414013952, 2.645076483953744, 2.6782043441198766, 2.6264200499281287, 2.6495886540506035, 2.6654695589095354, 2.630615042988211, 2.660547388950363, 2.656433852855116, 2.6768390799406916, 2.6565384450368583, 2.6656245428603142, 2.750107120955363, 2.6531013168860227, 2.643263051053509, 2.646430900786072, 2.6682533510029316, 2.656994719989598, 2.6615479229949415, 2.6644125380553305, 2.6296853530220687, 2.6349506620317698, 2.662472799886018, 2.669122582068667, 2.650697304168716, 2.712181461043656, 2.673656522994861, 2.6334644199814647, 2.6597182010300457, 2.6492615879978985, 2.6842929660342634, 2.6861739719752222, 2.6495488840155303, 2.694982449989766, 2.6643272808287293, 2.6696839870419353]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.670010067978874</v>
+        <v>2.662203064719215</v>
       </c>
       <c r="G17" t="n">
-        <v>2.667321883025579</v>
+        <v>2.66201036144048</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02155474815337849</v>
+        <v>0.02580491286948952</v>
       </c>
       <c r="I17" t="n">
-        <v>6313698.952290077</v>
+        <v>6320350.06859566</v>
       </c>
       <c r="J17" t="n">
-        <v>6850356</v>
+        <v>6830244</v>
       </c>
       <c r="K17" t="n">
-        <v>1554183.06743445</v>
+        <v>1545166.335172157</v>
       </c>
       <c r="L17" t="n">
         <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>10114707</v>
+        <v>10114619</v>
       </c>
       <c r="N17" t="n">
-        <v>11451442</v>
+        <v>11451634</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
@@ -1783,32 +1783,32 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.002844067057594657, 0.0039206568617373705, 0.005304296966642141, 0.005276495823636651, 0.006432925816625357, 0.006625654874369502, 0.0066686689388006926, 0.0067629399709403515, 0.006701829144731164, 0.0067102808970957994, 0.0066388449631631374, 0.0066849240101873875, 0.006710432004183531, 0.006694908952340484, 0.006583811016753316, 0.0065845639910548925, 0.006664882879704237, 0.006651232950389385, 0.00658314093016088, 0.007042258977890015, 0.0065738968551158905, 0.006768638966605067, 0.006581308087334037, 0.0067204260267317295, 0.006625644862651825, 0.006746546132490039, 0.006660005077719688, 0.006777361035346985, 0.006564384093508124, 0.006627687020227313, 0.006640997948125005, 0.006579797016456723, 0.006636971142143011, 0.006516620051115751, 0.006464723963290453, 0.006508961087092757, 0.0065876180306077, 0.006592643912881613, 0.006507657002657652, 0.006614960031583905, 0.0068622189573943615, 0.006490201922133565, 0.006586906965821981, 0.006566965952515602, 0.006463011959567666, 0.0065002478659152985, 0.006596551043912768, 0.00647199503146112, 0.006522921146824956, 0.00653323601000011]</t>
+          <t>[0.0029613019432872534, 0.005334403831511736, 0.005700211971998215, 0.0054449900053441525, 0.00548555888235569, 0.0068174428306519985, 0.006962350104004145, 0.007011273177340627, 0.0070023799780756235, 0.01050173700787127, 0.011583066079765558, 0.007222478976473212, 0.0070563009940087795, 0.007045103935524821, 0.007211061893031001, 0.007062208140268922, 0.007013456197455525, 0.006978512974455953, 0.007541936822235584, 0.007128840079531074, 0.006997623015195131, 0.007024303078651428, 0.006957754027098417, 0.006968948990106583, 0.006914388854056597, 0.006976810982450843, 0.006939766928553581, 0.007086876081302762, 0.00694839796051383, 0.006884733913466334, 0.006891313008964062, 0.007011663168668747, 0.00875178910791874, 0.006810071878135204, 0.006822770927101374, 0.006842160131782293, 0.0068516850005835295, 0.006810082821175456, 0.006800197996199131, 0.007049930980429053, 0.006859364919364452, 0.006903791101649404, 0.006882951129227877, 0.006820576963946223, 0.006822621915489435, 0.006817572982981801, 0.006880216998979449, 0.007040777010843158, 0.00898975390009582, 0.008111669914796948]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.006439558444544673</v>
+        <v>0.007030703630298376</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006590130971744657</v>
+        <v>0.006960052065551281</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0007003146891878142</v>
+        <v>0.001176446761715225</v>
       </c>
       <c r="V17" t="n">
-        <v>2930.32</v>
+        <v>3113.333333333333</v>
       </c>
       <c r="W17" t="n">
         <v>2858</v>
       </c>
       <c r="X17" t="n">
-        <v>124.4923471133705</v>
+        <v>1312.774263408095</v>
       </c>
       <c r="Y17" t="n">
         <v>2858</v>
       </c>
       <c r="Z17" t="n">
-        <v>3306</v>
+        <v>12264</v>
       </c>
       <c r="AA17" t="n">
         <v>64715</v>
@@ -1824,32 +1824,32 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.10932064708322287, 0.07568859192542732, 0.07610531500540674, 0.07511804788373411, 0.07511627511121333, 0.07538369507528841, 0.07467103004455566, 0.0745404630433768, 0.07539527397602797, 0.07535156700760126, 0.0751226139254868, 0.07477033790200949, 0.07496080198325217, 0.07469040807336569, 0.07457949290983379, 0.07515603490173817, 0.0746858308557421, 0.07437080005183816, 0.0757245251443237, 0.07525959005579352, 0.07500098110176623, 0.07500035199336708, 0.08429577108472586, 0.07460483000613749, 0.07442000298760831, 0.07437822106294334, 0.07422756403684616, 0.07417068886570632, 0.07458248594775796, 0.0745046699885279, 0.07395446696318686, 0.07416594284586608, 0.07432197709567845, 0.07437563803978264, 0.07460562302730978, 0.07456845603883266, 0.07478186395019293, 0.0747366480063647, 0.07454610196873546, 0.07446859683841467, 0.07411020901054144, 0.07405141205526888, 0.07429500599391758, 0.07412054506130517, 0.0740995251107961, 0.0752124588470906, 0.07472304697148502, 0.07540277391672134, 0.07481006719172001, 0.07456407998688519]</t>
+          <t>[0.12177994917146862, 0.07554642390459776, 0.07520945998840034, 0.07412105100229383, 0.07453394983895123, 0.07445094385184348, 0.07415937911719084, 0.07628515106625855, 0.07435597409494221, 0.07460292289033532, 0.07424744195304811, 0.07486626715399325, 0.07469346793368459, 0.07443747599609196, 0.0744024331215769, 0.07458995399065316, 0.07448525703512132, 0.0742826929781586, 0.07432732987217605, 0.07452285196632147, 0.07431357982568443, 0.0748106730170548, 0.0745574941392988, 0.07457283907569945, 0.07445174595341086, 0.07477206597104669, 0.0748359109275043, 0.07454608799889684, 0.07480207015760243, 0.07506846892647445, 0.07465670304372907, 0.0743391690775752, 0.07466545701026917, 0.07513484894298017, 0.07493313704617321, 0.07928172498941422, 0.07474107900634408, 0.0815025269985199, 0.07473585195839405, 0.07875567697919905, 0.10116666811518371, 0.07456313213333488, 0.0746991268824786, 0.07476811995729804, 0.07457117503508925, 0.07486631791107357, 0.07499553984962404, 0.07480810908600688, 0.07488162978552282, 0.07552581303752959]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.0756222269590944</v>
+        <v>0.0764844623953104</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07467843045014888</v>
+        <v>0.07469629740808159</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.005069586447809431</v>
+        <v>0.007624271882375208</v>
       </c>
       <c r="AI17" t="n">
-        <v>9041.843137254902</v>
+        <v>9046.138996138996</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10410</v>
+        <v>10418</v>
       </c>
       <c r="AK17" t="n">
-        <v>3077.601966639121</v>
+        <v>3035.854728753265</v>
       </c>
       <c r="AL17" t="n">
         <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>14050</v>
+        <v>12386</v>
       </c>
       <c r="AN17" t="n">
         <v>25570</v>
@@ -1857,46 +1857,50 @@
       <c r="AO17" t="n">
         <v>6</v>
       </c>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>8475</v>
+      </c>
       <c r="AQ17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.010017410852015018, 0.009830128867179155, 0.009792044060304761, 0.009695618879050016, 0.009621247882023454, 0.009634057059884071, 0.009706293931230903, 0.009695409098640084, 0.009687717072665691, 0.009680015966296196, 0.009641057113185525, 0.009615409886464477, 0.009683569893240929, 0.009591222973540425, 0.009702117880806327, 0.009587037144228816, 0.009614195907488465, 0.00964518403634429, 0.009622297948226333, 0.009647917002439499, 0.009666134137660265, 0.009629510110244155, 0.009649598971009254, 0.009583311155438423, 0.009594856994226575, 0.009547027060762048, 0.00977035891264677, 0.009602499892935157, 0.009575149044394493, 0.009647124912589788, 0.009751010918989778, 0.009810340125113726, 0.009595939889550209, 0.009550641058012843, 0.009586164960637689, 0.009676841087639332, 0.009573645889759064, 0.009612753987312317, 0.009585704887285829, 0.00960618513636291, 0.009557521902024746, 0.00973159191198647, 0.009599825134500861, 0.009533487027511, 0.009613004047423601, 0.009577561868354678, 0.009704813128337264, 0.009628928964957595, 0.009588348912075162, 0.009635298978537321]</t>
+          <t>[0.07140773092396557, 0.07017727894708514, 0.07490945211611688, 0.07011356391012669, 0.07018262706696987, 0.06988522200845182, 0.07108060107566416, 0.07274432084523141, 0.0710566348861903, 0.0710089928470552, 0.07112804194912314, 0.07060850504785776, 0.07075289986096323, 0.07059463392943144, 0.07205700199119747, 0.07079097721725702, 0.07022572006098926, 0.07005577790550888, 0.0702084950171411, 0.07046235492452979, 0.0701094891410321, 0.07045796001330018, 0.07013575709424913, 0.07004885701462626, 0.07008995884098113, 0.07502625603228807, 0.06980196689255536, 0.07003425480797887, 0.0702827179338783, 0.07003083010204136, 0.06969431601464748, 0.06946068606339395, 0.07382124196738005, 0.07624146598391235, 0.06997560802847147, 0.07009027805179358, 0.06999009917490184, 0.0701133031398058, 0.07179644191637635, 0.06944813812151551, 0.0700484758708626, 0.07046676310710609, 0.07054388802498579, 0.07048179395496845, 0.07048108289018273, 0.070206502918154, 0.07166922185570002, 0.06998925795778632, 0.06998418015427887, 0.0699196329806]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.009649902689270675</v>
+        <v>0.07079782517161221</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.009629219537600875</v>
+        <v>0.07021710753906518</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.645245038191264e-05</v>
+        <v>0.001427571186697406</v>
       </c>
       <c r="AV17" t="n">
-        <v>2934.8</v>
+        <v>6904.980079681275</v>
       </c>
       <c r="AW17" t="n">
-        <v>2858</v>
+        <v>7842</v>
       </c>
       <c r="AX17" t="n">
-        <v>117.9747465194417</v>
+        <v>2086.228945154772</v>
       </c>
       <c r="AY17" t="n">
         <v>2858</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3306</v>
+        <v>10618</v>
       </c>
       <c r="BA17" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB17" t="n">
         <v>0.8517587939698492</v>
       </c>
-      <c r="BC17" t="inlineStr"/>
+      <c r="BC17" t="n">
+        <v>0.8517587939698492</v>
+      </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1914,35 +1918,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2.6837764910887927, 2.690968451090157, 2.6738175039645284, 2.682307926006615, 2.7008628209587187, 2.6745607489719987, 2.6661611979361624, 2.6632006771396846, 2.6940475259907544, 3.0645508621819317, 2.6673179410863668, 2.6922397138550878, 2.6809464518446475, 2.709826427977532, 2.692410523071885, 2.7168372329324484, 2.6907912329770625, 2.6886841389350593, 2.690786391030997, 2.6964840251021087, 2.7003540250007063, 2.6905395560897887, 2.7185768210329115, 2.7000333569012582, 2.6978114899247885, 2.7195214750245214, 2.690635594073683, 2.6934188359882683, 2.6918508880771697, 2.6786994349677116, 2.7031485489569604, 2.6912792639341205, 2.6928134579211473, 2.6773248550016433, 2.7045608698390424, 2.6897650670725852, 2.710585060995072, 2.6921587591059506, 2.666969662066549, 2.68219684693031, 2.684846979100257, 2.689748841105029, 2.726812564069405, 2.7493201249744743, 2.749866739846766, 2.743692347081378, 2.746172995073721, 2.7482056650333107, 2.6894574710167944, 2.6847635318990797]</t>
+          <t>[2.6550503799226135, 2.695440137060359, 2.7053899178281426, 2.6707182459067553, 2.689246233087033, 2.68277248297818, 2.685792913194746, 2.6776595190167427, 2.6982774960342795, 2.6691882270388305, 2.6892853050958365, 2.693614031886682, 2.6942445838358253, 2.6654374599456787, 2.680452672066167, 2.7223799279890954, 2.6652211130131036, 2.679344038013369, 2.725335410097614, 2.6857305238954723, 2.6749096389394253, 2.670336372917518, 2.6781112251337618, 2.6671306018251926, 2.684749489882961, 2.7104006099980325, 2.6953170930501074, 2.672403178177774, 2.685470344964415, 2.6944221700541675, 2.6800417588092387, 2.696860047057271, 2.696643933886662, 2.6893729590810835, 2.6787799149751663, 2.6681903048884124, 2.6844318928197026, 2.686270884005353, 2.6881402609869838, 2.6991720891091973, 2.6882460571359843, 2.6741837200243026, 2.668234155047685, 2.682214596075937, 2.6655072099529207, 2.7004370358772576, 2.7040089308284223, 2.7060939089860767, 2.7063430019188672, 2.670363023877144]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.704514188244939</v>
+        <v>2.685947340563871</v>
       </c>
       <c r="G18" t="n">
-        <v>2.69200482359156</v>
+        <v>2.685600434429944</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05627099630890295</v>
+        <v>0.01509257325588413</v>
       </c>
       <c r="I18" t="n">
-        <v>6323472.351402175</v>
+        <v>6326474.861483983</v>
       </c>
       <c r="J18" t="n">
-        <v>6776812</v>
+        <v>6776748</v>
       </c>
       <c r="K18" t="n">
-        <v>1544537.004794054</v>
+        <v>1539435.610782043</v>
       </c>
       <c r="L18" t="n">
         <v>2858</v>
       </c>
       <c r="M18" t="n">
-        <v>10686190</v>
+        <v>11445462</v>
       </c>
       <c r="N18" t="n">
-        <v>11451434</v>
+        <v>11451282</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
@@ -1953,26 +1957,26 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.0028874820563942194, 0.0035649249330163, 0.005891527980566025, 0.0059546008706092834, 0.0067450550850480795, 0.006847219076007605, 0.006628390168771148, 0.006692396942526102, 0.006618434796109796, 0.006717635085806251, 0.006759274983778596, 0.006646827096119523, 0.006603352027013898, 0.006672975840047002, 0.006638024002313614, 0.006694368785247207, 0.006703912978991866, 0.006677874829620123, 0.0066277398727834225, 0.007217372069135308, 0.006632586009800434, 0.0066698521841317415, 0.006797393085435033, 0.006601378787308931, 0.006809982005506754, 0.006614309037104249, 0.006606756942346692, 0.006638735067099333, 0.006583772134035826, 0.00663346704095602, 0.00666798884049058, 0.0066137779504060745, 0.006724273087456822, 0.006621009903028607, 0.0066323860082775354, 0.0065593060571700335, 0.006565425079315901, 0.006588991964235902, 0.006649081828072667, 0.006544634932652116, 0.006914106896147132, 0.006469921907410026, 0.00646586692892015, 0.0065454659052193165, 0.006485756020992994, 0.006558034801855683, 0.006641088984906673, 0.006701198872178793, 0.006586928153410554, 0.006570494035258889]</t>
+          <t>[0.0030110159423202276, 0.0028242161497473717, 0.00442649400793016, 0.006024796981364489, 0.005717147141695023, 0.007102911127731204, 0.007161617977544665, 0.006938325008377433, 0.00695252581499517, 0.006954817799851298, 0.006992875132709742, 0.007098825182765722, 0.007025324972346425, 0.007072624983265996, 0.0070781828835606575, 0.006957804085686803, 0.007013868074864149, 0.0070139768067747355, 0.007436409126967192, 0.006971053080633283, 0.006903701927512884, 0.007091532927006483, 0.006879424909129739, 0.006954339100047946, 0.006918715080246329, 0.007006786065176129, 0.006814998807385564, 0.006868500029668212, 0.0069494720082730055, 0.006966735934838653, 0.006824844051152468, 0.006855499930679798, 0.006787026999518275, 0.006778855109587312, 0.006881979992613196, 0.0069533169735223055, 0.006875639082863927, 0.0067177340388298035, 0.00673149386420846, 0.007221556967124343, 0.0068087209947407246, 0.006901207147166133, 0.006838324014097452, 0.006920616840943694, 0.00675373780541122, 0.006769801955670118, 0.00675646192394197, 0.006905064918100834, 0.006720458157360554, 0.006871433928608894]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.006489667198620736</v>
+        <v>0.006680055875331163</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006630388088524342</v>
+        <v>0.006904383422806859</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0007018727877748145</v>
+        <v>0.0008868715042345129</v>
       </c>
       <c r="V18" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W18" t="n">
         <v>2858</v>
       </c>
       <c r="X18" t="n">
-        <v>135.0065999898387</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y18" t="n">
         <v>2858</v>
@@ -1994,32 +1998,32 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.1234945971518755, 0.08603594684973359, 0.08575333515182137, 0.0855743270367384, 0.08565164287574589, 0.08549075108021498, 0.08590766601264477, 0.08575638011097908, 0.08575009019114077, 0.08597695012576878, 0.08615585719235241, 0.08569173305295408, 0.10654701408930123, 0.08664860390126705, 0.08643490611575544, 0.08601228194311261, 0.08667314006015658, 0.086087164003402, 0.08867190103046596, 0.08669869019649923, 0.08629507478326559, 0.08643644582480192, 0.08690823311917484, 0.08636935683898628, 0.08706409600563347, 0.08728494704701006, 0.08608881593681872, 0.08648838615044951, 0.08655852009542286, 0.08653611619956791, 0.0865716200787574, 0.08647478511556983, 0.08633641782216728, 0.08630045386962593, 0.08632354810833931, 0.08612808492034674, 0.08607214200310409, 0.08695677598007023, 0.08623855095356703, 0.0864746649749577, 0.0868686840403825, 0.09770960710011423, 0.0872175560798496, 0.08689002506434917, 0.08643673779442906, 0.08632325893267989, 0.08637621719390154, 0.08626238699071109, 0.09616839210502803, 0.0859335248824209]</t>
+          <t>[0.11834342288784683, 0.08589410898275673, 0.08634992106817663, 0.08592307101935148, 0.08796892501413822, 0.08957041101530194, 0.08679607906378806, 0.08680554409511387, 0.08678351016715169, 0.08654730790294707, 0.08643322600983083, 0.08694582292810082, 0.0867444109171629, 0.08641430782154202, 0.08688089507631958, 0.08672534395009279, 0.08693061117082834, 0.08699989505112171, 0.0872799539938569, 0.08641921496018767, 0.08720534201711416, 0.08698598411865532, 0.08662807894870639, 0.08695640903897583, 0.08664728584699333, 0.08679079101420939, 0.08673629886470735, 0.08682920900173485, 0.08751627686433494, 0.08668457297608256, 0.08673163293860853, 0.08623813395388424, 0.08645173395052552, 0.08629560982808471, 0.08702201792038977, 0.08688132604584098, 0.08681555814109743, 0.08711318392306566, 0.08700434002093971, 0.08687852416187525, 0.0869778310880065, 0.08614372299052775, 0.08667828305624425, 0.08649970591068268, 0.08633859502151608, 0.08663296420127153, 0.08696773485280573, 0.08677754201926291, 0.08638888993300498, 0.08662888896651566]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.08794212808366865</v>
+        <v>0.0874240490142256</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08637278701644391</v>
+        <v>0.0867805260932073</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.006227001055788239</v>
+        <v>0.004494683042190905</v>
       </c>
       <c r="AI18" t="n">
-        <v>9295.446254071661</v>
+        <v>9199.854304635761</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10410</v>
+        <v>10378</v>
       </c>
       <c r="AK18" t="n">
-        <v>2877.314169432715</v>
+        <v>2833.450433793071</v>
       </c>
       <c r="AL18" t="n">
         <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>17698</v>
+        <v>11410</v>
       </c>
       <c r="AN18" t="n">
         <v>25570</v>
@@ -2027,46 +2031,50 @@
       <c r="AO18" t="n">
         <v>7</v>
       </c>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>8875</v>
+      </c>
       <c r="AQ18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.010023509850725532, 0.00978751783259213, 0.009779736865311861, 0.009714719140902162, 0.009690311970189214, 0.009760547894984484, 0.009925383841618896, 0.009912523906677961, 0.009818203980103135, 0.009695859858766198, 0.00971857481636107, 0.00971968681551516, 0.009686357108876109, 0.00966602610424161, 0.009678044123575091, 0.009662100113928318, 0.009615971008315682, 0.00964013789780438, 0.009615900926291943, 0.009734227089211345, 0.009688328020274639, 0.009673656895756721, 0.009708508150652051, 0.009661998832598329, 0.009645002894103527, 0.009695468936115503, 0.009713936829939485, 0.009608339052647352, 0.009567938977852464, 0.009640048025175929, 0.009642882039770484, 0.009765505092218518, 0.009675581008195877, 0.00961464992724359, 0.00970376213081181, 0.009666566969826818, 0.00958629697561264, 0.009628470055758953, 0.009622999932616949, 0.009618885815143585, 0.009614116977900267, 0.009636382106691599, 0.009642691118642688, 0.00974796898663044, 0.00969485891982913, 0.00958235003054142, 0.009634969988837838, 0.0096271769143641, 0.00963453808799386, 0.009653005981817842]</t>
+          <t>[0.07776487316004932, 0.07771532004699111, 0.07778257015161216, 0.07751249498687685, 0.07783040194772184, 0.07779534999281168, 0.07731992611661553, 0.07740310207009315, 0.07866665301844478, 0.07832758594304323, 0.0775469068903476, 0.07771968608722091, 0.07763756206259131, 0.07747938693501055, 0.07756557501852512, 0.07792332000099123, 0.07717542187310755, 0.07729850499890745, 0.07715620310045779, 0.07710632705129683, 0.07691715494729578, 0.07741057313978672, 0.07697670417837799, 0.07739790505729616, 0.07763087307102978, 0.07741235592402518, 0.07732701790519059, 0.07751913601532578, 0.07802115706726909, 0.08735845098271966, 0.07722416403703392, 0.07724555605091155, 0.07682051905430853, 0.07763745286501944, 0.07717818603850901, 0.07670953287743032, 0.07656105188652873, 0.07688422407954931, 0.07698367396369576, 0.07699334784410894, 0.076688232133165, 0.07709403801709414, 0.09118003095500171, 0.07776114786975086, 0.07793098106049001, 0.07753792311996222, 0.07742038695141673, 0.07731871609576046, 0.07751778303645551, 0.07793045113794506]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.009688844536431134</v>
+        <v>0.0779063179763034</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.00967011193279177</v>
+        <v>0.07744988694321364</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.786676814524079e-05</v>
+        <v>0.002410128615430999</v>
       </c>
       <c r="AV18" t="n">
-        <v>2924.56</v>
+        <v>7117.093333333333</v>
       </c>
       <c r="AW18" t="n">
-        <v>2858</v>
+        <v>7842</v>
       </c>
       <c r="AX18" t="n">
-        <v>112.8763383313883</v>
+        <v>1955.162586698005</v>
       </c>
       <c r="AY18" t="n">
         <v>2858</v>
       </c>
       <c r="AZ18" t="n">
-        <v>3306</v>
+        <v>10874</v>
       </c>
       <c r="BA18" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB18" t="n">
         <v>0.8105022831050228</v>
       </c>
-      <c r="BC18" t="inlineStr"/>
+      <c r="BC18" t="n">
+        <v>0.8105022831050228</v>
+      </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2084,35 +2092,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2.762236155103892, 2.7556395391002297, 2.7374426131136715, 2.733220661059022, 2.769158811075613, 2.797251981217414, 2.764937336090952, 2.7714078850112855, 2.719550965121016, 2.7409655589144677, 2.7521813299972564, 2.727770081954077, 2.7279636680614203, 2.7164209799375385, 2.7343513800296932, 2.7349965118337423, 2.7276055570691824, 2.7489257608540356, 2.732617539120838, 2.743427504086867, 2.7497444541659206, 2.7415247969329357, 2.7300234800204635, 2.7320369188673794, 2.762107918970287, 2.7413096679374576, 2.748892671894282, 2.7181818049866706, 2.771409461973235, 2.747119846055284, 2.745485025225207, 2.7772876780945808, 2.7365949309896678, 2.7350902429316193, 2.729945369064808, 2.7579666231758893, 2.739970583934337, 2.740098732057959, 2.7350981440395117, 2.741894830018282, 2.7399441360030323, 2.7380383799318224, 2.741959973005578, 2.7359343599528074, 2.7129310369491577, 2.7617157860659063, 2.732724380912259, 2.7690255960915238, 2.741808446822688, 2.774324367986992]</t>
+          <t>[2.749492554925382, 2.734092043945566, 2.7168386729899794, 2.738994570914656, 2.737207684200257, 2.724900286179036, 2.7811432569287717, 2.769345127977431, 2.735962717793882, 2.7234839610755444, 2.760001653106883, 2.7461263749282807, 2.755619052099064, 2.733401329955086, 2.763972620945424, 2.751936917891726, 2.7264632638543844, 2.778992868028581, 2.7818382859695703, 2.752393387025222, 2.7080378951504827, 2.7551608779467642, 2.715538978809491, 2.733517214888707, 2.800189776113257, 2.7210568450391293, 2.742820105049759, 2.714381883153692, 2.7468636340927333, 2.730507504893467, 2.8008301279041916, 2.7396379171404988, 2.725580066908151, 2.714945151936263, 2.7130572649184614, 2.7290096478536725, 2.735061354935169, 2.7394113338086754, 2.771094680065289, 2.7323180369567126, 2.7352249450050294, 2.7944610968697816, 2.7648897089529783, 2.7373762521892786, 2.7406250359490514, 2.7675306799355894, 2.7321166389156133, 2.7218991678673774, 2.733263183152303, 2.7337869368493557]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.744565229276195</v>
+        <v>2.743848011479713</v>
       </c>
       <c r="G19" t="n">
-        <v>2.741137613425963</v>
+        <v>2.737291968194768</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01738890046573343</v>
+        <v>0.0230379175713484</v>
       </c>
       <c r="I19" t="n">
-        <v>6332115.662264455</v>
+        <v>6337934.533413849</v>
       </c>
       <c r="J19" t="n">
-        <v>6907536</v>
+        <v>6907492</v>
       </c>
       <c r="K19" t="n">
-        <v>1542872.97145311</v>
+        <v>1530458.330864061</v>
       </c>
       <c r="L19" t="n">
         <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>11397147</v>
+        <v>11192934</v>
       </c>
       <c r="N19" t="n">
-        <v>11451602</v>
+        <v>11451570</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
@@ -2123,26 +2131,26 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.002806219970807433, 0.0055669432040303946, 0.005238929996266961, 0.005595194175839424, 0.006255461135879159, 0.006672085030004382, 0.006584145128726959, 0.006692276103422046, 0.006766067817807198, 0.006812807871028781, 0.0068792758975178, 0.006679828045889735, 0.0066918861120939255, 0.006763021927326918, 0.006673446856439114, 0.006614329060539603, 0.00670242216438055, 0.006691574119031429, 0.006699478020891547, 0.007187386974692345, 0.006669430993497372, 0.006655031116679311, 0.006643694126978517, 0.0066848150454461575, 0.0066037040669471025, 0.006721540121361613, 0.0066423609387129545, 0.006649811984971166, 0.006809371057897806, 0.00663428008556366, 0.006574979983270168, 0.006683313054963946, 0.006694880081340671, 0.006616742815822363, 0.0065419431775808334, 0.006650713970884681, 0.006581960944458842, 0.006622432032600045, 0.006612436147406697, 0.006530442973598838, 0.006822881987318397, 0.00660883984528482, 0.006483302218839526, 0.0066692710388451815, 0.006567039061337709, 0.006499857176095247, 0.0064048259519040585, 0.006704024039208889, 0.006568569922819734, 0.006511396029964089]</t>
+          <t>[0.007216539001092315, 0.007035339018329978, 0.0071633008774369955, 0.0070656039752066135, 0.007023390149697661, 0.007038844050839543, 0.0069924460258334875, 0.006981578888371587, 0.006952883908525109, 0.00691894581541419, 0.0069745981600135565, 0.006969328969717026, 0.007089979946613312, 0.006994448136538267, 0.007082898868247867, 0.0070747691206634045, 0.006942379986867309, 0.00686934101395309, 0.007311853114515543, 0.006951823132112622, 0.007133895996958017, 0.007072424050420523, 0.006900507025420666, 0.006958744954317808, 0.006962530082091689, 0.006912415148690343, 0.0069680288434028625, 0.007003912003710866, 0.006863860879093409, 0.006809442071244121, 0.006942549953237176, 0.006917041959241033, 0.006814398104324937, 0.006819895934313536, 0.006868218071758747, 0.006870422046631575, 0.006814328022301197, 0.006774118170142174, 0.0068745180033147335, 0.007136750966310501, 0.007064963923767209, 0.006840137066319585, 0.006753918016329408, 0.006816011155024171, 0.0068206279538571835, 0.006859926041215658, 0.006767458049580455, 0.0067376329097896814, 0.006684692809358239, 0.006872694939374924]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.006504733432084322</v>
+        <v>0.006945727146230638</v>
       </c>
       <c r="T19" t="n">
-        <v>0.006646753055974841</v>
+        <v>0.006947186542674899</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0006197321311807643</v>
+        <v>0.0001301987036469979</v>
       </c>
       <c r="V19" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W19" t="n">
         <v>2858</v>
       </c>
       <c r="X19" t="n">
-        <v>135.0065999898387</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y19" t="n">
         <v>2858</v>
@@ -2164,79 +2172,83 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.12924061017110944, 0.09618722996674478, 0.09526997688226402, 0.09591478295624256, 0.09536473010666668, 0.09521246096119285, 0.09505140013061464, 0.09548710309900343, 0.09555463399738073, 0.09612986398860812, 0.09627034515142441, 0.09574907412752509, 0.09531297301873565, 0.09525512298569083, 0.09569833893328905, 0.09540600213222206, 0.09533422207459807, 0.0957540119998157, 0.09571868809871376, 0.09556567785330117, 0.09592112200334668, 0.09576198295690119, 0.09555381210520864, 0.09603313985280693, 0.09597806609235704, 0.10096437996253371, 0.09498165501281619, 0.09503172105178237, 0.09587591397576034, 0.09580199397169054, 0.096217144979164, 0.09490740508772433, 0.09535121801309288, 0.09481338504701853, 0.09607259789481759, 0.09999698190949857, 0.09640827099792659, 0.1038086460903287, 0.09586102305911481, 0.09481363487429917, 0.09492517192848027, 0.09553185990080237, 0.09505217103287578, 0.09547701897099614, 0.09591583511792123, 0.09578869491815567, 0.09561142907477915, 0.09573936089873314, 0.09528824407607317, 0.09502942906692624]</t>
+          <t>[0.12986355205066502, 0.09461414813995361, 0.09484872897155583, 0.09536577411927283, 0.09524018596857786, 0.09571149107068777, 0.0956723929848522, 0.09474189905449748, 0.09517141315154731, 0.09470367198809981, 0.09482086705975235, 0.09542313008569181, 0.0955167100764811, 0.09611101704649627, 0.09582585212774575, 0.09516107686795294, 0.09524247818626463, 0.09525776095688343, 0.09539063996635377, 0.09509080089628696, 0.09509773110039532, 0.09545857110060751, 0.09512715600430965, 0.09506819699890912, 0.10935488902032375, 0.09625927009619772, 0.09570909687317908, 0.09622856485657394, 0.09608126292005181, 0.09577992185950279, 0.09530285792425275, 0.09535616799257696, 0.09519692114554346, 0.09608725411817431, 0.09531430597417057, 0.09646204300224781, 0.09585520601831377, 0.09573643584735692, 0.09631279110908508, 0.09597906097769737, 0.09602051298134029, 0.0958846400026232, 0.09564872598275542, 0.09567460510879755, 0.09565263101831079, 0.09584093489684165, 0.0958120608702302, 0.09590795380063355, 0.09569101012311876, 0.096058689057827]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.09659981117118149</v>
+        <v>0.09651466119103133</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0956548840040341</v>
+        <v>0.09566251200158149</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.004959278500893137</v>
+        <v>0.005212220440386941</v>
       </c>
       <c r="AI19" t="n">
-        <v>10111.95454545455</v>
+        <v>10075.40509915014</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11218</v>
+        <v>11210</v>
       </c>
       <c r="AK19" t="n">
-        <v>2952.629276535008</v>
+        <v>2934.8684068527</v>
       </c>
       <c r="AL19" t="n">
         <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>13218</v>
+        <v>12210</v>
       </c>
       <c r="AN19" t="n">
-        <v>26466</v>
+        <v>26370</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>9000</v>
+      </c>
       <c r="AQ19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.00997298606671393, 0.009807479102164507, 0.00968100898899138, 0.009595361072570086, 0.00962747004814446, 0.009707469958811998, 0.009653517976403236, 0.009671804960817099, 0.009592246962711215, 0.009655222063884139, 0.00959412008523941, 0.009540408849716187, 0.009634630056098104, 0.009603451937437057, 0.009728090139105916, 0.009578936034813523, 0.009598303819075227, 0.009597604861482978, 0.009623883059248328, 0.009690542938187718, 0.009716230910271406, 0.009670173050835729, 0.00968835991807282, 0.009666437050327659, 0.009644484845921397, 0.009736280888319016, 0.00965247699059546, 0.009599477052688599, 0.009665106888860464, 0.009635962080210447, 0.009609012166038156, 0.009692046092823148, 0.009627579944208264, 0.009539388120174408, 0.009547818917781115, 0.009557263925671577, 0.009530694922432303, 0.00943730492144823, 0.00976402498781681, 0.009594150120392442, 0.009594419971108437, 0.01913779298774898, 0.019988354993984103, 0.0221406570635736, 0.019828855991363525, 0.019737910013645887, 0.019692993024364114, 0.023381764069199562, 0.023393091978505254, 0.02437859703786671]</t>
+          <t>[0.08470351481810212, 0.08476022095419466, 0.08460402698256075, 0.08485375996679068, 0.08569526090286672, 0.08543839608319104, 0.08545772614888847, 0.08443924109451473, 0.0856206389144063, 0.08522148104384542, 0.08495426014997065, 0.08461979008279741, 0.08453964116051793, 0.08413081779144704, 0.08483927906490862, 0.09133598208427429, 0.08423809800297022, 0.08390495018102229, 0.08429588610306382, 0.08458222402259707, 0.08406492904759943, 0.08406313811428845, 0.08393787103705108, 0.08455861010588706, 0.08387360395863652, 0.08433843916282058, 0.10630474402569234, 0.09806634485721588, 0.08443602593615651, 0.08426986611448228, 0.08483572513796389, 0.08494728291407228, 0.08515120600350201, 0.08436514902859926, 0.08469838788732886, 0.0876325590070337, 0.08431763900443912, 0.08486977498978376, 0.08455699705518782, 0.08381601795554161, 0.08368855714797974, 0.08396979817189276, 0.08386185602284968, 0.08433277206495404, 0.08415722800418735, 0.08388506015762687, 0.08405511500313878, 0.08407152094878256, 0.08412690297700465, 0.08422999712638557]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.01174006499815732</v>
+        <v>0.0853943662904203</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.009654370020143688</v>
+        <v>0.08448944112751633</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.004596822385393208</v>
+        <v>0.003745235242400638</v>
       </c>
       <c r="AV19" t="n">
-        <v>3524.169491525424</v>
+        <v>7721.887788778878</v>
       </c>
       <c r="AW19" t="n">
-        <v>2858</v>
+        <v>8594</v>
       </c>
       <c r="AX19" t="n">
-        <v>1406.845789070572</v>
+        <v>2204.86979401483</v>
       </c>
       <c r="AY19" t="n">
         <v>2858</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7482</v>
+        <v>10226</v>
       </c>
       <c r="BA19" t="n">
-        <v>10426</v>
+        <v>15842</v>
       </c>
       <c r="BB19" t="n">
         <v>0.7951541850220264</v>
       </c>
-      <c r="BC19" t="inlineStr"/>
+      <c r="BC19" t="n">
+        <v>0.7929515418502202</v>
+      </c>
       <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2254,35 +2266,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[2.8350374510046095, 2.8459499899763614, 2.8370050380472094, 2.831104490906, 2.840459818020463, 2.8213073569349945, 2.8330963980406523, 2.8224581899121404, 2.839798449072987, 2.8448242540471256, 2.816887937951833, 2.8129795340355486, 2.824620972853154, 2.854563842061907, 2.8194853358436376, 2.842483560787514, 2.8516031859908253, 2.8205279000103474, 2.8418469028547406, 2.838481248822063, 2.8395308568142354, 2.8200912228785455, 2.830047749914229, 2.833957377122715, 2.809581838781014, 2.826451542088762, 2.83226183289662, 2.862063051899895, 2.813137417891994, 2.8225728149991482, 2.8342453201767057, 2.819095178041607, 2.8168929270468652, 2.8587854530196637, 2.8718953190837055, 2.8202885519713163, 2.8149875921662897, 2.837247235001996, 2.8470598948188126, 2.807407469023019, 2.8353137217927724, 2.8689303998835385, 2.827717280946672, 2.8307018019258976, 2.832286426797509, 2.836806716164574, 2.833252671873197, 2.8146795670036227, 2.837529820855707, 2.8122973600402474]</t>
+          <t>[2.8138487429823726, 2.8315316170919687, 2.8358101779595017, 2.8175267348997295, 2.8486978630535305, 2.839679036056623, 2.841313540004194, 2.8233512490987778, 2.8267428630497307, 2.8754819438327104, 2.8645166140049696, 2.819745508953929, 2.79746487387456, 2.8724253089167178, 2.8135015221778303, 2.8613264139276, 2.865521122002974, 2.8449691229034215, 2.825873543974012, 2.8280016279313713, 2.857130402000621, 2.800830604042858, 2.8205587898846716, 2.8352694439236075, 2.8184069860726595, 2.834443606203422, 2.8267946380656213, 2.886699930066243, 2.8179312308784574, 2.841188718099147, 2.840177803998813, 2.8164408288430423, 2.827965105883777, 2.8713311159517616, 2.848470110911876, 2.8204656920861453, 2.8532293729949743, 2.829989701975137, 2.817423013970256, 2.8099136950913817, 2.8468708340078592, 2.8494908448774368, 2.8975667029153556, 2.8292384550441056, 2.8481070520356297, 2.8016534098424017, 2.8248779277782887, 2.832540862960741, 2.862887358991429, 2.839799616020173]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8324327654019</v>
+        <v>2.837100465642288</v>
       </c>
       <c r="G20" t="n">
-        <v>2.832691412419081</v>
+        <v>2.833492234582081</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01499653499560036</v>
+        <v>0.02213177554980216</v>
       </c>
       <c r="I20" t="n">
-        <v>6354967.513601741</v>
+        <v>6354917.791404856</v>
       </c>
       <c r="J20" t="n">
-        <v>6906508</v>
+        <v>6886868</v>
       </c>
       <c r="K20" t="n">
-        <v>1506044.222756268</v>
+        <v>1509991.109215258</v>
       </c>
       <c r="L20" t="n">
         <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>10252959</v>
+        <v>11192774</v>
       </c>
       <c r="N20" t="n">
-        <v>11451250</v>
+        <v>11451282</v>
       </c>
       <c r="O20" t="n">
         <v>9</v>
@@ -2293,26 +2305,26 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.002832207828760147, 0.0032209709752351046, 0.005351899890229106, 0.006140831159427762, 0.006729531800374389, 0.006703222868964076, 0.0066699928138405085, 0.00677657313644886, 0.006724203936755657, 0.006667318986728787, 0.006731475004926324, 0.006655561970546842, 0.006616233149543405, 0.006674018921330571, 0.006545688025653362, 0.006643133936449885, 0.006642282009124756, 0.0066710649989545345, 0.006584544898942113, 0.007719954941421747, 0.006597355008125305, 0.006586657138541341, 0.006570786004886031, 0.006564225070178509, 0.006574621889740229, 0.006547349970787764, 0.006591746816411614, 0.00660732900723815, 0.006574590224772692, 0.00662464601919055, 0.006629853043705225, 0.006518836133182049, 0.006633548066020012, 0.006620350060984492, 0.006635463098064065, 0.00660291314125061, 0.006560249021276832, 0.006501200143247843, 0.006625295849516988, 0.006547610042616725, 0.006879306165501475, 0.0064107251819223166, 0.006403634091839194, 0.006395252887159586, 0.006472479086369276, 0.006362061016261578, 0.006590084172785282, 0.006579508073627949, 0.006429122993722558, 0.006464865989983082]</t>
+          <t>[0.0030153319239616394, 0.004806553944945335, 0.006016934989020228, 0.005617948016151786, 0.006466076942160726, 0.007065593963488936, 0.007086486089974642, 0.007169988937675953, 0.007061847951263189, 0.00703200395219028, 0.006999535020440817, 0.00709037110209465, 0.007112123072147369, 0.007081477902829647, 0.006948760012164712, 0.006989920977503061, 0.007092074025422335, 0.00701289507560432, 0.00754058500751853, 0.00695801293477416, 0.007594105089083314, 0.006943791173398495, 0.006925523979589343, 0.006942549953237176, 0.006937742931768298, 0.00693323602899909, 0.006858994951471686, 0.00694963987916708, 0.0069526641163975, 0.006981537910178304, 0.00687731197103858, 0.006940827937796712, 0.006872815079987049, 0.00680859899148345, 0.006720677018165588, 0.006875799037516117, 0.0068047139793634415, 0.006882268004119396, 0.006798756076022983, 0.007153036072850227, 0.006856329971924424, 0.007022920995950699, 0.006818444933742285, 0.007021727971732616, 0.006854086881503463, 0.007222988875582814, 0.006912143900990486, 0.006745804799720645, 0.006847959011793137, 0.006815379951149225]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.006440047533251345</v>
+        <v>0.006800737986341118</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006590915494598448</v>
+        <v>0.006941688945516944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0007535833907800462</v>
+        <v>0.0006877577712387945</v>
       </c>
       <c r="V20" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W20" t="n">
         <v>2858</v>
       </c>
       <c r="X20" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y20" t="n">
         <v>2858</v>
@@ -2334,32 +2346,32 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.1524053430184722, 0.1022810498252511, 0.1020407690666616, 0.10219238488934934, 0.1018527178093791, 0.10166604700498283, 0.10573327611200511, 0.10155288898386061, 0.10167686408385634, 0.10167153785005212, 0.1038107790518552, 0.10192647902294993, 0.10244445293210447, 0.10263546905480325, 0.10234837094321847, 0.10281723085790873, 0.10367558593861759, 0.10274492506869137, 0.10290202801115811, 0.10298490221612155, 0.10248423391021788, 0.1029817380476743, 0.10275469697080553, 0.10276201879605651, 0.10253442800603807, 0.10305278399027884, 0.10547785414382815, 0.1033325931057334, 0.1092024790123105, 0.10264290100894868, 0.10267956601455808, 0.10205988818779588, 0.1017896740231663, 0.1020849458873272, 0.10203096503391862, 0.10206605796702206, 0.10211510118097067, 0.10208273213356733, 0.10291321505792439, 0.10193678410723805, 0.10195129597559571, 0.1019501150585711, 0.10186344501562417, 0.10251773288473487, 0.10185411991551518, 0.10229145386256278, 0.10703508486039937, 0.10269892495125532, 0.10291389678604901, 0.10293928580358624]</t>
+          <t>[0.13663639593869448, 0.10267926612868905, 0.10211556311696768, 0.1022157131228596, 0.10276366397738457, 0.10316716809757054, 0.10400762502104044, 0.1036144569516182, 0.10212750104255974, 0.1055918661877513, 0.10632568295113742, 0.10312071698717773, 0.10311155393719673, 0.10295527102425694, 0.10257471213117242, 0.10273163695819676, 0.1027986858971417, 0.10271038278006017, 0.10300101898610592, 0.10355614987201989, 0.10290863993577659, 0.10272311302833259, 0.10252957395277917, 0.10256867203861475, 0.10233708587475121, 0.10289850505068898, 0.10262413509190083, 0.1036946359090507, 0.10280499490909278, 0.10290105803869665, 0.10315444902516901, 0.10305099305696785, 0.10433934000320733, 0.10253811697475612, 0.12033910700120032, 0.10262577701359987, 0.1027025009971112, 0.10267084301449358, 0.10518469591625035, 0.10287043312564492, 0.10222443589009345, 0.10287058399990201, 0.10192370694130659, 0.10491276881657541, 0.1018740520812571, 0.10185273899696767, 0.10187790798954666, 0.1027308339253068, 0.10230831219814718, 0.10203779698349535]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.1037672622688115</v>
+        <v>0.1039976967778057</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1025009833974764</v>
+        <v>0.1027811749372631</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.007154559268394026</v>
+        <v>0.005390926871171654</v>
       </c>
       <c r="AI20" t="n">
-        <v>9446.529577464789</v>
+        <v>9369.297450424929</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10458</v>
+        <v>10410</v>
       </c>
       <c r="AK20" t="n">
-        <v>2667.594026130475</v>
+        <v>2653.68725558918</v>
       </c>
       <c r="AL20" t="n">
         <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>11746</v>
+        <v>11282</v>
       </c>
       <c r="AN20" t="n">
         <v>25570</v>
@@ -2367,46 +2379,50 @@
       <c r="AO20" t="n">
         <v>9</v>
       </c>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>9000</v>
+      </c>
       <c r="AQ20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.010035690851509571, 0.009729482000693679, 0.009779937099665403, 0.00976659799925983, 0.009667880134657025, 0.009715232066810131, 0.009659779025241733, 0.009783623041585088, 0.009955000830814242, 0.009672668064013124, 0.009677964029833674, 0.009672196116298437, 0.009664114098995924, 0.009646699065342546, 0.009702350944280624, 0.009715992957353592, 0.009674300905317068, 0.009659128030762076, 0.009715290972962976, 0.009654552210122347, 0.009715379914268851, 0.009597386000677943, 0.009602983947843313, 0.009641301119700074, 0.00963016296736896, 0.009644164005294442, 0.009658505907282233, 0.00972111988812685, 0.009676785208284855, 0.009607841027900577, 0.009699819143861532, 0.009666438912972808, 0.009629392996430397, 0.009666888043284416, 0.009571707108989358, 0.009635751135647297, 0.009588862070813775, 0.00956424605101347, 0.00971695501357317, 0.009620900033041835, 0.00958224292844534, 0.009600460063666105, 0.009566548047587276, 0.009657414862886071, 0.009555561933666468, 0.009553340030834079, 0.009606827981770039, 0.009623733116313815, 0.009572387905791402, 0.00965135614387691]</t>
+          <t>[0.08991780900396407, 0.09019831800833344, 0.09015979105606675, 0.09102139994502068, 0.09043888794258237, 0.09006156283430755, 0.08975102799013257, 0.08938580309040844, 0.09044694993644953, 0.08994776289910078, 0.08989330101758242, 0.08963555609807372, 0.08981054881587625, 0.08974482910707593, 0.09005798795260489, 0.08963826112449169, 0.0904539490584284, 0.09042531787417829, 0.09008173388428986, 0.08992922608740628, 0.09011285193264484, 0.09016170399263501, 0.08972216607071459, 0.08957067993469536, 0.08981113904155791, 0.09003976988606155, 0.09045522310771048, 0.08966990699991584, 0.08957254188135266, 0.08957977197133005, 0.08959878096356988, 0.09406989300623536, 0.08979051699861884, 0.09001892106607556, 0.08988514915108681, 0.09213796211406589, 0.09045150689780712, 0.09075743495486677, 0.09097005403600633, 0.0900282240472734, 0.0901153739541769, 0.09068116010166705, 0.09187828097492456, 0.09038340486586094, 0.0906641751062125, 0.09296300518326461, 0.09022631007246673, 0.0901955938898027, 0.0905404610093683, 0.09074881207197905]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.009667498879134656</v>
+        <v>0.09031601598020643</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.009658816969022155</v>
+        <v>0.09009729290846735</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.856558793093257e-05</v>
+        <v>0.0008587919851414518</v>
       </c>
       <c r="AV20" t="n">
-        <v>2924.56</v>
+        <v>7116.887417218543</v>
       </c>
       <c r="AW20" t="n">
-        <v>2858</v>
+        <v>7842</v>
       </c>
       <c r="AX20" t="n">
-        <v>112.8763383313883</v>
+        <v>1951.770895489279</v>
       </c>
       <c r="AY20" t="n">
         <v>2858</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3306</v>
+        <v>10298</v>
       </c>
       <c r="BA20" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB20" t="n">
         <v>0.7864923747276689</v>
       </c>
-      <c r="BC20" t="inlineStr"/>
+      <c r="BC20" t="n">
+        <v>0.7843137254901961</v>
+      </c>
       <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2424,35 +2440,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2.868470618966967, 2.8816358880139887, 2.8390090079046786, 2.8549399990588427, 2.847527066944167, 2.9194917348213494, 2.850395058048889, 2.847695881035179, 2.8630913279484957, 2.834476381074637, 2.8527578990906477, 2.873253090074286, 2.9038239701185375, 2.8615733268670738, 2.861270393943414, 2.857814216054976, 2.847871226957068, 2.855913849081844, 2.8399286449421197, 2.875400251010433, 2.858746100217104, 2.8664526178035885, 2.8769430618267506, 2.88365189707838, 2.8377760560251772, 2.866575788008049, 2.8636846120934933, 2.882943951059133, 2.8727408251725137, 2.8821127850096673, 2.8523302709218115, 2.860010880045593, 2.8422131550032645, 2.8698939390014857, 2.8465871270745993, 2.8665354589466006, 2.8802253629546613, 2.8469587238505483, 2.8352091000415385, 2.8676785340067, 2.892011288087815, 2.872627266915515, 2.8553433190099895, 2.8729164279066026, 2.8556449168827385, 2.8472933899611235, 2.8693393610883504, 2.86733075696975, 2.879456860013306, 2.8332651839591563]</t>
+          <t>[2.869158521061763, 2.863780973944813, 2.8566431391518563, 2.8509048209525645, 2.8631508878897876, 2.8835155449341983, 2.845968723995611, 2.8479482550174, 2.873121757991612, 2.8417349359951913, 2.842674510087818, 2.84733200003393, 2.86713016894646, 2.8463467739056796, 2.870215004077181, 2.8663201450835913, 2.8669494569767267, 2.844802120933309, 2.8543136541265994, 2.8816484620328993, 2.8601122410036623, 2.8603966168593615, 2.8878218580503017, 2.8551403279416263, 2.873437131056562, 2.869974236935377, 2.8654485049191862, 2.847162518184632, 2.8563912389799953, 2.8690739469602704, 2.900201383046806, 2.8549631589557976, 2.8701202219817787, 2.8743722660001367, 2.8508633619640023, 2.855368993943557, 2.8780022759456187, 2.8642134708352387, 2.848924789810553, 2.8444389449432492, 2.877701143035665, 2.844844591105357, 2.8586425811517984, 2.854610395152122, 2.8431873319204897, 2.884832651820034, 2.850987189915031, 2.880108925048262, 2.865232548909262, 2.866167539032176]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.862816776977852</v>
+        <v>2.861928044850938</v>
       </c>
       <c r="G21" t="n">
-        <v>2.862332327407785</v>
+        <v>2.861773752374575</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01779941166717551</v>
+        <v>0.01369762618966281</v>
       </c>
       <c r="I21" t="n">
-        <v>6356974.353506614</v>
+        <v>6359419.866067312</v>
       </c>
       <c r="J21" t="n">
-        <v>6777688</v>
+        <v>6777740</v>
       </c>
       <c r="K21" t="n">
-        <v>1501448.659710952</v>
+        <v>1498603.349779418</v>
       </c>
       <c r="L21" t="n">
         <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>11192862</v>
+        <v>11397022</v>
       </c>
       <c r="N21" t="n">
-        <v>11451666</v>
+        <v>11451642</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
@@ -2463,26 +2479,26 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.0028509870171546936, 0.0026856199838221073, 0.0026485631242394447, 0.0026646489277482033, 0.0033141709864139557, 0.005211109993979335, 0.005253142910078168, 0.00639211805537343, 0.006633308948948979, 0.00669766403734684, 0.0066893009934574366, 0.006833930034190416, 0.00663880817592144, 0.006744354963302612, 0.00666228192858398, 0.006678775884211063, 0.006615772843360901, 0.006649272050708532, 0.006636844016611576, 0.007042452227324247, 0.006707360036671162, 0.0067343811970204115, 0.006539797876030207, 0.007261127000674605, 0.007432054029777646, 0.0073915531393140554, 0.007354557979851961, 0.007242100080475211, 0.00728846900165081, 0.007340187905356288, 0.007490081014111638, 0.007369359955191612, 0.007324323058128357, 0.007265486055985093, 0.007264962885528803, 0.0066340898629277945, 0.006684745894744992, 0.006655661854892969, 0.006651486037299037, 0.006556262960657477, 0.0067371230106800795, 0.006557395914569497, 0.006544275209307671, 0.006534521002322435, 0.006604416063055396, 0.006494921166449785, 0.006528262048959732, 0.006485376041382551, 0.006509685190394521, 0.006444325903430581]</t>
+          <t>[0.005878909025341272, 0.005616514943540096, 0.006047881906852126, 0.005633600056171417, 0.005576655967161059, 0.006988228065893054, 0.007063120836392045, 0.00701746204867959, 0.007156469859182835, 0.007119195070117712, 0.007114727981388569, 0.007232634117826819, 0.006961046950891614, 0.0069139080587774515, 0.0069883291143924, 0.006984002888202667, 0.007073327200487256, 0.007058313116431236, 0.007334738038480282, 0.007029921980574727, 0.007054136833176017, 0.0072073061019182205, 0.007152423961088061, 0.00701443781144917, 0.0070273971650749445, 0.007068969076499343, 0.00704571302048862, 0.007088238140568137, 0.006949480855837464, 0.007018513046205044, 0.0070401260163635015, 0.007080795941874385, 0.007068278035148978, 0.0069232110399752855, 0.006928018061444163, 0.006895529106259346, 0.0069066069554537535, 0.006927667884156108, 0.006935399025678635, 0.007142059970647097, 0.007027156883850694, 0.006854037055745721, 0.006833866937085986, 0.006812243955209851, 0.00675697298720479, 0.006814348977059126, 0.006833906983956695, 0.0068939561024308205, 0.006817051908001304, 0.007044290890917182]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.006363429529592395</v>
+        <v>0.006879022559151054</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006650379044003785</v>
+        <v>0.007001383462920785</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00127183637647507</v>
+        <v>0.000401360988206935</v>
       </c>
       <c r="V21" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W21" t="n">
         <v>2858</v>
       </c>
       <c r="X21" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y21" t="n">
         <v>2858</v>
@@ -2504,32 +2520,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.1584272759500891, 0.10965644498355687, 0.11027998919598758, 0.10917249205522239, 0.11014847201295197, 0.10921976203098893, 0.11071518994867802, 0.10841195192188025, 0.1104671680368483, 0.10923936101607978, 0.11110894987359643, 0.10972662107087672, 0.1107907728292048, 0.10903570801019669, 0.10984711884520948, 0.10835782112553716, 0.11255125910975039, 0.10969972983002663, 0.11000220291316509, 0.10856624296866357, 0.10994568793103099, 0.10857597785070539, 0.11029343889094889, 0.1091417339630425, 0.1101233740337193, 0.10930724209174514, 0.14576067589223385, 0.1103428730275482, 0.11022864212282002, 0.10982656106352806, 0.11033194605261087, 0.1094847668427974, 0.11034930194728076, 0.10976485698483884, 0.11089796177111566, 0.10925963101908565, 0.11245156917721033, 0.10960817290470004, 0.11110694683156908, 0.10951174888759851, 0.11050264211371541, 0.1086477660574019, 0.11017576209269464, 0.10881358408369124, 0.1098409011028707, 0.10937479487620294, 0.11000038008205593, 0.10905815893784165, 0.10988410585559905, 0.10869870195165277]</t>
+          <t>[0.14346766797825694, 0.10748031199909747, 0.10761854914017022, 0.10693375393748283, 0.1072751940228045, 0.10845560114830732, 0.10722959600389004, 0.10722815291956067, 0.10748532810248435, 0.10716357710771263, 0.10730418702587485, 0.1077304461505264, 0.10856012720614672, 0.10781383188441396, 0.10800142213702202, 0.10784976510331035, 0.10849926597438753, 0.10872888914309442, 0.10820325184613466, 0.10734006203711033, 0.10728358593769372, 0.10709974099881947, 0.10820919112302363, 0.10875261505134404, 0.10758935380727053, 0.10747012589126825, 0.10705207008868456, 0.10764386714436114, 0.10806620796211064, 0.10832307301461697, 0.10856513399630785, 0.10837008408270776, 0.10821855603717268, 0.10864287219010293, 0.10878026601858437, 0.1081047949846834, 0.10759133705869317, 0.10725217987783253, 0.10733421216718853, 0.10779566294513643, 0.12068225792609155, 0.10765723697841167, 0.10724707180634141, 0.10680213593877852, 0.10742494813166559, 0.10677087912335992, 0.10684115695767105, 0.10729974904097617, 0.10845674201846123, 0.10714865499176085]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.1115346888033673</v>
+        <v>0.1086968948831782</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1098440099740401</v>
+        <v>0.1076312081422657</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.008506244365690292</v>
+        <v>0.005372130639607666</v>
       </c>
       <c r="AI21" t="n">
-        <v>9541.488888888889</v>
+        <v>9515.631840796021</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10514</v>
+        <v>10418</v>
       </c>
       <c r="AK21" t="n">
-        <v>2533.772012609104</v>
+        <v>2519.900129395167</v>
       </c>
       <c r="AL21" t="n">
         <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>12922</v>
+        <v>11410</v>
       </c>
       <c r="AN21" t="n">
         <v>25570</v>
@@ -2537,46 +2553,50 @@
       <c r="AO21" t="n">
         <v>10</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>9000</v>
+      </c>
       <c r="AQ21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.01009138603694737, 0.009814280085265636, 0.009940078016370535, 0.00976087898015976, 0.00979553209617734, 0.009798836195841432, 0.009801352163776755, 0.009793729986995459, 0.009812055854126811, 0.009696352994069457, 0.00984568614512682, 0.009805436944589019, 0.00997315812855959, 0.009719048161059618, 0.009809053037315607, 0.009812757140025496, 0.009866609005257487, 0.00967823714017868, 0.00991281890310347, 0.009701221017166972, 0.009821329033002257, 0.00977431982755661, 0.00976994400843978, 0.009695552056655288, 0.009837004821747541, 0.00972940307110548, 0.009870464913547039, 0.009745125891640782, 0.009706408949568868, 0.009700509952381253, 0.009827258996665478, 0.009782121982425451, 0.010066016810014844, 0.009646580088883638, 0.00986369396559894, 0.009734049905091524, 0.009784424910321832, 0.009739208035171032, 0.009764366084709764, 0.00977010396309197, 0.009811456082388759, 0.009662752971053123, 0.009746518917381763, 0.009749163873493671, 0.00974497594870627, 0.009984144940972328, 0.009767702082172036, 0.009617866016924381, 0.00968406512401998, 0.009743635077029467]</t>
+          <t>[0.09638355392962694, 0.09583690599538386, 0.096705405972898, 0.09615717502310872, 0.09667889610864222, 0.09672758006490767, 0.09662243188358843, 0.09626683802343905, 0.09654968185350299, 0.09633601317182183, 0.09622870199382305, 0.09657352697104216, 0.09661554102785885, 0.09696571598760784, 0.0969684578012675, 0.09615205903537571, 0.09688660595566034, 0.09642046899534762, 0.09622178180143237, 0.09679115400649607, 0.09621470095589757, 0.09658214193768799, 0.09688055701553822, 0.09679808397777379, 0.09663021401502192, 0.09700723690912127, 0.0967638329602778, 0.09580470714718103, 0.09588131308555603, 0.09608578798361123, 0.09585462207905948, 0.09644751902669668, 0.09591356012970209, 0.09627908701077104, 0.0958065188024193, 0.09618265391327441, 0.09603341994807124, 0.09636197192594409, 0.09602181194350123, 0.09671012405306101, 0.0957160850521177, 0.0961484219878912, 0.09568087197840214, 0.09583129710517824, 0.09568949602544308, 0.09586691111326218, 0.09579347097314894, 0.09648539498448372, 0.09676374401897192, 0.09561392199248075]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.009791373526677489</v>
+        <v>0.09631875951308758</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.009778220904991031</v>
+        <v>0.09630755009129643</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.711236488040546e-05</v>
+        <v>0.0004039474801820341</v>
       </c>
       <c r="AV21" t="n">
-        <v>2929.68</v>
+        <v>7263.174285714285</v>
       </c>
       <c r="AW21" t="n">
-        <v>2858</v>
+        <v>7846</v>
       </c>
       <c r="AX21" t="n">
-        <v>115.5694755264961</v>
+        <v>1834.479508459731</v>
       </c>
       <c r="AY21" t="n">
         <v>2858</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3306</v>
+        <v>9082</v>
       </c>
       <c r="BA21" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB21" t="n">
         <v>0.7780172413793104</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
+      <c r="BC21" t="n">
+        <v>0.7758620689655172</v>
+      </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2594,32 +2614,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[5.143403034890071, 5.138597070006654, 5.097750623011962, 5.181967749027535, 5.127740758936852, 5.095064127119258, 5.122210138011724, 5.132550342939794, 5.155874225078151, 5.120160626946017, 5.128840038087219, 5.138934615068138, 5.149266089079902, 5.114675119984895, 5.194332272047177, 5.146006133873016, 5.130509326001629, 5.115939565934241, 5.149034561123699, 5.1201520171016455, 5.172784138005227, 5.1512891098391265, 5.1075868317857385, 5.113262092927471, 5.130683779018, 5.156052380101755, 5.126573850866407, 5.149158564861864, 5.137485078070313, 5.117629013955593, 5.135154474992305, 5.127228447934613, 5.198573708999902, 5.111226419918239, 5.171885675052181, 5.173878713976592, 5.118181007914245, 5.123988057021052, 5.129452973138541, 5.1581644371617585, 5.116949992021546, 5.130265990039334, 5.124927564058453, 5.114051460986957, 5.124523842940107, 5.104587687877938, 5.13097317982465, 5.122837967937812, 5.127986859995872, 5.1748019841033965]</t>
+          <t>[5.180743832839653, 5.1320121109019965, 5.154055939987302, 5.228240419179201, 5.151437839958817, 5.160657044965774, 5.154029885074124, 5.169205385027453, 5.128974876832217, 5.131068589864299, 5.145850918954238, 5.182191173080355, 5.130921845091507, 5.116422054124996, 5.128130787052214, 5.149194115074351, 5.120634373975918, 5.13358474499546, 5.1589184671174735, 5.111371848965064, 5.163331797812134, 5.121754966909066, 5.102104130899534, 5.113881780067459, 5.099268502090126, 5.134815902914852, 5.128341280855238, 5.132770554861054, 5.146862265886739, 5.163837895030156, 5.1192976699676365, 5.115091359009966, 5.135746392887086, 5.113250735914335, 5.220930815907195, 5.1207939519081265, 5.138801000779495, 5.125401471974328, 5.119430804857984, 5.139559573028237, 5.127330719958991, 5.112764159915969, 5.127983215032145, 5.106956437928602, 5.128684093011543, 5.140011391136795, 5.1415191881824285, 5.144725093152374, 5.115882931975648, 5.129750696010888]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.135703074391931</v>
+        <v>5.137970540658571</v>
       </c>
       <c r="G22" t="n">
-        <v>5.129859481588937</v>
+        <v>5.131540350383148</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02365894582829585</v>
+        <v>0.02610196928351742</v>
       </c>
       <c r="I22" t="n">
-        <v>6604718.750381396</v>
+        <v>6605839.133053222</v>
       </c>
       <c r="J22" t="n">
-        <v>6909508</v>
+        <v>6909512</v>
       </c>
       <c r="K22" t="n">
-        <v>1135903.993512131</v>
+        <v>1133027.747243729</v>
       </c>
       <c r="L22" t="n">
         <v>2858</v>
       </c>
       <c r="M22" t="n">
-        <v>11192966</v>
+        <v>11397022</v>
       </c>
       <c r="N22" t="n">
         <v>11451570</v>
@@ -2633,17 +2653,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.002960802987217903, 0.0033410300966352224, 0.006103775929659605, 0.00526283890940249, 0.006126390071585774, 0.0067248260602355, 0.006767610087990761, 0.0067525869235396385, 0.006737425923347473, 0.006715051829814911, 0.0067141910549253225, 0.006797875976189971, 0.006777566159144044, 0.006688312161713839, 0.0066590690985322, 0.006860658992081881, 0.006837935885414481, 0.00674096099101007, 0.006694601848721504, 0.007501257816329598, 0.006793458946049213, 0.006697515025734901, 0.00669422117061913, 0.0067047670017927885, 0.006664896151050925, 0.006784345023334026, 0.006675452925264835, 0.006659189006313682, 0.006678767967969179, 0.006656013894826174, 0.006799597991630435, 0.006963716121390462, 0.007329700980335474, 0.007228900911286473, 0.006745567079633474, 0.006711145164445043, 0.006747310049831867, 0.006633138982579112, 0.006771965883672237, 0.006575943902134895, 0.006771554937586188, 0.00651390990242362, 0.006505507975816727, 0.006512658903375268, 0.0065790878143161535, 0.006539318943396211, 0.006503454875200987, 0.006560339825227857, 0.006560649955645204, 0.006567159900441766]</t>
+          <t>[0.0030686671379953623, 0.00413535488769412, 0.005634180037304759, 0.005594931077212095, 0.006817430956289172, 0.006966774817556143, 0.007252622861415148, 0.007113734958693385, 0.006966884946450591, 0.007095085922628641, 0.007071271073073149, 0.0070555179845541716, 0.007108118152245879, 0.007063229102641344, 0.007110981037840247, 0.007038672920316458, 0.007248396053910255, 0.007094556000083685, 0.007535496028140187, 0.007052113069221377, 0.0070422678254544735, 0.007006545085459948, 0.00706512201577425, 0.007058422081172466, 0.007017701864242554, 0.007031342014670372, 0.0070035699754953384, 0.006979514146223664, 0.006941837957128882, 0.006946004927158356, 0.006918733008205891, 0.006991890957579017, 0.0068654019851237535, 0.006882379064336419, 0.006939925020560622, 0.006872743833810091, 0.007002940168604255, 0.0068936950992792845, 0.006748258834704757, 0.007055075839161873, 0.006938002072274685, 0.00673032202757895, 0.006896849954500794, 0.006854125997051597, 0.006761647993698716, 0.0067702909000217915, 0.006795227061957121, 0.006731821922585368, 0.0067427679896354675, 0.006821085931733251]</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>0.00653788052033633</v>
+        <v>0.006786590651609003</v>
       </c>
       <c r="T22" t="n">
-        <v>0.006696058437228203</v>
+        <v>0.006966829882003367</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0007622622170527743</v>
+        <v>0.0007329967129012544</v>
       </c>
       <c r="V22" t="n">
         <v>2930.32</v>
@@ -2674,32 +2694,32 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[0.142908246954903, 0.1100852049421519, 0.10936739202588797, 0.1091147109400481, 0.10968400491401553, 0.10916298488155007, 0.10909396107308567, 0.11001045489683747, 0.11147494590841234, 0.1102866381406784, 0.1103676378261298, 0.10916179395280778, 0.10997593100182712, 0.10953167686238885, 0.1109424689784646, 0.11039992608129978, 0.10960575705394149, 0.11003491887822747, 0.10985273611731827, 0.10944000002928078, 0.10956936213187873, 0.11006086878478527, 0.11098255892284214, 0.10995835601352155, 0.1101804981008172, 0.10914535913616419, 0.11084785801358521, 0.1102990738581866, 0.11033116513863206, 0.11002533696591854, 0.11009288695640862, 0.10980394505895674, 0.10986173106357455, 0.10941970790736377, 0.10964272287674248, 0.11028461414389312, 0.11053834389895201, 0.1098466080147773, 0.10974529595114291, 0.11016740882769227, 0.11579917813651264, 0.1099551401566714, 0.10935468203388155, 0.12027302500791848, 0.1091036859434098, 0.11090972903184593, 0.1099276680033654, 0.10999062308110297, 0.1092222249135375, 0.11000884114764631]</t>
+          <t>[0.14521019905805588, 0.10881001711823046, 0.11000165296718478, 0.10919538419693708, 0.10893222107551992, 0.1087587911169976, 0.10928348684683442, 0.10914433002471924, 0.10952500882558525, 0.10983180906623602, 0.10906268493272364, 0.10940560000017285, 0.11047302815131843, 0.10947293206118047, 0.11010153102688491, 0.10956449690274894, 0.1107339090667665, 0.11026210291311145, 0.10892375791445374, 0.1097562441136688, 0.11010529706254601, 0.10961294104345143, 0.10937326098792255, 0.1096590890083462, 0.10887693800032139, 0.10975392092950642, 0.10890543088316917, 0.10921559506095946, 0.10912461811676621, 0.10953864804469049, 0.10913817794062197, 0.10910684219561517, 0.1093625130597502, 0.10918275616131723, 0.10949275991879404, 0.10934535902924836, 0.10916074318811297, 0.10993850789964199, 0.10958287492394447, 0.10935342009179294, 0.1089599821716547, 0.10915227001532912, 0.10969267901964486, 0.1097619419451803, 0.10875297081656754, 0.10934848291799426, 0.1088997412007302, 0.10964748100377619, 0.10848593199625611, 0.10864671296440065]</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.1109169978136197</v>
+        <v>0.1101125414995477</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.109983277041465</v>
+        <v>0.1093579665757716</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.004936861635050388</v>
+        <v>0.005086800819173654</v>
       </c>
       <c r="AI22" t="n">
-        <v>10260.58706467662</v>
+        <v>10205.26368159204</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11250</v>
+        <v>11218</v>
       </c>
       <c r="AK22" t="n">
-        <v>2797.358781645415</v>
+        <v>2785.361638366403</v>
       </c>
       <c r="AL22" t="n">
         <v>2858</v>
       </c>
       <c r="AM22" t="n">
-        <v>13210</v>
+        <v>12706</v>
       </c>
       <c r="AN22" t="n">
         <v>26930</v>
@@ -2707,46 +2727,50 @@
       <c r="AO22" t="n">
         <v>11</v>
       </c>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>8950</v>
+      </c>
       <c r="AQ22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>[0.010042591951787472, 0.009763906011357903, 0.009788852883502841, 0.009709754958748817, 0.009750625817105174, 0.009732096921652555, 0.009760671062394977, 0.009694453096017241, 0.009811657015234232, 0.009695672895759344, 0.009701180970296264, 0.009655743138864636, 0.009712759172543883, 0.009667530888691545, 0.009698898997157812, 0.009651768021285534, 0.00981754600070417, 0.009669434046372771, 0.009802473010495305, 0.009655973874032497, 0.009827129077166319, 0.009694491978734732, 0.00976465712301433, 0.009714759886264801, 0.009541782783344388, 0.009670373983681202, 0.009655313100665808, 0.009684477001428604, 0.009651426924392581, 0.00956560904160142, 0.00972373504191637, 0.009608793072402477, 0.00961705599911511, 0.009686409030109644, 0.00951844803057611, 0.009622103068977594, 0.009589844848960638, 0.009651456959545612, 0.009634159971028566, 0.009713409934192896, 0.00969559303484857, 0.009669042890891433, 0.00970007898285985, 0.009621803183108568, 0.009612919064238667, 0.009767059935256839, 0.009691067039966583, 0.009547732071951032, 0.009672498097643256, 0.009715202962979674]</t>
+          <t>[0.10023753810673952, 0.09962175390683115, 0.1040535329375416, 0.10100592719390988, 0.10305283311754465, 0.10105625307187438, 0.10208531492389739, 0.10179649200290442, 0.1012838629540056, 0.10083155613392591, 0.10131419100798666, 0.100873869843781, 0.10103818587958813, 0.10063578304834664, 0.10013232915662229, 0.1005760240368545, 0.10067703505046666, 0.10133076296187937, 0.10074836085550487, 0.10117166489362717, 0.10097456001676619, 0.10069961007684469, 0.10015632607974112, 0.1004657291341573, 0.09984472882933915, 0.1004276608582586, 0.10043667396530509, 0.10026055108755827, 0.10023606312461197, 0.10040609794668853, 0.10169661301188171, 0.10093888593837619, 0.10226331907324493, 0.10021423199214041, 0.10078966408036649, 0.10194352199323475, 0.1015219809487462, 0.1014345190487802, 0.10165440710261464, 0.10111758299171925, 0.10114628681913018, 0.1008073699194938, 0.10047495202161372, 0.10071020503528416, 0.10049166693352163, 0.1009185859002173, 0.10077879810705781, 0.10138587583787739, 0.1014236519113183, 0.10136317182332277]</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>0.009692240497097373</v>
+        <v>0.1010101312538609</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.009692760067991912</v>
+        <v>0.1008962278719991</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.636467961033055e-05</v>
+        <v>0.0007786654909674713</v>
       </c>
       <c r="AV22" t="n">
-        <v>2939.92</v>
+        <v>7930.297142857143</v>
       </c>
       <c r="AW22" t="n">
-        <v>2858</v>
+        <v>8670</v>
       </c>
       <c r="AX22" t="n">
-        <v>126.8783508655726</v>
+        <v>2105.565055683804</v>
       </c>
       <c r="AY22" t="n">
         <v>2858</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3306</v>
+        <v>9706</v>
       </c>
       <c r="BA22" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB22" t="n">
         <v>0.7737068965517241</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
+      <c r="BC22" t="n">
+        <v>0.771551724137931</v>
+      </c>
       <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2764,35 +2788,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[4.821415567072108, 4.779844734817743, 4.7892781109549105, 4.8557158259209245, 4.809239731170237, 4.786541367881, 4.843500875867903, 4.798469652887434, 4.781350081088021, 4.81318833399564, 4.829617812065408, 4.801439706934616, 4.790453206049278, 4.816616615047678, 4.808376603061333, 4.890633770963177, 4.840652745915577, 4.818680279888213, 4.813371398020536, 4.829455878119916, 4.803798136068508, 4.8228304700460285, 4.793059298070148, 4.803685860009864, 4.79306996287778, 4.824406685074791, 4.807053543161601, 4.807691283058375, 4.793384921969846, 4.800912082893774, 4.824886060785502, 4.831700165988877, 4.779495632974431, 4.8038407389540225, 4.843604398192838, 4.797732013976201, 4.786471921019256, 4.778900961857289, 4.822447942104191, 4.84806579304859, 4.826828304911032, 4.823074501007795, 4.788779696915299, 4.871823039837182, 4.824562657158822, 4.816984036006033, 4.779095301870257, 4.813704473897815, 4.834704031934962, 4.772432277910411]</t>
+          <t>[4.766531948000193, 4.777449551969767, 4.7888382421806455, 4.830776619026437, 4.806253862101585, 4.836106378119439, 4.805605066008866, 4.823866392951459, 4.7842842938844115, 4.782677731942385, 4.830872860969976, 4.799962711986154, 4.795959322946146, 4.79604193312116, 4.792702668812126, 4.787966333795339, 4.772174350218847, 4.805423003155738, 4.775185787118971, 4.778273261152208, 4.808534702053294, 4.801324664149433, 4.8022671330254525, 4.786116207949817, 4.813800679054111, 4.826725726015866, 4.828732481924817, 4.800449558999389, 4.772819914156571, 4.764758995966986, 4.78285277588293, 4.809881987050176, 4.820619808975607, 4.7640485488809645, 4.790817349916324, 4.7874547590035945, 4.799304529093206, 4.783822141122073, 4.835230296943337, 4.804099987028167, 4.7839651820249856, 4.804811154957861, 4.784618225181475, 4.789579482050613, 4.796038822038099, 4.81434929696843, 4.8472391159739345, 4.898802395910025, 4.796256321016699, 4.793322545941919]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.812737369826063</v>
+        <v>4.800591942174361</v>
       </c>
       <c r="G23" t="n">
-        <v>4.811214032582939</v>
+        <v>4.796149127068929</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0247661327590624</v>
+        <v>0.02432870985395795</v>
       </c>
       <c r="I23" t="n">
-        <v>6587424.249525659</v>
+        <v>6587686.715309418</v>
       </c>
       <c r="J23" t="n">
-        <v>6909412</v>
+        <v>6909444</v>
       </c>
       <c r="K23" t="n">
-        <v>1173497.078888734</v>
+        <v>1169861.928354626</v>
       </c>
       <c r="L23" t="n">
         <v>2858</v>
       </c>
       <c r="M23" t="n">
-        <v>11193038</v>
+        <v>11397054</v>
       </c>
       <c r="N23" t="n">
-        <v>11451722</v>
+        <v>11451503</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
@@ -2803,26 +2827,26 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.0029278919100761414, 0.005282477010041475, 0.00543777015991509, 0.005310067906975746, 0.0052656729239970446, 0.006433941191062331, 0.006787541089579463, 0.0068074800074100494, 0.006721541052684188, 0.006707851076498628, 0.006688751978799701, 0.0066367448307573795, 0.006826407974585891, 0.0068895029835402966, 0.006840170128270984, 0.006700881058350205, 0.00667840801179409, 0.00669137598015368, 0.006756713846698403, 0.0072540289256721735, 0.006765665952116251, 0.006715622963383794, 0.006721162004396319, 0.006669303169474006, 0.0066852569580078125, 0.006791966967284679, 0.006776133086532354, 0.0066535999067127705, 0.006674810079857707, 0.006681642960757017, 0.0066964339930564165, 0.006699377903714776, 0.006528032012283802, 0.006549024023115635, 0.006546499906107783, 0.006608342984691262, 0.006577835883945227, 0.006627639988437295, 0.006583465030416846, 0.006511337123811245, 0.00686407508328557, 0.0065836061257869005, 0.00652313488535583, 0.0065701359417289495, 0.006467720959335566, 0.006409354042261839, 0.006592500023543835, 0.006515473825857043, 0.006630095886066556, 0.006554982857778668]</t>
+          <t>[0.003085529897361994, 0.0028111699502915144, 0.004033969948068261, 0.005674557061865926, 0.006120224017649889, 0.0067886540200561285, 0.006966311018913984, 0.007180351996794343, 0.006939271930605173, 0.0070303569082170725, 0.006928113987669349, 0.007003356935456395, 0.00704072299413383, 0.007035824935883284, 0.006994283990934491, 0.006901864893734455, 0.006920472951605916, 0.0070647678803652525, 0.007493589771911502, 0.007004568120464683, 0.0070253401063382626, 0.006925179855898023, 0.00698246480897069, 0.0070259300991892815, 0.007054363843053579, 0.00698678195476532, 0.00698118400759995, 0.0069897358771413565, 0.007032689871266484, 0.0069839979987591505, 0.0069411941803991795, 0.006944177905097604, 0.006920432206243277, 0.00689881993457675, 0.006936616962775588, 0.006854823790490627, 0.006950848037377, 0.006834353087469935, 0.006927262060344219, 0.0070490650832653046, 0.006908584153279662, 0.006838079076260328, 0.006901104003190994, 0.006980241974815726, 0.006814554100856185, 0.006795073859393597, 0.006804818985983729, 0.006779392948374152, 0.006833372870460153, 0.00671260105445981]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0.006488389051519335</v>
+        <v>0.006692620958201587</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006661451538093388</v>
+        <v>0.006937944446690381</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0006473545166320441</v>
+        <v>0.0009062649548173155</v>
       </c>
       <c r="V23" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W23" t="n">
         <v>2858</v>
       </c>
       <c r="X23" t="n">
-        <v>141.0624640913032</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y23" t="n">
         <v>2858</v>
@@ -2844,79 +2868,83 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[0.1605127661023289, 0.110868503106758, 0.11159635288640857, 0.1107990900054574, 0.11121750599704683, 0.11081461305730045, 0.11052454798482358, 0.11136616696603596, 0.11140149109996855, 0.11094032996334136, 0.11140459612943232, 0.11093975906260312, 0.11142763891257346, 0.11112477607093751, 0.11108610802330077, 0.11127836583182216, 0.1110865599475801, 0.11143060494214296, 0.11106784106232226, 0.11687379307113588, 0.11376532004214823, 0.11112601798959076, 0.11208104901015759, 0.11179828410968184, 0.1114970650523901, 0.11228525312617421, 0.11111605307087302, 0.11093309801071882, 0.11065047606825829, 0.11150716803967953, 0.11117560206912458, 0.11172529496252537, 0.11182178999297321, 0.11139682307839394, 0.11098646884784102, 0.11152866203337908, 0.11127331806346774, 0.11157613294199109, 0.11078449711203575, 0.11143438913859427, 0.11108689988031983, 0.11137209692969918, 0.11184496385976672, 0.11188653693534434, 0.11134138004854321, 0.12530526402406394, 0.14031968894414604, 0.11121171503327787, 0.11159744299948215, 0.11184434196911752]</t>
+          <t>[0.15489131188951433, 0.1112485930789262, 0.11587020405568182, 0.11784324701875448, 0.1149183779489249, 0.11067195981740952, 0.11308793583884835, 0.11135784490033984, 0.11140883294865489, 0.11111008608713746, 0.11235525994561613, 0.11077336105518043, 0.11783292191103101, 0.11042622197419405, 0.11039642593823373, 0.11045211995951831, 0.11099001578986645, 0.11068203416652977, 0.11492924392223358, 0.11153677385300398, 0.11142337485216558, 0.11085704690776765, 0.11032200395129621, 0.1100691962055862, 0.11022219504229724, 0.11065997183322906, 0.11067359196022153, 0.11083579389378428, 0.11104015982709825, 0.11128960410133004, 0.11108743096701801, 0.11140047991648316, 0.11227203416638076, 0.11144176102243364, 0.11116322409361601, 0.11057989113032818, 0.11160696810111403, 0.11239220411516726, 0.1121856460813433, 0.11120234290137887, 0.11087362095713615, 0.11248263018205762, 0.11062722117640078, 0.11152922408655286, 0.11146091995760798, 0.11108276480808854, 0.11193735408596694, 0.11124345404095948, 0.11780862603336573, 0.11093664495274425]</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.1133206900721416</v>
+        <v>0.1127098030690104</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1113844600040466</v>
+        <v>0.1112460235599428</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.008206072244263904</v>
+        <v>0.006380724345739865</v>
       </c>
       <c r="AI23" t="n">
-        <v>10198.45320197044</v>
+        <v>10157.94789081886</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11218</v>
+        <v>11210</v>
       </c>
       <c r="AK23" t="n">
-        <v>2767.67388921885</v>
+        <v>2772.097099331776</v>
       </c>
       <c r="AL23" t="n">
         <v>2858</v>
       </c>
       <c r="AM23" t="n">
-        <v>12210</v>
+        <v>12418</v>
       </c>
       <c r="AN23" t="n">
-        <v>26466</v>
+        <v>26370</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
       </c>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>8450</v>
+      </c>
       <c r="AQ23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[0.009989443002268672, 0.009754631202667952, 0.0098091138061136, 0.009799279039725661, 0.009755132952705026, 0.009718667948618531, 0.009779228828847408, 0.009652409004047513, 0.00973809789866209, 0.009685779921710491, 0.009757245890796185, 0.009700791910290718, 0.009698708076030016, 0.009723877999931574, 0.009727200958877802, 0.009627601131796837, 0.009730946039780974, 0.009687511948868632, 0.009755873819813132, 0.00983067718334496, 0.009685448138043284, 0.0096555738709867, 0.00965158804319799, 0.009654602967202663, 0.00970320519991219, 0.00968791195191443, 0.00968892383389175, 0.009723213966935873, 0.009587872074916959, 0.009643425000831485, 0.00969361001625657, 0.009666258934885263, 0.009705579141154885, 0.009659569012001157, 0.009600142017006874, 0.00971734686754644, 0.00966085190884769, 0.0096688037738204, 0.009660230949521065, 0.009758018190041184, 0.009725437965244055, 0.009679228998720646, 0.009705828968435526, 0.009751297999173403, 0.00964646995998919, 0.009650816908106208, 0.009680780814960599, 0.009612909983843565, 0.009597135940566659, 0.009642383083701134]</t>
+          <t>[0.1036972850561142, 0.10487104207277298, 0.10447126417420805, 0.1060480650048703, 0.10471076192334294, 0.11585725285112858, 0.10361457988619804, 0.10353090497665107, 0.10791186499409378, 0.10409042192623019, 0.10446756798774004, 0.11048378702253103, 0.10383502207696438, 0.10731569305062294, 0.10533317411318421, 0.10373330907896161, 0.10402495390735567, 0.10429518995806575, 0.10568601102568209, 0.10384937189519405, 0.10475851409137249, 0.10415798495523632, 0.10404256195761263, 0.10386982304044068, 0.10385575285181403, 0.10420739813707769, 0.1044501131400466, 0.10463987500406802, 0.10473509784787893, 0.10558205703273416, 0.10438206791877747, 0.10397919593378901, 0.10391021310351789, 0.10333301918581128, 0.10391743388026953, 0.10414607496932149, 0.10390573600307107, 0.1050655220169574, 0.1043113840278238, 0.1042425511404872, 0.10400725807994604, 0.10430406196974218, 0.10335067613050342, 0.10422598593868315, 0.10341586405411363, 0.10411465796642005, 0.10363730508834124, 0.10434341221116483, 0.10321798594668508, 0.10386444488540292]</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>0.009701733700931072</v>
+        <v>0.1047160310298204</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.00969126692507416</v>
+        <v>0.104182691546157</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.817389743944166e-05</v>
+        <v>0.002033176110072445</v>
       </c>
       <c r="AV23" t="n">
-        <v>2939.92</v>
+        <v>7950.776203966006</v>
       </c>
       <c r="AW23" t="n">
-        <v>2858</v>
+        <v>8666</v>
       </c>
       <c r="AX23" t="n">
-        <v>126.8783508655726</v>
+        <v>2107.942371964435</v>
       </c>
       <c r="AY23" t="n">
         <v>2858</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3306</v>
+        <v>10618</v>
       </c>
       <c r="BA23" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB23" t="n">
         <v>0.7241379310344828</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
+      <c r="BC23" t="n">
+        <v>0.728448275862069</v>
+      </c>
       <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2934,35 +2962,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[4.050133804092184, 4.064897386124358, 4.094505870016292, 4.0567351339850575, 4.057015754049644, 4.082950018113479, 4.067322637187317, 4.0891290521249175, 4.039439821848646, 4.078269109828398, 4.068016024073586, 4.054157730890438, 4.0772668870631605, 4.0585463140159845, 4.083917362848297, 4.053634074982256, 4.090277579845861, 4.063185475068167, 4.071659093024209, 4.152581088943407, 4.064320812001824, 4.065834359964356, 4.062427912838757, 4.035891949897632, 4.085352483205497, 4.053955483017489, 4.061873628059402, 4.053635219112039, 4.056278947973624, 4.065621644956991, 4.0881057139486074, 4.054216346004978, 4.048697215970606, 4.082679627928883, 4.0460236959625036, 4.091872671851888, 4.077506859088317, 4.074838255997747, 4.069967145100236, 4.071800822857767, 4.070379726123065, 4.0777835010085255, 4.062006535939872, 4.065264503005892, 4.104132428998128, 4.046816791174933, 4.066048891982064, 4.058302117045969, 4.054706285009161, 4.04909578897059]</t>
+          <t>[4.041721085086465, 4.039107250981033, 4.071156428195536, 4.048714403994381, 4.039458804065362, 4.094760199077427, 4.04733239300549, 4.037607961799949, 4.062633753987029, 4.08933595684357, 4.052825819002464, 4.048009247984737, 4.048392913071439, 4.048485161038116, 4.0268621479626745, 4.0434147929772735, 4.110941221006215, 4.035646531963721, 4.043682307936251, 4.054144083056599, 4.057846036972478, 4.056484390050173, 4.054837797069922, 4.093653558054939, 4.049996162066236, 4.044151303824037, 4.084660900058225, 4.062087704893202, 4.061138235963881, 4.068944669095799, 4.073393529979512, 4.049302474129945, 4.087253398960456, 4.080909593962133, 4.059487683000043, 4.066964281024411, 4.0283741790335625, 4.06500419578515, 4.044733070069924, 4.065173968905583, 4.15051554585807, 4.050947566982359, 4.056286777136847, 4.070793480845168, 4.061661784071475, 4.078031113836914, 4.0529616579879075, 4.0715870801359415, 4.078821477014571, 4.059529326157644]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.06838155166246</v>
+        <v>4.061395308119245</v>
       </c>
       <c r="G24" t="n">
-        <v>4.065443073981442</v>
+        <v>4.057165213511325</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01930620297453499</v>
+        <v>0.02199698748683833</v>
       </c>
       <c r="I24" t="n">
-        <v>6525359.347803154</v>
+        <v>6525580.698384201</v>
       </c>
       <c r="J24" t="n">
-        <v>6908292</v>
+        <v>6908228</v>
       </c>
       <c r="K24" t="n">
-        <v>1270542.008058917</v>
+        <v>1271181.286460076</v>
       </c>
       <c r="L24" t="n">
         <v>2858</v>
       </c>
       <c r="M24" t="n">
-        <v>11397022</v>
+        <v>11451166</v>
       </c>
       <c r="N24" t="n">
-        <v>11451410</v>
+        <v>11451506</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
@@ -2973,35 +3001,35 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.003011237131431699, 0.0040038530714809895, 0.005332122091203928, 0.0060526898596435785, 0.0061860098503530025, 0.006659328937530518, 0.006758698029443622, 0.006749503081664443, 0.006749855121597648, 0.006858926964923739, 0.006971135037019849, 0.006661931984126568, 0.00664013996720314, 0.006631906842812896, 0.006731916917487979, 0.006679849000647664, 0.006713459966704249, 0.006724675185978413, 0.006796032888814807, 0.007047609891742468, 0.006653830874711275, 0.0065839858725667, 0.006715232040733099, 0.006664327112957835, 0.006700569065287709, 0.006537778070196509, 0.006647871108725667, 0.006680900929495692, 0.00675772619433701, 0.006630605086684227, 0.006568751996383071, 0.006605969043448567, 0.006695010932162404, 0.006574020022526383, 0.006631687982007861, 0.006609683856368065, 0.006550465943291783, 0.006548553938046098, 0.006618036888539791, 0.006591007113456726, 0.006839447887614369, 0.0066170350182801485, 0.006485769059509039, 0.006396875949576497, 0.006544445874169469, 0.006576383952051401, 0.006507121026515961, 0.006476063979789615, 0.006454411894083023, 0.006424297112971544]</t>
+          <t>[0.0030907071195542812, 0.005075729917734861, 0.005721665918827057, 0.006083306856453419, 0.006831406848505139, 0.007168412208557129, 0.007147802039980888, 0.007181863067671657, 0.0071466302033513784, 0.0070325289852917194, 0.0070501340087503195, 0.007081873016431928, 0.00724523700773716, 0.007062603952363133, 0.007380940020084381, 0.00703709595836699, 0.006972779054194689, 0.007011118112131953, 0.007541529834270477, 0.007065577898174524, 0.007001873105764389, 0.006994881900027394, 0.007067842176184058, 0.007085999008268118, 0.007210034877061844, 0.0069192699156701565, 0.006965307984501123, 0.006939108949154615, 0.0069395790342241526, 0.006970115005970001, 0.007640229072421789, 0.006998257944360375, 0.006920651067048311, 0.007057315902784467, 0.006927401060238481, 0.006939169019460678, 0.006888224044814706, 0.006894022924825549, 0.006890296004712582, 0.007248611887916923, 0.006939419079571962, 0.006895483937114477, 0.006981221958994865, 0.006920291110873222, 0.006927361944690347, 0.006848544115200639, 0.006970525020733476, 0.006800430826842785, 0.006870367797091603, 0.006855633109807968]</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>0.006476974952965975</v>
+        <v>0.006868728236295283</v>
       </c>
       <c r="T24" t="n">
-        <v>0.006631146534346044</v>
+        <v>0.006971652037464082</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0006669269769523738</v>
+        <v>0.0006697041510961607</v>
       </c>
       <c r="V24" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W24" t="n">
         <v>2858</v>
       </c>
       <c r="X24" t="n">
-        <v>138.0677384770362</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y24" t="n">
         <v>2858</v>
       </c>
       <c r="Z24" t="n">
-        <v>3402</v>
+        <v>3306</v>
       </c>
       <c r="AA24" t="n">
-        <v>64811</v>
+        <v>64715</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3012,26 +3040,26 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[0.14794195187278092, 0.11182524706237018, 0.11156298406422138, 0.1115527399815619, 0.11155973095446825, 0.11145746801048517, 0.11145308893173933, 0.11271067289635539, 0.11759297992102802, 0.1121525268536061, 0.11316493293270469, 0.1124291499145329, 0.11181009490974247, 0.11167417094111443, 0.1118921882007271, 0.11199447000399232, 0.11188783100806177, 0.1121822209097445, 0.11288579413667321, 0.1121162730269134, 0.11175503092817962, 0.11170373507775366, 0.11196733987890184, 0.11270316084846854, 0.11231916700489819, 0.11211253795772791, 0.11219512112438679, 0.11225666292011738, 0.11210213112644851, 0.11149335000663996, 0.1120971639174968, 0.11169124697335064, 0.11252256203442812, 0.11260200082324445, 0.11235882504843175, 0.1123574641533196, 0.11144115193746984, 0.11187354987487197, 0.11168214306235313, 0.1259540079627186, 0.11186136212199926, 0.11171895894221961, 0.11180253303609788, 0.1117003911640495, 0.11220144084654748, 0.11170012992806733, 0.11207043495960534, 0.11160474689677358, 0.11264294013381004, 0.11210521683096886]</t>
+          <t>[0.1435227261390537, 0.11090288893319666, 0.11229893006384373, 0.11116327997297049, 0.11112938891164958, 0.11117223207838833, 0.11099556810222566, 0.11153681785799563, 0.11177740897983313, 0.11127103003673255, 0.11114478204399347, 0.11132012400776148, 0.11107502598315477, 0.11229646601714194, 0.11195047711953521, 0.11252911412157118, 0.11131175211630762, 0.11263652518391609, 0.11147004901431501, 0.11108754598535597, 0.11133820097893476, 0.11152312788181007, 0.11119045014493167, 0.11111260205507278, 0.1120688240043819, 0.11135580809786916, 0.11140779592096806, 0.11262439703568816, 0.11195900104939938, 0.1114279949106276, 0.11127487593330443, 0.12544328905642033, 0.11195013695396483, 0.11186177493073046, 0.11212792294099927, 0.11158259701915085, 0.11146387783810496, 0.11126330797560513, 0.11144299688749015, 0.11175905098207295, 0.11234414810314775, 0.11226875497959554, 0.11143541499041021, 0.11141013796441257, 0.1110189228784293, 0.1116411651019007, 0.11119464598596096, 0.11113731982186437, 0.11158965807408094, 0.11122106621041894]</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.1131288604810834</v>
+        <v>0.1124806279875338</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1120324524817988</v>
+        <v>0.1114392059389502</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.005462072747451855</v>
+        <v>0.004911787044884796</v>
       </c>
       <c r="AI24" t="n">
-        <v>9578.980148883375</v>
+        <v>9514.039702233251</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10458</v>
+        <v>10418</v>
       </c>
       <c r="AK24" t="n">
-        <v>2532.41182793629</v>
+        <v>2518.426105362445</v>
       </c>
       <c r="AL24" t="n">
         <v>2858</v>
@@ -3045,44 +3073,48 @@
       <c r="AO24" t="n">
         <v>13</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>7850</v>
+      </c>
       <c r="AQ24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[0.010116053046658635, 0.009822704130783677, 0.009675452951341867, 0.009740190114825964, 0.009762404020875692, 0.009602003963664174, 0.009727371856570244, 0.009922913974151015, 0.009709454840049148, 0.009743024129420519, 0.009633250068873167, 0.009687802055850625, 0.009714922169223428, 0.009690266102552414, 0.00977165694348514, 0.009624597849324346, 0.009685879107564688, 0.009868714027106762, 0.009679118869826198, 0.009754902916029096, 0.009812007891014218, 0.009711727034300566, 0.00968528795056045, 0.009718857938423753, 0.009614702081307769, 0.009660802781581879, 0.00967166991904378, 0.00959984096698463, 0.00963759794831276, 0.00962526910007, 0.00973754795268178, 0.009782403940334916, 0.009721674025058746, 0.009763485984876752, 0.009686421137303114, 0.009735693922266364, 0.009651117026805878, 0.009750527096912265, 0.009648864157497883, 0.009668595157563686, 0.009704147931188345, 0.009714552899822593, 0.00958785298280418, 0.009628152940422297, 0.009782152948901057, 0.009609444998204708, 0.009625820210203528, 0.009558046935126185, 0.009571947855874896, 0.009629123145714402]</t>
+          <t>[0.10728930798359215, 0.10658776783384383, 0.10671334597282112, 0.10591552197001874, 0.10769630782306194, 0.10651956591755152, 0.10573948896490037, 0.10681488807313144, 0.10663103382103145, 0.10653717303648591, 0.10601510084234178, 0.10607672203332186, 0.10599748487584293, 0.1066057460848242, 0.1067634210921824, 0.12084356998093426, 0.107245763996616, 0.10576515714637935, 0.10629763291217387, 0.10728413099423051, 0.10668700514361262, 0.10659468686208129, 0.10676302202045918, 0.10581577196717262, 0.10587790585123003, 0.10661898483522236, 0.106599175138399, 0.10613254783675075, 0.1060515649151057, 0.10662479395978153, 0.10655024205334485, 0.1065022291149944, 0.10667858296073973, 0.10639597196131945, 0.10587802599184215, 0.10614253091625869, 0.1061371429823339, 0.10599527088925242, 0.1066240519285202, 0.1061604090500623, 0.10605737403966486, 0.106543191941455, 0.10613099299371243, 0.10608787881210446, 0.10659838281571865, 0.11076397099532187, 0.10666936985217035, 0.10603268817067146, 0.10608447506092489, 0.10650747898034751]</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>0.009704560399986803</v>
+        <v>0.1067928970279172</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.009689034079201519</v>
+        <v>0.1065283694770187</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.56335540719261e-05</v>
+        <v>0.002160069266904448</v>
       </c>
       <c r="AV24" t="n">
-        <v>2934.8</v>
+        <v>7483.904761904761</v>
       </c>
       <c r="AW24" t="n">
-        <v>2858</v>
+        <v>7954</v>
       </c>
       <c r="AX24" t="n">
-        <v>117.9747465194417</v>
+        <v>1920.447276435564</v>
       </c>
       <c r="AY24" t="n">
         <v>2858</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3306</v>
+        <v>11138</v>
       </c>
       <c r="BA24" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
+      <c r="BC24" t="n">
+        <v>0.6767241379310345</v>
+      </c>
       <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3100,35 +3132,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[5.563022512942553, 5.605656086932868, 5.579922385979444, 5.574638077989221, 5.572404417907819, 5.5399496459867805, 5.556249290006235, 5.607221465092152, 5.590650792932138, 5.588434929028153, 5.57202009903267, 5.581003546947613, 5.568529827985913, 5.594214468961582, 5.587341222912073, 5.624228633008897, 5.563846875913441, 5.570378747070208, 5.573753651930019, 5.589929528068751, 5.5639530250336975, 5.571794154820964, 5.60312115191482, 5.604058817028999, 5.579642389900982, 5.60563218803145, 5.569416146026924, 5.564446308184415, 5.567233450943604, 5.575873268069699, 5.551537400111556, 5.585368323838338, 5.569248565938324, 5.5735393210779876, 5.54123451304622, 5.588372059166431, 5.5717652819585055, 5.5609796771313995, 5.561182071920484, 5.607371357968077, 5.573538813972846, 5.587708635954186, 5.58000114117749, 5.564922669902444, 5.57003836100921, 5.577659042086452, 5.600832128897309, 5.60516273509711, 5.586740541039035, 5.580783078912646]</t>
+          <t>[5.5818190921563655, 5.581289432942867, 5.571424177847803, 5.585851308889687, 5.605000334093347, 5.589419171912596, 5.575790352886543, 5.573074192972854, 5.616475855000317, 5.588138076942414, 5.575397026957944, 5.586243581958115, 5.561907193856314, 5.570827696938068, 5.569001070922241, 5.604108556872234, 5.580525517929345, 5.574416861869395, 5.6003948911093175, 5.591746390797198, 5.613469721982256, 5.578682990977541, 5.6058927059639245, 5.5820764801464975, 5.5854672661516815, 5.58477579196915, 5.575396800879389, 5.578239887952805, 5.559597481042147, 5.583023058017716, 5.571969483979046, 5.584844037890434, 5.586823804071173, 5.585453832056373, 5.577664915006608, 5.56923376605846, 5.632140861125663, 5.577487526927143, 5.548817249014974, 5.599835235159844, 5.576873903162777, 5.5952217248268425, 5.618076180107892, 5.599797199014574, 5.584521227050573, 5.584725155029446, 5.609542490914464, 5.553172790911049, 5.543812602991238, 5.5644670878537]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.578931056535803</v>
+        <v>5.583879080861807</v>
       </c>
       <c r="G25" t="n">
-        <v>5.57525567302946</v>
+        <v>5.582549769082107</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01763966921146659</v>
+        <v>0.01763604889663555</v>
       </c>
       <c r="I25" t="n">
-        <v>6626364.67487517</v>
+        <v>6628937.198186627</v>
       </c>
       <c r="J25" t="n">
-        <v>6910052</v>
+        <v>6910132</v>
       </c>
       <c r="K25" t="n">
-        <v>1095860.013699021</v>
+        <v>1091009.383620003</v>
       </c>
       <c r="L25" t="n">
         <v>2858</v>
       </c>
       <c r="M25" t="n">
-        <v>11451254</v>
+        <v>11192774</v>
       </c>
       <c r="N25" t="n">
-        <v>11451410</v>
+        <v>11451282</v>
       </c>
       <c r="O25" t="n">
         <v>14</v>
@@ -3139,26 +3171,26 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.002929557114839554, 0.00314895692281425, 0.005290062865242362, 0.005320248194038868, 0.0063254451379179955, 0.0067524840123951435, 0.006743439007550478, 0.006702468963339925, 0.006758070783689618, 0.006731250789016485, 0.006709829904139042, 0.006639723898842931, 0.006717702141031623, 0.00665888306684792, 0.006773164961487055, 0.006784450961276889, 0.006596540100872517, 0.006671782815828919, 0.006674416130408645, 0.007286223117262125, 0.006664281012490392, 0.006658283062279224, 0.006616750964894891, 0.00658772699534893, 0.006588347954675555, 0.006630510091781616, 0.006628768052905798, 0.006830200087279081, 0.006772303022444248, 0.006681828061118722, 0.006599454907700419, 0.006574027007445693, 0.006580075016245246, 0.006579163949936628, 0.006676669931039214, 0.00663545704446733, 0.0066411360166966915, 0.006600195076316595, 0.006570280995219946, 0.006608828902244568, 0.007295626914128661, 0.00663320510648191, 0.00653348583728075, 0.006613675970584154, 0.006634386023506522, 0.006564491894096136, 0.006610770942643285, 0.006515919230878353, 0.00661785202100873, 0.006478332215920091]</t>
+          <t>[0.0031009630765765905, 0.0029149840120226145, 0.0028925598599016666, 0.004730632063001394, 0.006127933971583843, 0.005652180872857571, 0.007080178940668702, 0.00708169094286859, 0.007099085953086615, 0.007100258022546768, 0.0070931578520685434, 0.007125345058739185, 0.007120419992133975, 0.007127378834411502, 0.007063592784106731, 0.0071489810943603516, 0.007100398885086179, 0.006958788027986884, 0.007651543943211436, 0.0070373439230024815, 0.007144636008888483, 0.007038805866613984, 0.0069263780023902655, 0.007074790075421333, 0.007146238815039396, 0.0069578459952026606, 0.007146999007090926, 0.006894711870700121, 0.006953920004889369, 0.006907218834385276, 0.006936813006177545, 0.006946759065613151, 0.0068365351762622595, 0.006903884932398796, 0.006853167898952961, 0.006911295931786299, 0.006912728073075414, 0.006833520019426942, 0.007155461004003882, 0.007635348942130804, 0.006918295985087752, 0.007153659127652645, 0.006905137095600367, 0.006961511913686991, 0.006977924844250083, 0.006805888842791319, 0.006781680975109339, 0.0068180670496076345, 0.006910345051437616, 0.006841141963377595]</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>0.006468734703958035</v>
+        <v>0.006687962589785457</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006631857599131763</v>
+        <v>0.006955883000046015</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0007725838057932488</v>
+        <v>0.001040016468733478</v>
       </c>
       <c r="V25" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W25" t="n">
         <v>2858</v>
       </c>
       <c r="X25" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y25" t="n">
         <v>2858</v>
@@ -3178,32 +3210,32 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[0.14484545006416738, 0.11195199401117861, 0.11145179602317512, 0.1111227129586041, 0.11124106007628143, 0.1112910860683769, 0.11182352202013135, 0.11158928996883333, 0.11407747911289334, 0.11224567494355142, 0.11123593105003238, 0.1115237430203706, 0.1116881191264838, 0.11210288014262915, 0.11149032204411924, 0.1116258839610964, 0.11118254205211997, 0.11100611789152026, 0.11113581201061606, 0.11170617607422173, 0.11090353410691023, 0.12265476281754673, 0.11099479091353714, 0.11090050893835723, 0.11104866000823677, 0.11108260112814605, 0.11115927598439157, 0.11201243498362601, 0.11209308402612805, 0.11196058499626815, 0.13193925912491977, 0.11122980294749141, 0.11131618218496442, 0.11216605384834111, 0.11353141814470291, 0.11157030100002885, 0.11190829798579216, 0.1125533040612936, 0.11142730712890625, 0.11177343502640724, 0.11058465694077313, 0.11159384693019092, 0.11177112208679318, 0.11209202301688492, 0.11107439897023141, 0.11081796488724649, 0.11097323801368475, 0.11084048799239099, 0.11069239606149495, 0.11090281209908426]</t>
+          <t>[0.15461533516645432, 0.1119886829983443, 0.1118654680904001, 0.11153210001066327, 0.11146233486942947, 0.1115039479918778, 0.11117853014729917, 0.1122335100080818, 0.11201781686395407, 0.11234097112901509, 0.11158989719115198, 0.1114573678933084, 0.11100111389532685, 0.11111530498601496, 0.11098667304031551, 0.11128000309690833, 0.11110113491304219, 0.11140174488537014, 0.11262748786248267, 0.12206284399144351, 0.11357856402173638, 0.1141396639868617, 0.11352263810113072, 0.11414584098383784, 0.11475807009264827, 0.11488426802679896, 0.11364256916567683, 0.1126741599291563, 0.11256401403807104, 0.11306975199840963, 0.11206750106066465, 0.1115392108913511, 0.11160321603529155, 0.111359080998227, 0.11086414894089103, 0.11106225592084229, 0.11123937205411494, 0.11206349497660995, 0.11106786387972534, 0.1113669821061194, 0.11109340307302773, 0.11105349310673773, 0.11068243789486587, 0.11125107994303107, 0.11091557587496936, 0.11101212189532816, 0.11080326815135777, 0.11245562206022441, 0.11107092001475394, 0.11242451518774033]</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>0.1128381227795035</v>
+        <v>0.1129867474688217</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1115070325322449</v>
+        <v>0.1115356554510072</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.0056880226975701</v>
+        <v>0.006265879049657126</v>
       </c>
       <c r="AI25" t="n">
-        <v>9505.60396039604</v>
+        <v>9499.841584158416</v>
       </c>
       <c r="AJ25" t="n">
         <v>10418</v>
       </c>
       <c r="AK25" t="n">
-        <v>2511.957231539982</v>
+        <v>2517.087657903808</v>
       </c>
       <c r="AL25" t="n">
         <v>2858</v>
       </c>
       <c r="AM25" t="n">
-        <v>11410</v>
+        <v>11586</v>
       </c>
       <c r="AN25" t="n">
         <v>25570</v>
@@ -3217,35 +3249,35 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>[0.010014250176027417, 0.009729511104524136, 0.009682292118668556, 0.009686808101832867, 0.009758355095982552, 0.009847338078543544, 0.009686768054962158, 0.00971104484051466, 0.009664314100518823, 0.009649383137002587, 0.00968658784404397, 0.009676794055849314, 0.009680608985945582, 0.009666939033195376, 0.009693038184195757, 0.009790523909032345, 0.009858075063675642, 0.009809702867642045, 0.009695111075416207, 0.012811648892238736, 0.019624893087893724, 0.01965694106183946, 0.01970718614757061, 0.01963158301077783, 0.019716949900612235, 0.019765373086556792, 0.019935376942157745, 0.019753966014832258, 0.023028319934383035, 0.019279656000435352, 0.019266234943643212, 0.01902213110588491, 0.02280376199632883, 0.01923469896428287, 0.019724021898582578, 0.019239416113123298, 0.019257131963968277, 0.01919482904486358, 0.01913868309929967, 0.019130781991407275, 0.023145165061578155, 0.019210340920835733, 0.02296989201568067, 0.019232776015996933, 0.019372605020180345, 0.019390783039852977, 0.01923919515684247, 0.023002812871709466, 0.02441645902581513, 0.024300245102494955]</t>
+          <t>[0.10663202498108149, 0.10603752406314015, 0.10746149718761444, 0.10623496118932962, 0.10617428901605308, 0.10599576192907989, 0.10603151703253388, 0.10597774502821267, 0.10617920709773898, 0.10598188196308911, 0.10672035603784025, 0.10626130900345743, 0.10611904598772526, 0.10607814509421587, 0.10573636298067868, 0.10593475098721683, 0.10579320881515741, 0.10685164295136929, 0.11568984412588179, 0.10581652401015162, 0.10579293896444142, 0.10602075885981321, 0.10596847115084529, 0.10606796899810433, 0.10601417906582355, 0.10687087196856737, 0.10624117916449904, 0.10599381802603602, 0.10578893194906414, 0.10610775998793542, 0.10888844192959368, 0.10630374192260206, 0.10549163701944053, 0.10585423978045583, 0.10611983691342175, 0.10566198197193444, 0.10595688410103321, 0.10706202895380557, 0.10599319892935455, 0.10582155990414321, 0.10658930987119675, 0.10632160911336541, 0.10702157812193036, 0.10595119395293295, 0.10584655893035233, 0.10606403392739594, 0.10696239792741835, 0.10622739791870117, 0.10602665902115405, 0.1058500639628619]</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>0.01616382610518485</v>
+        <v>0.1064117766357958</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.01922155846841633</v>
+        <v>0.106050778995268</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.005363389737499392</v>
+        <v>0.00144989158722867</v>
       </c>
       <c r="AV25" t="n">
-        <v>4299</v>
+        <v>7220.880886426593</v>
       </c>
       <c r="AW25" t="n">
-        <v>3018</v>
+        <v>7842</v>
       </c>
       <c r="AX25" t="n">
-        <v>1797.433613499177</v>
+        <v>1813.017187420918</v>
       </c>
       <c r="AY25" t="n">
         <v>2858</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7178</v>
+        <v>9818</v>
       </c>
       <c r="BA25" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
@@ -3266,35 +3298,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[6.184522158000618, 6.110455199843273, 6.1265283059328794, 6.148301471024752, 6.129262161906809, 6.116711980197579, 6.132576576899737, 6.171825625933707, 6.115060928044841, 6.116703025996685, 6.1422473499551415, 6.128290828084573, 6.128660571062937, 6.123941383091733, 6.16893176198937, 6.115969324950129, 6.084628669079393, 6.119994236156344, 6.127254802035168, 6.138392213033512, 6.127407603897154, 6.191041464917362, 6.118860914139077, 6.113339819014072, 6.140510353958234, 6.097655822057277, 6.099737665150315, 6.11902721808292, 6.148247552802786, 6.111858345102519, 6.105816415976733, 6.148127024061978, 6.1143904509954154, 6.113845214014873, 6.10875500086695, 6.121397519949824, 6.130449624033645, 6.12118740612641, 6.137139814905822, 6.084560377057642, 6.117074269102886, 6.079199013067409, 6.122793396934867, 6.1816178960725665, 6.112130993977189, 6.128775781951845, 6.120791818015277, 6.090000072028488, 6.111667912919074, 6.096205892972648]</t>
+          <t>[6.1422999911010265, 6.146799560170621, 6.144393039867282, 6.11855836911127, 6.1515880359802395, 6.133809585822746, 6.135004566051066, 6.150409610942006, 6.111098256893456, 6.161308893933892, 6.143241122132167, 6.116020127898082, 6.134314367780462, 6.146483666962013, 6.177497077966109, 6.127115434966981, 6.11259102798067, 6.122540225973353, 6.122965637827292, 6.127949706045911, 6.13375192694366, 6.16276079392992, 6.112887124996632, 6.1428954808507115, 6.1447796379216015, 6.122788015985861, 6.129680451005697, 6.1088840761221945, 6.135208741063252, 6.128885461948812, 6.1134246659930795, 6.1663254799786955, 6.115923782810569, 6.120576313929632, 6.141643578186631, 6.140665821963921, 6.105859348084778, 6.132043151883408, 6.147708658827469, 6.1258878039661795, 6.131958230165765, 6.104608219116926, 6.12618120200932, 6.1476868209429085, 6.114219705108553, 6.164146898081526, 6.183541498845443, 6.134663194883615, 6.114249257836491, 6.158332251943648]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.124877424547448</v>
+        <v>6.134763118014671</v>
       </c>
       <c r="G26" t="n">
-        <v>6.120989612070844</v>
+        <v>6.133780756383203</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02430148911823709</v>
+        <v>0.01857376367597995</v>
       </c>
       <c r="I26" t="n">
-        <v>6656195.146008439</v>
+        <v>6657986.957696787</v>
       </c>
       <c r="J26" t="n">
-        <v>6913564</v>
+        <v>6913624</v>
       </c>
       <c r="K26" t="n">
-        <v>1048362.397113289</v>
+        <v>1042897.336131252</v>
       </c>
       <c r="L26" t="n">
         <v>2858</v>
       </c>
       <c r="M26" t="n">
-        <v>11451254</v>
+        <v>11451598</v>
       </c>
       <c r="N26" t="n">
-        <v>11451850</v>
+        <v>11451662</v>
       </c>
       <c r="O26" t="n">
         <v>15</v>
@@ -3305,26 +3337,26 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.002914214041084051, 0.0026909189764410257, 0.002733353991061449, 0.00269350316375494, 0.004391024820506573, 0.005281669087707996, 0.00531651102937758, 0.0064776199869811535, 0.006698940880596638, 0.006735316012054682, 0.006652400828897953, 0.006701735081151128, 0.0065980288200080395, 0.006955946795642376, 0.006656728219240904, 0.0066511298064142466, 0.006653101881965995, 0.0066612649243324995, 0.006712741916999221, 0.007173651130869985, 0.006810718914493918, 0.006713984068483114, 0.00679541495628655, 0.006717999931424856, 0.006595987128093839, 0.00653299200348556, 0.006615576799958944, 0.0066229780204594135, 0.006697088945657015, 0.006647782865911722, 0.006527323042973876, 0.006595155922695994, 0.006680602906271815, 0.006611260119825602, 0.0067350249737501144, 0.006538100074976683, 0.0064882258884608746, 0.0065473627764731646, 0.006552750943228602, 0.006574596045538783, 0.006840184098109603, 0.006522677140310407, 0.006474283989518881, 0.006540834903717041, 0.006528496975079179, 0.006563948933035135, 0.006441866047680378, 0.006443039048463106, 0.006441937992349267, 0.006487744860351086]</t>
+          <t>[0.00312893302179873, 0.002949104178696871, 0.005345822079107165, 0.005648875143378973, 0.005556205986067653, 0.007227689027786255, 0.0071687300223857164, 0.006990012945607305, 0.007079325150698423, 0.007035320857539773, 0.007166085997596383, 0.007071885978803039, 0.007022812031209469, 0.0069633228704333305, 0.00710660801269114, 0.007051684893667698, 0.007011344889178872, 0.007277883822098374, 0.007640436990186572, 0.007027940126135945, 0.007028941996395588, 0.007003104081377387, 0.007113928906619549, 0.007049059960991144, 0.006943132029846311, 0.0069549898616969585, 0.006999886827543378, 0.007010333007201552, 0.00700285192579031, 0.006923353066667914, 0.006833488121628761, 0.006845507072284818, 0.006965707056224346, 0.0068457170855253935, 0.006867400137707591, 0.006835670908913016, 0.006971084047108889, 0.006929913070052862, 0.006903132889419794, 0.007084003882482648, 0.0068609388545155525, 0.006862791953608394, 0.006908090086653829, 0.00676610809750855, 0.006772627122700214, 0.006786597892642021, 0.006881301058456302, 0.006814438849687576, 0.0068701321724802256, 0.006760890129953623]</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0.006224714834243059</v>
+        <v>0.006737302923575043</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006595571525394917</v>
+        <v>0.006959156366065145</v>
       </c>
       <c r="U26" t="n">
-        <v>0.001117512458721776</v>
+        <v>0.0008536554867325673</v>
       </c>
       <c r="V26" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W26" t="n">
         <v>2858</v>
       </c>
       <c r="X26" t="n">
-        <v>141.0624640913032</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y26" t="n">
         <v>2858</v>
@@ -3344,32 +3376,32 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>[0.14475424122065306, 0.11163393501192331, 0.11264828289858997, 0.11221281182952225, 0.11294129188172519, 0.11182808480225503, 0.11263629514724016, 0.1110117631033063, 0.11054086801595986, 0.11075657093897462, 0.11088624410331249, 0.111014056019485, 0.11086587398312986, 0.1115611249115318, 0.11102114710956812, 0.11093385680578649, 0.11053176503628492, 0.11042859009467065, 0.11105252406559885, 0.11117119202390313, 0.11075503914617002, 0.11137881106697023, 0.11153277312405407, 0.11197750899009407, 0.11070890910923481, 0.11116371001116931, 0.11072703707031906, 0.11100693396292627, 0.1110266549512744, 0.11135961394757032, 0.11150030395947397, 0.1116991329472512, 0.11261476390063763, 0.1120772180147469, 0.11254780413582921, 0.1116369180381298, 0.11200021184049547, 0.11121760099194944, 0.11126595409587026, 0.1120162969455123, 0.11169224209152162, 0.1120036079082638, 0.11185520491562784, 0.11162944696843624, 0.1114396930206567, 0.11246287589892745, 0.11159415496513247, 0.11218681116588414, 0.11107352608814836, 0.11109044100157917]</t>
+          <t>[0.14299177820794284, 0.1113561331294477, 0.11127387103624642, 0.11124175204895437, 0.11160820117220283, 0.11159668280743062, 0.11159827513620257, 0.11201891605742276, 0.11492167017422616, 0.12063580402173102, 0.11197085399180651, 0.12268878682516515, 0.11101144808344543, 0.11113350000232458, 0.11135701509192586, 0.11172998393885791, 0.11346531100571156, 0.11117523303255439, 0.11871496890671551, 0.11146884202025831, 0.11155206803232431, 0.11114257294684649, 0.11171846510842443, 0.11162927187979221, 0.11140672885812819, 0.11118069081567228, 0.11120465584099293, 0.11114844214171171, 0.11158593697473407, 0.11140881292521954, 0.11107516288757324, 0.11135620390996337, 0.1113329790532589, 0.11240853904746473, 0.11118538794107735, 0.11138037103228271, 0.11126189213246107, 0.11179877608083189, 0.11126185208559036, 0.1310014300979674, 0.11127616395242512, 0.1112595081795007, 0.11203996697440743, 0.11120853293687105, 0.11133767501451075, 0.11115241795778275, 0.11220625601708889, 0.11199336708523333, 0.11156951216980815, 0.12045474210754037]</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0.1121534343855456</v>
+        <v>0.1133299481775612</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1114699984900653</v>
+        <v>0.1114388274727389</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.004745974997103527</v>
+        <v>0.005652454571884485</v>
       </c>
       <c r="AI26" t="n">
-        <v>10181.66169154229</v>
+        <v>10197.36633663366</v>
       </c>
       <c r="AJ26" t="n">
         <v>11218</v>
       </c>
       <c r="AK26" t="n">
-        <v>2775.455106348639</v>
+        <v>2785.765518314975</v>
       </c>
       <c r="AL26" t="n">
         <v>2858</v>
       </c>
       <c r="AM26" t="n">
-        <v>13282</v>
+        <v>13506</v>
       </c>
       <c r="AN26" t="n">
         <v>26370</v>
@@ -3383,35 +3415,35 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>[0.009963508928194642, 0.009714828105643392, 0.00970771606080234, 0.009692452847957611, 0.00976241915486753, 0.009810651186853647, 0.009704009164124727, 0.009669639868661761, 0.009710903046652675, 0.009667236125096679, 0.009762187954038382, 0.009741295827552676, 0.00988098606467247, 0.009771330980584025, 0.009681376861408353, 0.009680155897513032, 0.009658192982897162, 0.009624581784009933, 0.009634377900511026, 0.009641267824918032, 0.009687005076557398, 0.009668349055573344, 0.009687587153166533, 0.00964364199899137, 0.009659015107899904, 0.009693355998024344, 0.009641146985813975, 0.009637212147936225, 0.009682108880952, 0.009624293074011803, 0.009593616938218474, 0.00961925508454442, 0.009632264031097293, 0.009607917862012982, 0.009606985840946436, 0.009732444072142243, 0.009669879917055368, 0.009628406958654523, 0.009577432880178094, 0.009618303971365094, 0.009639865020290017, 0.009921756805852056, 0.009599735029041767, 0.009687497047707438, 0.009604532038792968, 0.009699754882603884, 0.009663049830123782, 0.009576600044965744, 0.009694257052615285, 0.009652053005993366]</t>
+          <t>[0.10642503201961517, 0.10665824101306498, 0.10664081503637135, 0.10600248980335891, 0.10628457204438746, 0.10633016005158424, 0.10575705184601247, 0.1063976320438087, 0.10800845292396843, 0.10678278584964573, 0.10629339492879808, 0.10624389979057014, 0.10668409895151854, 0.1110745519399643, 0.1067220470868051, 0.10832585697062314, 0.10648334911093116, 0.1063342159613967, 0.10672643315047026, 0.11353408289141953, 0.10591074218973517, 0.10620044497773051, 0.10586449317634106, 0.1062296589370817, 0.10587528999894857, 0.1058520048391074, 0.10612690495327115, 0.10651481593959033, 0.10568121890537441, 0.10614174790680408, 0.10648855706676841, 0.10603119293227792, 0.10602630488574505, 0.10613483795896173, 0.10580063704401255, 0.10622085584327579, 0.1059529660269618, 0.10872831009328365, 0.1181171031203121, 0.10594234010204673, 0.10634715505875647, 0.10657738009467721, 0.10756215499714017, 0.10674167610704899, 0.10680614202283323, 0.10588303115218878, 0.10628149705007672, 0.10592288197949529, 0.10595726012252271, 0.10702653299085796]</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>0.009682568847201764</v>
+        <v>0.1068931060377508</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.009668994462117553</v>
+        <v>0.1063117774901912</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.970114568736193e-05</v>
+        <v>0.002102263617317573</v>
       </c>
       <c r="AV26" t="n">
-        <v>2924.56</v>
+        <v>8011.448648648648</v>
       </c>
       <c r="AW26" t="n">
-        <v>2858</v>
+        <v>8642</v>
       </c>
       <c r="AX26" t="n">
-        <v>112.8763383313883</v>
+        <v>2075.660048822374</v>
       </c>
       <c r="AY26" t="n">
         <v>2858</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3306</v>
+        <v>11386</v>
       </c>
       <c r="BA26" t="n">
-        <v>10330</v>
+        <v>15842</v>
       </c>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>

--- a/reports/xlsx/benchmark_constraint_unlimited.xlsx
+++ b/reports/xlsx/benchmark_constraint_unlimited.xlsx
@@ -874,56 +874,58 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[1.084497920004651, 1.0581837799400091, 1.0551841689739376, 1.0672711608931422, 1.068014953052625, 1.054539519827813, 1.077127150958404, 1.0701386199798435, 1.059917907929048, 1.0552592449821532, 1.0823673531413078, 1.0509224620182067, 1.034572137054056, 1.0668621689546853, 1.0778651300352067, 1.06561771617271, 1.0890382840298116, 1.0728410871233791, 1.0549071899149567, 1.0537587420549244, 1.0580431430134922, 1.0635014129802585, 1.0583278371486813, 1.0464429559651762, 1.0967752281576395, 1.0696262458804995, 1.0494242168497294, 1.0601466160733253, 1.0873649280983955, 1.071288594044745, 1.0631785220466554, 1.0890443490352482, 1.0575606310740113, 1.0477542118169367, 1.049749556928873, 1.0926260489504784, 1.0582046119961888, 1.0594496550038457, 1.0949392979964614, 1.046077345032245, 1.049635831033811, 1.050189261091873, 1.0791248420719057, 1.0783453141339123, 1.0789456819184124, 1.098331400193274, 1.048110764939338, 1.0556510901078582, 1.0629658489488065, 1.0773435288574547]</t>
+          <t>[1.0930670839734375, 1.0462783458642662, 1.0544280209578574, 1.1047049071639776, 1.0902969711460173, 1.0837488626129925, 1.0705663687549531, 1.1134154330939054, 1.0562144350260496, 1.0695577622391284, 1.1185255497694016, 1.0718534770421684, 1.057119551114738, 1.073894162196666, 1.109505855012685, 1.062120665796101, 1.056695258244872, 1.0741882538422942, 1.0724187260493636, 1.0812389831990004, 1.0727236620150506, 1.0919348979368806, 1.1029599653556943, 1.0659029292874038, 1.0872531840577722, 1.0710943159647286, 1.0789182628504932, 1.0941131808795035, 1.0849646530114114, 1.0654377047903836, 1.0662985825911164, 1.0900383335538208, 1.0726734627969563, 1.0625804299488664, 1.0648174579255283, 1.095559577923268, 1.0645349561236799, 1.0646994239650667, 1.0841398807242513, 1.0805828305892646, 1.094652310013771, 1.0728003345429897, 1.1084933220408857, 1.0736265019513667, 1.0790139930322766, 1.0902064121328294, 1.0602299589663744, 1.0652716718614101, 1.0717797609977424, 1.1270472882315516]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.065941113368608</v>
+        <v>1.079283758383244</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063072185497731</v>
+        <v>1.073760332074016</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01536271786424129</v>
+        <v>0.01789806888447665</v>
       </c>
       <c r="I12" t="n">
-        <v>5301179.184089256</v>
+        <v>5280069.291897091</v>
       </c>
       <c r="J12" t="n">
-        <v>6764594</v>
+        <v>6764562</v>
       </c>
       <c r="K12" t="n">
-        <v>2250058.620962241</v>
+        <v>2242880.538015918</v>
       </c>
       <c r="L12" t="n">
         <v>2856</v>
       </c>
       <c r="M12" t="n">
-        <v>11445588</v>
+        <v>11451596</v>
       </c>
       <c r="N12" t="n">
-        <v>11452095</v>
+        <v>11452151</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>2050</v>
+      </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.0029741721227765083, 0.0052764080464839935, 0.0055598129983991385, 0.0057698150631040335, 0.005530077964067459, 0.00658591790124774, 0.007026247913017869, 0.0070573738776147366, 0.007152756908908486, 0.007038345094770193, 0.006962582003325224, 0.006937625119462609, 0.0069542801938951015, 0.00700223189778626, 0.007053157081827521, 0.0073697909247130156, 0.007041821023449302, 0.007067189086228609, 0.007185976952314377, 0.006962752901017666, 0.006975770927965641, 0.00698031997308135, 0.006948139984160662, 0.006907077971845865, 0.006929812952876091, 0.006921410094946623, 0.006973879178985953, 0.007527326932176948, 0.006871235091239214, 0.0068546198308467865, 0.006967840949073434, 0.006874941056594253, 0.006886566989123821, 0.006817965069785714, 0.006862110923975706, 0.006915780948475003, 0.0068134889006614685, 0.006741642020642757, 0.006807239027693868, 0.007023792946711183, 0.007186647970229387, 0.006857102969661355, 0.006804886041209102, 0.006748300977051258, 0.006811064900830388, 0.006719859084114432, 0.006786196958273649, 0.006841581081971526, 0.006720228819176555, 0.006663304986432195]</t>
+          <t>[0.009279513265937567, 0.009023772086948156, 0.008864905219525099, 0.0088572739623487, 0.008892545942217112, 0.008876882027834654, 0.009101727977395058, 0.008823712822049856, 0.008853537030518055, 0.008768180850893259, 0.008851423859596252, 0.00886033708229661, 0.00887107290327549, 0.008754510432481766, 0.008893426973372698, 0.008754019159823656, 0.008857522625476122, 0.008692777249962091, 0.008798324968665838, 0.00873671192675829, 0.008729421999305487, 0.008738905657082796, 0.00875794468447566, 0.008740768302232027, 0.008786287158727646, 0.008744785096496344, 0.008734500035643578, 0.008773116860538721, 0.008797553833574057, 0.008665686938911676, 0.008762672077864408, 0.00862598605453968, 0.008710694033652544, 0.008673106785863638, 0.008631264325231314, 0.00873150397092104, 0.008612667210400105, 0.008638916071504354, 0.0086638443171978, 0.008613036945462227, 0.008661249652504921, 0.008595942053943872, 0.00887305662035942, 0.008648460730910301, 0.00862492574378848, 0.008597355335950851, 0.008620789740234613, 0.00857791630551219, 0.008574250154197216, 0.008590755052864552]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.00674496941268444</v>
+        <v>0.008758190842345357</v>
       </c>
       <c r="T12" t="n">
-        <v>0.006911429460160434</v>
+        <v>0.008742776699364185</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000687569682633972</v>
+        <v>0.0001380585088978635</v>
       </c>
       <c r="V12" t="n">
         <v>2928.36</v>
@@ -941,7 +943,7 @@
         <v>3305</v>
       </c>
       <c r="AA12" t="n">
-        <v>64801</v>
+        <v>64441</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -954,32 +956,32 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.022004226921126246, 0.021983005106449127, 0.022041392978280783, 0.022059160051867366, 0.022430504905059934, 0.022087753051891923, 0.022147441981360316, 0.022151088109239936, 0.021964347921311855, 0.02198264584876597, 0.02187910000793636, 0.021971527952700853, 0.02207797602750361, 0.021878228057175875, 0.022106260061264038, 0.0227599679492414, 0.022815771866589785, 0.02207020577043295, 0.021989454980939627, 0.022196664940565825, 0.022279960103332996, 0.022201282903552055, 0.02217912906780839, 0.022077768109738827, 0.022059469018131495, 0.022097036940976977, 0.022381141083315015, 0.021933291107416153, 0.0217103969771415, 0.02213096688501537, 0.022320070071145892, 0.02204374596476555, 0.021936635952442884, 0.022203086176887155, 0.022204366978257895, 0.021947942906990647, 0.02185978088527918, 0.02209541411139071, 0.022045710124075413, 0.022005861159414053, 0.02192416787147522, 0.022224828135222197, 0.021929095033556223, 0.022028113016858697, 0.02237926796078682, 0.022132559912279248, 0.022329895058646798, 0.022132671205326915, 0.021894172998145223, 0.021970486966893077]</t>
+          <t>[0.008975661359727383, 0.008874849881976843, 0.008851123042404652, 0.008913006167858839, 0.008878995664417744, 0.008816913235932589, 0.008823844138532877, 0.008833306841552258, 0.008811446372419596, 0.009805381763726473, 0.009005405008792877, 0.008811083622276783, 0.008817663881927729, 0.008845794945955276, 0.00882059894502163, 0.008798515889793634, 0.00887563917785883, 0.008866146672517061, 0.008829802740365267, 0.008878916036337614, 0.008914188016206026, 0.008977503050118685, 0.010030538775026798, 0.01169759314507246, 0.008925375062972307, 0.008879255969077349, 0.016696172300726175, 0.017606324050575495, 0.017625292763113976, 0.02203264692798257, 0.02225673059001565, 0.022699454799294472, 0.022284953854978085, 0.022378152702003717, 0.022352244704961777, 0.02812732709571719, 0.022399856708943844, 0.022521307226270437, 0.022534966934472322, 0.022532474249601364, 0.022749620024114847, 0.02290256880223751, 0.0223568812943995, 0.022974165622144938, 0.02462635701522231, 0.022058224771171808, 0.023689855821430683, 0.017806002870202065, 0.021831287071108818, 0.022905682679265738]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.02210510078351945</v>
+        <v>0.0152701420057565</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02207398694008589</v>
+        <v>0.01086406596004963</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0002037657458665343</v>
+        <v>0.006753753395402848</v>
       </c>
       <c r="AI12" t="n">
-        <v>5194.92</v>
+        <v>4468.135135135135</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5125</v>
+        <v>3017</v>
       </c>
       <c r="AK12" t="n">
-        <v>2288.247813096609</v>
+        <v>2251.097293007174</v>
       </c>
       <c r="AL12" t="n">
         <v>2857</v>
       </c>
       <c r="AM12" t="n">
-        <v>7937</v>
+        <v>8297</v>
       </c>
       <c r="AN12" t="n">
         <v>26401</v>
@@ -995,32 +997,32 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.021743998862802982, 0.021771708969026804, 0.021528385812416673, 0.021783116040751338, 0.02157559711486101, 0.021520072827115655, 0.021556026069447398, 0.021488937083631754, 0.021440583979710937, 0.02152648102492094, 0.021593392128124833, 0.021451500011608005, 0.021686712047085166, 0.021642585983499885, 0.022235583048313856, 0.021431660978123546, 0.021869445918127894, 0.021507533034309745, 0.02143825008533895, 0.021300785010680556, 0.02159133879467845, 0.021395807852968574, 0.02144760498777032, 0.02168092387728393, 0.02143261209130287, 0.02145849890075624, 0.021521955030038953, 0.021512309787794948, 0.021445831982418895, 0.021556557854637504, 0.021337357815355062, 0.021432472858577967, 0.021637919126078486, 0.021733200876042247, 0.021366533124819398, 0.021386893931776285, 0.02150214579887688, 0.021806681994348764, 0.02161725703626871, 0.021624870132654905, 0.02175810793414712, 0.02165798912756145, 0.021456998074427247, 0.02146367891691625, 0.02190557005815208, 0.021774682914838195, 0.02127325301989913, 0.021457860013470054, 0.02293320815078914, 0.022587729850783944]</t>
+          <t>[0.024220891296863556, 0.02315814094617963, 0.022257763892412186, 0.022966715041548014, 0.022030434105545282, 0.02220458397641778, 0.022248140070587397, 0.022126977797597647, 0.02203719364479184, 0.022368839010596275, 0.021999076940119267, 0.02241253387182951, 0.022214459255337715, 0.0220885518938303, 0.022114279214292765, 0.02194793988019228, 0.022004224825650454, 0.02180882217362523, 0.022080678027123213, 0.022047980222851038, 0.02188387420028448, 0.022109240759164095, 0.022174319252371788, 0.022067890968173742, 0.022836109157651663, 0.022103953640908003, 0.022027598693966866, 0.02204780839383602, 0.02204417483881116, 0.022106298245489597, 0.021727860905230045, 0.021849424112588167, 0.021926708053797483, 0.021923644002527, 0.021840068977326155, 0.021850593853741884, 0.021846938878297806, 0.02213893737643957, 0.022005216218531132, 0.02185700461268425, 0.02175265783444047, 0.021812947932630777, 0.022265625651925802, 0.021910993847995996, 0.021927198860794306, 0.021995760034769773, 0.022125747054815292, 0.021806168369948864, 0.02185847796499729, 0.021954530850052834]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.02161700415890664</v>
+        <v>0.02212231999263167</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.02152743341866881</v>
+        <v>0.0220406842418015</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.0002957780644590781</v>
+        <v>0.000412327191385415</v>
       </c>
       <c r="AV12" t="n">
-        <v>5991.96</v>
+        <v>5995.72</v>
       </c>
       <c r="AW12" t="n">
         <v>5961</v>
       </c>
       <c r="AX12" t="n">
-        <v>3088.376102076751</v>
+        <v>3092.540383215421</v>
       </c>
       <c r="AY12" t="n">
         <v>2857</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9553</v>
+        <v>9569</v>
       </c>
       <c r="BA12" t="n">
         <v>15841</v>
@@ -1031,7 +1033,9 @@
       <c r="BC12" t="n">
         <v>1</v>
       </c>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BD12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1048,71 +1052,73 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2.5430963940452784, 2.490009575849399, 2.5288945350330323, 2.5339991429354995, 2.5302285850048065, 2.5240613678470254, 2.5365527227986604, 2.5321273249574006, 2.5150600930210203, 2.550802680896595, 2.5325856069102883, 2.502015847945586, 2.527819656068459, 2.5276575211901218, 2.5167354769073427, 2.4902607949916273, 2.523811441846192, 2.512466615997255, 2.524862095946446, 2.5081069639418274, 2.544600083027035, 2.5259019709192216, 2.5233357059769332, 2.5283073647879064, 2.497653506929055, 2.4986595090012997, 2.5304496698081493, 2.546777216019109, 2.547286673914641, 2.5222932200413197, 2.5360378690529615, 2.5250581610016525, 2.526100709103048, 2.5311632610391825, 2.5455064380075783, 2.5347564620897174, 2.524749770993367, 2.5296910339966416, 2.499762332998216, 2.532772789010778, 2.5695353320334107, 2.55339197604917, 2.524616521084681, 2.5443128091283143, 2.5459082119632512, 2.543754996964708, 2.5212394818663597, 2.5264417259022593, 2.527569381054491, 2.51104801800102]</t>
+          <t>[2.543883422855288, 2.5123990052379668, 2.5649962686002254, 2.5470327716320753, 2.5224483590573072, 2.5347071727737784, 2.565892378333956, 2.5356942038051784, 2.5131235038861632, 2.5273507330566645, 2.5313294790685177, 2.5168574969284236, 2.5384285440668464, 2.54211038723588, 2.510842962190509, 2.525095511227846, 2.5460292752832174, 2.502532182727009, 2.5366092552430928, 2.542290756944567, 2.552758952137083, 2.585669768974185, 2.519282585941255, 2.56402789009735, 2.5184345301240683, 2.534301474224776, 2.5460300645790994, 2.5713772629387677, 2.5348530849441886, 2.5279631367884576, 2.560147065669298, 2.525567154865712, 2.5335207390598953, 2.5527644446119666, 2.565983456093818, 2.5198846999555826, 2.5322753419168293, 2.556688512675464, 2.5225435039028525, 2.517560620326549, 2.5242900610901415, 2.5526937330141664, 2.5183622231706977, 2.5614149956963956, 2.5501804081723094, 2.526359334588051, 2.510171114001423, 2.549118713941425, 2.531650757417083, 2.5439516152255237]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.527396732917987</v>
+        <v>2.537389618325979</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52773858862929</v>
+        <v>2.534780128858984</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01633271630122197</v>
+        <v>0.01853711674019191</v>
       </c>
       <c r="I13" t="n">
-        <v>6305614.632381456</v>
+        <v>6297207.596733117</v>
       </c>
       <c r="J13" t="n">
-        <v>6829387</v>
+        <v>6788587</v>
       </c>
       <c r="K13" t="n">
-        <v>1555619.752440607</v>
+        <v>1559104.237273341</v>
       </c>
       <c r="L13" t="n">
         <v>2857</v>
       </c>
       <c r="M13" t="n">
-        <v>10301721</v>
+        <v>11451325</v>
       </c>
       <c r="N13" t="n">
-        <v>11451537</v>
+        <v>11451569</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>4075</v>
+      </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.0029887231066823006, 0.0038209580816328526, 0.005576295079663396, 0.005913882050663233, 0.007003712002187967, 0.007072546053677797, 0.007116793189197779, 0.007027168991044164, 0.006941369967535138, 0.006970863090828061, 0.006984954001381993, 0.007343241944909096, 0.00696934200823307, 0.006943793036043644, 0.006871154997497797, 0.00712171895429492, 0.007026576902717352, 0.0070084508042782545, 0.007387437159195542, 0.006866076961159706, 0.0068499629851430655, 0.006959687918424606, 0.006953779142349958, 0.00703484914265573, 0.006941709900274873, 0.006873688893392682, 0.006843543844297528, 0.006945986999198794, 0.00687367795035243, 0.006859166081994772, 0.006925375899299979, 0.0070337781216949224, 0.007063973927870393, 0.006855871062725782, 0.0067666578106582165, 0.006840989924967289, 0.00678229215554893, 0.006727458909153938, 0.006724654929712415, 0.0070517961867153645, 0.006820860086008906, 0.006752537097781897, 0.0067789561580866575, 0.006774580106139183, 0.006772476015612483, 0.006739577976986766, 0.006786006037145853, 0.006791725987568498, 0.006851956015452743, 0.006703103892505169]</t>
+          <t>[0.02097201067954302, 0.015452932100743055, 0.015390037558972836, 0.016653968952596188, 0.015314947348088026, 0.015069359913468361, 0.015067394822835922, 0.015041457023471594, 0.015032653231173754, 0.015010271221399307, 0.015000494197010994, 0.015287744347006083, 0.014977139886468649, 0.015005352906882763, 0.015136608853936195, 0.015121587086468935, 0.01495405612513423, 0.015000676270574331, 0.015148596838116646, 0.014923620037734509, 0.015020495746284723, 0.015033054165542126, 0.014948788098990917, 0.014969398733228445, 0.015080635901540518, 0.015023610088974237, 0.015168648213148117, 0.01497891265898943, 0.015085452701896429, 0.014935910236090422, 0.014939242042601109, 0.014880677219480276, 0.014920854941010475, 0.01486772671341896, 0.014930080156773329, 0.014880146365612745, 0.014920335728675127, 0.01495878305286169, 0.01483101211488247, 0.015079783741384745, 0.014867046382278204, 0.014945865143090487, 0.014979213010519743, 0.015112873166799545, 0.01498743612319231, 0.014940605964511633, 0.015003008302301168, 0.014961416833102703, 0.014923679642379284, 0.014908006880432367]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.006732714790850878</v>
+        <v>0.01517287218943238</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006872416473925114</v>
+        <v>0.01500058523379266</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007438293423637169</v>
+        <v>0.0008775127904515719</v>
       </c>
       <c r="V13" t="n">
-        <v>2929.32</v>
+        <v>3485.222222222222</v>
       </c>
       <c r="W13" t="n">
         <v>2857</v>
       </c>
       <c r="X13" t="n">
-        <v>124.4923471133705</v>
+        <v>2024.164068473855</v>
       </c>
       <c r="Y13" t="n">
         <v>2857</v>
       </c>
       <c r="Z13" t="n">
-        <v>3305</v>
+        <v>11950</v>
       </c>
       <c r="AA13" t="n">
         <v>64714</v>
@@ -1128,35 +1134,35 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.04633205011487007, 0.04553864197805524, 0.03724005096592009, 0.037228483939543366, 0.03288606321439147, 0.033389446791261435, 0.033398369094356894, 0.034270115895196795, 0.019400037126615644, 0.02576025784946978, 0.018974050180986524, 0.01894717989489436, 0.019044254906475544, 0.019127318868413568, 0.0189516160171479, 0.018860100070014596, 0.018759797792881727, 0.01891518197953701, 0.018919869093224406, 0.01896637910977006, 0.018789964960888028, 0.018828773172572255, 0.019007740076631308, 0.019064886029809713, 0.01897191582247615, 0.01916400482878089, 0.01901776483282447, 0.01891599385999143, 0.018814259907230735, 0.018991836812347174, 0.019044206012040377, 0.019025387009605765, 0.01900289487093687, 0.01933306804858148, 0.019255300983786583, 0.019217674853280187, 0.018830875167623162, 0.019092099042609334, 0.018898577895015478, 0.019006818998605013, 0.019198095193132758, 0.018889562925323844, 0.01910942397080362, 0.018934621941298246, 0.04186327010393143, 0.037436134880408645, 0.037774911150336266, 0.03390981815755367, 0.01910179085098207, 0.025883723981678486]</t>
+          <t>[0.019477063789963722, 0.01929685566574335, 0.01922828098759055, 0.019261430948972702, 0.01924843993037939, 0.04266451857984066, 0.039055480156093836, 0.039179954677820206, 0.03431658912450075, 0.0324359848164022, 0.033719634637236595, 0.0337264658883214, 0.034874693024903536, 0.019191105850040913, 0.01946854218840599, 0.01907455176115036, 0.019615030847489834, 0.019254000391811132, 0.019379406701773405, 0.01959693292155862, 0.01913894759491086, 0.019248181954026222, 0.01940018916502595, 0.01917944010347128, 0.019148671999573708, 0.01939226733520627, 0.01915798708796501, 0.02244684798642993, 0.04558271588757634, 0.038819256238639355, 0.03845441993325949, 0.03293585265055299, 0.05715841567143798, 0.04073320887982845, 0.03841208619996905, 0.03536861343309283, 0.04597541317343712, 0.0445676171220839, 0.03860444389283657, 0.0378711661323905, 0.034186623990535736, 0.01920332433655858, 0.02577301487326622, 0.01917499164119363, 0.021052449941635132, 0.019142463337630033, 0.019232407212257385, 0.019208461046218872, 0.01925527211278677, 0.019118217285722494]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.02374569322448224</v>
+        <v>0.02778015862219036</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01905457046814263</v>
+        <v>0.01960598188452423</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.008283112364913347</v>
+        <v>0.01037828387286827</v>
       </c>
       <c r="AI13" t="n">
-        <v>7126.805309734514</v>
+        <v>6973.852459016393</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7465</v>
+        <v>7297</v>
       </c>
       <c r="AK13" t="n">
-        <v>4086.499339852438</v>
+        <v>3662.607921682187</v>
       </c>
       <c r="AL13" t="n">
         <v>2857</v>
       </c>
       <c r="AM13" t="n">
-        <v>24321</v>
+        <v>17625</v>
       </c>
       <c r="AN13" t="n">
-        <v>25569</v>
+        <v>25601</v>
       </c>
       <c r="AO13" t="n">
         <v>2</v>
@@ -1169,32 +1175,32 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.01856433693319559, 0.018678218824788928, 0.018658979097381234, 0.018491739174351096, 0.018643445102497935, 0.0186305558308959, 0.02105135889723897, 0.04546833783388138, 0.03681865008547902, 0.036708055064082146, 0.03536526416428387, 0.034450525883585215, 0.03455021511763334, 0.034722591983154416, 0.04193944297730923, 0.04702332499437034, 0.04740007687360048, 0.0460005640052259, 0.041927315993234515, 0.0366987909656018, 0.018522333819419146, 0.03440492693334818, 0.018484316999092698, 0.018677236046642065, 0.018608883023262024, 0.018619288923218846, 0.018551016924902797, 0.018698006868362427, 0.0184929589740932, 0.01862466800957918, 0.018609744030982256, 0.01845103781670332, 0.018410737859085202, 0.018553381087258458, 0.018591966945677996, 0.01845203898847103, 0.01857748511247337, 0.01868179300799966, 0.018568262923508883, 0.018484557047486305, 0.018592777894809842, 0.01865837792865932, 0.018656666157767177, 0.018519419012591243, 0.018510547932237387, 0.018584786914288998, 0.01851746696047485, 0.018865076825022697, 0.018788452027365565, 0.03900437196716666]</t>
+          <t>[0.01893829833716154, 0.018839539028704166, 0.019093340262770653, 0.01880352571606636, 0.01884976588189602, 0.01985602220520377, 0.01900808187201619, 0.018762885127216578, 0.019126128870993853, 0.03935969481244683, 0.0491324570029974, 0.04557840805500746, 0.04439585981890559, 0.03745924215763807, 0.03592883003875613, 0.03580438485369086, 0.03334670700132847, 0.03392956918105483, 0.03376347105950117, 0.0337387640029192, 0.03387534664943814, 0.033266207203269005, 0.03417753987014294, 0.0332525260746479, 0.03311083419248462, 0.03498126193881035, 0.0349008128978312, 0.03789405291900039, 0.047364332247525454, 0.04712236113846302, 0.04518348816782236, 0.037114474922418594, 0.03724423982203007, 0.03485784912481904, 0.03323306608945131, 0.03412434086203575, 0.03313573123887181, 0.019084355793893337, 0.02697543427348137, 0.018816146068274975, 0.01870860392227769, 0.018754021730273962, 0.01872220356017351, 0.018704259302467108, 0.018844335805624723, 0.018866380210965872, 0.018861923832446337, 0.018886349629610777, 0.01891522202640772, 0.01885247929021716]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.02491108749527484</v>
+        <v>0.02943090312182903</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.01865005563013256</v>
+        <v>0.03324279608204961</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0100142086292458</v>
+        <v>0.009917476426473986</v>
       </c>
       <c r="AV13" t="n">
-        <v>6164.213675213675</v>
+        <v>6443.992366412213</v>
       </c>
       <c r="AW13" t="n">
-        <v>8305</v>
+        <v>8313</v>
       </c>
       <c r="AX13" t="n">
-        <v>2825.057936021904</v>
+        <v>2823.008819017215</v>
       </c>
       <c r="AY13" t="n">
         <v>2857</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9601</v>
+        <v>11433</v>
       </c>
       <c r="BA13" t="n">
         <v>15841</v>
@@ -1205,7 +1211,9 @@
       <c r="BC13" t="n">
         <v>1</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BD13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1222,71 +1230,73 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2.643571879947558, 2.6322074360214174, 2.626853639027104, 2.603069025091827, 2.651478921994567, 2.638219870859757, 2.622815683018416, 2.6518630771897733, 2.6314524540212005, 2.6200265060178936, 2.610910269897431, 2.620295732980594, 2.6322301039472222, 2.6072110519744456, 2.6270035228226334, 2.6688393680378795, 2.6061321469023824, 2.628259143093601, 2.6023116619326174, 2.623783236835152, 2.618303874041885, 2.6011759641114622, 2.6339279720559716, 2.6073728119954467, 2.6034023268148303, 2.629367287037894, 2.645485538057983, 2.6137534209992737, 2.6073935190215707, 2.6378255249001086, 2.6091774709057063, 2.5932772799860686, 2.607976997969672, 2.615413276012987, 2.6089037500787526, 2.639207463944331, 2.6393999489955604, 2.622010378865525, 2.613961358089, 2.593219710048288, 2.6251018668990582, 2.6128074729349464, 2.622113117016852, 2.633393630152568, 2.6134808419737965, 2.625363504048437, 2.6238684139680117, 2.6641817591153085, 2.6103122879285365, 2.617747585987672]</t>
+          <t>[2.608212804887444, 2.6454039863310754, 2.6295652673579752, 2.6357914260588586, 2.652898235246539, 2.649468393996358, 2.6348142893984914, 2.6339261517859995, 2.6314737438224256, 2.5911428569816053, 2.6281537381000817, 2.660294142086059, 2.6669608699157834, 2.6194619978778064, 2.628320604097098, 2.62821155320853, 2.6142253861762583, 2.647112318780273, 2.630131149664521, 2.6465103295631707, 2.635183012112975, 2.6400320790708065, 2.6412483509629965, 2.6316685788333416, 2.5994524038396776, 2.7187497951090336, 2.612368864007294, 2.609614434186369, 2.627912716008723, 2.6943249530158937, 2.6366862170398235, 2.6851944043301046, 2.6421254291199148, 2.607867379207164, 2.6504356651566923, 2.6073145139962435, 2.6186418547295034, 2.6148434430360794, 2.600780200213194, 2.629161812365055, 2.6340325102210045, 2.6337403948418796, 2.6234503192827106, 2.640705458819866, 2.6428657630458474, 2.68252519890666, 2.602474597748369, 2.6492466358467937, 2.6088986420072615, 2.6048719682730734]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62274922171142</v>
+        <v>2.634169936813414</v>
       </c>
       <c r="G14" t="n">
-        <v>2.622061747941189</v>
+        <v>2.632704486837611</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01679183142377792</v>
+        <v>0.0250201031634674</v>
       </c>
       <c r="I14" t="n">
-        <v>6316154.61332656</v>
+        <v>6303858.671838111</v>
       </c>
       <c r="J14" t="n">
-        <v>6776459</v>
+        <v>6776359</v>
       </c>
       <c r="K14" t="n">
-        <v>1543738.266388921</v>
+        <v>1559844.319988775</v>
       </c>
       <c r="L14" t="n">
         <v>2857</v>
       </c>
       <c r="M14" t="n">
-        <v>10118355</v>
+        <v>11397021</v>
       </c>
       <c r="N14" t="n">
-        <v>11451697</v>
+        <v>11451641</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>4825</v>
+      </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.0029778468888252974, 0.0028269109316170216, 0.005419943016022444, 0.005826691165566444, 0.005534712923690677, 0.0067030820064246655, 0.007026528008282185, 0.007126015145331621, 0.0070321750827133656, 0.0069003780372440815, 0.006970752961933613, 0.007041818927973509, 0.0070317150093615055, 0.007073216838762164, 0.0076218778267502785, 0.007600646000355482, 0.007266897009685636, 0.007014038041234016, 0.007302029058337212, 0.0069714339915663, 0.006963713094592094, 0.006872307043522596, 0.006927770096808672, 0.007020888850092888, 0.006956751924008131, 0.006922820815816522, 0.007117142900824547, 0.006867388961836696, 0.006874429993331432, 0.006951433839276433, 0.006922289961948991, 0.007037022849544883, 0.007002931088209152, 0.007147517986595631, 0.007564110914245248, 0.007200618041679263, 0.006782202050089836, 0.0067708848509937525, 0.0066947308368980885, 0.007011986104771495, 0.0068083510268479586, 0.006894739111885428, 0.006839226931333542, 0.006803242024034262, 0.006878354819491506, 0.007068110164254904, 0.006844914983958006, 0.006931664887815714, 0.007312384899705648, 0.006751403911039233]</t>
+          <t>[0.02064813720062375, 0.02089968277141452, 0.02035040082409978, 0.020523179788142443, 0.020464252214878798, 0.02045594807714224, 0.02027701074257493, 0.02051828196272254, 0.020399292930960655, 0.02386325690895319, 0.02035263506695628, 0.02032369188964367, 0.020303260069340467, 0.020289140287786722, 0.020307197235524654, 0.020436881110072136, 0.020310663152486086, 0.020520395133644342, 0.0204610051587224, 0.02028397098183632, 0.020572605077177286, 0.020291192922741175, 0.020334918051958084, 0.020481346640735865, 0.020419524051249027, 0.020339235197752714, 0.02031887276098132, 0.020182520151138306, 0.020467605907469988, 0.022055170964449644, 0.020439986139535904, 0.02018762705847621, 0.020291272085160017, 0.020596700254827738, 0.02024375321343541, 0.020388838835060596, 0.02024055691435933, 0.02021363563835621, 0.02020992198958993, 0.04005014896392822, 0.03962009493261576, 0.033266386948525906, 0.03223616490140557, 0.03426190698519349, 0.034430470783263445, 0.041117734741419554, 0.047628289088606834, 0.039882396813482046, 0.038394500967115164, 0.03650045674294233]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.006760200876742601</v>
+        <v>0.02435304238460958</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006954092881642282</v>
+        <v>0.02044796710833907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008893303932719464</v>
+        <v>0.007582962506980773</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.32</v>
+        <v>6462.410714285715</v>
       </c>
       <c r="W14" t="n">
-        <v>2857</v>
+        <v>9118</v>
       </c>
       <c r="X14" t="n">
-        <v>124.4923471133705</v>
+        <v>3195.561086667396</v>
       </c>
       <c r="Y14" t="n">
         <v>2857</v>
       </c>
       <c r="Z14" t="n">
-        <v>3305</v>
+        <v>9998</v>
       </c>
       <c r="AA14" t="n">
         <v>64714</v>
@@ -1302,32 +1312,32 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.06324540101923048, 0.05687880306504667, 0.03810363984666765, 0.05102790496312082, 0.031184946885332465, 0.03566993004642427, 0.03146424307487905, 0.049017254961654544, 0.06777792703360319, 0.04925025487318635, 0.03140511503443122, 0.031313869170844555, 0.031111886026337743, 0.0312624319922179, 0.0313362421002239, 0.031263434095308185, 0.03121753502637148, 0.03131216601468623, 0.031418554950505495, 0.031700175954028964, 0.03124516597017646, 0.031301310984417796, 0.03114955290220678, 0.031157835153862834, 0.031293136067688465, 0.031228811014443636, 0.031288600992411375, 0.031163493869826198, 0.03122906107455492, 0.031227879924699664, 0.031285286182537675, 0.03126016794703901, 0.03117107506841421, 0.03126565692946315, 0.03147351904772222, 0.03160773008130491, 0.03174677607603371, 0.03131433995440602, 0.03136363299563527, 0.031268130987882614, 0.031418554950505495, 0.03156954003497958, 0.03132242220453918, 0.0315331369638443, 0.03124469588510692, 0.04748120694421232, 0.05917549110017717, 0.03150789998471737, 0.031161030055955052, 0.031243713106960058]</t>
+          <t>[0.031685883179306984, 0.03165439609438181, 0.031952263321727514, 0.03180300910025835, 0.031597881112247705, 0.03169886069372296, 0.03170455992221832, 0.03169649885967374, 0.031968276016414165, 0.03187423478811979, 0.032016046810895205, 0.03167264303192496, 0.0316398236900568, 0.03156531183049083, 0.03205550601705909, 0.03174971928820014, 0.031814385671168566, 0.03147758077830076, 0.031765304040163755, 0.03178627323359251, 0.0316192926838994, 0.03157513914629817, 0.03151329420506954, 0.035827310755848885, 0.0317492987960577, 0.031555987894535065, 0.03177667921409011, 0.03166569164022803, 0.03171058977022767, 0.031701335683465004, 0.03351211501285434, 0.03187101008370519, 0.031597582157701254, 0.0319075440056622, 0.03652762807905674, 0.06331791589036584, 0.03289424208924174, 0.03208336699754, 0.03161504631862044, 0.03215395426377654, 0.03173239203169942, 0.03171521797776222, 0.031810710206627846, 0.03189845196902752, 0.031775948125869036, 0.03171961335465312, 0.031752973329275846, 0.03178988816216588, 0.047354800160974264, 0.06257585529237986]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.03541321141179651</v>
+        <v>0.03354958665557205</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.03131410456262529</v>
+        <v>0.0317591386847198</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.009356840201836822</v>
+        <v>0.006504631164297386</v>
       </c>
       <c r="AI14" t="n">
-        <v>8059.7</v>
+        <v>8169.670967741936</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10501</v>
+        <v>10617</v>
       </c>
       <c r="AK14" t="n">
-        <v>3569.220524808881</v>
+        <v>3665.361733552095</v>
       </c>
       <c r="AL14" t="n">
         <v>2857</v>
       </c>
       <c r="AM14" t="n">
-        <v>11417</v>
+        <v>11281</v>
       </c>
       <c r="AN14" t="n">
         <v>25569</v>
@@ -1343,32 +1353,32 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.03107686387374997, 0.0310670780017972, 0.030922061996534467, 0.03072649985551834, 0.030784056056290865, 0.030781280947849154, 0.030918447067961097, 0.03093531192280352, 0.03077780595049262, 0.03094149101525545, 0.030704556964337826, 0.030749293975532055, 0.031060107983648777, 0.03076645894907415, 0.030965978978201747, 0.030913257971405983, 0.031051734928041697, 0.03084503603167832, 0.030903744045645, 0.030774611048400402, 0.05380762601271272, 0.04585426184348762, 0.030879488214850426, 0.03184159705415368, 0.030707299010828137, 0.03085876884870231, 0.03080767998471856, 0.03068671002984047, 0.030582782812416553, 0.030766339041292667, 0.030884244944900274, 0.030807139817625284, 0.030644447077065706, 0.030767721123993397, 0.030698447953909636, 0.030602012993767858, 0.030470746103674173, 0.030724867014214396, 0.03091785591095686, 0.03074184199795127, 0.030553600983694196, 0.030946399085223675, 0.030732729006558657, 0.03086734004318714, 0.03040227387100458, 0.030992266023531556, 0.031011877115815878, 0.03081507096067071, 0.030795272905379534, 0.030801441986113787]</t>
+          <t>[0.0528082400560379, 0.07230624509975314, 0.0578506039455533, 0.03144352091476321, 0.03131209407001734, 0.031349409837275743, 0.031184814870357513, 0.03138592420145869, 0.05289928615093231, 0.03111108299344778, 0.03178428113460541, 0.03132363082841039, 0.03132765693590045, 0.031137692742049694, 0.03137797303497791, 0.031206104904413223, 0.031213175039738417, 0.03498669108375907, 0.031390340998768806, 0.03677341714501381, 0.04719950584694743, 0.03132895892485976, 0.031501777935773134, 0.03478172514587641, 0.030986587051302195, 0.03113450901582837, 0.03104752814397216, 0.03094128891825676, 0.03134821821004152, 0.031489660032093525, 0.031054597813636065, 0.03135902341455221, 0.0327795990742743, 0.03205260308459401, 0.05780502688139677, 0.03133107302710414, 0.03127412684261799, 0.03096030792221427, 0.03098280169069767, 0.031156741082668304, 0.03126601502299309, 0.031324392184615135, 0.031169251073151827, 0.031005304772406816, 0.03545821737498045, 0.031030863989144564, 0.031121629290282726, 0.031098884996026754, 0.03110176930204034, 0.030966286081820726]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.03159271654672921</v>
+        <v>0.03468460920266807</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.03080740990117192</v>
+        <v>0.03132602456025779</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.003851027662897595</v>
+        <v>0.008777643134527006</v>
       </c>
       <c r="AV14" t="n">
-        <v>6470.92</v>
+        <v>6616.796178343949</v>
       </c>
       <c r="AW14" t="n">
-        <v>8045</v>
+        <v>8401</v>
       </c>
       <c r="AX14" t="n">
-        <v>2603.750716219732</v>
+        <v>2558.078116574653</v>
       </c>
       <c r="AY14" t="n">
         <v>2857</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10129</v>
+        <v>9017</v>
       </c>
       <c r="BA14" t="n">
         <v>15841</v>
@@ -1379,7 +1389,9 @@
       <c r="BC14" t="n">
         <v>0.9369747899159664</v>
       </c>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BD14" t="n">
+        <v>0.8109243697478992</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1396,71 +1408,73 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.6362708520609885, 2.620937648927793, 2.5984645599965006, 2.6143594060558826, 2.635500896954909, 2.6020363280549645, 2.6152079191524535, 2.626163824927062, 2.611723039066419, 2.6040393160656095, 2.6045950341504067, 2.6565023220609874, 2.6334219849668443, 2.586011421866715, 2.632269936846569, 2.6047223929781467, 2.616548150079325, 2.625033568125218, 2.6231265901587903, 2.6132105360738933, 2.638297251891345, 2.622695578960702, 2.611305359052494, 2.6068055499345064, 2.6288706839550287, 2.604214356979355, 2.605199280194938, 2.6118286189157516, 2.6331600728444755, 2.608985278988257, 2.6164300080854446, 2.6323284818790853, 2.620012897066772, 2.6140177820343524, 2.6380428168922663, 2.636903690872714, 2.610383525956422, 2.6161695530172437, 2.6331324989441782, 2.634259215090424, 2.631305520888418, 2.6281182980164886, 2.6554568340070546, 2.628759924089536, 2.5922252908349037, 2.6291249860078096, 2.640705907018855, 2.6004803099203855, 2.6267184880562127, 2.640040964819491]</t>
+          <t>[2.614038319326937, 2.612535542342812, 2.631186311133206, 2.609120524954051, 2.6570421028882265, 2.6092539560049772, 2.612120937090367, 2.642172886058688, 2.5922755138017237, 2.6171091767027974, 2.613960054703057, 2.631315145175904, 2.604776205960661, 2.61437262641266, 2.6603586077690125, 2.6765140132047236, 2.621742717921734, 2.6077324328944087, 2.634771174751222, 2.619603779166937, 2.619220918044448, 2.6734891231171787, 2.6641341489739716, 2.5936369602568448, 2.6288024708628654, 2.778543269261718, 2.6506818430498242, 2.6956047350540757, 2.7359309187158942, 2.6609654929488897, 2.677570241037756, 2.6137762647122145, 2.656660586129874, 2.647480058018118, 2.6168432268314064, 2.6508111357688904, 2.6360428989864886, 2.6330368211492896, 2.595589638222009, 2.6316876551136374, 2.6438977969810367, 2.620158494915813, 2.6700570727698505, 2.6380043919198215, 2.635900054126978, 2.6101066768169403, 2.6391130830161273, 2.627317784819752, 2.6394903790205717, 2.672527748160064]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.621122495075688</v>
+        <v>2.638781678341329</v>
       </c>
       <c r="G15" t="n">
-        <v>2.621816613944247</v>
+        <v>2.632362238131464</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01529382807254652</v>
+        <v>0.03455620901871675</v>
       </c>
       <c r="I15" t="n">
-        <v>6319269.785696149</v>
+        <v>6304611.324613055</v>
       </c>
       <c r="J15" t="n">
         <v>6776587</v>
       </c>
       <c r="K15" t="n">
-        <v>1542539.114775572</v>
+        <v>1561561.091033754</v>
       </c>
       <c r="L15" t="n">
         <v>2857</v>
       </c>
       <c r="M15" t="n">
-        <v>10079147</v>
+        <v>10482141</v>
       </c>
       <c r="N15" t="n">
-        <v>11451569</v>
+        <v>11451537</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>6225</v>
+      </c>
       <c r="Q15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.0029850690625607967, 0.0028697338420897722, 0.005502965999767184, 0.005492230178788304, 0.005550646921619773, 0.00661581102758646, 0.006976352073252201, 0.006979356054216623, 0.007040227064862847, 0.007048479048535228, 0.007061739917844534, 0.007002561120316386, 0.006967547815293074, 0.007002551108598709, 0.00712386192753911, 0.006948849884793162, 0.006970260990783572, 0.006870302138850093, 0.007302368991076946, 0.006920437095686793, 0.00695416796952486, 0.0069253649562597275, 0.007068258943036199, 0.006949170958250761, 0.00700812810100615, 0.006854689214378595, 0.006879576947540045, 0.006887108087539673, 0.006870141951367259, 0.006936521967872977, 0.007044333033263683, 0.006919967010617256, 0.006907308008521795, 0.006845918018370867, 0.006820229114964604, 0.0067304931581020355, 0.006791213992983103, 0.006739126052707434, 0.006917254067957401, 0.007044593105092645, 0.0067265089601278305, 0.006710794055834413, 0.006853937171399593, 0.006824583979323506, 0.0067852449137717485, 0.00682649714872241, 0.006943603046238422, 0.006944343913346529, 0.006763753015547991, 0.006730663124471903]</t>
+          <t>[0.03511413326486945, 0.02279878593981266, 0.022696200758218765, 0.022704013157635927, 0.022628449834883213, 0.022782871965318918, 0.022846086882054806, 0.02278127893805504, 0.022832254879176617, 0.022935619577765465, 0.02268866077065468, 0.0225725662894547, 0.022603231947869062, 0.022649231366813183, 0.022890100721269846, 0.022527168970555067, 0.022966465912759304, 0.02266858099028468, 0.0228609680198133, 0.02259908616542816, 0.02292815875262022, 0.022675470914691687, 0.022774879354983568, 0.022478667087852955, 0.022664302960038185, 0.022374319843947887, 0.0225200979039073, 0.02234617806971073, 0.02236045990139246, 0.022541010286659002, 0.022656443994492292, 0.023413135204464197, 0.022692325990647078, 0.02260867226868868, 0.022502031177282333, 0.02253161510452628, 0.02249219734221697, 0.02268307190388441, 0.022578325122594833, 0.022631755098700523, 0.022462171968072653, 0.022347130812704563, 0.02257113391533494, 0.022423863876610994, 0.02241115504875779, 0.022649522870779037, 0.02287397813051939, 0.02253745310008526, 0.022473578341305256, 0.02249970892444253]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.00666869692504406</v>
+        <v>0.02289697143249214</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006912281038239598</v>
+        <v>0.02264049323275685</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0008495906839391027</v>
+        <v>0.001773765691226423</v>
       </c>
       <c r="V15" t="n">
-        <v>2929.32</v>
+        <v>6227.128712871287</v>
       </c>
       <c r="W15" t="n">
-        <v>2857</v>
+        <v>8318</v>
       </c>
       <c r="X15" t="n">
-        <v>124.4923471133705</v>
+        <v>3296.654014795506</v>
       </c>
       <c r="Y15" t="n">
         <v>2857</v>
       </c>
       <c r="Z15" t="n">
-        <v>3305</v>
+        <v>10214</v>
       </c>
       <c r="AA15" t="n">
         <v>64714</v>
@@ -1476,35 +1490,35 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.07664850889705122, 0.04337456892244518, 0.04327038093470037, 0.04292848100885749, 0.04319330817088485, 0.04299541004002094, 0.042789392871782184, 0.04289542092010379, 0.04318704712204635, 0.04288481501862407, 0.04320955206640065, 0.042683214182034135, 0.04287382820621133, 0.0430496612098068, 0.04314831900410354, 0.04352720710448921, 0.04387361486442387, 0.04333424801006913, 0.043089562095701694, 0.043165375012904406, 0.043094889959320426, 0.04306943202391267, 0.04305098298937082, 0.04314560582861304, 0.042859548004344106, 0.0428537679836154, 0.04308920097537339, 0.04356000619009137, 0.043137673987075686, 0.04299503890797496, 0.04322355194017291, 0.04352646600455046, 0.043441948015242815, 0.043230232084169984, 0.04298459505662322, 0.043416230008006096, 0.043095319997519255, 0.04359848308376968, 0.06647750595584512, 0.04356018593534827, 0.04284187103621662, 0.043498933082446456, 0.042841029120609164, 0.042944325134158134, 0.04324497492052615, 0.04316197009757161, 0.043050544103607535, 0.04312348202802241, 0.04303982714191079, 0.04297287808731198]</t>
+          <t>[0.04361674701794982, 0.043273673858493567, 0.04361152835190296, 0.0433971188031137, 0.043496126774698496, 0.043334032874554396, 0.043279984034597874, 0.04348202422261238, 0.04332172637805343, 0.043723996728658676, 0.04358141403645277, 0.04325831029564142, 0.044687768910080194, 0.04338694270700216, 0.04352820431813598, 0.04791782330721617, 0.05530250398442149, 0.04385749623179436, 0.044120119884610176, 0.04377593472599983, 0.04395773680880666, 0.04542445158585906, 0.04397406196221709, 0.04333026893436909, 0.043673673179000616, 0.043578790966421366, 0.04410333465784788, 0.04730740003287792, 0.05353205278515816, 0.05323523981496692, 0.043548583984375, 0.043946719728410244, 0.04343559592962265, 0.043779519852250814, 0.04412836208939552, 0.04357548523694277, 0.04353839997202158, 0.04353338200598955, 0.04363257996737957, 0.043604758102446795, 0.04382426803931594, 0.047108911909163, 0.0436971178278327, 0.045152684673666954, 0.04348521959036589, 0.04363721702247858, 0.043695786036551, 0.04354612994939089, 0.04363795882090926, 0.04363436298444867]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.04428504830691964</v>
+        <v>0.04456427063792944</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04313057800754905</v>
+        <v>0.04363579000346363</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.005722919044175657</v>
+        <v>0.002617441556067792</v>
       </c>
       <c r="AI15" t="n">
-        <v>8719.871794871795</v>
+        <v>8753</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11321</v>
+        <v>11333</v>
       </c>
       <c r="AK15" t="n">
-        <v>4025.809630801909</v>
+        <v>4032.249352248652</v>
       </c>
       <c r="AL15" t="n">
         <v>2857</v>
       </c>
       <c r="AM15" t="n">
-        <v>13017</v>
+        <v>12209</v>
       </c>
       <c r="AN15" t="n">
-        <v>26929</v>
+        <v>26753</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -1517,32 +1531,32 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.042799208080396056, 0.04240255313925445, 0.042313440004363656, 0.05091472319327295, 0.04284819099120796, 0.04221718502230942, 0.04229910811409354, 0.04239077609963715, 0.04238690994679928, 0.04232604894787073, 0.04273570189252496, 0.04305637115612626, 0.042632006108760834, 0.04258894198574126, 0.04228024021722376, 0.04254641896113753, 0.04278330318629742, 0.04224495682865381, 0.04222641000524163, 0.042347972048446536, 0.042358517879620194, 0.042586289113387465, 0.042332467855885625, 0.0426268489100039, 0.04228196386247873, 0.04232943383976817, 0.042415702948346734, 0.042150497902184725, 0.042189013911411166, 0.04249873710796237, 0.042050987016409636, 0.04217459191568196, 0.04256884194910526, 0.04243527306243777, 0.04328465322032571, 0.042855933075770736, 0.04253910714760423, 0.04249838716350496, 0.04258045996539295, 0.04242935520596802, 0.042325998190790415, 0.042101694038137794, 0.042363476008176804, 0.04192782286554575, 0.04204317508265376, 0.04190536984242499, 0.042080690851435065, 0.04258625884540379, 0.042300721164792776, 0.04234331496991217]</t>
+          <t>[0.04289225162938237, 0.04296569200232625, 0.04301065905019641, 0.042828848119825125, 0.04302372969686985, 0.042670079972594976, 0.043119211215525866, 0.043001916725188494, 0.04280194826424122, 0.04301593825221062, 0.04305828223004937, 0.04275840288028121, 0.042866203002631664, 0.04301655013114214, 0.042769597843289375, 0.04302807617932558, 0.04343970213085413, 0.042979913763701916, 0.04290017485618591, 0.04313538782298565, 0.0426844316534698, 0.042651612777262926, 0.043073403649032116, 0.04291998269036412, 0.042766083031892776, 0.04301503719761968, 0.0431993817910552, 0.043105082120746374, 0.04268889781087637, 0.04279563715681434, 0.04274749616160989, 0.04289314430207014, 0.04301350377500057, 0.042749148327857256, 0.042841266840696335, 0.04275207407772541, 0.04301037918776274, 0.042775309178978205, 0.04277397505939007, 0.042647837195545435, 0.04279471794143319, 0.042653665877878666, 0.04303758917376399, 0.04279301408678293, 0.04351338092237711, 0.04324660310521722, 0.043484337627887726, 0.04320575203746557, 0.04294241825118661, 0.042832423001527786]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.04259012101683766</v>
+        <v>0.04293780303560198</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04237519297748804</v>
+        <v>0.04291007877327502</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.001231448374850296</v>
+        <v>0.0002087103599340945</v>
       </c>
       <c r="AV15" t="n">
-        <v>6878.562913907284</v>
+        <v>7079.666666666667</v>
       </c>
       <c r="AW15" t="n">
-        <v>7961</v>
+        <v>9225</v>
       </c>
       <c r="AX15" t="n">
-        <v>2906.914826354931</v>
+        <v>2973.1006178931</v>
       </c>
       <c r="AY15" t="n">
         <v>2857</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11481</v>
+        <v>9737</v>
       </c>
       <c r="BA15" t="n">
         <v>15841</v>
@@ -1553,7 +1567,9 @@
       <c r="BC15" t="n">
         <v>0.9026845637583892</v>
       </c>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BD15" t="n">
+        <v>0.8355704697986577</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1570,71 +1586,73 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2.6367751921061426, 2.6363072299864143, 2.6453622200060636, 2.6682241649832577, 2.649973546154797, 2.6476350950542837, 2.6732430199626833, 2.66710382909514, 2.6412002169527113, 2.6397900239098817, 2.674424970988184, 2.646312464028597, 2.6416302921716124, 2.6638322002254426, 2.6751662420574576, 2.65529354615137, 2.6824062841478735, 2.6856755558401346, 2.653618454001844, 2.663453983142972, 2.6976306110154837, 2.6362340201158077, 2.6461360971443355, 2.634021314093843, 2.6622725951019675, 2.651569112902507, 2.652720803860575, 2.6953762129414827, 2.6705906968563795, 2.6595883581321687, 2.636458999942988, 2.6544158519245684, 2.65599428396672, 2.6692629889585078, 2.7223480800166726, 2.650376491015777, 2.655759895918891, 2.65903656790033, 2.6775972850155085, 2.659447937970981, 2.6756786389742047, 2.699026271002367, 2.6394785568118095, 2.6818979440722615, 2.7429253589361906, 2.6728351849596947, 2.6493745411280543, 2.6479025359731168, 2.6820474278647453, 2.654124926077202]</t>
+          <t>[2.6551247877068818, 2.6451128078624606, 2.6802553250454366, 2.7131860139779747, 2.648033000063151, 2.6497904621064663, 2.6829332755878568, 2.680838713888079, 2.735826024785638, 2.804482351988554, 2.821667340118438, 2.6648484617471695, 2.7034147698432207, 2.6723624248988926, 2.6790206599980593, 2.66605695290491, 2.6631841347552836, 2.6839511720463634, 2.6714721089228988, 2.661903752014041, 2.6661487738601863, 2.630440623033792, 2.65009193867445, 2.643089020624757, 2.682333647273481, 2.651717734988779, 2.664068607147783, 2.6886544469743967, 2.6735845590010285, 2.6671580229885876, 2.6859831740148365, 2.64607055997476, 2.647236045449972, 2.6940391096286476, 2.722615333274007, 2.710291371680796, 2.694413603283465, 2.6698529929853976, 2.702515427954495, 2.678072823677212, 2.6670113541185856, 2.6897069248370826, 2.660021536052227, 2.6425624303519726, 2.693635104689747, 2.6699927281588316, 2.6772348252125084, 2.663881585933268, 2.706295724026859, 2.7145448275841773]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66279116243124</v>
+        <v>2.680734587954357</v>
       </c>
       <c r="G16" t="n">
-        <v>2.657515425933525</v>
+        <v>2.672973491949961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02225806024343828</v>
+        <v>0.03557854324760761</v>
       </c>
       <c r="I16" t="n">
-        <v>6319929.65150129</v>
+        <v>6314130.588648962</v>
       </c>
       <c r="J16" t="n">
-        <v>6830027</v>
+        <v>6829987</v>
       </c>
       <c r="K16" t="n">
-        <v>1552838.525455791</v>
+        <v>1560771.343634517</v>
       </c>
       <c r="L16" t="n">
         <v>2857</v>
       </c>
       <c r="M16" t="n">
-        <v>10686317</v>
+        <v>11451253</v>
       </c>
       <c r="N16" t="n">
-        <v>11451537</v>
+        <v>11451729</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>6225</v>
+      </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.0030250379350036383, 0.002850716933608055, 0.005419631022959948, 0.005559339886531234, 0.005506951827555895, 0.006773826899006963, 0.00712801911868155, 0.007053015986457467, 0.0070554090198129416, 0.0070160808973014355, 0.007116119842976332, 0.0071438809391111135, 0.007268207147717476, 0.007351242005825043, 0.007012726040557027, 0.007022238103672862, 0.00701043289154768, 0.007271972950547934, 0.007529048016294837, 0.00695981620810926, 0.006919285980984569, 0.007158895023167133, 0.007011092966422439, 0.007094196975231171, 0.0069933978375047445, 0.007018744945526123, 0.007012806134298444, 0.0069281901232898235, 0.0069306830409914255, 0.007049390813335776, 0.006940055871382356, 0.0068805471528321505, 0.006850433070212603, 0.0068745489697903395, 0.006811934988945723, 0.006893547950312495, 0.006920438027009368, 0.006818414898589253, 0.006871253019198775, 0.007158343913033605, 0.0068351998925209045, 0.00688515417277813, 0.0068052459973841906, 0.006859336979687214, 0.006784985074773431, 0.0068494598381221294, 0.006809933111071587, 0.00688443286344409, 0.006933938013389707, 0.006849160185083747]</t>
+          <t>[0.028539786580950022, 0.028468217700719833, 0.028382861986756325, 0.0281421709805727, 0.028187720105051994, 0.028064374811947346, 0.028122072108089924, 0.027988281100988388, 0.028143252711743116, 0.028085116762667894, 0.02805176703259349, 0.02807772485539317, 0.027973770163953304, 0.028013008181005716, 0.02794093219563365, 0.027946368791162968, 0.027906418778002262, 0.028173538390547037, 0.028231655713170767, 0.028161561116576195, 0.02786209201440215, 0.02806693920865655, 0.02800772013142705, 0.028028291184455156, 0.028098214883357286, 0.02806350402534008, 0.02819451130926609, 0.027971348259598017, 0.028170553036034107, 0.03781935106962919, 0.04027835186570883, 0.04108989704400301, 0.027979768812656403, 0.02789942780509591, 0.027746089734137058, 0.027825978118926287, 0.02792157093062997, 0.028010244015604258, 0.02788101090118289, 0.027885145973414183, 0.027750875800848007, 0.02777561265975237, 0.02791222697123885, 0.027959449216723442, 0.02781833615154028, 0.027984996791929007, 0.027664367109537125, 0.02778868330642581, 0.027744065038859844, 0.027860529255121946]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.006734135230071842</v>
+        <v>0.02871319505386054</v>
       </c>
       <c r="T16" t="n">
-        <v>0.006929436582140625</v>
+        <v>0.02800898207351565</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0008739453388582194</v>
+        <v>0.002837887626088467</v>
       </c>
       <c r="V16" t="n">
-        <v>2929.32</v>
+        <v>6393.398058252427</v>
       </c>
       <c r="W16" t="n">
-        <v>2857</v>
+        <v>8558</v>
       </c>
       <c r="X16" t="n">
-        <v>124.4923471133705</v>
+        <v>3392.134241527775</v>
       </c>
       <c r="Y16" t="n">
         <v>2857</v>
       </c>
       <c r="Z16" t="n">
-        <v>3305</v>
+        <v>10366</v>
       </c>
       <c r="AA16" t="n">
         <v>64714</v>
@@ -1650,32 +1668,32 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.09076559403911233, 0.05767530016601086, 0.057543312199413776, 0.05751923588104546, 0.057799556059762836, 0.057530672987923026, 0.05762754799798131, 0.057294070022180676, 0.057787647005170584, 0.05789670115336776, 0.058367806021124125, 0.05786291090771556, 0.057759496150538325, 0.05770372389815748, 0.05737809487618506, 0.0575200270395726, 0.0579050830565393, 0.05766582605428994, 0.0573057068977505, 0.05703943804837763, 0.05722009902819991, 0.057460717856884, 0.057028440991416574, 0.05784594500437379, 0.05751658184453845, 0.07634751498699188, 0.07345431507565081, 0.05766720790416002, 0.05768219009041786, 0.05757875484414399, 0.05744901089929044, 0.05746602709405124, 0.05740248109214008, 0.05791033199056983, 0.05790684698149562, 0.05763993598520756, 0.05734315398149192, 0.05758005799725652, 0.05740581499412656, 0.05769919604063034, 0.058582196943461895, 0.057759375078603625, 0.05751636205241084, 0.058069922029972076, 0.057795078959316015, 0.05818597390316427, 0.057873555924743414, 0.05834149708971381, 0.05810398096218705, 0.05769348796457052]</t>
+          <t>[0.05816447688266635, 0.05796045204624534, 0.058481340296566486, 0.05814014980569482, 0.06070782197639346, 0.059919011779129505, 0.05950756696984172, 0.0580595089122653, 0.06239003920927644, 0.06894228374585509, 0.05796346627175808, 0.058121844194829464, 0.0611475701443851, 0.05811343900859356, 0.05791977979242802, 0.05993651784956455, 0.05778792314231396, 0.059383440762758255, 0.058262061793357134, 0.058645075652748346, 0.05824535712599754, 0.05805760668590665, 0.05784791335463524, 0.05779541516676545, 0.05838298285380006, 0.05792839266359806, 0.06274382909759879, 0.05801274813711643, 0.058117767330259085, 0.05818042065948248, 0.06771088112145662, 0.05783974099904299, 0.05799162806943059, 0.05820483714342117, 0.058070345781743526, 0.05801051715388894, 0.05881680315360427, 0.05910289008170366, 0.0582101852633059, 0.057865839917212725, 0.05792886298149824, 0.05804241495206952, 0.05808048089966178, 0.05815286003053188, 0.05813137721270323, 0.05820710025727749, 0.05809985939413309, 0.058111016638576984, 0.058032489847391844, 0.058286970015615225]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.059029476121068</v>
+        <v>0.05895526608452201</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05767874512821436</v>
+        <v>0.05813576350919902</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.005724247678302168</v>
+        <v>0.002224355119786563</v>
       </c>
       <c r="AI16" t="n">
-        <v>9272.687804878049</v>
+        <v>9323.078431372549</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11145</v>
+        <v>11313</v>
       </c>
       <c r="AK16" t="n">
-        <v>3650.647460718248</v>
+        <v>3668.493522262545</v>
       </c>
       <c r="AL16" t="n">
         <v>2857</v>
       </c>
       <c r="AM16" t="n">
-        <v>12913</v>
+        <v>12209</v>
       </c>
       <c r="AN16" t="n">
         <v>26369</v>
@@ -1691,32 +1709,32 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.0565136109944433, 0.0573596169706434, 0.05698784999549389, 0.057039557956159115, 0.056724646128714085, 0.05680837295949459, 0.056540251011028886, 0.05667559499852359, 0.05648634093813598, 0.05659221904352307, 0.056575603783130646, 0.05664965393953025, 0.056655703810974956, 0.05668472684919834, 0.05662948498502374, 0.0563594289124012, 0.05662351590581238, 0.056823846185579896, 0.05646322714164853, 0.056823995895683765, 0.05671493289992213, 0.05734525597654283, 0.05705814505927265, 0.05735572101548314, 0.057075803168118, 0.05697572301141918, 0.05677103693597019, 0.05706745991483331, 0.056969743920490146, 0.05692614894360304, 0.05736221116967499, 0.0578977030236274, 0.05752114998176694, 0.0568552240729332, 0.05677976901642978, 0.057294310070574284, 0.057417724980041385, 0.05773535091429949, 0.05724935210309923, 0.057261610170826316, 0.05722532607614994, 0.0571259381249547, 0.0569046949967742, 0.057112687965855, 0.05698552681133151, 0.057522050803527236, 0.05698022898286581, 0.056989945005625486, 0.05659752688370645, 0.056773379910737276]</t>
+          <t>[0.05767079908400774, 0.05748853599652648, 0.057397219352424145, 0.05735965119674802, 0.05753635615110397, 0.05739648686721921, 0.05723954224959016, 0.058335762936621904, 0.06552829500287771, 0.05700660403817892, 0.06108053121715784, 0.05694094626232982, 0.0581918079406023, 0.05704978760331869, 0.058901648968458176, 0.06859411299228668, 0.05712054390460253, 0.05725458497181535, 0.05719284201040864, 0.058210835326462984, 0.0572696584276855, 0.057548395823687315, 0.05705386493355036, 0.05687926197424531, 0.05710988910868764, 0.057549295015633106, 0.05715265404433012, 0.056858181953430176, 0.05696834670379758, 0.057496156077831984, 0.05705186212435365, 0.05685894284397364, 0.05715059023350477, 0.05694309901446104, 0.05702602304518223, 0.057418160140514374, 0.05751545587554574, 0.05705165211111307, 0.05696131614968181, 0.056759774684906006, 0.05715697864070535, 0.056996158324182034, 0.05690060602501035, 0.056931321043521166, 0.05700499098747969, 0.05694033484905958, 0.05680528189986944, 0.0570014463737607, 0.05713595822453499, 0.05711960280314088]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.05695737860631198</v>
+        <v>0.05772224307060242</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.05694794643204659</v>
+        <v>0.05714327422901988</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0003464688287624733</v>
+        <v>0.002066606989542297</v>
       </c>
       <c r="AV16" t="n">
-        <v>7410.48</v>
+        <v>7463.613861386139</v>
       </c>
       <c r="AW16" t="n">
-        <v>8593</v>
+        <v>8693</v>
       </c>
       <c r="AX16" t="n">
-        <v>2664.726569094886</v>
+        <v>2648.929707716651</v>
       </c>
       <c r="AY16" t="n">
         <v>2857</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11097</v>
+        <v>10905</v>
       </c>
       <c r="BA16" t="n">
         <v>15841</v>
@@ -1727,7 +1745,9 @@
       <c r="BC16" t="n">
         <v>0.8631284916201117</v>
       </c>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BD16" t="n">
+        <v>0.6955307262569832</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1744,71 +1764,73 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[2.6215975580271333, 2.63445717189461, 2.667006147094071, 2.6689303328748792, 2.6706022238358855, 2.6626649741083384, 2.6685881458688527, 2.6736744770314544, 2.650892940815538, 2.7506541770417243, 2.6272425819188356, 2.6764970761723816, 2.664332598913461, 2.6346526169218123, 2.658671414013952, 2.645076483953744, 2.6782043441198766, 2.6264200499281287, 2.6495886540506035, 2.6654695589095354, 2.630615042988211, 2.660547388950363, 2.656433852855116, 2.6768390799406916, 2.6565384450368583, 2.6656245428603142, 2.750107120955363, 2.6531013168860227, 2.643263051053509, 2.646430900786072, 2.6682533510029316, 2.656994719989598, 2.6615479229949415, 2.6644125380553305, 2.6296853530220687, 2.6349506620317698, 2.662472799886018, 2.669122582068667, 2.650697304168716, 2.712181461043656, 2.673656522994861, 2.6334644199814647, 2.6597182010300457, 2.6492615879978985, 2.6842929660342634, 2.6861739719752222, 2.6495488840155303, 2.694982449989766, 2.6643272808287293, 2.6696839870419353]</t>
+          <t>[2.667397210840136, 2.702114311978221, 2.678782039321959, 2.6650063171982765, 2.6639436562545598, 2.6820274679921567, 2.6699783778749406, 2.6532439971342683, 2.661366783082485, 2.714773129671812, 2.681604557670653, 2.666163933929056, 2.7416672171093524, 2.6640229811891913, 2.6553008682094514, 2.6592816868796945, 2.681136861909181, 2.6779534285888076, 2.6655875658616424, 2.676511854864657, 2.648122102022171, 2.6660553882829845, 2.651402221992612, 2.680841736961156, 2.6585978511720896, 2.674092927016318, 2.683080979157239, 2.6658403910696507, 2.6695273788645864, 2.655559476930648, 2.6821305882185698, 2.698711412027478, 2.7363981953822076, 2.7363377371802926, 2.8091732570901513, 2.7901570932008326, 2.7220307900570333, 2.67544545000419, 2.673396185040474, 2.6660275193862617, 2.6740096039138734, 2.665682733990252, 2.6573306168429554, 2.665444588754326, 2.6839789049699903, 2.6637071492150426, 2.662963296752423, 2.738021756056696, 2.669219110161066, 2.650949962902814]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.662203064719215</v>
+        <v>2.682042013043538</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66201036144048</v>
+        <v>2.669752878369763</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02580491286948952</v>
+        <v>0.03370849446798174</v>
       </c>
       <c r="I17" t="n">
-        <v>6320350.06859566</v>
+        <v>6314220.192628709</v>
       </c>
       <c r="J17" t="n">
-        <v>6830244</v>
+        <v>6830492</v>
       </c>
       <c r="K17" t="n">
-        <v>1545166.335172157</v>
+        <v>1552946.742443964</v>
       </c>
       <c r="L17" t="n">
         <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>10114619</v>
+        <v>11331230</v>
       </c>
       <c r="N17" t="n">
-        <v>11451634</v>
+        <v>11451442</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>6675</v>
+      </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.0029613019432872534, 0.005334403831511736, 0.005700211971998215, 0.0054449900053441525, 0.00548555888235569, 0.0068174428306519985, 0.006962350104004145, 0.007011273177340627, 0.0070023799780756235, 0.01050173700787127, 0.011583066079765558, 0.007222478976473212, 0.0070563009940087795, 0.007045103935524821, 0.007211061893031001, 0.007062208140268922, 0.007013456197455525, 0.006978512974455953, 0.007541936822235584, 0.007128840079531074, 0.006997623015195131, 0.007024303078651428, 0.006957754027098417, 0.006968948990106583, 0.006914388854056597, 0.006976810982450843, 0.006939766928553581, 0.007086876081302762, 0.00694839796051383, 0.006884733913466334, 0.006891313008964062, 0.007011663168668747, 0.00875178910791874, 0.006810071878135204, 0.006822770927101374, 0.006842160131782293, 0.0068516850005835295, 0.006810082821175456, 0.006800197996199131, 0.007049930980429053, 0.006859364919364452, 0.006903791101649404, 0.006882951129227877, 0.006820576963946223, 0.006822621915489435, 0.006817572982981801, 0.006880216998979449, 0.007040777010843158, 0.00898975390009582, 0.008111669914796948]</t>
+          <t>[0.02876277081668377, 0.028757872991263866, 0.028499308042228222, 0.028613136149942875, 0.02857597079128027, 0.028422900941222906, 0.02835297677665949, 0.02862853929400444, 0.028292386326938868, 0.02843176620081067, 0.02845312701538205, 0.028572965878993273, 0.02846020832657814, 0.02832071017473936, 0.028492186218500137, 0.028573617804795504, 0.028363252989947796, 0.028130213730037212, 0.028487430419772863, 0.028388821054250002, 0.028463914059102535, 0.0282986662350595, 0.02837467985227704, 0.028223004192113876, 0.02820302313193679, 0.028259278275072575, 0.028364715166389942, 0.02833601227030158, 0.02833983674645424, 0.028382641728967428, 0.028190864250063896, 0.02830239199101925, 0.028277074918150902, 0.028036313131451607, 0.028111435938626528, 0.02807803638279438, 0.029026895761489868, 0.02799018518999219, 0.027974721044301987, 0.02845856500789523, 0.028147470206022263, 0.028159096837043762, 0.028271886985749006, 0.028161119669675827, 0.028319478034973145, 0.02817842597141862, 0.02795618399977684, 0.028371355030685663, 0.028265396133065224, 0.028296413365751505]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.007030703630298376</v>
+        <v>0.0283479848690331</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006960052065551281</v>
+        <v>0.02833792450837791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.001176446761715225</v>
+        <v>0.0002102430327255415</v>
       </c>
       <c r="V17" t="n">
-        <v>3113.333333333333</v>
+        <v>6403.22</v>
       </c>
       <c r="W17" t="n">
-        <v>2858</v>
+        <v>5884.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1312.774263408095</v>
+        <v>3504.770701241784</v>
       </c>
       <c r="Y17" t="n">
         <v>2858</v>
       </c>
       <c r="Z17" t="n">
-        <v>12264</v>
+        <v>10623</v>
       </c>
       <c r="AA17" t="n">
         <v>64715</v>
@@ -1824,32 +1846,32 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.12177994917146862, 0.07554642390459776, 0.07520945998840034, 0.07412105100229383, 0.07453394983895123, 0.07445094385184348, 0.07415937911719084, 0.07628515106625855, 0.07435597409494221, 0.07460292289033532, 0.07424744195304811, 0.07486626715399325, 0.07469346793368459, 0.07443747599609196, 0.0744024331215769, 0.07458995399065316, 0.07448525703512132, 0.0742826929781586, 0.07432732987217605, 0.07452285196632147, 0.07431357982568443, 0.0748106730170548, 0.0745574941392988, 0.07457283907569945, 0.07445174595341086, 0.07477206597104669, 0.0748359109275043, 0.07454608799889684, 0.07480207015760243, 0.07506846892647445, 0.07465670304372907, 0.0743391690775752, 0.07466545701026917, 0.07513484894298017, 0.07493313704617321, 0.07928172498941422, 0.07474107900634408, 0.0815025269985199, 0.07473585195839405, 0.07875567697919905, 0.10116666811518371, 0.07456313213333488, 0.0746991268824786, 0.07476811995729804, 0.07457117503508925, 0.07486631791107357, 0.07499553984962404, 0.07480810908600688, 0.07488162978552282, 0.07552581303752959]</t>
+          <t>[0.07623400585725904, 0.07560988189652562, 0.09041995601728559, 0.07586365193128586, 0.07531208731234074, 0.07498839218169451, 0.07529392931610346, 0.07510327501222491, 0.08012833306565881, 0.07600212004035711, 0.07647654879838228, 0.07789776707068086, 0.07534128101542592, 0.07582105929031968, 0.07519736373797059, 0.07692082412540913, 0.07631788309663534, 0.07592518487945199, 0.07567499997094274, 0.07545197708532214, 0.07533339923247695, 0.07613898534327745, 0.07566539384424686, 0.07620911998674273, 0.07554749865084887, 0.07526393374428153, 0.07573721325024962, 0.0761177521198988, 0.0759850931353867, 0.07571268593892455, 0.07550327386707067, 0.07595279719680548, 0.07551669422537088, 0.07576882094144821, 0.07573417900130153, 0.07542249234393239, 0.07575234724208713, 0.07542705908417702, 0.07557170605286956, 0.07565571088343859, 0.07584286201745272, 0.07517777616158128, 0.07539441995322704, 0.07574277091771364, 0.07620409270748496, 0.0765925720334053, 0.07587315607815981, 0.07554954290390015, 0.07545564323663712, 0.07518770219758153]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.0764844623953104</v>
+        <v>0.07614034431986511</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07469629740808159</v>
+        <v>0.07572343247011304</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.007624271882375208</v>
+        <v>0.002209360577661483</v>
       </c>
       <c r="AI17" t="n">
-        <v>9046.138996138996</v>
+        <v>9082.551724137931</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10418</v>
+        <v>10410</v>
       </c>
       <c r="AK17" t="n">
-        <v>3035.854728753265</v>
+        <v>3027.402674896118</v>
       </c>
       <c r="AL17" t="n">
         <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>12386</v>
+        <v>12114</v>
       </c>
       <c r="AN17" t="n">
         <v>25570</v>
@@ -1865,32 +1887,32 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.07140773092396557, 0.07017727894708514, 0.07490945211611688, 0.07011356391012669, 0.07018262706696987, 0.06988522200845182, 0.07108060107566416, 0.07274432084523141, 0.0710566348861903, 0.0710089928470552, 0.07112804194912314, 0.07060850504785776, 0.07075289986096323, 0.07059463392943144, 0.07205700199119747, 0.07079097721725702, 0.07022572006098926, 0.07005577790550888, 0.0702084950171411, 0.07046235492452979, 0.0701094891410321, 0.07045796001330018, 0.07013575709424913, 0.07004885701462626, 0.07008995884098113, 0.07502625603228807, 0.06980196689255536, 0.07003425480797887, 0.0702827179338783, 0.07003083010204136, 0.06969431601464748, 0.06946068606339395, 0.07382124196738005, 0.07624146598391235, 0.06997560802847147, 0.07009027805179358, 0.06999009917490184, 0.0701133031398058, 0.07179644191637635, 0.06944813812151551, 0.0700484758708626, 0.07046676310710609, 0.07054388802498579, 0.07048179395496845, 0.07048108289018273, 0.070206502918154, 0.07166922185570002, 0.06998925795778632, 0.06998418015427887, 0.0699196329806]</t>
+          <t>[0.0708228088915348, 0.07096401881426573, 0.07089989399537444, 0.07114368909969926, 0.07145291194319725, 0.0709020378999412, 0.07163611706346273, 0.07105991430580616, 0.07078374084085226, 0.07097727013751864, 0.07067097211256623, 0.0704826102592051, 0.07139863120391965, 0.07122228806838393, 0.07089392514899373, 0.07124691409990191, 0.07070925971493125, 0.0712349065579474, 0.07102306792512536, 0.070467677898705, 0.07105618808418512, 0.07128731394186616, 0.07111927261576056, 0.07082243822515011, 0.07080729678273201, 0.07225452177226543, 0.0713560776785016, 0.07534770108759403, 0.07083286438137293, 0.07115320395678282, 0.07083571888506413, 0.07328954106196761, 0.0711061330512166, 0.07099992502480745, 0.07071095192804933, 0.0719834859482944, 0.07142833387479186, 0.07071781298145652, 0.07097888318821788, 0.07082968996837735, 0.07083127181977034, 0.07100339885801077, 0.07071528909727931, 0.0716152349486947, 0.07128273695707321, 0.07099632825702429, 0.07139944285154343, 0.07115819212049246, 0.07095158100128174, 0.07069548824802041]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.07079782517161221</v>
+        <v>0.07119117949157953</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.07021710753906518</v>
+        <v>0.07100166194140911</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.001427571186697406</v>
+        <v>0.0007597072442781542</v>
       </c>
       <c r="AV17" t="n">
-        <v>6904.980079681275</v>
+        <v>7113.712</v>
       </c>
       <c r="AW17" t="n">
-        <v>7842</v>
+        <v>7978</v>
       </c>
       <c r="AX17" t="n">
-        <v>2086.228945154772</v>
+        <v>2126.815787658757</v>
       </c>
       <c r="AY17" t="n">
         <v>2858</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10618</v>
+        <v>8906</v>
       </c>
       <c r="BA17" t="n">
         <v>15842</v>
@@ -1901,7 +1923,9 @@
       <c r="BC17" t="n">
         <v>0.8517587939698492</v>
       </c>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BD17" t="n">
+        <v>0.6708542713567839</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1918,71 +1942,73 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2.6550503799226135, 2.695440137060359, 2.7053899178281426, 2.6707182459067553, 2.689246233087033, 2.68277248297818, 2.685792913194746, 2.6776595190167427, 2.6982774960342795, 2.6691882270388305, 2.6892853050958365, 2.693614031886682, 2.6942445838358253, 2.6654374599456787, 2.680452672066167, 2.7223799279890954, 2.6652211130131036, 2.679344038013369, 2.725335410097614, 2.6857305238954723, 2.6749096389394253, 2.670336372917518, 2.6781112251337618, 2.6671306018251926, 2.684749489882961, 2.7104006099980325, 2.6953170930501074, 2.672403178177774, 2.685470344964415, 2.6944221700541675, 2.6800417588092387, 2.696860047057271, 2.696643933886662, 2.6893729590810835, 2.6787799149751663, 2.6681903048884124, 2.6844318928197026, 2.686270884005353, 2.6881402609869838, 2.6991720891091973, 2.6882460571359843, 2.6741837200243026, 2.668234155047685, 2.682214596075937, 2.6655072099529207, 2.7004370358772576, 2.7040089308284223, 2.7060939089860767, 2.7063430019188672, 2.670363023877144]</t>
+          <t>[2.688074287958443, 2.7371840667910874, 2.6812381190247834, 2.6902409121394157, 2.698626550845802, 2.6996221197769046, 2.7022151318378747, 2.71637579286471, 2.733154769986868, 2.6740631968714297, 2.6682157879695296, 2.6975989472121, 2.678088141605258, 2.69017395703122, 2.6912015061825514, 2.741119673009962, 2.7094848859123886, 2.689626992214471, 2.7364142639562488, 2.6806057230569422, 2.6980473627336323, 2.688262761104852, 2.7253505610860884, 2.692434075754136, 2.735248985234648, 2.7317921621724963, 2.7279968317598104, 2.7073877551592886, 2.678522451315075, 2.720684612169862, 2.711174812167883, 2.7345891022123396, 2.739772106986493, 2.820051266811788, 2.711610965896398, 2.701914547942579, 2.6828684881329536, 2.7087847711518407, 2.728685649111867, 2.712904244661331, 2.699165886733681, 2.6933869877830148, 2.7061142371967435, 2.7105290819890797, 2.6941226730123162, 2.696029224898666, 2.7233775411732495, 2.7104134121909738, 2.7075881138443947, 2.708622612990439]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.685947340563871</v>
+        <v>2.708215162232518</v>
       </c>
       <c r="G18" t="n">
-        <v>2.685600434429944</v>
+        <v>2.706750996178016</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01509257325588413</v>
+        <v>0.0249781132742949</v>
       </c>
       <c r="I18" t="n">
-        <v>6326474.861483983</v>
+        <v>6314433.026423429</v>
       </c>
       <c r="J18" t="n">
-        <v>6776748</v>
+        <v>6776772</v>
       </c>
       <c r="K18" t="n">
-        <v>1539435.610782043</v>
+        <v>1552025.682750459</v>
       </c>
       <c r="L18" t="n">
         <v>2858</v>
       </c>
       <c r="M18" t="n">
-        <v>11445462</v>
+        <v>11187502</v>
       </c>
       <c r="N18" t="n">
-        <v>11451282</v>
+        <v>11451354</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>7825</v>
+      </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.0030110159423202276, 0.0028242161497473717, 0.00442649400793016, 0.006024796981364489, 0.005717147141695023, 0.007102911127731204, 0.007161617977544665, 0.006938325008377433, 0.00695252581499517, 0.006954817799851298, 0.006992875132709742, 0.007098825182765722, 0.007025324972346425, 0.007072624983265996, 0.0070781828835606575, 0.006957804085686803, 0.007013868074864149, 0.0070139768067747355, 0.007436409126967192, 0.006971053080633283, 0.006903701927512884, 0.007091532927006483, 0.006879424909129739, 0.006954339100047946, 0.006918715080246329, 0.007006786065176129, 0.006814998807385564, 0.006868500029668212, 0.0069494720082730055, 0.006966735934838653, 0.006824844051152468, 0.006855499930679798, 0.006787026999518275, 0.006778855109587312, 0.006881979992613196, 0.0069533169735223055, 0.006875639082863927, 0.0067177340388298035, 0.00673149386420846, 0.007221556967124343, 0.0068087209947407246, 0.006901207147166133, 0.006838324014097452, 0.006920616840943694, 0.00675373780541122, 0.006769801955670118, 0.00675646192394197, 0.006905064918100834, 0.006720458157360554, 0.006871433928608894]</t>
+          <t>[0.0230925758369267, 0.02293438883498311, 0.0228671682998538, 0.023893913719803095, 0.022833387833088636, 0.02286913199350238, 0.022839397192001343, 0.022859336342662573, 0.022780499886721373, 0.023245345801115036, 0.04132245620712638, 0.0363641451112926, 0.022716332226991653, 0.022574840113520622, 0.0224641147069633, 0.02251896820962429, 0.02254170086234808, 0.022449985146522522, 0.022700048983097076, 0.02249235799536109, 0.022502672858536243, 0.02254199283197522, 0.022632127162069082, 0.03894401714205742, 0.05115924635902047, 0.04452619096264243, 0.03985063312575221, 0.03374762088060379, 0.022444967180490494, 0.022342886310070753, 0.0223138309083879, 0.02491876995190978, 0.022360843140631914, 0.022362282034009695, 0.022628731094300747, 0.022387079894542694, 0.022577605210244656, 0.02241086633875966, 0.022493890020996332, 0.022733878809958696, 0.022625917103141546, 0.02249153610318899, 0.022660029120743275, 0.022301011253148317, 0.022404765710234642, 0.02243507280945778, 0.022390384692698717, 0.022375884000211954, 0.022369022946804762, 0.022414532955735922]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.006680055875331163</v>
+        <v>0.02521416768431663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006904383422806859</v>
+        <v>0.0226017611566931</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0008868715042345129</v>
+        <v>0.006689445477838971</v>
       </c>
       <c r="V18" t="n">
-        <v>2930.32</v>
+        <v>6714.907407407408</v>
       </c>
       <c r="W18" t="n">
-        <v>2858</v>
+        <v>9199</v>
       </c>
       <c r="X18" t="n">
-        <v>124.4923471133705</v>
+        <v>3544.522504617372</v>
       </c>
       <c r="Y18" t="n">
         <v>2858</v>
       </c>
       <c r="Z18" t="n">
-        <v>3306</v>
+        <v>10695</v>
       </c>
       <c r="AA18" t="n">
         <v>64715</v>
@@ -1998,32 +2024,32 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.11834342288784683, 0.08589410898275673, 0.08634992106817663, 0.08592307101935148, 0.08796892501413822, 0.08957041101530194, 0.08679607906378806, 0.08680554409511387, 0.08678351016715169, 0.08654730790294707, 0.08643322600983083, 0.08694582292810082, 0.0867444109171629, 0.08641430782154202, 0.08688089507631958, 0.08672534395009279, 0.08693061117082834, 0.08699989505112171, 0.0872799539938569, 0.08641921496018767, 0.08720534201711416, 0.08698598411865532, 0.08662807894870639, 0.08695640903897583, 0.08664728584699333, 0.08679079101420939, 0.08673629886470735, 0.08682920900173485, 0.08751627686433494, 0.08668457297608256, 0.08673163293860853, 0.08623813395388424, 0.08645173395052552, 0.08629560982808471, 0.08702201792038977, 0.08688132604584098, 0.08681555814109743, 0.08711318392306566, 0.08700434002093971, 0.08687852416187525, 0.0869778310880065, 0.08614372299052775, 0.08667828305624425, 0.08649970591068268, 0.08633859502151608, 0.08663296420127153, 0.08696773485280573, 0.08677754201926291, 0.08638888993300498, 0.08662888896651566]</t>
+          <t>[0.08760979119688272, 0.08691313676536083, 0.08665015501901507, 0.0868942798115313, 0.08703888580203056, 0.09379673935472965, 0.0884563671424985, 0.08738133823499084, 0.08716853894293308, 0.08837960287928581, 0.08812391804531217, 0.08785236394032836, 0.08856729324907064, 0.0920916460454464, 0.09586014691740274, 0.08769884379580617, 0.08909662533551455, 0.08691545994952321, 0.08699292689561844, 0.08803740981966257, 0.08750807913020253, 0.08750832872465253, 0.0873078079894185, 0.0874588331207633, 0.08696188032627106, 0.08735336596146226, 0.08678053924813867, 0.08701835479587317, 0.0873175929300487, 0.08706481475383043, 0.08729909500107169, 0.08682859176769853, 0.08686688775196671, 0.09065833222121, 0.08704788889735937, 0.0867710248567164, 0.08750922931358218, 0.08683960791677237, 0.08695732383057475, 0.08689199481159449, 0.08672413462772965, 0.08767453581094742, 0.08700596587732434, 0.08687540097162127, 0.08731452794745564, 0.08872228534892201, 0.09028577525168657, 0.08673972822725773, 0.09206184325739741, 0.08700772002339363]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.0874240490142256</v>
+        <v>0.08795773919671773</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0867805260932073</v>
+        <v>0.08731116796843708</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.004494683042190905</v>
+        <v>0.001889601040689024</v>
       </c>
       <c r="AI18" t="n">
-        <v>9199.854304635761</v>
+        <v>9216.521452145214</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10378</v>
+        <v>10410</v>
       </c>
       <c r="AK18" t="n">
-        <v>2833.450433793071</v>
+        <v>2830.47549980597</v>
       </c>
       <c r="AL18" t="n">
         <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>11410</v>
+        <v>11602</v>
       </c>
       <c r="AN18" t="n">
         <v>25570</v>
@@ -2039,32 +2065,32 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.07776487316004932, 0.07771532004699111, 0.07778257015161216, 0.07751249498687685, 0.07783040194772184, 0.07779534999281168, 0.07731992611661553, 0.07740310207009315, 0.07866665301844478, 0.07832758594304323, 0.0775469068903476, 0.07771968608722091, 0.07763756206259131, 0.07747938693501055, 0.07756557501852512, 0.07792332000099123, 0.07717542187310755, 0.07729850499890745, 0.07715620310045779, 0.07710632705129683, 0.07691715494729578, 0.07741057313978672, 0.07697670417837799, 0.07739790505729616, 0.07763087307102978, 0.07741235592402518, 0.07732701790519059, 0.07751913601532578, 0.07802115706726909, 0.08735845098271966, 0.07722416403703392, 0.07724555605091155, 0.07682051905430853, 0.07763745286501944, 0.07717818603850901, 0.07670953287743032, 0.07656105188652873, 0.07688422407954931, 0.07698367396369576, 0.07699334784410894, 0.076688232133165, 0.07709403801709414, 0.09118003095500171, 0.07776114786975086, 0.07793098106049001, 0.07753792311996222, 0.07742038695141673, 0.07731871609576046, 0.07751778303645551, 0.07793045113794506]</t>
+          <t>[0.07822213275358081, 0.08064231369644403, 0.09258792921900749, 0.07824202300980687, 0.07953255297616124, 0.07966627413406968, 0.08592568011954427, 0.08947058487683535, 0.08467015344649553, 0.07808026997372508, 0.07777849864214659, 0.08024679310619831, 0.07893045293167233, 0.07952052494511008, 0.07827672362327576, 0.07783207017928362, 0.07814211305230856, 0.07778186304494739, 0.07930947979912162, 0.07813537120819092, 0.07841646298766136, 0.07811352098360658, 0.07817325880751014, 0.07796252379193902, 0.07915797224268317, 0.0780799612402916, 0.07837168732658029, 0.07811445137485862, 0.07818955508992076, 0.07795176701620221, 0.07784655969589949, 0.07755205081775784, 0.0792140569537878, 0.07961260294541717, 0.07851715292781591, 0.07787230797111988, 0.07812426518648863, 0.08173930598422885, 0.07836465584114194, 0.07814876176416874, 0.0799630070105195, 0.07823962811380625, 0.07820512726902962, 0.07887231511995196, 0.07855545217171311, 0.07789115700870752, 0.07823110511526465, 0.079110411927104, 0.07824666006490588, 0.07825093623250723]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.0779063179763034</v>
+        <v>0.0793616497144103</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.07744988694321364</v>
+        <v>0.07824879814870656</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002410128615430999</v>
+        <v>0.002886707909879605</v>
       </c>
       <c r="AV18" t="n">
-        <v>7117.093333333333</v>
+        <v>7198.358803986711</v>
       </c>
       <c r="AW18" t="n">
-        <v>7842</v>
+        <v>7866</v>
       </c>
       <c r="AX18" t="n">
-        <v>1955.162586698005</v>
+        <v>1950.914268788841</v>
       </c>
       <c r="AY18" t="n">
         <v>2858</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10874</v>
+        <v>8946</v>
       </c>
       <c r="BA18" t="n">
         <v>15842</v>
@@ -2075,7 +2101,9 @@
       <c r="BC18" t="n">
         <v>0.8105022831050228</v>
       </c>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BD18" t="n">
+        <v>0.7146118721461188</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2092,71 +2120,73 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2.749492554925382, 2.734092043945566, 2.7168386729899794, 2.738994570914656, 2.737207684200257, 2.724900286179036, 2.7811432569287717, 2.769345127977431, 2.735962717793882, 2.7234839610755444, 2.760001653106883, 2.7461263749282807, 2.755619052099064, 2.733401329955086, 2.763972620945424, 2.751936917891726, 2.7264632638543844, 2.778992868028581, 2.7818382859695703, 2.752393387025222, 2.7080378951504827, 2.7551608779467642, 2.715538978809491, 2.733517214888707, 2.800189776113257, 2.7210568450391293, 2.742820105049759, 2.714381883153692, 2.7468636340927333, 2.730507504893467, 2.8008301279041916, 2.7396379171404988, 2.725580066908151, 2.714945151936263, 2.7130572649184614, 2.7290096478536725, 2.735061354935169, 2.7394113338086754, 2.771094680065289, 2.7323180369567126, 2.7352249450050294, 2.7944610968697816, 2.7648897089529783, 2.7373762521892786, 2.7406250359490514, 2.7675306799355894, 2.7321166389156133, 2.7218991678673774, 2.733263183152303, 2.7337869368493557]</t>
+          <t>[2.7663715220987797, 2.723463402595371, 2.739415413700044, 2.761399472132325, 2.7416281877085567, 2.7292909962125123, 2.7364220581948757, 2.7578924568369985, 2.732284506317228, 2.7287489962764084, 2.744242341257632, 2.7442772248759866, 2.7306370050646365, 2.7370972209610045, 2.7573046507313848, 2.738492769189179, 2.716441612225026, 2.7447042148560286, 2.756573617924005, 2.727229484822601, 2.7349322638474405, 2.826166287995875, 2.7361437077634037, 2.749318771995604, 2.7618390591815114, 2.745621362235397, 2.714709065388888, 2.726390015333891, 2.7633074899204075, 2.7576250550337136, 2.72459725337103, 2.7515929797664285, 2.7427362678572536, 2.72666985495016, 2.7362055452540517, 2.747501529287547, 2.746452910359949, 2.720647765789181, 2.7725547710433602, 2.706855084747076, 2.7260695486329496, 2.7338476879522204, 2.7611892139539123, 2.720658232923597, 2.729384121019393, 2.806775761768222, 2.724230790976435, 2.7644283520057797, 2.7357855532318354, 2.7767591550946236]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.743848011479713</v>
+        <v>2.743698252253234</v>
       </c>
       <c r="G19" t="n">
-        <v>2.737291968194768</v>
+        <v>2.738954091444612</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0230379175713484</v>
+        <v>0.02195133319870591</v>
       </c>
       <c r="I19" t="n">
-        <v>6337934.533413849</v>
+        <v>6329139.576011607</v>
       </c>
       <c r="J19" t="n">
-        <v>6907492</v>
+        <v>6907468</v>
       </c>
       <c r="K19" t="n">
-        <v>1530458.330864061</v>
+        <v>1541175.401708485</v>
       </c>
       <c r="L19" t="n">
         <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>11192934</v>
+        <v>11451598</v>
       </c>
       <c r="N19" t="n">
-        <v>11451570</v>
+        <v>11451662</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>7950</v>
+      </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.007216539001092315, 0.007035339018329978, 0.0071633008774369955, 0.0070656039752066135, 0.007023390149697661, 0.007038844050839543, 0.0069924460258334875, 0.006981578888371587, 0.006952883908525109, 0.00691894581541419, 0.0069745981600135565, 0.006969328969717026, 0.007089979946613312, 0.006994448136538267, 0.007082898868247867, 0.0070747691206634045, 0.006942379986867309, 0.00686934101395309, 0.007311853114515543, 0.006951823132112622, 0.007133895996958017, 0.007072424050420523, 0.006900507025420666, 0.006958744954317808, 0.006962530082091689, 0.006912415148690343, 0.0069680288434028625, 0.007003912003710866, 0.006863860879093409, 0.006809442071244121, 0.006942549953237176, 0.006917041959241033, 0.006814398104324937, 0.006819895934313536, 0.006868218071758747, 0.006870422046631575, 0.006814328022301197, 0.006774118170142174, 0.0068745180033147335, 0.007136750966310501, 0.007064963923767209, 0.006840137066319585, 0.006753918016329408, 0.006816011155024171, 0.0068206279538571835, 0.006859926041215658, 0.006767458049580455, 0.0067376329097896814, 0.006684692809358239, 0.006872694939374924]</t>
+          <t>[0.02327842405065894, 0.02290572738274932, 0.022864823695272207, 0.02318134903907776, 0.022755722049623728, 0.022852748166769743, 0.022802412044256926, 0.02300412394106388, 0.022987138014286757, 0.02283843606710434, 0.022901961114257574, 0.02273272769525647, 0.022758966777473688, 0.022998875938355923, 0.02278396300971508, 0.02286013914272189, 0.022757065016776323, 0.022975200321525335, 0.02319173514842987, 0.022769752889871597, 0.022663814015686512, 0.0229399879463017, 0.022670544683933258, 0.02278714906424284, 0.02265964914113283, 0.022726288065314293, 0.02260236209258437, 0.022994920145720243, 0.022842541802674532, 0.022723734844475985, 0.022610383108258247, 0.022692096885293722, 0.03375562187284231, 0.03920768108218908, 0.023593435995280743, 0.02262302301824093, 0.022528051398694515, 0.022624215111136436, 0.022637984715402126, 0.022507961839437485, 0.022639938164502382, 0.02255567302927375, 0.022587529849261045, 0.02273278869688511, 0.022616312839090824, 0.022564816288650036, 0.02263011410832405, 0.022476183250546455, 0.022398987784981728, 0.022540119010955095]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.006945727146230638</v>
+        <v>0.0233267040271312</v>
       </c>
       <c r="T19" t="n">
-        <v>0.006947186542674899</v>
+        <v>0.02275639353320003</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001301987036469979</v>
+        <v>0.002776586401598857</v>
       </c>
       <c r="V19" t="n">
-        <v>2930.32</v>
+        <v>6654.274509803921</v>
       </c>
       <c r="W19" t="n">
-        <v>2858</v>
+        <v>8855</v>
       </c>
       <c r="X19" t="n">
-        <v>124.4923471133705</v>
+        <v>3680.182061135861</v>
       </c>
       <c r="Y19" t="n">
         <v>2858</v>
       </c>
       <c r="Z19" t="n">
-        <v>3306</v>
+        <v>10943</v>
       </c>
       <c r="AA19" t="n">
         <v>64715</v>
@@ -2172,32 +2202,32 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.12986355205066502, 0.09461414813995361, 0.09484872897155583, 0.09536577411927283, 0.09524018596857786, 0.09571149107068777, 0.0956723929848522, 0.09474189905449748, 0.09517141315154731, 0.09470367198809981, 0.09482086705975235, 0.09542313008569181, 0.0955167100764811, 0.09611101704649627, 0.09582585212774575, 0.09516107686795294, 0.09524247818626463, 0.09525776095688343, 0.09539063996635377, 0.09509080089628696, 0.09509773110039532, 0.09545857110060751, 0.09512715600430965, 0.09506819699890912, 0.10935488902032375, 0.09625927009619772, 0.09570909687317908, 0.09622856485657394, 0.09608126292005181, 0.09577992185950279, 0.09530285792425275, 0.09535616799257696, 0.09519692114554346, 0.09608725411817431, 0.09531430597417057, 0.09646204300224781, 0.09585520601831377, 0.09573643584735692, 0.09631279110908508, 0.09597906097769737, 0.09602051298134029, 0.0958846400026232, 0.09564872598275542, 0.09567460510879755, 0.09565263101831079, 0.09584093489684165, 0.0958120608702302, 0.09590795380063355, 0.09569101012311876, 0.096058689057827]</t>
+          <t>[0.097102927044034, 0.10114645911380649, 0.09712357679381967, 0.1077935341745615, 0.09692517202347517, 0.10876021208241582, 0.09763515321537852, 0.09654456097632647, 0.09701939160004258, 0.10027751792222261, 0.10104664787650108, 0.09680827613919973, 0.09644854860380292, 0.09840291179716587, 0.09627544786781073, 0.0998410452157259, 0.09772989619523287, 0.09672903688624501, 0.09691288322210312, 0.09680743515491486, 0.10579624492675066, 0.09620659612119198, 0.09602645598351955, 0.09605658007785678, 0.09651708882302046, 0.09624950028955936, 0.09606524324044585, 0.09601513901725411, 0.0964590129442513, 0.09600369213148952, 0.09652061574161053, 0.09633872471749783, 0.09655844187363982, 0.09784117108210921, 0.09612702718004584, 0.09749271022155881, 0.09600091679021716, 0.11038796789944172, 0.12254764186218381, 0.09759545419365168, 0.1008108458481729, 0.09611138282343745, 0.09605772281065583, 0.09813293814659119, 0.09627245273441076, 0.09593682084232569, 0.09722325718030334, 0.09644692484289408, 0.09617513883858919, 0.09671611804515123]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.09651466119103133</v>
+        <v>0.09852040922269226</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.09566251200158149</v>
+        <v>0.09676823602057993</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.005212220440386941</v>
+        <v>0.004814103549185732</v>
       </c>
       <c r="AI19" t="n">
-        <v>10075.40509915014</v>
+        <v>10080.91830985915</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11210</v>
+        <v>11218</v>
       </c>
       <c r="AK19" t="n">
-        <v>2934.8684068527</v>
+        <v>2924.741588194528</v>
       </c>
       <c r="AL19" t="n">
         <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>12210</v>
+        <v>12050</v>
       </c>
       <c r="AN19" t="n">
         <v>26370</v>
@@ -2213,32 +2243,32 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.08470351481810212, 0.08476022095419466, 0.08460402698256075, 0.08485375996679068, 0.08569526090286672, 0.08543839608319104, 0.08545772614888847, 0.08443924109451473, 0.0856206389144063, 0.08522148104384542, 0.08495426014997065, 0.08461979008279741, 0.08453964116051793, 0.08413081779144704, 0.08483927906490862, 0.09133598208427429, 0.08423809800297022, 0.08390495018102229, 0.08429588610306382, 0.08458222402259707, 0.08406492904759943, 0.08406313811428845, 0.08393787103705108, 0.08455861010588706, 0.08387360395863652, 0.08433843916282058, 0.10630474402569234, 0.09806634485721588, 0.08443602593615651, 0.08426986611448228, 0.08483572513796389, 0.08494728291407228, 0.08515120600350201, 0.08436514902859926, 0.08469838788732886, 0.0876325590070337, 0.08431763900443912, 0.08486977498978376, 0.08455699705518782, 0.08381601795554161, 0.08368855714797974, 0.08396979817189276, 0.08386185602284968, 0.08433277206495404, 0.08415722800418735, 0.08388506015762687, 0.08405511500313878, 0.08407152094878256, 0.08412690297700465, 0.08422999712638557]</t>
+          <t>[0.08528093574568629, 0.0850300109013915, 0.08527485467493534, 0.08557872101664543, 0.085869116242975, 0.08612266508862376, 0.08503650082275271, 0.08558613294735551, 0.0852388720959425, 0.08489209413528442, 0.08508571330457926, 0.0851066648028791, 0.08490570401772857, 0.08503256412222981, 0.08508509304374456, 0.08505140291526914, 0.08484690822660923, 0.0852714809589088, 0.0850470750592649, 0.08534320816397667, 0.08525471668690443, 0.0849831709638238, 0.08515644120052457, 0.08558056503534317, 0.08910096203908324, 0.08559535723179579, 0.08587725833058357, 0.08758181985467672, 0.08537728106603026, 0.08603899087756872, 0.08563843183219433, 0.08659035479649901, 0.08583792904391885, 0.08556372905150056, 0.0858427882194519, 0.08521459670737386, 0.09289064258337021, 0.08528371900320053, 0.0851674061268568, 0.08512845821678638, 0.08486930094659328, 0.08490190980955958, 0.08482141885906458, 0.08497085189446807, 0.08494760701432824, 0.08476607361808419, 0.08504705596715212, 0.08496252028271556, 0.08494569407775998, 0.08490784699097276]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.0853943662904203</v>
+        <v>0.08555061233229935</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.08448944112751633</v>
+        <v>0.08519100141711533</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.003745235242400638</v>
+        <v>0.001289717541552021</v>
       </c>
       <c r="AV19" t="n">
-        <v>7721.887788778878</v>
+        <v>7860.68438538206</v>
       </c>
       <c r="AW19" t="n">
-        <v>8594</v>
+        <v>8674</v>
       </c>
       <c r="AX19" t="n">
-        <v>2204.86979401483</v>
+        <v>2244.759092506077</v>
       </c>
       <c r="AY19" t="n">
         <v>2858</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10226</v>
+        <v>9730</v>
       </c>
       <c r="BA19" t="n">
         <v>15842</v>
@@ -2249,7 +2279,9 @@
       <c r="BC19" t="n">
         <v>0.7929515418502202</v>
       </c>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BD19" t="n">
+        <v>0.7004405286343612</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2266,71 +2298,73 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[2.8138487429823726, 2.8315316170919687, 2.8358101779595017, 2.8175267348997295, 2.8486978630535305, 2.839679036056623, 2.841313540004194, 2.8233512490987778, 2.8267428630497307, 2.8754819438327104, 2.8645166140049696, 2.819745508953929, 2.79746487387456, 2.8724253089167178, 2.8135015221778303, 2.8613264139276, 2.865521122002974, 2.8449691229034215, 2.825873543974012, 2.8280016279313713, 2.857130402000621, 2.800830604042858, 2.8205587898846716, 2.8352694439236075, 2.8184069860726595, 2.834443606203422, 2.8267946380656213, 2.886699930066243, 2.8179312308784574, 2.841188718099147, 2.840177803998813, 2.8164408288430423, 2.827965105883777, 2.8713311159517616, 2.848470110911876, 2.8204656920861453, 2.8532293729949743, 2.829989701975137, 2.817423013970256, 2.8099136950913817, 2.8468708340078592, 2.8494908448774368, 2.8975667029153556, 2.8292384550441056, 2.8481070520356297, 2.8016534098424017, 2.8248779277782887, 2.832540862960741, 2.862887358991429, 2.839799616020173]</t>
+          <t>[2.8185766148380935, 2.8271405398845673, 2.8418612191453576, 2.813854528591037, 2.8426063638180494, 2.8016331917606294, 2.85053097223863, 2.822484283708036, 2.8250487321056426, 2.870723530650139, 2.847571846563369, 2.820391633082181, 2.831087799742818, 2.903349936939776, 2.8206134769134223, 2.8091818410903215, 2.888025576248765, 2.8516911938786507, 2.84613107284531, 2.8170359558425844, 2.8601721138693392, 2.8335004220716655, 2.841087185777724, 2.840048072859645, 2.8423460009507835, 2.83061542827636, 2.8301298720762134, 2.823821102734655, 2.826079361140728, 2.859549267217517, 2.816997759975493, 2.806298071052879, 2.8090252010151744, 2.8181232470087707, 2.8434324697591364, 2.837134977336973, 2.8472305750474334, 2.883908580057323, 2.8412574166432023, 2.8131028548814356, 2.826119916047901, 2.841741371899843, 2.884553875774145, 2.8282155808992684, 2.8550218353047967, 2.8443333408795297, 2.853563212789595, 2.840561558958143, 2.8299993639811873, 2.829009581822902]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.837100465642288</v>
+        <v>2.837730398559943</v>
       </c>
       <c r="G20" t="n">
-        <v>2.833492234582081</v>
+        <v>2.835317699704319</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02213177554980216</v>
+        <v>0.0217885661767714</v>
       </c>
       <c r="I20" t="n">
-        <v>6354917.791404856</v>
+        <v>6346519.889078763</v>
       </c>
       <c r="J20" t="n">
-        <v>6886868</v>
+        <v>6886404</v>
       </c>
       <c r="K20" t="n">
-        <v>1509991.109215258</v>
+        <v>1521241.62418292</v>
       </c>
       <c r="L20" t="n">
         <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>11192774</v>
+        <v>11397054</v>
       </c>
       <c r="N20" t="n">
-        <v>11451282</v>
+        <v>11451354</v>
       </c>
       <c r="O20" t="n">
         <v>9</v>
       </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>8075</v>
+      </c>
       <c r="Q20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.0030153319239616394, 0.004806553944945335, 0.006016934989020228, 0.005617948016151786, 0.006466076942160726, 0.007065593963488936, 0.007086486089974642, 0.007169988937675953, 0.007061847951263189, 0.00703200395219028, 0.006999535020440817, 0.00709037110209465, 0.007112123072147369, 0.007081477902829647, 0.006948760012164712, 0.006989920977503061, 0.007092074025422335, 0.00701289507560432, 0.00754058500751853, 0.00695801293477416, 0.007594105089083314, 0.006943791173398495, 0.006925523979589343, 0.006942549953237176, 0.006937742931768298, 0.00693323602899909, 0.006858994951471686, 0.00694963987916708, 0.0069526641163975, 0.006981537910178304, 0.00687731197103858, 0.006940827937796712, 0.006872815079987049, 0.00680859899148345, 0.006720677018165588, 0.006875799037516117, 0.0068047139793634415, 0.006882268004119396, 0.006798756076022983, 0.007153036072850227, 0.006856329971924424, 0.007022920995950699, 0.006818444933742285, 0.007021727971732616, 0.006854086881503463, 0.007222988875582814, 0.006912143900990486, 0.006745804799720645, 0.006847959011793137, 0.006815379951149225]</t>
+          <t>[0.02411113027483225, 0.024027225095778704, 0.024218901060521603, 0.024173412937670946, 0.024080133996903896, 0.024227434303611517, 0.02409333409741521, 0.02393602766096592, 0.023926103953272104, 0.023966754786670208, 0.03659116616472602, 0.03909065620973706, 0.023898412007838488, 0.02376540284603834, 0.02407211298123002, 0.023894787300378084, 0.02374139614403248, 0.02380496170371771, 0.024083028081804514, 0.023910610005259514, 0.02380098681896925, 0.023988356813788414, 0.02376752719283104, 0.023985070642083883, 0.02367425709962845, 0.023596791084855795, 0.02344523509964347, 0.023986654356122017, 0.023904791101813316, 0.023751692846417427, 0.023520336020737886, 0.023557541891932487, 0.023544803261756897, 0.02367398701608181, 0.02354796789586544, 0.024037880823016167, 0.023805652279406786, 0.0236617187038064, 0.024035756941884756, 0.023739004973322153, 0.023477502167224884, 0.023762039374560118, 0.02367324475198984, 0.023872163146734238, 0.023620817810297012, 0.02368086576461792, 0.02379750180989504, 0.02391476696357131, 0.023595008999109268, 0.023793043568730354]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.006800737986341118</v>
+        <v>0.02439651917666197</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006941688945516944</v>
+        <v>0.02383890771307051</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0006877577712387945</v>
+        <v>0.002790785018111956</v>
       </c>
       <c r="V20" t="n">
-        <v>2930.32</v>
+        <v>6844.549019607844</v>
       </c>
       <c r="W20" t="n">
-        <v>2858</v>
+        <v>9739</v>
       </c>
       <c r="X20" t="n">
-        <v>124.4923471133705</v>
+        <v>3865.154078691913</v>
       </c>
       <c r="Y20" t="n">
         <v>2858</v>
       </c>
       <c r="Z20" t="n">
-        <v>3306</v>
+        <v>11279</v>
       </c>
       <c r="AA20" t="n">
         <v>64715</v>
@@ -2346,32 +2380,32 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.13663639593869448, 0.10267926612868905, 0.10211556311696768, 0.1022157131228596, 0.10276366397738457, 0.10316716809757054, 0.10400762502104044, 0.1036144569516182, 0.10212750104255974, 0.1055918661877513, 0.10632568295113742, 0.10312071698717773, 0.10311155393719673, 0.10295527102425694, 0.10257471213117242, 0.10273163695819676, 0.1027986858971417, 0.10271038278006017, 0.10300101898610592, 0.10355614987201989, 0.10290863993577659, 0.10272311302833259, 0.10252957395277917, 0.10256867203861475, 0.10233708587475121, 0.10289850505068898, 0.10262413509190083, 0.1036946359090507, 0.10280499490909278, 0.10290105803869665, 0.10315444902516901, 0.10305099305696785, 0.10433934000320733, 0.10253811697475612, 0.12033910700120032, 0.10262577701359987, 0.1027025009971112, 0.10267084301449358, 0.10518469591625035, 0.10287043312564492, 0.10222443589009345, 0.10287058399990201, 0.10192370694130659, 0.10491276881657541, 0.1018740520812571, 0.10185273899696767, 0.10187790798954666, 0.1027308339253068, 0.10230831219814718, 0.10203779698349535]</t>
+          <t>[0.10332082118839025, 0.10282113403081894, 0.102848244830966, 0.10337304975837469, 0.10390269197523594, 0.10290305688977242, 0.10294631030410528, 0.10286362795159221, 0.10271311178803444, 0.10287087876349688, 0.10314525896683335, 0.1029272829182446, 0.10491927387192845, 0.10288445884361863, 0.10290833469480276, 0.10329893976449966, 0.1029144530184567, 0.11324664624407887, 0.1030326196923852, 0.10282719414681196, 0.10301566636189818, 0.1031378279440105, 0.10337009513750672, 0.10312663204967976, 0.10354130109772086, 0.10278994683176279, 0.1033231751061976, 0.10292408801615238, 0.1033116988837719, 0.10335680609568954, 0.10339484177529812, 0.10330233396962285, 0.10283742798492312, 0.10992054687812924, 0.10345908813178539, 0.10350312385708094, 0.10369057627394795, 0.10354577796533704, 0.10398238198831677, 0.10437385831028223, 0.10532264690846205, 0.10689742304384708, 0.10339628485962749, 0.10320025077089667, 0.10347653459757566, 0.1030157757923007, 0.10369594395160675, 0.10307215014472604, 0.10380815202370286, 0.10334914410486817]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.1039976967778057</v>
+        <v>0.1037161778099835</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1027811749372631</v>
+        <v>0.1033070164266974</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.005390926871171654</v>
+        <v>0.001806033065430674</v>
       </c>
       <c r="AI20" t="n">
-        <v>9369.297450424929</v>
+        <v>9423.801699716714</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10410</v>
+        <v>10450</v>
       </c>
       <c r="AK20" t="n">
-        <v>2653.68725558918</v>
+        <v>2662.993337840609</v>
       </c>
       <c r="AL20" t="n">
         <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>11282</v>
+        <v>11266</v>
       </c>
       <c r="AN20" t="n">
         <v>25570</v>
@@ -2387,32 +2421,32 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.08991780900396407, 0.09019831800833344, 0.09015979105606675, 0.09102139994502068, 0.09043888794258237, 0.09006156283430755, 0.08975102799013257, 0.08938580309040844, 0.09044694993644953, 0.08994776289910078, 0.08989330101758242, 0.08963555609807372, 0.08981054881587625, 0.08974482910707593, 0.09005798795260489, 0.08963826112449169, 0.0904539490584284, 0.09042531787417829, 0.09008173388428986, 0.08992922608740628, 0.09011285193264484, 0.09016170399263501, 0.08972216607071459, 0.08957067993469536, 0.08981113904155791, 0.09003976988606155, 0.09045522310771048, 0.08966990699991584, 0.08957254188135266, 0.08957977197133005, 0.08959878096356988, 0.09406989300623536, 0.08979051699861884, 0.09001892106607556, 0.08988514915108681, 0.09213796211406589, 0.09045150689780712, 0.09075743495486677, 0.09097005403600633, 0.0900282240472734, 0.0901153739541769, 0.09068116010166705, 0.09187828097492456, 0.09038340486586094, 0.0906641751062125, 0.09296300518326461, 0.09022631007246673, 0.0901955938898027, 0.0905404610093683, 0.09074881207197905]</t>
+          <t>[0.09115873277187347, 0.09044368285685778, 0.09108661394566298, 0.09070019703358412, 0.09094960987567902, 0.09080831799656153, 0.0908898408524692, 0.09084807708859444, 0.09101150184869766, 0.09089806210249662, 0.09074088698253036, 0.09098544297739863, 0.09070730581879616, 0.09035254595801234, 0.09065533941611648, 0.09134374000132084, 0.09537056600674987, 0.09111477620899677, 0.09077348513528705, 0.09270393429324031, 0.09036911092698574, 0.09059441788122058, 0.09155852114781737, 0.09056636458262801, 0.09073248505592346, 0.09067484783008695, 0.09041057201102376, 0.09052248066291213, 0.09052386321127415, 0.09126559318974614, 0.0907367211766541, 0.09106085496023297, 0.09143445501103997, 0.09381693974137306, 0.0915606040507555, 0.09080918971449137, 0.09076453186571598, 0.09036575630307198, 0.09045049222186208, 0.09090511314570904, 0.09124172618612647, 0.09094752511009574, 0.0907666846178472, 0.09042210085317492, 0.0907628103159368, 0.09053638204932213, 0.09047809382900596, 0.09188656182959676, 0.09197062579914927, 0.09513486409559846]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.09031601598020643</v>
+        <v>0.09113625897094607</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.09009729290846735</v>
+        <v>0.09080875385552645</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0008587919851414518</v>
+        <v>0.00104700544677328</v>
       </c>
       <c r="AV20" t="n">
-        <v>7116.887417218543</v>
+        <v>7249.587096774194</v>
       </c>
       <c r="AW20" t="n">
-        <v>7842</v>
+        <v>7930</v>
       </c>
       <c r="AX20" t="n">
-        <v>1951.770895489279</v>
+        <v>1950.534182204832</v>
       </c>
       <c r="AY20" t="n">
         <v>2858</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10298</v>
+        <v>9978</v>
       </c>
       <c r="BA20" t="n">
         <v>15842</v>
@@ -2423,7 +2457,9 @@
       <c r="BC20" t="n">
         <v>0.7843137254901961</v>
       </c>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BD20" t="n">
+        <v>0.7037037037037037</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2440,71 +2476,73 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2.869158521061763, 2.863780973944813, 2.8566431391518563, 2.8509048209525645, 2.8631508878897876, 2.8835155449341983, 2.845968723995611, 2.8479482550174, 2.873121757991612, 2.8417349359951913, 2.842674510087818, 2.84733200003393, 2.86713016894646, 2.8463467739056796, 2.870215004077181, 2.8663201450835913, 2.8669494569767267, 2.844802120933309, 2.8543136541265994, 2.8816484620328993, 2.8601122410036623, 2.8603966168593615, 2.8878218580503017, 2.8551403279416263, 2.873437131056562, 2.869974236935377, 2.8654485049191862, 2.847162518184632, 2.8563912389799953, 2.8690739469602704, 2.900201383046806, 2.8549631589557976, 2.8701202219817787, 2.8743722660001367, 2.8508633619640023, 2.855368993943557, 2.8780022759456187, 2.8642134708352387, 2.848924789810553, 2.8444389449432492, 2.877701143035665, 2.844844591105357, 2.8586425811517984, 2.854610395152122, 2.8431873319204897, 2.884832651820034, 2.850987189915031, 2.880108925048262, 2.865232548909262, 2.866167539032176]</t>
+          <t>[2.8844767156988382, 2.94063043827191, 2.857792385853827, 2.8831894700415432, 2.83270500600338, 2.855995065998286, 2.8513838863000274, 2.8742631943896413, 2.8788301390595734, 2.859881983138621, 2.843008315190673, 2.85885404702276, 2.888546260073781, 2.836495337076485, 2.8759626699611545, 2.875689970795065, 2.8513748748227954, 2.855926267337054, 2.8787330770865083, 2.8765137041918933, 2.9143985770642757, 2.8925544903613627, 2.964425998739898, 2.867239696905017, 2.859905964229256, 2.8656222890131176, 2.8796170600689948, 2.8412352870218456, 2.859655812382698, 2.8850382240489125, 2.8683479470200837, 2.9079241920262575, 2.8369866190478206, 2.8651204998604953, 2.848180228844285, 2.8622720977291465, 2.87330561876297, 2.870851495768875, 2.876165257766843, 2.8693876448087394, 2.8696378897875547, 2.870087904855609, 2.8535850699990988, 2.8818167662248015, 2.8676689849235117, 2.8398655392229557, 2.8600334697403014, 2.8630172847770154, 2.883937711827457, 2.853061537258327]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.861928044850938</v>
+        <v>2.870223999368027</v>
       </c>
       <c r="G21" t="n">
-        <v>2.861773752374575</v>
+        <v>2.868008465971798</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01369762618966281</v>
+        <v>0.0241475935892123</v>
       </c>
       <c r="I21" t="n">
-        <v>6359419.866067312</v>
+        <v>6347943.048189073</v>
       </c>
       <c r="J21" t="n">
-        <v>6777740</v>
+        <v>6777684</v>
       </c>
       <c r="K21" t="n">
-        <v>1498603.349779418</v>
+        <v>1512022.127986695</v>
       </c>
       <c r="L21" t="n">
         <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>11397022</v>
+        <v>11445494</v>
       </c>
       <c r="N21" t="n">
-        <v>11451642</v>
+        <v>11451730</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>8475</v>
+      </c>
       <c r="Q21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.005878909025341272, 0.005616514943540096, 0.006047881906852126, 0.005633600056171417, 0.005576655967161059, 0.006988228065893054, 0.007063120836392045, 0.00701746204867959, 0.007156469859182835, 0.007119195070117712, 0.007114727981388569, 0.007232634117826819, 0.006961046950891614, 0.0069139080587774515, 0.0069883291143924, 0.006984002888202667, 0.007073327200487256, 0.007058313116431236, 0.007334738038480282, 0.007029921980574727, 0.007054136833176017, 0.0072073061019182205, 0.007152423961088061, 0.00701443781144917, 0.0070273971650749445, 0.007068969076499343, 0.00704571302048862, 0.007088238140568137, 0.006949480855837464, 0.007018513046205044, 0.0070401260163635015, 0.007080795941874385, 0.007068278035148978, 0.0069232110399752855, 0.006928018061444163, 0.006895529106259346, 0.0069066069554537535, 0.006927667884156108, 0.006935399025678635, 0.007142059970647097, 0.007027156883850694, 0.006854037055745721, 0.006833866937085986, 0.006812243955209851, 0.00675697298720479, 0.006814348977059126, 0.006833906983956695, 0.0068939561024308205, 0.006817051908001304, 0.007044290890917182]</t>
+          <t>[0.043202569242566824, 0.03947582421824336, 0.03710262198001146, 0.031927057076245546, 0.039287890773266554, 0.03939003497362137, 0.037980605848133564, 0.031793196219950914, 0.03137389803305268, 0.03562048403546214, 0.03153754398226738, 0.035030561964958906, 0.03136936202645302, 0.03162027709186077, 0.03154357336461544, 0.0315417991951108, 0.0313863973133266, 0.031853106804192066, 0.03828274738043547, 0.040016721934080124, 0.03838459961116314, 0.0377449132502079, 0.031517162919044495, 0.031378595158457756, 0.031957271974533796, 0.03157104505226016, 0.031402922701090574, 0.032044072169810534, 0.03166049811989069, 0.0318735558539629, 0.031452867202460766, 0.031548029743134975, 0.0316370939835906, 0.03197475802153349, 0.03160427417606115, 0.03151626279577613, 0.03164532408118248, 0.03194789821282029, 0.03166357288137078, 0.03141406876966357, 0.03149533225223422, 0.03137552225962281, 0.03176099807024002, 0.03199884295463562, 0.031490773893892765, 0.031527267303317785, 0.031265868339687586, 0.03135941829532385, 0.03200387069955468, 0.031616069842129946]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.006879022559151054</v>
+        <v>0.03326338048093021</v>
       </c>
       <c r="T21" t="n">
-        <v>0.007001383462920785</v>
+        <v>0.03165291110053658</v>
       </c>
       <c r="U21" t="n">
-        <v>0.000401360988206935</v>
+        <v>0.003123673026656169</v>
       </c>
       <c r="V21" t="n">
-        <v>2930.32</v>
+        <v>8107.133333333333</v>
       </c>
       <c r="W21" t="n">
-        <v>2858</v>
+        <v>10079</v>
       </c>
       <c r="X21" t="n">
-        <v>124.4923471133705</v>
+        <v>3766.377842067495</v>
       </c>
       <c r="Y21" t="n">
         <v>2858</v>
       </c>
       <c r="Z21" t="n">
-        <v>3306</v>
+        <v>13175</v>
       </c>
       <c r="AA21" t="n">
         <v>64715</v>
@@ -2520,32 +2558,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.14346766797825694, 0.10748031199909747, 0.10761854914017022, 0.10693375393748283, 0.1072751940228045, 0.10845560114830732, 0.10722959600389004, 0.10722815291956067, 0.10748532810248435, 0.10716357710771263, 0.10730418702587485, 0.1077304461505264, 0.10856012720614672, 0.10781383188441396, 0.10800142213702202, 0.10784976510331035, 0.10849926597438753, 0.10872888914309442, 0.10820325184613466, 0.10734006203711033, 0.10728358593769372, 0.10709974099881947, 0.10820919112302363, 0.10875261505134404, 0.10758935380727053, 0.10747012589126825, 0.10705207008868456, 0.10764386714436114, 0.10806620796211064, 0.10832307301461697, 0.10856513399630785, 0.10837008408270776, 0.10821855603717268, 0.10864287219010293, 0.10878026601858437, 0.1081047949846834, 0.10759133705869317, 0.10725217987783253, 0.10733421216718853, 0.10779566294513643, 0.12068225792609155, 0.10765723697841167, 0.10724707180634141, 0.10680213593877852, 0.10742494813166559, 0.10677087912335992, 0.10684115695767105, 0.10729974904097617, 0.10845674201846123, 0.10714865499176085]</t>
+          <t>[0.1397849479690194, 0.1082155266776681, 0.1098895319737494, 0.10840543080121279, 0.10903780767694116, 0.10835808096453547, 0.11583882384002209, 0.10844125598669052, 0.10924275312572718, 0.10797414369881153, 0.11687202099710703, 0.10880920616909862, 0.11041139205917716, 0.1083647501654923, 0.10954935289919376, 0.10854528099298477, 0.10874290484935045, 0.1085835681296885, 0.10837759915739298, 0.10905399080365896, 0.10798976058140397, 0.10817655920982361, 0.10772012360394001, 0.10793319391086698, 0.1238834229297936, 0.10875074984505773, 0.11378449015319347, 0.10857006814330816, 0.10823659924790263, 0.10857575573027134, 0.10893009509891272, 0.10864216508343816, 0.10851902095600963, 0.10870390897616744, 0.10884171398356557, 0.11021566111594439, 0.11312932008877397, 0.10882508801296353, 0.11126787401735783, 0.10906712198629975, 0.1089750942774117, 0.11509882612153888, 0.10814592335373163, 0.10788758704438806, 0.11341468710452318, 0.10851628705859184, 0.10855704825371504, 0.10843683825805783, 0.10922678979113698, 0.10836779605597258]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.1086968948831782</v>
+        <v>0.1103777587786317</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1076312081422657</v>
+        <v>0.1087234069127589</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.005372130639607666</v>
+        <v>0.005156006088832202</v>
       </c>
       <c r="AI21" t="n">
-        <v>9515.631840796021</v>
+        <v>9494.704714640198</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10418</v>
+        <v>10450</v>
       </c>
       <c r="AK21" t="n">
-        <v>2519.900129395167</v>
+        <v>2517.532638660125</v>
       </c>
       <c r="AL21" t="n">
         <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>11410</v>
+        <v>11282</v>
       </c>
       <c r="AN21" t="n">
         <v>25570</v>
@@ -2561,32 +2599,32 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.09638355392962694, 0.09583690599538386, 0.096705405972898, 0.09615717502310872, 0.09667889610864222, 0.09672758006490767, 0.09662243188358843, 0.09626683802343905, 0.09654968185350299, 0.09633601317182183, 0.09622870199382305, 0.09657352697104216, 0.09661554102785885, 0.09696571598760784, 0.0969684578012675, 0.09615205903537571, 0.09688660595566034, 0.09642046899534762, 0.09622178180143237, 0.09679115400649607, 0.09621470095589757, 0.09658214193768799, 0.09688055701553822, 0.09679808397777379, 0.09663021401502192, 0.09700723690912127, 0.0967638329602778, 0.09580470714718103, 0.09588131308555603, 0.09608578798361123, 0.09585462207905948, 0.09644751902669668, 0.09591356012970209, 0.09627908701077104, 0.0958065188024193, 0.09618265391327441, 0.09603341994807124, 0.09636197192594409, 0.09602181194350123, 0.09671012405306101, 0.0957160850521177, 0.0961484219878912, 0.09568087197840214, 0.09583129710517824, 0.09568949602544308, 0.09586691111326218, 0.09579347097314894, 0.09648539498448372, 0.09676374401897192, 0.09561392199248075]</t>
+          <t>[0.09742003213614225, 0.09773202007636428, 0.09753181971609592, 0.09758951468393207, 0.11088971886783838, 0.09771718690171838, 0.09681191155686975, 0.09717253223061562, 0.09737381292507052, 0.09718283684924245, 0.09763380326330662, 0.09688455006107688, 0.09731225110590458, 0.09687023982405663, 0.09756182506680489, 0.09718812583014369, 0.09771026577800512, 0.09734942624345422, 0.09717387426644564, 0.09714933717623353, 0.0976678030565381, 0.09785035578534007, 0.09776671230792999, 0.09705180115997791, 0.09697748068720102, 0.09773028688505292, 0.09726064279675484, 0.09719701809808612, 0.09719271399080753, 0.09703721897676587, 0.09741834085434675, 0.09751373203471303, 0.09713999275118113, 0.09869696293026209, 0.0969278160482645, 0.10175970615819097, 0.09761368297040462, 0.09802739089354873, 0.10656655859202147, 0.0972727732732892, 0.09856339311227202, 0.0972825470380485, 0.09716278733685613, 0.09780529933050275, 0.09784263512119651, 0.09775103675201535, 0.0978261511772871, 0.09734071278944612, 0.09727620799094439, 0.09736916562542319]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.09631875951308758</v>
+        <v>0.09798288022167981</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.09630755009129643</v>
+        <v>0.09739607688970864</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0004039474801820341</v>
+        <v>0.002369979185007145</v>
       </c>
       <c r="AV21" t="n">
-        <v>7263.174285714285</v>
+        <v>7260.295454545455</v>
       </c>
       <c r="AW21" t="n">
-        <v>7846</v>
+        <v>7866</v>
       </c>
       <c r="AX21" t="n">
-        <v>1834.479508459731</v>
+        <v>1836.314892765504</v>
       </c>
       <c r="AY21" t="n">
         <v>2858</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9082</v>
+        <v>10066</v>
       </c>
       <c r="BA21" t="n">
         <v>15842</v>
@@ -2597,7 +2635,9 @@
       <c r="BC21" t="n">
         <v>0.7758620689655172</v>
       </c>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v>0.7306034482758621</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2614,71 +2654,73 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[5.180743832839653, 5.1320121109019965, 5.154055939987302, 5.228240419179201, 5.151437839958817, 5.160657044965774, 5.154029885074124, 5.169205385027453, 5.128974876832217, 5.131068589864299, 5.145850918954238, 5.182191173080355, 5.130921845091507, 5.116422054124996, 5.128130787052214, 5.149194115074351, 5.120634373975918, 5.13358474499546, 5.1589184671174735, 5.111371848965064, 5.163331797812134, 5.121754966909066, 5.102104130899534, 5.113881780067459, 5.099268502090126, 5.134815902914852, 5.128341280855238, 5.132770554861054, 5.146862265886739, 5.163837895030156, 5.1192976699676365, 5.115091359009966, 5.135746392887086, 5.113250735914335, 5.220930815907195, 5.1207939519081265, 5.138801000779495, 5.125401471974328, 5.119430804857984, 5.139559573028237, 5.127330719958991, 5.112764159915969, 5.127983215032145, 5.106956437928602, 5.128684093011543, 5.140011391136795, 5.1415191881824285, 5.144725093152374, 5.115882931975648, 5.129750696010888]</t>
+          <t>[5.1591538758948445, 5.124903503339738, 5.148781643714756, 5.132071180269122, 5.182165353093296, 5.109981547109783, 5.146594346035272, 5.148153328802437, 5.123751062899828, 5.137063255067915, 5.154372757766396, 5.16353411693126, 5.142241264693439, 5.138934776186943, 5.23364357277751, 5.146123684942722, 5.109871556982398, 5.123544579837471, 5.1537557491101325, 5.150176693685353, 5.126150940079242, 5.148475868627429, 5.08517037704587, 5.104750758968294, 5.107763319276273, 5.158202376682311, 5.120156874880195, 5.131394993048161, 5.125265600159764, 5.097442275378853, 5.124370382167399, 5.1444072262384, 5.132161632180214, 5.1111320038326085, 5.164699122775346, 5.176236338913441, 5.143537707161158, 5.142408357933164, 5.121349265798926, 5.139995288103819, 5.107388584408909, 5.1422801478765905, 5.154242548160255, 5.1197312460280955, 5.120158554986119, 5.152107775211334, 5.2139443210326135, 5.105062415357679, 5.166134766768664, 5.14216329716146]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.137970540658571</v>
+        <v>5.139142044307664</v>
       </c>
       <c r="G22" t="n">
-        <v>5.131540350383148</v>
+        <v>5.141079292632639</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02610196928351742</v>
+        <v>0.02719156023851781</v>
       </c>
       <c r="I22" t="n">
-        <v>6605839.133053222</v>
+        <v>6598395.024165945</v>
       </c>
       <c r="J22" t="n">
-        <v>6909512</v>
+        <v>6909444</v>
       </c>
       <c r="K22" t="n">
-        <v>1133027.747243729</v>
+        <v>1143977.884216364</v>
       </c>
       <c r="L22" t="n">
         <v>2858</v>
       </c>
       <c r="M22" t="n">
-        <v>11397022</v>
+        <v>11451510</v>
       </c>
       <c r="N22" t="n">
-        <v>11451570</v>
+        <v>11451574</v>
       </c>
       <c r="O22" t="n">
         <v>11</v>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>7925</v>
+      </c>
       <c r="Q22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.0030686671379953623, 0.00413535488769412, 0.005634180037304759, 0.005594931077212095, 0.006817430956289172, 0.006966774817556143, 0.007252622861415148, 0.007113734958693385, 0.006966884946450591, 0.007095085922628641, 0.007071271073073149, 0.0070555179845541716, 0.007108118152245879, 0.007063229102641344, 0.007110981037840247, 0.007038672920316458, 0.007248396053910255, 0.007094556000083685, 0.007535496028140187, 0.007052113069221377, 0.0070422678254544735, 0.007006545085459948, 0.00706512201577425, 0.007058422081172466, 0.007017701864242554, 0.007031342014670372, 0.0070035699754953384, 0.006979514146223664, 0.006941837957128882, 0.006946004927158356, 0.006918733008205891, 0.006991890957579017, 0.0068654019851237535, 0.006882379064336419, 0.006939925020560622, 0.006872743833810091, 0.007002940168604255, 0.0068936950992792845, 0.006748258834704757, 0.007055075839161873, 0.006938002072274685, 0.00673032202757895, 0.006896849954500794, 0.006854125997051597, 0.006761647993698716, 0.0067702909000217915, 0.006795227061957121, 0.006731821922585368, 0.0067427679896354675, 0.006821085931733251]</t>
+          <t>[0.01685998123139143, 0.01706734113395214, 0.01659001363441348, 0.017146857921034098, 0.016451216768473387, 0.017642141319811344, 0.01655489392578602, 0.016569162718951702, 0.01643007667735219, 0.016497808042913675, 0.017455821856856346, 0.01633058814331889, 0.017262692097574472, 0.016481683123856783, 0.01636588992550969, 0.016361613757908344, 0.016311498824506998, 0.01746632670983672, 0.016791687346994877, 0.017767686862498522, 0.016384510323405266, 0.017059158068150282, 0.01644045300781727, 0.016274324152618647, 0.01627932209521532, 0.01631692796945572, 0.016317978966981173, 0.020310362335294485, 0.028112379368394613, 0.031118417158722878, 0.0314067299477756, 0.032806573901325464, 0.03275511600077152, 0.033337307162582874, 0.033147891983389854, 0.03270625276491046, 0.03332090377807617, 0.03292862372472882, 0.03300403896719217, 0.03292870707809925, 0.03275874210521579, 0.03264905698597431, 0.03270064480602741, 0.03341515501961112, 0.03299928270280361, 0.03316569095477462, 0.03326093265786767, 0.03297344269230962, 0.03307115891948342, 0.03301968099549413]</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>0.006786590651609003</v>
+        <v>0.02378749497234821</v>
       </c>
       <c r="T22" t="n">
-        <v>0.006966829882003367</v>
+        <v>0.01755423401482403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0007329967129012544</v>
+        <v>0.007965311622954682</v>
       </c>
       <c r="V22" t="n">
-        <v>2930.32</v>
+        <v>7410.975206611571</v>
       </c>
       <c r="W22" t="n">
-        <v>2858</v>
+        <v>9975</v>
       </c>
       <c r="X22" t="n">
-        <v>124.4923471133705</v>
+        <v>3810.886199347884</v>
       </c>
       <c r="Y22" t="n">
         <v>2858</v>
       </c>
       <c r="Z22" t="n">
-        <v>3306</v>
+        <v>12319</v>
       </c>
       <c r="AA22" t="n">
         <v>64715</v>
@@ -2694,35 +2736,35 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[0.14521019905805588, 0.10881001711823046, 0.11000165296718478, 0.10919538419693708, 0.10893222107551992, 0.1087587911169976, 0.10928348684683442, 0.10914433002471924, 0.10952500882558525, 0.10983180906623602, 0.10906268493272364, 0.10940560000017285, 0.11047302815131843, 0.10947293206118047, 0.11010153102688491, 0.10956449690274894, 0.1107339090667665, 0.11026210291311145, 0.10892375791445374, 0.1097562441136688, 0.11010529706254601, 0.10961294104345143, 0.10937326098792255, 0.1096590890083462, 0.10887693800032139, 0.10975392092950642, 0.10890543088316917, 0.10921559506095946, 0.10912461811676621, 0.10953864804469049, 0.10913817794062197, 0.10910684219561517, 0.1093625130597502, 0.10918275616131723, 0.10949275991879404, 0.10934535902924836, 0.10916074318811297, 0.10993850789964199, 0.10958287492394447, 0.10935342009179294, 0.1089599821716547, 0.10915227001532912, 0.10969267901964486, 0.1097619419451803, 0.10875297081656754, 0.10934848291799426, 0.1088997412007302, 0.10964748100377619, 0.10848593199625611, 0.10864671296440065]</t>
+          <t>[0.13044939888641238, 0.11024490278214216, 0.1099538397975266, 0.11461685597896576, 0.1146673820912838, 0.11016889102756977, 0.1125869289971888, 0.12293813796713948, 0.11037453915923834, 0.11139805009588599, 0.11087236367166042, 0.1114756353199482, 0.11073069088160992, 0.11116376891732216, 0.11056762700900435, 0.11051558097824454, 0.11228445684537292, 0.11102129612118006, 0.11035779304802418, 0.11037575034424663, 0.1108542256988585, 0.1107528149150312, 0.11058096773922443, 0.1106308619491756, 0.11089094122871757, 0.11093551805242896, 0.11057233577594161, 0.11046411283314228, 0.11120860604569316, 0.11192297609522939, 0.11611314490437508, 0.11061784299090505, 0.11058467393741012, 0.11278755916282535, 0.11093521723523736, 0.11956250807270408, 0.11032487312331796, 0.11068033613264561, 0.10984875122085214, 0.10968115087598562, 0.10985521087422967, 0.10996265104040504, 0.10999119421467185, 0.11050015827640891, 0.10963516170158982, 0.11094221798703074, 0.10949443140998483, 0.11003010394051671, 0.11041298601776361, 0.10997072421014309]</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.1101125414995477</v>
+        <v>0.1117501629516482</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.1093579665757716</v>
+        <v>0.1106243524700403</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.005086800819173654</v>
+        <v>0.003631890109293291</v>
       </c>
       <c r="AI22" t="n">
-        <v>10205.26368159204</v>
+        <v>10260.06965174129</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11218</v>
+        <v>11258</v>
       </c>
       <c r="AK22" t="n">
-        <v>2785.361638366403</v>
+        <v>2799.717295155423</v>
       </c>
       <c r="AL22" t="n">
         <v>2858</v>
       </c>
       <c r="AM22" t="n">
-        <v>12706</v>
+        <v>13314</v>
       </c>
       <c r="AN22" t="n">
-        <v>26930</v>
+        <v>26786</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
@@ -2735,26 +2777,26 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>[0.10023753810673952, 0.09962175390683115, 0.1040535329375416, 0.10100592719390988, 0.10305283311754465, 0.10105625307187438, 0.10208531492389739, 0.10179649200290442, 0.1012838629540056, 0.10083155613392591, 0.10131419100798666, 0.100873869843781, 0.10103818587958813, 0.10063578304834664, 0.10013232915662229, 0.1005760240368545, 0.10067703505046666, 0.10133076296187937, 0.10074836085550487, 0.10117166489362717, 0.10097456001676619, 0.10069961007684469, 0.10015632607974112, 0.1004657291341573, 0.09984472882933915, 0.1004276608582586, 0.10043667396530509, 0.10026055108755827, 0.10023606312461197, 0.10040609794668853, 0.10169661301188171, 0.10093888593837619, 0.10226331907324493, 0.10021423199214041, 0.10078966408036649, 0.10194352199323475, 0.1015219809487462, 0.1014345190487802, 0.10165440710261464, 0.10111758299171925, 0.10114628681913018, 0.1008073699194938, 0.10047495202161372, 0.10071020503528416, 0.10049166693352163, 0.1009185859002173, 0.10077879810705781, 0.10138587583787739, 0.1014236519113183, 0.10136317182332277]</t>
+          <t>[0.10152907110750675, 0.1014310959726572, 0.10119726415723562, 0.1154748098924756, 0.10148575622588396, 0.10267434595152736, 0.10189704224467278, 0.10235982527956367, 0.10155081422999501, 0.10238721501082182, 0.10204845806583762, 0.10274597210809588, 0.10163634177297354, 0.10199341783300042, 0.10521399602293968, 0.10194808896631002, 0.10084025142714381, 0.10089014517143369, 0.10096138203516603, 0.10106853302568197, 0.10052247531712055, 0.10119294794276357, 0.101477375254035, 0.10149965900927782, 0.10155953699722886, 0.1015453259460628, 0.10123655386269093, 0.10228639608249068, 0.10089871799573302, 0.10280812485143542, 0.10201341565698385, 0.10313567612320185, 0.10089558223262429, 0.10127711528912187, 0.10184067860245705, 0.1016671690158546, 0.10197737161070108, 0.10157865611836314, 0.1051542367786169, 0.10146923176944256, 0.10149275790899992, 0.1036115288734436, 0.10156032862141728, 0.10270119598135352, 0.10168971074745059, 0.102816266939044, 0.10326209617778659, 0.10199590073898435, 0.1013001180253923, 0.10266066482290626]</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>0.1010101312538609</v>
+        <v>0.1022092128358781</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.1008962278719991</v>
+        <v>0.1016517553944141</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.0007786654909674713</v>
+        <v>0.002138172777602532</v>
       </c>
       <c r="AV22" t="n">
-        <v>7930.297142857143</v>
+        <v>7923.868945868946</v>
       </c>
       <c r="AW22" t="n">
-        <v>8670</v>
+        <v>8666</v>
       </c>
       <c r="AX22" t="n">
-        <v>2105.565055683804</v>
+        <v>2096.907670132726</v>
       </c>
       <c r="AY22" t="n">
         <v>2858</v>
@@ -2771,7 +2813,9 @@
       <c r="BC22" t="n">
         <v>0.771551724137931</v>
       </c>
-      <c r="BD22" t="inlineStr"/>
+      <c r="BD22" t="n">
+        <v>0.6831896551724138</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2788,71 +2832,73 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[4.766531948000193, 4.777449551969767, 4.7888382421806455, 4.830776619026437, 4.806253862101585, 4.836106378119439, 4.805605066008866, 4.823866392951459, 4.7842842938844115, 4.782677731942385, 4.830872860969976, 4.799962711986154, 4.795959322946146, 4.79604193312116, 4.792702668812126, 4.787966333795339, 4.772174350218847, 4.805423003155738, 4.775185787118971, 4.778273261152208, 4.808534702053294, 4.801324664149433, 4.8022671330254525, 4.786116207949817, 4.813800679054111, 4.826725726015866, 4.828732481924817, 4.800449558999389, 4.772819914156571, 4.764758995966986, 4.78285277588293, 4.809881987050176, 4.820619808975607, 4.7640485488809645, 4.790817349916324, 4.7874547590035945, 4.799304529093206, 4.783822141122073, 4.835230296943337, 4.804099987028167, 4.7839651820249856, 4.804811154957861, 4.784618225181475, 4.789579482050613, 4.796038822038099, 4.81434929696843, 4.8472391159739345, 4.898802395910025, 4.796256321016699, 4.793322545941919]</t>
+          <t>[4.791483917739242, 4.798726576846093, 4.778916854877025, 4.842419509775937, 4.817532429937273, 4.8431660188362, 4.830806714016944, 4.774794977158308, 4.784940207842737, 4.81511340290308, 4.834890355821699, 4.826704065781087, 4.8142622387968, 4.855335122905672, 4.8003173330798745, 4.791620718315244, 4.793813639786094, 4.818455905653536, 4.843680133111775, 4.8218025444075465, 4.808299267664552, 4.799861742183566, 4.761635529343039, 4.792361057829112, 4.7994381482712924, 4.785653680097312, 4.8071874948218465, 4.796277079731226, 4.802472983021289, 4.852950696833432, 4.825486031360924, 4.829802445136011, 4.83190087415278, 4.796731733251363, 4.813545431941748, 4.785279631149024, 4.8267369121313095, 4.773895739112049, 4.823712354060262, 4.809592893347144, 4.811380482278764, 4.8653818550519645, 4.803881562780589, 4.7976054470054805, 4.780964371748269, 4.894510286860168, 4.823043800890446, 4.804040329065174, 4.84257093584165, 4.793742629233748]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.800591942174361</v>
+        <v>4.812374521875754</v>
       </c>
       <c r="G23" t="n">
-        <v>4.796149127068929</v>
+        <v>4.808946080505848</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02432870985395795</v>
+        <v>0.02583941937947818</v>
       </c>
       <c r="I23" t="n">
-        <v>6587686.715309418</v>
+        <v>6581204.616648993</v>
       </c>
       <c r="J23" t="n">
-        <v>6909444</v>
+        <v>6909356</v>
       </c>
       <c r="K23" t="n">
-        <v>1169861.928354626</v>
+        <v>1183028.808168167</v>
       </c>
       <c r="L23" t="n">
         <v>2858</v>
       </c>
       <c r="M23" t="n">
-        <v>11397054</v>
+        <v>11397022</v>
       </c>
       <c r="N23" t="n">
-        <v>11451503</v>
+        <v>11451570</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>7425</v>
+      </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.003085529897361994, 0.0028111699502915144, 0.004033969948068261, 0.005674557061865926, 0.006120224017649889, 0.0067886540200561285, 0.006966311018913984, 0.007180351996794343, 0.006939271930605173, 0.0070303569082170725, 0.006928113987669349, 0.007003356935456395, 0.00704072299413383, 0.007035824935883284, 0.006994283990934491, 0.006901864893734455, 0.006920472951605916, 0.0070647678803652525, 0.007493589771911502, 0.007004568120464683, 0.0070253401063382626, 0.006925179855898023, 0.00698246480897069, 0.0070259300991892815, 0.007054363843053579, 0.00698678195476532, 0.00698118400759995, 0.0069897358771413565, 0.007032689871266484, 0.0069839979987591505, 0.0069411941803991795, 0.006944177905097604, 0.006920432206243277, 0.00689881993457675, 0.006936616962775588, 0.006854823790490627, 0.006950848037377, 0.006834353087469935, 0.006927262060344219, 0.0070490650832653046, 0.006908584153279662, 0.006838079076260328, 0.006901104003190994, 0.006980241974815726, 0.006814554100856185, 0.006795073859393597, 0.006804818985983729, 0.006779392948374152, 0.006833372870460153, 0.00671260105445981]</t>
+          <t>[0.06790257804095745, 0.06772600393742323, 0.06725279614329338, 0.06710053700953722, 0.06883186101913452, 0.06769984494894743, 0.06766340089961886, 0.0675901910290122, 0.0676345368847251, 0.0670582433231175, 0.06846867688000202, 0.06689238408580422, 0.06713941507041454, 0.06733084237203002, 0.06698948005214334, 0.06710591400042176, 0.06791074108332396, 0.0667404979467392, 0.06681528966873884, 0.06667227577418089, 0.06666616722941399, 0.06681741308420897, 0.06700913002714515, 0.06674269074574113, 0.06703105196356773, 0.06704603414982557, 0.07144871074706316, 0.06660045683383942, 0.06649128394201398, 0.0664550201036036, 0.06858431920409203, 0.06683199433609843, 0.06693298602476716, 0.0666960896924138, 0.06838010437786579, 0.06731387600302696, 0.06723761232569814, 0.06663522869348526, 0.0669257752597332, 0.0665366412140429, 0.06660955119878054, 0.06668251100927591, 0.0663908738642931, 0.06662212079390883, 0.06650499533861876, 0.06722089694812894, 0.06686322065070271, 0.06704199779778719, 0.06684686616063118, 0.0670087980106473]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0.006692620958201587</v>
+        <v>0.06721399855799973</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006937944446690381</v>
+        <v>0.06700896401889622</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0009062649548173155</v>
+        <v>0.0008377161509667436</v>
       </c>
       <c r="V23" t="n">
-        <v>2930.32</v>
+        <v>9236.992</v>
       </c>
       <c r="W23" t="n">
-        <v>2858</v>
+        <v>10751</v>
       </c>
       <c r="X23" t="n">
-        <v>124.4923471133705</v>
+        <v>3189.824719778131</v>
       </c>
       <c r="Y23" t="n">
         <v>2858</v>
       </c>
       <c r="Z23" t="n">
-        <v>3306</v>
+        <v>11927</v>
       </c>
       <c r="AA23" t="n">
         <v>64715</v>
@@ -2868,32 +2914,32 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[0.15489131188951433, 0.1112485930789262, 0.11587020405568182, 0.11784324701875448, 0.1149183779489249, 0.11067195981740952, 0.11308793583884835, 0.11135784490033984, 0.11140883294865489, 0.11111008608713746, 0.11235525994561613, 0.11077336105518043, 0.11783292191103101, 0.11042622197419405, 0.11039642593823373, 0.11045211995951831, 0.11099001578986645, 0.11068203416652977, 0.11492924392223358, 0.11153677385300398, 0.11142337485216558, 0.11085704690776765, 0.11032200395129621, 0.1100691962055862, 0.11022219504229724, 0.11065997183322906, 0.11067359196022153, 0.11083579389378428, 0.11104015982709825, 0.11128960410133004, 0.11108743096701801, 0.11140047991648316, 0.11227203416638076, 0.11144176102243364, 0.11116322409361601, 0.11057989113032818, 0.11160696810111403, 0.11239220411516726, 0.1121856460813433, 0.11120234290137887, 0.11087362095713615, 0.11248263018205762, 0.11062722117640078, 0.11152922408655286, 0.11146091995760798, 0.11108276480808854, 0.11193735408596694, 0.11124345404095948, 0.11780862603336573, 0.11093664495274425]</t>
+          <t>[0.1135913492180407, 0.11214244831353426, 0.1139992312528193, 0.11239354498684406, 0.1134787411428988, 0.11199213331565261, 0.11370493797585368, 0.11281784996390343, 0.11321828002110124, 0.11232269881293178, 0.11362550174817443, 0.11247747112065554, 0.11365388194099069, 0.11549579072743654, 0.1160492217168212, 0.1122973901219666, 0.11381602473556995, 0.11293029831722379, 0.11361657688394189, 0.11312881577759981, 0.11411560513079166, 0.11228177696466446, 0.11339649558067322, 0.112575045786798, 0.11464473698288202, 0.11281275190412998, 0.1153672388754785, 0.1125129428692162, 0.13089019199833274, 0.11284950701519847, 0.11782727297395468, 0.1123801851645112, 0.11646115686744452, 0.11274798586964607, 0.1135994209907949, 0.11372531997039914, 0.11403829697519541, 0.11267308332026005, 0.11401249980553985, 0.11252603214234114, 0.1138143315911293, 0.1124984622001648, 0.11332384822890162, 0.11283089779317379, 0.11375437071546912, 0.1133238272741437, 0.11353000579401851, 0.11246337788179517, 0.11408768128603697, 0.1133339423686266]</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.1127098030690104</v>
+        <v>0.1138230096083134</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1112460235599428</v>
+        <v>0.1133652189746499</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.006380724345739865</v>
+        <v>0.002719701158421462</v>
       </c>
       <c r="AI23" t="n">
-        <v>10157.94789081886</v>
+        <v>10206.95012468828</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11210</v>
+        <v>11258</v>
       </c>
       <c r="AK23" t="n">
-        <v>2772.097099331776</v>
+        <v>2787.842245807003</v>
       </c>
       <c r="AL23" t="n">
         <v>2858</v>
       </c>
       <c r="AM23" t="n">
-        <v>12418</v>
+        <v>12082</v>
       </c>
       <c r="AN23" t="n">
         <v>26370</v>
@@ -2909,32 +2955,32 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[0.1036972850561142, 0.10487104207277298, 0.10447126417420805, 0.1060480650048703, 0.10471076192334294, 0.11585725285112858, 0.10361457988619804, 0.10353090497665107, 0.10791186499409378, 0.10409042192623019, 0.10446756798774004, 0.11048378702253103, 0.10383502207696438, 0.10731569305062294, 0.10533317411318421, 0.10373330907896161, 0.10402495390735567, 0.10429518995806575, 0.10568601102568209, 0.10384937189519405, 0.10475851409137249, 0.10415798495523632, 0.10404256195761263, 0.10386982304044068, 0.10385575285181403, 0.10420739813707769, 0.1044501131400466, 0.10463987500406802, 0.10473509784787893, 0.10558205703273416, 0.10438206791877747, 0.10397919593378901, 0.10391021310351789, 0.10333301918581128, 0.10391743388026953, 0.10414607496932149, 0.10390573600307107, 0.1050655220169574, 0.1043113840278238, 0.1042425511404872, 0.10400725807994604, 0.10430406196974218, 0.10335067613050342, 0.10422598593868315, 0.10341586405411363, 0.10411465796642005, 0.10363730508834124, 0.10434341221116483, 0.10321798594668508, 0.10386444488540292]</t>
+          <t>[0.10621823323890567, 0.10469331778585911, 0.10672069620341063, 0.10505812475457788, 0.10616146679967642, 0.10595730086788535, 0.10619019065052271, 0.10959321865811944, 0.11077111307531595, 0.1073997737839818, 0.10623610019683838, 0.10554076684638858, 0.1073352349922061, 0.10632816702127457, 0.10655203182250261, 0.10500382212921977, 0.10681747877970338, 0.10560774896293879, 0.10704290866851807, 0.10515352617949247, 0.10616274923086166, 0.10558889899402857, 0.10706880502402782, 0.10635108081623912, 0.10678698495030403, 0.10463789477944374, 0.10592145938426256, 0.10503889573737979, 0.10597209399566054, 0.10473747365176678, 0.10681610740721226, 0.10566841717809439, 0.10639468720182776, 0.10611059190705419, 0.11041238531470299, 0.10916364518925548, 0.10870868060737848, 0.11036343220621347, 0.10632064379751682, 0.10628919675946236, 0.10731343319639564, 0.10580634418874979, 0.10633245203644037, 0.10474544577300549, 0.10623250436037779, 0.10495135420933366, 0.10624826699495316, 0.10488554509356618, 0.10665138997137547, 0.10523848282173276]</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>0.1047160310298204</v>
+        <v>0.1064660112839192</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.104182691546157</v>
+        <v>0.1062343022786081</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.002033176110072445</v>
+        <v>0.001473824529315572</v>
       </c>
       <c r="AV23" t="n">
-        <v>7950.776203966006</v>
+        <v>8018.672086720867</v>
       </c>
       <c r="AW23" t="n">
-        <v>8666</v>
+        <v>8730</v>
       </c>
       <c r="AX23" t="n">
-        <v>2107.942371964435</v>
+        <v>2097.551300949627</v>
       </c>
       <c r="AY23" t="n">
         <v>2858</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10618</v>
+        <v>11874</v>
       </c>
       <c r="BA23" t="n">
         <v>15842</v>
@@ -2945,7 +2991,9 @@
       <c r="BC23" t="n">
         <v>0.728448275862069</v>
       </c>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BD23" t="n">
+        <v>0.6400862068965517</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2962,35 +3010,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[4.041721085086465, 4.039107250981033, 4.071156428195536, 4.048714403994381, 4.039458804065362, 4.094760199077427, 4.04733239300549, 4.037607961799949, 4.062633753987029, 4.08933595684357, 4.052825819002464, 4.048009247984737, 4.048392913071439, 4.048485161038116, 4.0268621479626745, 4.0434147929772735, 4.110941221006215, 4.035646531963721, 4.043682307936251, 4.054144083056599, 4.057846036972478, 4.056484390050173, 4.054837797069922, 4.093653558054939, 4.049996162066236, 4.044151303824037, 4.084660900058225, 4.062087704893202, 4.061138235963881, 4.068944669095799, 4.073393529979512, 4.049302474129945, 4.087253398960456, 4.080909593962133, 4.059487683000043, 4.066964281024411, 4.0283741790335625, 4.06500419578515, 4.044733070069924, 4.065173968905583, 4.15051554585807, 4.050947566982359, 4.056286777136847, 4.070793480845168, 4.061661784071475, 4.078031113836914, 4.0529616579879075, 4.0715870801359415, 4.078821477014571, 4.059529326157644]</t>
+          <t>[4.014009885024279, 4.055021547712386, 4.118867463897914, 4.044705740176141, 4.042390191927552, 4.0854315822944045, 4.062665710691363, 4.046576080843806, 4.089714586734772, 4.0753184841014445, 4.027917604427785, 4.050318687222898, 4.08451575320214, 4.057236663997173, 4.051419192925096, 4.055862850975245, 4.08328707003966, 4.090255589224398, 4.057916115038097, 4.083276141900569, 4.126992711331695, 4.086668679025024, 4.041112409904599, 4.094080687966198, 4.093105162959546, 4.070464184973389, 4.098091850057244, 4.056404802016914, 4.055701524019241, 4.078745260834694, 4.115827853791416, 4.070709968917072, 4.09149902081117, 4.0901930318214, 4.076149087399244, 4.061869658064097, 4.070274841040373, 4.112965729087591, 4.044327151030302, 4.082183835096657, 4.123631835915148, 4.053201007656753, 4.047934019006789, 4.063191638793796, 4.106949939858168, 4.059888040646911, 4.066299182828516, 4.103045423980802, 4.079595897812396, 4.108071370981634]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.061395308119245</v>
+        <v>4.074117654999718</v>
       </c>
       <c r="G24" t="n">
-        <v>4.057165213511325</v>
+        <v>4.073014226509258</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02199698748683833</v>
+        <v>0.02547887910291242</v>
       </c>
       <c r="I24" t="n">
-        <v>6525580.698384201</v>
+        <v>6517337.092935041</v>
       </c>
       <c r="J24" t="n">
-        <v>6908228</v>
+        <v>6908204</v>
       </c>
       <c r="K24" t="n">
-        <v>1271181.286460076</v>
+        <v>1281066.933490197</v>
       </c>
       <c r="L24" t="n">
         <v>2858</v>
       </c>
       <c r="M24" t="n">
-        <v>11451166</v>
+        <v>10120747</v>
       </c>
       <c r="N24" t="n">
-        <v>11451506</v>
+        <v>11451594</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
@@ -3001,32 +3049,32 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.0030907071195542812, 0.005075729917734861, 0.005721665918827057, 0.006083306856453419, 0.006831406848505139, 0.007168412208557129, 0.007147802039980888, 0.007181863067671657, 0.0071466302033513784, 0.0070325289852917194, 0.0070501340087503195, 0.007081873016431928, 0.00724523700773716, 0.007062603952363133, 0.007380940020084381, 0.00703709595836699, 0.006972779054194689, 0.007011118112131953, 0.007541529834270477, 0.007065577898174524, 0.007001873105764389, 0.006994881900027394, 0.007067842176184058, 0.007085999008268118, 0.007210034877061844, 0.0069192699156701565, 0.006965307984501123, 0.006939108949154615, 0.0069395790342241526, 0.006970115005970001, 0.007640229072421789, 0.006998257944360375, 0.006920651067048311, 0.007057315902784467, 0.006927401060238481, 0.006939169019460678, 0.006888224044814706, 0.006894022924825549, 0.006890296004712582, 0.007248611887916923, 0.006939419079571962, 0.006895483937114477, 0.006981221958994865, 0.006920291110873222, 0.006927361944690347, 0.006848544115200639, 0.006970525020733476, 0.006800430826842785, 0.006870367797091603, 0.006855633109807968]</t>
+          <t>[10.001748089678586, 10.000982041936368, 10.00100510334596, 10.001083195209503, 10.000876314938068, 10.001372552011162, 10.000959057826549, 10.001543915364891, 10.000849456992, 10.001669208984822, 10.001153624616563, 10.000860917847604, 10.000971597153693, 10.001083028968424, 10.001069997437298, 10.001199441961944, 10.00203930400312, 10.001776196062565, 10.001125069335103, 10.00114963715896, 10.000744914170355, 10.00197207601741, 10.00101263821125, 10.001068070996553, 10.001125186681747, 10.002235142979771, 10.000772560946643, 10.00158271100372, 10.001429521944374, 10.001273710280657, 10.002251889090985, 10.001127663068473, 10.002127405256033, 10.002012643031776, 10.000813179183751, 10.000988523941487, 10.001470169052482, 10.001644846983254, 10.001160659827292, 10.000855833757669, 10.001524354796857, 10.001523626036942, 10.001024443190545, 10.001643655821681, 10.001435459125787, 10.001265353988856, 10.000932074617594, 10.000738426111639, 10.003481516148895, 10.000920035410672]</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>0.006868728236295283</v>
+        <v>10.00133352085017</v>
       </c>
       <c r="T24" t="n">
-        <v>0.006971652037464082</v>
+        <v>10.00115163088776</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0006697041510961607</v>
+        <v>0.0005152743749461095</v>
       </c>
       <c r="V24" t="n">
-        <v>2930.32</v>
+        <v>24036.9354329753</v>
       </c>
       <c r="W24" t="n">
-        <v>2858</v>
+        <v>24031</v>
       </c>
       <c r="X24" t="n">
-        <v>124.4923471133705</v>
+        <v>7741.599042299289</v>
       </c>
       <c r="Y24" t="n">
         <v>2858</v>
       </c>
       <c r="Z24" t="n">
-        <v>3306</v>
+        <v>44576</v>
       </c>
       <c r="AA24" t="n">
         <v>64715</v>
@@ -3040,32 +3088,32 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[0.1435227261390537, 0.11090288893319666, 0.11229893006384373, 0.11116327997297049, 0.11112938891164958, 0.11117223207838833, 0.11099556810222566, 0.11153681785799563, 0.11177740897983313, 0.11127103003673255, 0.11114478204399347, 0.11132012400776148, 0.11107502598315477, 0.11229646601714194, 0.11195047711953521, 0.11252911412157118, 0.11131175211630762, 0.11263652518391609, 0.11147004901431501, 0.11108754598535597, 0.11133820097893476, 0.11152312788181007, 0.11119045014493167, 0.11111260205507278, 0.1120688240043819, 0.11135580809786916, 0.11140779592096806, 0.11262439703568816, 0.11195900104939938, 0.1114279949106276, 0.11127487593330443, 0.12544328905642033, 0.11195013695396483, 0.11186177493073046, 0.11212792294099927, 0.11158259701915085, 0.11146387783810496, 0.11126330797560513, 0.11144299688749015, 0.11175905098207295, 0.11234414810314775, 0.11226875497959554, 0.11143541499041021, 0.11141013796441257, 0.1110189228784293, 0.1116411651019007, 0.11119464598596096, 0.11113731982186437, 0.11158965807408094, 0.11122106621041894]</t>
+          <t>[0.12353310687467456, 0.12271469179540873, 0.12367767095565796, 0.12294292403385043, 0.12284715007990599, 0.12241035606712103, 0.12231123680248857, 0.12246904475614429, 0.12255228776484728, 0.12401074124500155, 0.1266370816156268, 0.12289778515696526, 0.1276877853088081, 0.12314675794914365, 0.12427835259586573, 0.12938013998791575, 0.12207030784338713, 0.12297950917854905, 0.12346997205168009, 0.12235071789473295, 0.12256723176687956, 0.12298079999163747, 0.12248436827212572, 0.12257585395127535, 0.12242268398404121, 0.12246128311380744, 0.12370301084592938, 0.12248647026717663, 0.12259828811511397, 0.1223480231128633, 0.1223461190238595, 0.12251906981691718, 0.12385715218260884, 0.1269664061255753, 0.12311389809474349, 0.12436688505113125, 0.1228338391520083, 0.12245620274916291, 0.1225484018214047, 0.12245045695453882, 0.12243281910195947, 0.12276292266324162, 0.12268930301070213, 0.12300515593960881, 0.1266968729905784, 0.12666866090148687, 0.12284370604902506, 0.12267099600285292, 0.12259898567572236, 0.12242640927433968]</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.1124806279875338</v>
+        <v>0.1233849979192018</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1114392059389502</v>
+        <v>0.1227388072293252</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.004911787044884796</v>
+        <v>0.001600448500438805</v>
       </c>
       <c r="AI24" t="n">
-        <v>9514.039702233251</v>
+        <v>9667.475555555555</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10418</v>
+        <v>10586</v>
       </c>
       <c r="AK24" t="n">
-        <v>2518.426105362445</v>
+        <v>2422.921741293876</v>
       </c>
       <c r="AL24" t="n">
         <v>2858</v>
       </c>
       <c r="AM24" t="n">
-        <v>11410</v>
+        <v>11202</v>
       </c>
       <c r="AN24" t="n">
         <v>25570</v>
@@ -3081,32 +3129,32 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[0.10728930798359215, 0.10658776783384383, 0.10671334597282112, 0.10591552197001874, 0.10769630782306194, 0.10651956591755152, 0.10573948896490037, 0.10681488807313144, 0.10663103382103145, 0.10653717303648591, 0.10601510084234178, 0.10607672203332186, 0.10599748487584293, 0.1066057460848242, 0.1067634210921824, 0.12084356998093426, 0.107245763996616, 0.10576515714637935, 0.10629763291217387, 0.10728413099423051, 0.10668700514361262, 0.10659468686208129, 0.10676302202045918, 0.10581577196717262, 0.10587790585123003, 0.10661898483522236, 0.106599175138399, 0.10613254783675075, 0.1060515649151057, 0.10662479395978153, 0.10655024205334485, 0.1065022291149944, 0.10667858296073973, 0.10639597196131945, 0.10587802599184215, 0.10614253091625869, 0.1061371429823339, 0.10599527088925242, 0.1066240519285202, 0.1061604090500623, 0.10605737403966486, 0.106543191941455, 0.10613099299371243, 0.10608787881210446, 0.10659838281571865, 0.11076397099532187, 0.10666936985217035, 0.10603268817067146, 0.10608447506092489, 0.10650747898034751]</t>
+          <t>[0.11700390372425318, 0.1083980887196958, 0.1073254351504147, 0.1072780922986567, 0.10860330937430263, 0.10726585332304239, 0.10735962633043528, 0.10703843412920833, 0.1073861438781023, 0.11106635257601738, 0.10753751080483198, 0.10667897621169686, 0.10800885735079646, 0.10806712508201599, 0.10786477010697126, 0.10806920565664768, 0.10662237089127302, 0.11614936403930187, 0.10704780928790569, 0.10685779293999076, 0.1068657748401165, 0.10675258608534932, 0.10666473489254713, 0.10716033587232232, 0.1084150061942637, 0.11153548676520586, 0.11092157708480954, 0.10774449026212096, 0.10962126962840557, 0.10840192530304193, 0.10834211576730013, 0.1074715219438076, 0.1080833780579269, 0.10702674696221948, 0.1167593258433044, 0.10749921295791864, 0.10787253314629197, 0.10726422304287553, 0.10710832802578807, 0.10766967991366982, 0.10738963913172483, 0.10750072402879596, 0.1074593341909349, 0.10698977019637823, 0.10771708935499191, 0.10711962496861815, 0.10832939716055989, 0.1068266169168055, 0.10749367298558354, 0.1075904406607151]</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>0.1067928970279172</v>
+        <v>0.1083045116811991</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.1065283694770187</v>
+        <v>0.1074999684933573</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.002160069266904448</v>
+        <v>0.002373213490882031</v>
       </c>
       <c r="AV24" t="n">
-        <v>7483.904761904761</v>
+        <v>7275.905</v>
       </c>
       <c r="AW24" t="n">
-        <v>7954</v>
+        <v>7814</v>
       </c>
       <c r="AX24" t="n">
-        <v>1920.447276435564</v>
+        <v>1757.062282800214</v>
       </c>
       <c r="AY24" t="n">
         <v>2858</v>
       </c>
       <c r="AZ24" t="n">
-        <v>11138</v>
+        <v>10378</v>
       </c>
       <c r="BA24" t="n">
         <v>15842</v>
@@ -3132,35 +3180,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[5.5818190921563655, 5.581289432942867, 5.571424177847803, 5.585851308889687, 5.605000334093347, 5.589419171912596, 5.575790352886543, 5.573074192972854, 5.616475855000317, 5.588138076942414, 5.575397026957944, 5.586243581958115, 5.561907193856314, 5.570827696938068, 5.569001070922241, 5.604108556872234, 5.580525517929345, 5.574416861869395, 5.6003948911093175, 5.591746390797198, 5.613469721982256, 5.578682990977541, 5.6058927059639245, 5.5820764801464975, 5.5854672661516815, 5.58477579196915, 5.575396800879389, 5.578239887952805, 5.559597481042147, 5.583023058017716, 5.571969483979046, 5.584844037890434, 5.586823804071173, 5.585453832056373, 5.577664915006608, 5.56923376605846, 5.632140861125663, 5.577487526927143, 5.548817249014974, 5.599835235159844, 5.576873903162777, 5.5952217248268425, 5.618076180107892, 5.599797199014574, 5.584521227050573, 5.584725155029446, 5.609542490914464, 5.553172790911049, 5.543812602991238, 5.5644670878537]</t>
+          <t>[5.594773031771183, 5.580503942910582, 5.589191155973822, 5.58681190572679, 5.589851497206837, 5.60068066092208, 5.567532059270889, 5.585060860961676, 5.616050782613456, 5.599553678650409, 5.579097928013653, 5.589183199685067, 5.625642980914563, 5.5911343661136925, 5.572100026067346, 5.603131502401084, 5.574899903964251, 5.662074713036418, 5.608758864924312, 5.584110491909087, 5.5739024160429835, 5.5907648811116815, 5.5896577490493655, 5.591489125974476, 5.579099362716079, 5.614194951020181, 5.578592502977699, 5.56183466501534, 5.587880508042872, 5.6120404792018235, 5.600347621832043, 5.584415478166193, 5.60896646277979, 5.574769121129066, 5.582851985935122, 5.6399344792589545, 5.608133683912456, 5.5812464016489685, 5.5982379438355565, 5.60126332892105, 5.6215548207983375, 5.590817399322987, 5.581243184860796, 5.596157636959106, 5.591455354820937, 5.595297123771161, 5.58527378924191, 5.569385846145451, 5.567223897203803, 5.622344904113561]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.583879080861807</v>
+        <v>5.593610413176939</v>
       </c>
       <c r="G25" t="n">
-        <v>5.582549769082107</v>
+        <v>5.590308189159259</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01763604889663555</v>
+        <v>0.01915921879773991</v>
       </c>
       <c r="I25" t="n">
-        <v>6628937.198186627</v>
+        <v>6624225.13197433</v>
       </c>
       <c r="J25" t="n">
-        <v>6910132</v>
+        <v>6910028</v>
       </c>
       <c r="K25" t="n">
-        <v>1091009.383620003</v>
+        <v>1098376.41853414</v>
       </c>
       <c r="L25" t="n">
         <v>2858</v>
       </c>
       <c r="M25" t="n">
-        <v>11192774</v>
+        <v>11193270</v>
       </c>
       <c r="N25" t="n">
-        <v>11451282</v>
+        <v>11451410</v>
       </c>
       <c r="O25" t="n">
         <v>14</v>
@@ -3171,32 +3219,32 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.0031009630765765905, 0.0029149840120226145, 0.0028925598599016666, 0.004730632063001394, 0.006127933971583843, 0.005652180872857571, 0.007080178940668702, 0.00708169094286859, 0.007099085953086615, 0.007100258022546768, 0.0070931578520685434, 0.007125345058739185, 0.007120419992133975, 0.007127378834411502, 0.007063592784106731, 0.0071489810943603516, 0.007100398885086179, 0.006958788027986884, 0.007651543943211436, 0.0070373439230024815, 0.007144636008888483, 0.007038805866613984, 0.0069263780023902655, 0.007074790075421333, 0.007146238815039396, 0.0069578459952026606, 0.007146999007090926, 0.006894711870700121, 0.006953920004889369, 0.006907218834385276, 0.006936813006177545, 0.006946759065613151, 0.0068365351762622595, 0.006903884932398796, 0.006853167898952961, 0.006911295931786299, 0.006912728073075414, 0.006833520019426942, 0.007155461004003882, 0.007635348942130804, 0.006918295985087752, 0.007153659127652645, 0.006905137095600367, 0.006961511913686991, 0.006977924844250083, 0.006805888842791319, 0.006781680975109339, 0.0068180670496076345, 0.006910345051437616, 0.006841141963377595]</t>
+          <t>[10.002779958769679, 10.001110043842345, 10.001278641168028, 10.000900200102478, 10.001747534610331, 10.001347711775452, 10.000857756007463, 10.00168704520911, 10.000987375155091, 10.001127806026489, 10.001530879177153, 10.003184362780303, 10.00111503712833, 10.000980178359896, 10.00153735280037, 10.001015515998006, 10.001657331362367, 10.002091913018376, 10.000955838244408, 10.001608708873391, 10.002696621697396, 10.001372506376356, 10.00154703296721, 10.0010159551166, 10.001598414033651, 10.000807018019259, 10.000986923929304, 10.000826811883599, 10.00087061803788, 10.000917918048799, 10.001495732925832, 10.002032233867794, 10.000841053202748, 10.003197079058737, 10.001176906283945, 10.001582155004144, 10.001561836339533, 10.001348379068077, 10.0009177881293, 10.001328696962446, 10.001066095661372, 10.001188050955534, 10.001372680999339, 10.001059997361153, 10.001681321766227, 10.001022110693157, 10.001565247774124, 10.000760989729315, 10.001745820045471, 10.001949340105057]</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>0.006687962589785457</v>
+        <v>10.00142069052905</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006955883000046015</v>
+        <v>10.00133820436895</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001040016468733478</v>
+        <v>0.0005766306787231433</v>
       </c>
       <c r="V25" t="n">
-        <v>2930.32</v>
+        <v>23927.48480160175</v>
       </c>
       <c r="W25" t="n">
-        <v>2858</v>
+        <v>23879</v>
       </c>
       <c r="X25" t="n">
-        <v>124.4923471133705</v>
+        <v>7735.160878581283</v>
       </c>
       <c r="Y25" t="n">
         <v>2858</v>
       </c>
       <c r="Z25" t="n">
-        <v>3306</v>
+        <v>43526</v>
       </c>
       <c r="AA25" t="n">
         <v>64715</v>
@@ -3210,32 +3258,32 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[0.15461533516645432, 0.1119886829983443, 0.1118654680904001, 0.11153210001066327, 0.11146233486942947, 0.1115039479918778, 0.11117853014729917, 0.1122335100080818, 0.11201781686395407, 0.11234097112901509, 0.11158989719115198, 0.1114573678933084, 0.11100111389532685, 0.11111530498601496, 0.11098667304031551, 0.11128000309690833, 0.11110113491304219, 0.11140174488537014, 0.11262748786248267, 0.12206284399144351, 0.11357856402173638, 0.1141396639868617, 0.11352263810113072, 0.11414584098383784, 0.11475807009264827, 0.11488426802679896, 0.11364256916567683, 0.1126741599291563, 0.11256401403807104, 0.11306975199840963, 0.11206750106066465, 0.1115392108913511, 0.11160321603529155, 0.111359080998227, 0.11086414894089103, 0.11106225592084229, 0.11123937205411494, 0.11206349497660995, 0.11106786387972534, 0.1113669821061194, 0.11109340307302773, 0.11105349310673773, 0.11068243789486587, 0.11125107994303107, 0.11091557587496936, 0.11101212189532816, 0.11080326815135777, 0.11245562206022441, 0.11107092001475394, 0.11242451518774033]</t>
+          <t>[0.11221270216628909, 0.11711714183911681, 0.11238649114966393, 0.1151809343136847, 0.11338386405259371, 0.11356651736423373, 0.1121342838741839, 0.11260450724512339, 0.11219181958585978, 0.11221551476046443, 0.11201451579108834, 0.11174451094120741, 0.11190097499638796, 0.11197257088497281, 0.11203086795285344, 0.11241073813289404, 0.11219702661037445, 0.11199805978685617, 0.1121801920235157, 0.11188159510493279, 0.11208322737365961, 0.11229751817882061, 0.11195567576214671, 0.11219295021146536, 0.11227389285340905, 0.11232475796714425, 0.11219415394589305, 0.11214751284569502, 0.11234899517148733, 0.11228791298344731, 0.11195504572242498, 0.11282491590827703, 0.11666401382535696, 0.11258616903796792, 0.11228644195944071, 0.12946636509150267, 0.11263294983655214, 0.11198557075113058, 0.11321161594241858, 0.11286340467631817, 0.11300637805834413, 0.11250393697991967, 0.11353495111688972, 0.11338689783588052, 0.11358942091464996, 0.11734889773651958, 0.11237068613991141, 0.11474116705358028, 0.11295843683183193, 0.11277849692851305]</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>0.1129867474688217</v>
+        <v>0.1131625437643379</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1115356554510072</v>
+        <v>0.1123368765693158</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.006265879049657126</v>
+        <v>0.002676723109736916</v>
       </c>
       <c r="AI25" t="n">
-        <v>9499.841584158416</v>
+        <v>9521.281795511222</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10418</v>
+        <v>10450</v>
       </c>
       <c r="AK25" t="n">
-        <v>2517.087657903808</v>
+        <v>2522.942687199368</v>
       </c>
       <c r="AL25" t="n">
         <v>2858</v>
       </c>
       <c r="AM25" t="n">
-        <v>11586</v>
+        <v>11282</v>
       </c>
       <c r="AN25" t="n">
         <v>25570</v>
@@ -3249,32 +3297,32 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>[0.10663202498108149, 0.10603752406314015, 0.10746149718761444, 0.10623496118932962, 0.10617428901605308, 0.10599576192907989, 0.10603151703253388, 0.10597774502821267, 0.10617920709773898, 0.10598188196308911, 0.10672035603784025, 0.10626130900345743, 0.10611904598772526, 0.10607814509421587, 0.10573636298067868, 0.10593475098721683, 0.10579320881515741, 0.10685164295136929, 0.11568984412588179, 0.10581652401015162, 0.10579293896444142, 0.10602075885981321, 0.10596847115084529, 0.10606796899810433, 0.10601417906582355, 0.10687087196856737, 0.10624117916449904, 0.10599381802603602, 0.10578893194906414, 0.10610775998793542, 0.10888844192959368, 0.10630374192260206, 0.10549163701944053, 0.10585423978045583, 0.10611983691342175, 0.10566198197193444, 0.10595688410103321, 0.10706202895380557, 0.10599319892935455, 0.10582155990414321, 0.10658930987119675, 0.10632160911336541, 0.10702157812193036, 0.10595119395293295, 0.10584655893035233, 0.10606403392739594, 0.10696239792741835, 0.10622739791870117, 0.10602665902115405, 0.1058500639628619]</t>
+          <t>[0.10899892076849937, 0.11042767995968461, 0.10836740583181381, 0.10779015114530921, 0.10768040688708425, 0.10716739995405078, 0.10764770908281207, 0.10741397785022855, 0.10734101897105575, 0.10762602696195245, 0.10766848921775818, 0.1075348099693656, 0.10740753822028637, 0.10765878483653069, 0.10748416278511286, 0.11326966201886535, 0.1070723170414567, 0.10750532522797585, 0.10702304309234023, 0.10713273799046874, 0.10866475105285645, 0.11379157472401857, 0.10720361303538084, 0.10742569714784622, 0.10953055741265416, 0.10731567116454244, 0.10847156215459108, 0.10760878026485443, 0.10701872641220689, 0.10727576306089759, 0.10754104796797037, 0.10738799907267094, 0.10772932088002563, 0.10781829385086894, 0.10771354660391808, 0.10743327671661973, 0.10723515972495079, 0.10756102902814746, 0.10745025193318725, 0.10695760510861874, 0.10866344906389713, 0.11167757911607623, 0.10719473194330931, 0.10751111386343837, 0.10726558743044734, 0.10700385505333543, 0.10738157015293837, 0.10776174906641245, 0.10721320705488324, 0.10734314098954201]</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>0.1064117766357958</v>
+        <v>0.1079673555772752</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.106050778995268</v>
+        <v>0.1075082195457071</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.00144989158722867</v>
+        <v>0.001437487226469543</v>
       </c>
       <c r="AV25" t="n">
-        <v>7220.880886426593</v>
+        <v>7250.0325</v>
       </c>
       <c r="AW25" t="n">
-        <v>7842</v>
+        <v>7714</v>
       </c>
       <c r="AX25" t="n">
-        <v>1813.017187420918</v>
+        <v>1711.556136228785</v>
       </c>
       <c r="AY25" t="n">
         <v>2858</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9818</v>
+        <v>8946</v>
       </c>
       <c r="BA25" t="n">
         <v>15842</v>
@@ -3298,35 +3346,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[6.1422999911010265, 6.146799560170621, 6.144393039867282, 6.11855836911127, 6.1515880359802395, 6.133809585822746, 6.135004566051066, 6.150409610942006, 6.111098256893456, 6.161308893933892, 6.143241122132167, 6.116020127898082, 6.134314367780462, 6.146483666962013, 6.177497077966109, 6.127115434966981, 6.11259102798067, 6.122540225973353, 6.122965637827292, 6.127949706045911, 6.13375192694366, 6.16276079392992, 6.112887124996632, 6.1428954808507115, 6.1447796379216015, 6.122788015985861, 6.129680451005697, 6.1088840761221945, 6.135208741063252, 6.128885461948812, 6.1134246659930795, 6.1663254799786955, 6.115923782810569, 6.120576313929632, 6.141643578186631, 6.140665821963921, 6.105859348084778, 6.132043151883408, 6.147708658827469, 6.1258878039661795, 6.131958230165765, 6.104608219116926, 6.12618120200932, 6.1476868209429085, 6.114219705108553, 6.164146898081526, 6.183541498845443, 6.134663194883615, 6.114249257836491, 6.158332251943648]</t>
+          <t>[6.145625901874155, 6.115031116176397, 6.127537989988923, 6.13234055088833, 6.117297904100269, 6.1203529122285545, 6.12511573638767, 6.201677851844579, 6.160619956906885, 6.128830472007394, 6.137162727303803, 6.143871713895351, 6.126418579369783, 6.084300635848194, 6.161597860977054, 6.134249644819647, 6.122578504029661, 6.174333642236888, 6.112392128910869, 6.123548903036863, 6.085994602181017, 6.119455880019814, 6.100718721747398, 6.136384097859263, 6.161790111102164, 6.150543462950736, 6.115141015034169, 6.136767719406635, 6.165238026063889, 6.094496091362089, 6.140221745707095, 6.145546393934637, 6.1627929620444775, 6.101826359052211, 6.107907136902213, 6.138619582168758, 6.122341835871339, 6.121730607002974, 6.1402323939837515, 6.125968113075942, 6.138743642251939, 6.095101718790829, 6.14686639374122, 6.134478819090873, 6.137367849703878, 6.217960630077869, 6.12902091210708, 6.136104039847851, 6.110904320143163, 6.153387110680342]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.134763118014671</v>
+        <v>6.133370740534738</v>
       </c>
       <c r="G26" t="n">
-        <v>6.133780756383203</v>
+        <v>6.133295097853988</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01857376367597995</v>
+        <v>0.02575921228495861</v>
       </c>
       <c r="I26" t="n">
-        <v>6657986.957696787</v>
+        <v>6653597.152543535</v>
       </c>
       <c r="J26" t="n">
-        <v>6913624</v>
+        <v>6912932</v>
       </c>
       <c r="K26" t="n">
-        <v>1042897.336131252</v>
+        <v>1050873.291078099</v>
       </c>
       <c r="L26" t="n">
         <v>2858</v>
       </c>
       <c r="M26" t="n">
-        <v>11451598</v>
+        <v>10120307</v>
       </c>
       <c r="N26" t="n">
-        <v>11451662</v>
+        <v>11451594</v>
       </c>
       <c r="O26" t="n">
         <v>15</v>
@@ -3337,32 +3385,32 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.00312893302179873, 0.002949104178696871, 0.005345822079107165, 0.005648875143378973, 0.005556205986067653, 0.007227689027786255, 0.0071687300223857164, 0.006990012945607305, 0.007079325150698423, 0.007035320857539773, 0.007166085997596383, 0.007071885978803039, 0.007022812031209469, 0.0069633228704333305, 0.00710660801269114, 0.007051684893667698, 0.007011344889178872, 0.007277883822098374, 0.007640436990186572, 0.007027940126135945, 0.007028941996395588, 0.007003104081377387, 0.007113928906619549, 0.007049059960991144, 0.006943132029846311, 0.0069549898616969585, 0.006999886827543378, 0.007010333007201552, 0.00700285192579031, 0.006923353066667914, 0.006833488121628761, 0.006845507072284818, 0.006965707056224346, 0.0068457170855253935, 0.006867400137707591, 0.006835670908913016, 0.006971084047108889, 0.006929913070052862, 0.006903132889419794, 0.007084003882482648, 0.0068609388545155525, 0.006862791953608394, 0.006908090086653829, 0.00676610809750855, 0.006772627122700214, 0.006786597892642021, 0.006881301058456302, 0.006814438849687576, 0.0068701321724802256, 0.006760890129953623]</t>
+          <t>[10.001788429915905, 10.001035246998072, 10.001759863924235, 10.001984525006264, 10.001688084099442, 10.000953905750066, 10.00164337316528, 10.001380723901093, 10.001677641645074, 10.001493238843977, 10.001279923133552, 10.001147272996604, 10.00163421081379, 10.00170317478478, 10.001270482782274, 10.001981820911169, 10.00197747303173, 10.001397529616952, 10.001247956883162, 10.00195838790387, 10.00099844392389, 10.001532963942736, 10.003192894160748, 10.000764446798712, 10.000813685823232, 10.000787949189544, 10.000941284932196, 10.00121548678726, 10.002545865252614, 10.001509984955192, 10.000959356781095, 10.001435250043869, 10.00198839372024, 10.002128814347088, 10.00082828104496, 10.000970211811364, 10.00124516710639, 10.001398975029588, 10.001883612014353, 10.000879754312336, 10.00096789561212, 10.001045764889568, 10.001250127330422, 10.000683639664203, 10.001454459037632, 10.001404291950166, 10.001339836977422, 10.000991149805486, 10.00087536405772, 10.001284949947149]</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0.006737302923575043</v>
+        <v>10.00140643134713</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006959156366065145</v>
+        <v>10.00136028043926</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008536554867325673</v>
+        <v>0.0004935782802444542</v>
       </c>
       <c r="V26" t="n">
-        <v>2930.32</v>
+        <v>23931.1323101189</v>
       </c>
       <c r="W26" t="n">
-        <v>2858</v>
+        <v>23927</v>
       </c>
       <c r="X26" t="n">
-        <v>124.4923471133705</v>
+        <v>7718.050146560221</v>
       </c>
       <c r="Y26" t="n">
         <v>2858</v>
       </c>
       <c r="Z26" t="n">
-        <v>3306</v>
+        <v>45104</v>
       </c>
       <c r="AA26" t="n">
         <v>64715</v>
@@ -3376,32 +3424,32 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>[0.14299177820794284, 0.1113561331294477, 0.11127387103624642, 0.11124175204895437, 0.11160820117220283, 0.11159668280743062, 0.11159827513620257, 0.11201891605742276, 0.11492167017422616, 0.12063580402173102, 0.11197085399180651, 0.12268878682516515, 0.11101144808344543, 0.11113350000232458, 0.11135701509192586, 0.11172998393885791, 0.11346531100571156, 0.11117523303255439, 0.11871496890671551, 0.11146884202025831, 0.11155206803232431, 0.11114257294684649, 0.11171846510842443, 0.11162927187979221, 0.11140672885812819, 0.11118069081567228, 0.11120465584099293, 0.11114844214171171, 0.11158593697473407, 0.11140881292521954, 0.11107516288757324, 0.11135620390996337, 0.1113329790532589, 0.11240853904746473, 0.11118538794107735, 0.11138037103228271, 0.11126189213246107, 0.11179877608083189, 0.11126185208559036, 0.1310014300979674, 0.11127616395242512, 0.1112595081795007, 0.11203996697440743, 0.11120853293687105, 0.11133767501451075, 0.11115241795778275, 0.11220625601708889, 0.11199336708523333, 0.11156951216980815, 0.12045474210754037]</t>
+          <t>[0.12194164376705885, 0.11238648323342204, 0.11328750289976597, 0.11221779091283679, 0.11588719626888633, 0.11223035817965865, 0.11896385392174125, 0.11233088094741106, 0.1127032870426774, 0.11321518523618579, 0.11347314016893506, 0.11347094783559442, 0.11276282602921128, 0.11256160587072372, 0.11231428431347013, 0.11232875706627965, 0.113635562825948, 0.11229029903188348, 0.11213796120136976, 0.11186843691393733, 0.11188982892781496, 0.11189079098403454, 0.1121302880346775, 0.1129989200271666, 0.1120340651832521, 0.11219728924334049, 0.11216204799711704, 0.11250756215304136, 0.11233641672879457, 0.11242206627503037, 0.1122013358399272, 0.11217069858685136, 0.11234718421474099, 0.11210439028218389, 0.11232740478590131, 0.11279956018552184, 0.11244080401957035, 0.11217737896367908, 0.11225868109613657, 0.11247153859585524, 0.11225784011185169, 0.113464186899364, 0.11655342299491167, 0.11239641811698675, 0.11225933069363236, 0.11449045268818736, 0.11249897070229053, 0.12375742290169, 0.13858685223385692, 0.11215477529913187]</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0.1133299481775612</v>
+        <v>0.1137259185686707</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1114388274727389</v>
+        <v>0.1123668337240815</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.005652454571884485</v>
+        <v>0.004294234934703111</v>
       </c>
       <c r="AI26" t="n">
-        <v>10197.36633663366</v>
+        <v>10258.9504950495</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11218</v>
+        <v>11250</v>
       </c>
       <c r="AK26" t="n">
-        <v>2785.765518314975</v>
+        <v>2781.746508088093</v>
       </c>
       <c r="AL26" t="n">
         <v>2858</v>
       </c>
       <c r="AM26" t="n">
-        <v>13506</v>
+        <v>12666</v>
       </c>
       <c r="AN26" t="n">
         <v>26370</v>
@@ -3415,32 +3463,32 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>[0.10642503201961517, 0.10665824101306498, 0.10664081503637135, 0.10600248980335891, 0.10628457204438746, 0.10633016005158424, 0.10575705184601247, 0.1063976320438087, 0.10800845292396843, 0.10678278584964573, 0.10629339492879808, 0.10624389979057014, 0.10668409895151854, 0.1110745519399643, 0.1067220470868051, 0.10832585697062314, 0.10648334911093116, 0.1063342159613967, 0.10672643315047026, 0.11353408289141953, 0.10591074218973517, 0.10620044497773051, 0.10586449317634106, 0.1062296589370817, 0.10587528999894857, 0.1058520048391074, 0.10612690495327115, 0.10651481593959033, 0.10568121890537441, 0.10614174790680408, 0.10648855706676841, 0.10603119293227792, 0.10602630488574505, 0.10613483795896173, 0.10580063704401255, 0.10622085584327579, 0.1059529660269618, 0.10872831009328365, 0.1181171031203121, 0.10594234010204673, 0.10634715505875647, 0.10657738009467721, 0.10756215499714017, 0.10674167610704899, 0.10680614202283323, 0.10588303115218878, 0.10628149705007672, 0.10592288197949529, 0.10595726012252271, 0.10702653299085796]</t>
+          <t>[0.10732493130490184, 0.1073263930156827, 0.1071553872898221, 0.10795817896723747, 0.10774938715621829, 0.10932117188349366, 0.10747681930661201, 0.10764386784285307, 0.11156375939026475, 0.10753527516499162, 0.10717756114900112, 0.1094877291470766, 0.10800395673140883, 0.1075622159987688, 0.10838468885049224, 0.1073834989219904, 0.10901053389534354, 0.10804100381210446, 0.10674627404659986, 0.11213138792663813, 0.10700085619464517, 0.10895667318254709, 0.13566716900095344, 0.10718163708224893, 0.10749348299577832, 0.10769907105714083, 0.10708941705524921, 0.10757061885669827, 0.10708377882838249, 0.10717487568035722, 0.10709000797942281, 0.10737920086830854, 0.10796814318746328, 0.10821863915771246, 0.10822188295423985, 0.10738415876403451, 0.10764737287536263, 0.10761262103915215, 0.10731439385563135, 0.10723369289189577, 0.10780252609401941, 0.10675751976668835, 0.10696465009823442, 0.10670795571058989, 0.1069859229028225, 0.10725049814209342, 0.10723358299583197, 0.10675265407189727, 0.10693104099482298, 0.10688254795968533]</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>0.1068931060377508</v>
+        <v>0.1082848122809082</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.1063117774901912</v>
+        <v>0.1074304890353233</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.002102263617317573</v>
+        <v>0.004091739122269089</v>
       </c>
       <c r="AV26" t="n">
-        <v>8011.448648648648</v>
+        <v>7945.940149625935</v>
       </c>
       <c r="AW26" t="n">
-        <v>8642</v>
+        <v>8514</v>
       </c>
       <c r="AX26" t="n">
-        <v>2075.660048822374</v>
+        <v>1969.379905302422</v>
       </c>
       <c r="AY26" t="n">
         <v>2858</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11386</v>
+        <v>9746</v>
       </c>
       <c r="BA26" t="n">
         <v>15842</v>
